--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="7365" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
     <sheet name="ecoliT2" sheetId="2" r:id="rId2"/>
     <sheet name="ecoliT3" sheetId="3" r:id="rId3"/>
     <sheet name="ecoliT4" sheetId="4" r:id="rId4"/>
+    <sheet name="ecoliT5" sheetId="6" r:id="rId5"/>
+    <sheet name="ecoliT6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="87">
   <si>
     <t>Enzymes</t>
   </si>
@@ -236,6 +239,69 @@
   </si>
   <si>
     <t>[c] : 0.0709 f6p + 0.2050 g6p + 0.1290 g3p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass</t>
+  </si>
+  <si>
+    <t>'glc[c]'</t>
+  </si>
+  <si>
+    <t>'g6p[c]'</t>
+  </si>
+  <si>
+    <t>'f6p[c]'</t>
+  </si>
+  <si>
+    <t>'atp[c]'</t>
+  </si>
+  <si>
+    <t>'adp[c]'</t>
+  </si>
+  <si>
+    <t>'fdp[c]'</t>
+  </si>
+  <si>
+    <t>'h[c]'</t>
+  </si>
+  <si>
+    <t>'pep[c]'</t>
+  </si>
+  <si>
+    <t>'pyr[c]'</t>
+  </si>
+  <si>
+    <t>'glc[e]'</t>
+  </si>
+  <si>
+    <t>'pyr[e]'</t>
+  </si>
+  <si>
+    <t>'h[e]'</t>
+  </si>
+  <si>
+    <t>'Biomass'</t>
+  </si>
+  <si>
+    <t>'g3p[c]'</t>
+  </si>
+  <si>
+    <t>'pi[c]'</t>
+  </si>
+  <si>
+    <t>'pi[e]'</t>
+  </si>
+  <si>
+    <t>[c] : fdp &lt;==&gt; dhap + g3p</t>
+  </si>
+  <si>
+    <t>Exdhap</t>
+  </si>
+  <si>
+    <t>dhap[c] &lt;==&gt; dhap[e]</t>
+  </si>
+  <si>
+    <t>dhap[c]</t>
+  </si>
+  <si>
+    <t>dhap[e]</t>
   </si>
 </sst>
 </file>
@@ -1577,13 +1643,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -1680,10 +1745,10 @@
         <v>20</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>8.0678728087165403</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>8.0678728087165403</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1707,10 +1772,10 @@
         <v>23</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>1.8143283990507899</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>1.8143283990507899</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1734,10 +1799,10 @@
         <v>26</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>3.6641332633253501</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>3.6641332633253501</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1761,10 +1826,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>3.8003899941152701</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>3.8003899941152701</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1815,10 +1880,10 @@
         <v>51</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2.8913542898145601</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>2.8913542898145601</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1836,10 +1901,10 @@
         <v>41</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>4.7273613124650202</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>4.7273613124650202</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1853,10 +1918,10 @@
         <v>38</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>7.1387340060907496</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>7.1387340060907496</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1870,10 +1935,10 @@
         <v>32</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>8.8068596116778401</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>8.8068596116778401</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1887,10 +1952,10 @@
         <v>47</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1.3230003719961001</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>1.3230003719961001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1939,5 +2004,995 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>-9.1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>8.0678728087165403</v>
+      </c>
+      <c r="P3">
+        <v>8.0678728087165403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="E4" s="5">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>1.8143283990507899</v>
+      </c>
+      <c r="P4">
+        <v>1.8143283990507899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="5">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-3.8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>3.6641332633253501</v>
+      </c>
+      <c r="P5">
+        <v>3.6641332633253501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="E6" s="5">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>3.8003899941152701</v>
+      </c>
+      <c r="P6">
+        <v>3.8003899941152701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="5">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" s="5">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>2.8913542898145601</v>
+      </c>
+      <c r="P8">
+        <v>2.8913542898145601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9">
+        <v>4.7273613124650202</v>
+      </c>
+      <c r="P9">
+        <v>4.7273613124650202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>7.1387340060907496</v>
+      </c>
+      <c r="P10">
+        <v>7.1387340060907496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>8.8068596116778401</v>
+      </c>
+      <c r="P11">
+        <v>8.8068596116778401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>1.3230003719961001</v>
+      </c>
+      <c r="P12">
+        <v>1.3230003719961001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>-9.1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>8.0678728087165403</v>
+      </c>
+      <c r="P3">
+        <v>8.0678728087165403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="E4" s="5">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>1.8143283990507899</v>
+      </c>
+      <c r="P4">
+        <v>1.8143283990507899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="5">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-3.8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>3.6641332633253501</v>
+      </c>
+      <c r="P5">
+        <v>3.6641332633253501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="E6" s="5">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>3.8003899941152701</v>
+      </c>
+      <c r="P6">
+        <v>3.8003899941152701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="5">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" s="5">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8">
+        <v>2.8913542898145601</v>
+      </c>
+      <c r="P8">
+        <v>2.8913542898145601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9">
+        <v>4.7273613124650202</v>
+      </c>
+      <c r="P9">
+        <v>4.7273613124650202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>7.1387340060907496</v>
+      </c>
+      <c r="P10">
+        <v>7.1387340060907496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>8.8068596116778401</v>
+      </c>
+      <c r="P11">
+        <v>8.8068596116778401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>1.3230003719961001</v>
+      </c>
+      <c r="P12">
+        <v>1.3230003719961001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>1.2297630041444501</v>
+      </c>
+      <c r="P14">
+        <v>1.2297630041444501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>3.6806736743871902</v>
+      </c>
+      <c r="P15">
+        <v>3.6806736743871902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1">
+        <v>2.8913542898145601</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1">
+        <v>2.8913542900000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>8.0678728087165403</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>8.0678728090000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>3.8003899941152701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>3.8003899940000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>4.7273613124650202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>4.7273613120000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>7.1387340060907496</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>7.138734006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>8.8068596116778401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>8.8068596120000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>1.3230003719961001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>1.3230003720000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>1.8143283990507899</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>1.2297630041444501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>3.6641332633253501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>3.6806736743871902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>18.846306066075201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <v>1.8143283990000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>3.6641332630000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>15.1961386437422</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>18.047004226458601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>3.0097550929400501</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>21.732329558999499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>22.7974109757345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>0.196906799173831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="7365" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
   <si>
     <t>Enzymes</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>dhap[e]</t>
+  </si>
+  <si>
+    <t>glc[c] + pep[c] ---&gt; g6p[c] + pyr[c]</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -2382,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
     <sheet name="ecoliT2" sheetId="2" r:id="rId2"/>
-    <sheet name="ecoliT3" sheetId="3" r:id="rId3"/>
-    <sheet name="ecoliT4" sheetId="4" r:id="rId4"/>
-    <sheet name="ecoliT5" sheetId="6" r:id="rId5"/>
-    <sheet name="ecoliT6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
+    <sheet name="ecoliT7" sheetId="8" r:id="rId3"/>
+    <sheet name="ecoliT3" sheetId="3" r:id="rId4"/>
+    <sheet name="ecoliT4" sheetId="4" r:id="rId5"/>
+    <sheet name="ecoliT5" sheetId="6" r:id="rId6"/>
+    <sheet name="ecoliT6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="102">
   <si>
     <t>Enzymes</t>
   </si>
@@ -305,6 +306,48 @@
   </si>
   <si>
     <t>glc[c] + pep[c] ---&gt; g6p[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>glc[e] + atp[c] ---&gt; g6p[c] + adp[c]</t>
+  </si>
+  <si>
+    <t>[c] : f6p + atp ---&gt; fdp + adp</t>
+  </si>
+  <si>
+    <t>[c] : dhap &lt;==&gt; g3p</t>
+  </si>
+  <si>
+    <t>[c] : g3p + adp ---&gt; pep + atp</t>
+  </si>
+  <si>
+    <t>[c] : pep + adp ---&gt; pyr + atp</t>
+  </si>
+  <si>
+    <t>gapd</t>
+  </si>
+  <si>
+    <t>tpi</t>
+  </si>
+  <si>
+    <t>fba</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>glcEX</t>
+  </si>
+  <si>
+    <t>glc[e] + pep[c] ---&gt; g6p[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>[c] : atp + 0.0709 f6p + 0.2050 g6p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + adp + pi</t>
+  </si>
+  <si>
+    <t>piEX</t>
+  </si>
+  <si>
+    <t>[c] : pi[c] &lt;==&gt; pi[e]</t>
   </si>
 </sst>
 </file>
@@ -709,7 +752,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1084,15 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-53.5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" t="s">
         <v>49</v>
       </c>
@@ -1083,7 +1135,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,6 +1379,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1335,6 +1388,319 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-22.38</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="5">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>-21.27</v>
+      </c>
+      <c r="G4">
+        <v>7.47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6">
+        <v>22.83</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-6.4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>14.72</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-31.7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2011,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2381,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -2778,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
     <sheet name="ecoliT2" sheetId="2" r:id="rId2"/>
     <sheet name="ecoliT7" sheetId="8" r:id="rId3"/>
-    <sheet name="ecoliT3" sheetId="3" r:id="rId4"/>
-    <sheet name="ecoliT4" sheetId="4" r:id="rId5"/>
-    <sheet name="ecoliT5" sheetId="6" r:id="rId6"/>
-    <sheet name="ecoliT6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId8"/>
+    <sheet name="ecoliT8" sheetId="9" r:id="rId4"/>
+    <sheet name="ecoliT3" sheetId="3" r:id="rId5"/>
+    <sheet name="ecoliT4" sheetId="4" r:id="rId6"/>
+    <sheet name="ecoliT5" sheetId="6" r:id="rId7"/>
+    <sheet name="ecoliT6" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="122">
   <si>
     <t>Enzymes</t>
   </si>
@@ -200,12 +201,6 @@
     <t>glc[c]</t>
   </si>
   <si>
-    <t>[c] : f6p &lt;==&gt; pyr</t>
-  </si>
-  <si>
-    <t>[c] : pyr &lt;==&gt; pep</t>
-  </si>
-  <si>
     <t>pfk</t>
   </si>
   <si>
@@ -317,9 +312,6 @@
     <t>[c] : dhap &lt;==&gt; g3p</t>
   </si>
   <si>
-    <t>[c] : g3p + adp ---&gt; pep + atp</t>
-  </si>
-  <si>
     <t>[c] : pep + adp ---&gt; pyr + atp</t>
   </si>
   <si>
@@ -348,6 +340,75 @@
   </si>
   <si>
     <t>[c] : pi[c] &lt;==&gt; pi[e]</t>
+  </si>
+  <si>
+    <t>[c] : g3p + adp + nad ---&gt; pep + atp + nadh</t>
+  </si>
+  <si>
+    <t>nad[c]</t>
+  </si>
+  <si>
+    <t>nadh[c]</t>
+  </si>
+  <si>
+    <t>[c] : g6p + atp &lt;==&gt; g3p + adp</t>
+  </si>
+  <si>
+    <t>EXpi</t>
+  </si>
+  <si>
+    <t>EXglc</t>
+  </si>
+  <si>
+    <t>'nad[c]'</t>
+  </si>
+  <si>
+    <t>'nadh[c]'</t>
+  </si>
+  <si>
+    <t>EXpep</t>
+  </si>
+  <si>
+    <t>pep[c] &lt;==&gt; pep[e]</t>
+  </si>
+  <si>
+    <t>[c] : g3p + adp + nad ---&gt; pep + atp + nadh + h</t>
+  </si>
+  <si>
+    <t>lacY</t>
+  </si>
+  <si>
+    <t>[c] : pyr + nadh + h ---&gt; lac + nad</t>
+  </si>
+  <si>
+    <t>EXlac</t>
+  </si>
+  <si>
+    <t>lac[c] ---&gt; lac[e]</t>
+  </si>
+  <si>
+    <t>[c] : 59.8 atp + 0.2050 g6p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + 59.8 adp + 59.8 pi</t>
+  </si>
+  <si>
+    <t>lac[c]</t>
+  </si>
+  <si>
+    <t>[c] : atp + 0.2759 g6p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + adp</t>
+  </si>
+  <si>
+    <t>lac[e]</t>
+  </si>
+  <si>
+    <t>[c] : atp + g6p + pep + pyr ---&gt; Biomass + adp</t>
+  </si>
+  <si>
+    <t>[c] : g6p + atp ---&gt; adp + 2 g3p</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad + adp &lt;==&gt; pep + nadh + h + atp</t>
+  </si>
+  <si>
+    <t>GAPDH</t>
   </si>
 </sst>
 </file>
@@ -752,7 +813,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1132,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
         <v>48</v>
@@ -1085,13 +1146,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="6">
         <v>-53.5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
         <v>49</v>
@@ -1132,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,20 +1257,20 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
         <v>4581156.7432856048</v>
       </c>
       <c r="F2" s="6">
-        <v>-9.1</v>
+        <v>-22.38</v>
       </c>
       <c r="G2" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1222,17 +1283,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>-9.1</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4.8609</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -1241,25 +1302,28 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4"/>
+      <c r="C4">
+        <v>120</v>
+      </c>
       <c r="E4" s="5">
         <v>3.8510595392951203</v>
       </c>
       <c r="F4" s="6">
-        <v>-0.8</v>
+        <v>-2.6</v>
       </c>
       <c r="G4" s="7">
-        <v>4.8609</v>
+        <v>14.72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -1268,23 +1332,21 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="E5" s="5"/>
+        <v>53</v>
+      </c>
       <c r="F5" s="6">
-        <v>0.3</v>
+        <v>-31.7</v>
       </c>
       <c r="G5" s="7">
-        <v>7.47</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -1293,64 +1355,65 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="E6" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
       <c r="F6" s="6">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="G6" s="7">
         <v>1.75</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1360,22 +1423,82 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="H10" s="8"/>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="H11" s="8"/>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="H12" s="8"/>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1385,14 +1508,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1448,7 +1572,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
@@ -1461,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1478,6 +1602,9 @@
         <v>21</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="C3">
+        <v>120</v>
+      </c>
       <c r="E3" s="5">
         <v>3.8510595392951203</v>
       </c>
@@ -1497,12 +1624,15 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>167</v>
       </c>
       <c r="F4">
         <v>-21.27</v>
@@ -1511,7 +1641,7 @@
         <v>7.47</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -1520,14 +1650,17 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4"/>
+      <c r="C5">
+        <v>10.5</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6">
         <v>22.83</v>
@@ -1536,7 +1669,7 @@
         <v>7.47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -1545,14 +1678,17 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4"/>
+      <c r="C6">
+        <v>9000</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6">
         <v>7.5979999999999999</v>
@@ -1561,21 +1697,21 @@
         <v>7.47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6">
         <v>-6.4</v>
@@ -1584,7 +1720,7 @@
         <v>14.72</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
@@ -1593,12 +1729,12 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6">
         <v>-31.7</v>
@@ -1607,7 +1743,7 @@
         <v>1.75</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -1616,19 +1752,19 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
@@ -1637,15 +1773,15 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -1654,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1665,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1676,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1687,7 +1823,29 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +1855,356 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-22.38</v>
+      </c>
+      <c r="G2" s="7">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-6.4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>14.72</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-31.7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-6.4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -1761,7 +2269,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
@@ -1774,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1797,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -1865,7 +2373,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4"/>
       <c r="E6" s="5"/>
@@ -1876,7 +2384,7 @@
         <v>7.47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -1917,14 +2425,14 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
         <v>51</v>
@@ -2008,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2072,7 +2580,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
@@ -2085,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -2257,14 +2765,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -2278,7 +2786,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>46</v>
@@ -2295,7 +2803,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>40</v>
@@ -2312,7 +2820,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>43</v>
@@ -2377,7 +2885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2442,7 +2950,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
@@ -2455,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -2627,7 +3135,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4"/>
       <c r="E9" s="5"/>
@@ -2648,7 +3156,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>46</v>
@@ -2665,7 +3173,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>40</v>
@@ -2682,7 +3190,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>43</v>
@@ -2747,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -2812,7 +3320,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="5">
@@ -2825,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -2929,7 +3437,7 @@
         <v>7.4774000000000003</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -2997,7 +3505,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4"/>
       <c r="E9" s="5"/>
@@ -3018,7 +3526,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>46</v>
@@ -3035,7 +3543,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>40</v>
@@ -3052,7 +3560,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>43</v>
@@ -3069,10 +3577,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
         <v>49</v>
@@ -3119,7 +3627,7 @@
     </row>
     <row r="17" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3130,7 +3638,7 @@
     </row>
     <row r="18" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3144,220 +3652,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A19" sqref="A19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1">
         <v>2.8913542898145601</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1">
         <v>2.8913542900000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1">
+        <v>16.362681829510301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>8.0678728087165403</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>8.0678728090000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>8.4622057415150405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>3.8003899941152701</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>3.8003899940000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>2.5555082255081101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>4.7273613124650202</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>4.7273613120000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>10.7834254056706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>7.1387340060907496</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>7.138734006</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>2993.0235606685001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>8.8068596116778401</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>8.8068596120000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>1.44695859189348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>1.3230003719961001</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>1.3230003720000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>2.9930235606685001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>1.8143283990507899</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>1.2297630041444501</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>10.4085442839922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>3.6641332633253501</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>3.6806736743871902</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>3.9420607098672602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>18.846306066075201</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>1.8143283990000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>1.2205759033839001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>3.6641332630000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <v>10.5970553390096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>15.1961386437422</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>18.047004226458601</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>1.92211358434545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>3.0097550929400501</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>21.732329558999499</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>22.7974109757345</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0.196906799173831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,20 +4,53 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="7125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="10" r:id="rId1"/>
     <sheet name="ecoliT2" sheetId="11" r:id="rId2"/>
     <sheet name="ecoliT3" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="ecoliT4" sheetId="13" r:id="rId4"/>
+    <sheet name="ecoliT5" sheetId="16" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="ecoliT6" sheetId="14" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="ecoliT4" localSheetId="3">ecoliT4!$A$1:$P$25</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="ecoliT4" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\ecoliT4.txt">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="209">
   <si>
     <t>Enzymes</t>
   </si>
@@ -470,6 +503,201 @@
   </si>
   <si>
     <t>'h2o[e]'</t>
+  </si>
+  <si>
+    <t>[c] : g6p + atp &lt;==&gt; fdp + adp + h</t>
+  </si>
+  <si>
+    <t>pgipfk</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad + pi + adp &lt;==&gt; atp + h2o + nadh + pep</t>
+  </si>
+  <si>
+    <t>gapdeno</t>
+  </si>
+  <si>
+    <t>pyrEX</t>
+  </si>
+  <si>
+    <t>lacEX</t>
+  </si>
+  <si>
+    <t>biomassEX</t>
+  </si>
+  <si>
+    <t>h2oEX</t>
+  </si>
+  <si>
+    <t>hEX</t>
+  </si>
+  <si>
+    <t>piEX</t>
+  </si>
+  <si>
+    <t>Expyr</t>
+  </si>
+  <si>
+    <t>Exlac</t>
+  </si>
+  <si>
+    <t>Exh</t>
+  </si>
+  <si>
+    <t>Expi</t>
+  </si>
+  <si>
+    <t>pyr[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>pyr[c] ---&gt; pyr[e]</t>
+  </si>
+  <si>
+    <t>lac[c] ---&gt; lac[e]</t>
+  </si>
+  <si>
+    <t>lac[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>pyr[e]</t>
+  </si>
+  <si>
+    <t>lac[e]</t>
+  </si>
+  <si>
+    <t>biomass[c]</t>
+  </si>
+  <si>
+    <t>biomass[c] ---&gt;</t>
+  </si>
+  <si>
+    <t>dhap[e]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>h[e]</t>
+  </si>
+  <si>
+    <t>pi[e]</t>
+  </si>
+  <si>
+    <t>g6ppyr</t>
+  </si>
+  <si>
+    <t>g6p[c] + 2 adp + 2 pi ---&gt; 2 atp + pyr</t>
+  </si>
+  <si>
+    <t>1.01,1.01</t>
+  </si>
+  <si>
+    <t>0.17,0.13,0.23</t>
+  </si>
+  <si>
+    <t>0.00017,0.00013,0.00023</t>
+  </si>
+  <si>
+    <t>0.00025,0.00031,1,0.00025,0.00031</t>
+  </si>
+  <si>
+    <t>0.00033,1,0.00015,0.02,0.0029</t>
+  </si>
+  <si>
+    <t>'dhap[c]'</t>
+  </si>
+  <si>
+    <t>'nad[c]'</t>
+  </si>
+  <si>
+    <t>'nadh[c]'</t>
+  </si>
+  <si>
+    <t>'lac[c]'</t>
+  </si>
+  <si>
+    <t>'f6p[c]'</t>
+  </si>
+  <si>
+    <t>'lac[e]'</t>
+  </si>
+  <si>
+    <t>'dhap[e]'</t>
+  </si>
+  <si>
+    <t>[c] : 0.2050 g6p + 0.5191 pep + 59.81 atp + 2.8328 pyr + 59.81 h2o + 3.547 nad ---&gt; biomass + 59.81 adp + 59.81 h + 59.81 pi + 3.547 nadh</t>
+  </si>
+  <si>
+    <t>9.54E-6,1,5E-5,1,8.94E-6,6.32E-5</t>
+  </si>
+  <si>
+    <t>1,1,0.00073,1,1,1</t>
+  </si>
+  <si>
+    <t>acaldEX</t>
+  </si>
+  <si>
+    <t>etohEX</t>
+  </si>
+  <si>
+    <t>etoh[c] &lt;==&gt; etoh[e]</t>
+  </si>
+  <si>
+    <t>co2EX</t>
+  </si>
+  <si>
+    <t>co2[c] &lt;==&gt; co2[e]</t>
+  </si>
+  <si>
+    <t>Exacald</t>
+  </si>
+  <si>
+    <t>Exetoh</t>
+  </si>
+  <si>
+    <t>etoh[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>co2[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>acald[c] ---&gt; acald[e]</t>
+  </si>
+  <si>
+    <t>acald[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>1,1,1,0.0106,1</t>
+  </si>
+  <si>
+    <t>acald[e]</t>
+  </si>
+  <si>
+    <t>etoh[e]</t>
+  </si>
+  <si>
+    <t>co2[e]</t>
+  </si>
+  <si>
+    <t>[c] : 0.2050 g6p + 0.5191 pep + 59.81 atp + 2.8328 pyr + 59.81 h2o + 3.547 nad + 3.7478 accoa ---&gt; biomass + 59.81 adp + 59.81 h + 59.81 pi + 3.547 nadh + 3.7478 coa</t>
+  </si>
+  <si>
+    <t>2.8E-5,1,8.3E-5,1,1,1,1.04E-2</t>
+  </si>
+  <si>
+    <t>vss (Gur = -10, O2ur = -1000)</t>
+  </si>
+  <si>
+    <t>[c] : adp + pep + h &lt;==&gt; atp + pyr</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o + pyr &lt;==&gt; amp + 2 h + pep + pi</t>
+  </si>
+  <si>
+    <t>[c] : coa + nad + pyr &lt;==&gt; accoa + co2 + nadh</t>
+  </si>
+  <si>
+    <t>[c] : amp + atp ---&gt; 2 adp</t>
   </si>
 </sst>
 </file>
@@ -559,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -570,6 +798,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -583,6 +813,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ecoliT4" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,7 +1109,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +1119,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="42.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -974,11 +1209,11 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="O3" s="10">
+        <v>8.43E-3</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>9.0799999999999995E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1062,11 +1297,18 @@
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="C7">
         <v>10.5</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.18</v>
+      </c>
       <c r="F7" s="6">
         <v>4.2</v>
       </c>
@@ -1075,6 +1317,9 @@
       </c>
       <c r="H7" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>173</v>
       </c>
       <c r="N7" t="s">
         <v>30</v>
@@ -1094,7 +1339,12 @@
       <c r="C8">
         <v>9000</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.114</v>
+      </c>
       <c r="F8" s="6">
         <v>1.4</v>
       </c>
@@ -1103,6 +1353,9 @@
       </c>
       <c r="H8" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>172</v>
       </c>
       <c r="N8" t="s">
         <v>82</v>
@@ -1568,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,15 +2725,1298 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6">
+        <v>-22.4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1.46E-4</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2.31E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10">
+        <v>8.43E-3</v>
+      </c>
+      <c r="P4">
+        <v>9.0799999999999995E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6">
+        <v>9000</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.114</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4.37E-4</v>
+      </c>
+      <c r="P6" s="10">
+        <v>7.0399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="F7" s="6">
+        <v>-3.8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>15.08</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>-1.2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>166</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-6.4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="P10">
+        <v>4.26E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="F11">
+        <v>-0.1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="10">
+        <v>2.32E-3</v>
+      </c>
+      <c r="P12" s="10">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="10">
+        <v>5.4500000000000003E-5</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1.27E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="10">
+        <v>2.32E-4</v>
+      </c>
+      <c r="P16" s="10">
+        <v>3.4099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P17" s="10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21">
+        <v>0.1</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="66.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6">
+        <v>-22.38</v>
+      </c>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1.46E-4</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2.31E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.8609</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10">
+        <v>8.43E-3</v>
+      </c>
+      <c r="P4">
+        <v>9.0799999999999995E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5">
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.114</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4.37E-4</v>
+      </c>
+      <c r="P6" s="10">
+        <v>7.0399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-3.8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>15.08</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="10">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F9">
+        <v>-1.2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="P10">
+        <v>4.26E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="10">
+        <v>2.32E-3</v>
+      </c>
+      <c r="P12" s="10">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="D13" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F13">
+        <v>-0.1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="10">
+        <v>5.4500000000000003E-5</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1.27E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="10">
+        <v>2.32E-4</v>
+      </c>
+      <c r="P16" s="10">
+        <v>3.4099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="10">
+        <v>8.8300000000000005E-5</v>
+      </c>
+      <c r="P17" s="10">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="10">
+        <v>5.2899999999999996E-4</v>
+      </c>
+      <c r="P18" s="10">
+        <v>6.9399999999999996E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21">
+        <v>0.1</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
+      </c>
+      <c r="P25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27">
+        <v>0.1</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28">
+        <v>0.1</v>
+      </c>
+      <c r="P28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="P29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2496,8 +4032,14 @@
       <c r="F1">
         <v>25.638618721437901</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1">
+        <v>1.46711607655114E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2513,8 +4055,14 @@
       <c r="F2">
         <v>5.3163126811608601</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>8.6285423391734804E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2530,8 +4078,14 @@
       <c r="F3">
         <v>0.78557553733909802</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4.9368759497838799E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2547,8 +4101,14 @@
       <c r="F4">
         <v>21.457869626851199</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>9.32289101793384E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2564,8 +4124,14 @@
       <c r="F5">
         <v>19.836793984803499</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>1.5483521235014E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2581,8 +4147,14 @@
       <c r="F6">
         <v>3.7474811869904001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>5.4352434550192198E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2598,8 +4170,14 @@
       <c r="F7">
         <v>24.874390430792602</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>0.87535153401658305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2615,8 +4193,14 @@
       <c r="F8">
         <v>7.3070607871037101</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <v>3.6065856671560899E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2626,8 +4210,14 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>6.9964888408613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -2637,8 +4227,14 @@
       <c r="D10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10">
+        <v>2.4640131284932101E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -2654,8 +4250,14 @@
       <c r="F11">
         <v>2.6879925817396901</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>0.27829481169186299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2665,8 +4267,14 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12">
+        <v>2.2545346919701998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2682,8 +4290,14 @@
       <c r="F13">
         <v>20.723261978467001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13">
+        <v>1.12488536843141E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2693,8 +4307,14 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14">
+        <v>3.0895093372903398E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -2704,8 +4324,14 @@
       <c r="D15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2.1744747175046701E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2715,8 +4341,14 @@
       <c r="D16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2726,14 +4358,26 @@
       <c r="D17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="D18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="D19" t="s">
         <v>21</v>
@@ -2744,21 +4388,164 @@
       <c r="F19">
         <v>19.593225065036101</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="7"/>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-22.38</v>
+      </c>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="ecoliT6" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -519,6 +524,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -566,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1519,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
     <sheet name="ecoliT2" sheetId="2" r:id="rId2"/>
     <sheet name="ecoliT7" sheetId="8" r:id="rId3"/>
-    <sheet name="ecoliT8" sheetId="9" r:id="rId4"/>
-    <sheet name="ecoliT3" sheetId="3" r:id="rId5"/>
-    <sheet name="ecoliT4" sheetId="4" r:id="rId6"/>
-    <sheet name="ecoliT5" sheetId="6" r:id="rId7"/>
-    <sheet name="ecoliT6" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
+    <sheet name="ecoliN1" sheetId="10" r:id="rId4"/>
+    <sheet name="ecoliT8" sheetId="9" r:id="rId5"/>
+    <sheet name="ecoliT3" sheetId="3" r:id="rId6"/>
+    <sheet name="ecoliT4" sheetId="4" r:id="rId7"/>
+    <sheet name="ecoliT5" sheetId="6" r:id="rId8"/>
+    <sheet name="ecoliT6" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="210">
   <si>
     <t>Enzymes</t>
   </si>
@@ -414,6 +415,270 @@
   </si>
   <si>
     <t>GAPDH</t>
+  </si>
+  <si>
+    <t>GLCin</t>
+  </si>
+  <si>
+    <t>[c] : fdp + h20 ---&gt; f6p + pi</t>
+  </si>
+  <si>
+    <t>FBP</t>
+  </si>
+  <si>
+    <t>TPI</t>
+  </si>
+  <si>
+    <t>[c] : g3p + pi + nad &lt;==&gt; 13dpg + h + nadh</t>
+  </si>
+  <si>
+    <t>GAPD</t>
+  </si>
+  <si>
+    <t>[c] : 3pg + atp &lt;==&gt; 13dpg + adp</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>[c] : 3pg &lt;==&gt; 2pg</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; pep + h2o</t>
+  </si>
+  <si>
+    <t>[c] : f6p + atp ---&gt; fdp + adp + h</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o + pyr --&gt; amp + 2 h + pep + pi</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>LDHD</t>
+  </si>
+  <si>
+    <t>[c] : pyr + nadh + h &lt;==&gt; lac + nad</t>
+  </si>
+  <si>
+    <t>[c] : coa + nad + pyr --&gt; accoa + co2 + nadh</t>
+  </si>
+  <si>
+    <t>PDH</t>
+  </si>
+  <si>
+    <t>PFL</t>
+  </si>
+  <si>
+    <t>[c] : coa + pyr --&gt; accoa + for</t>
+  </si>
+  <si>
+    <t>[c] : acald + coa + nad &lt;==&gt; accoa + h + nadh</t>
+  </si>
+  <si>
+    <t>ACALD</t>
+  </si>
+  <si>
+    <t>ALCD2x</t>
+  </si>
+  <si>
+    <t>[c] : acald + h + nadh &lt;==&gt; etoh + nad</t>
+  </si>
+  <si>
+    <t>PYRex</t>
+  </si>
+  <si>
+    <t>PYRout</t>
+  </si>
+  <si>
+    <t>pyr[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>LACex</t>
+  </si>
+  <si>
+    <t>lac[c] &lt;==&gt; lac[e]</t>
+  </si>
+  <si>
+    <t>lac[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>LACout</t>
+  </si>
+  <si>
+    <t>ACALDex</t>
+  </si>
+  <si>
+    <t>acald[c] &lt;==&gt; acald[e]</t>
+  </si>
+  <si>
+    <t>ACALDout</t>
+  </si>
+  <si>
+    <t>acald[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>ETOHex</t>
+  </si>
+  <si>
+    <t>ETOHout</t>
+  </si>
+  <si>
+    <t>etoh[c] &lt;==&gt; etoh[e]</t>
+  </si>
+  <si>
+    <t>etoh[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; glc[e]</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; o2[e]</t>
+  </si>
+  <si>
+    <t>O2out</t>
+  </si>
+  <si>
+    <t>O2ex</t>
+  </si>
+  <si>
+    <t>o2[e] &lt;==&gt; o2[c]</t>
+  </si>
+  <si>
+    <t>CYTBD</t>
+  </si>
+  <si>
+    <t>2 h[c] + 0.5 o2[c] + q8h2[c] --&gt; 2 h[e] + h2o[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>NADH16</t>
+  </si>
+  <si>
+    <t>4 h[c] + nadh[c] + q8[c] --&gt; 3 h[e] + nad[c] + q8h2[c]</t>
+  </si>
+  <si>
+    <t>ATPM</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o --&gt; adp + h + pi</t>
+  </si>
+  <si>
+    <t>ATPS4r</t>
+  </si>
+  <si>
+    <t>[c] : fdp + h2o ---&gt; f6p + pi</t>
+  </si>
+  <si>
+    <t>H2oex</t>
+  </si>
+  <si>
+    <t>h2o[e] &lt;==&gt; h2o[c]</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; h2o[e]</t>
+  </si>
+  <si>
+    <t>H2oout</t>
+  </si>
+  <si>
+    <t>[c] : amp + atp &lt;==&gt; 2 adp</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>EC_biomass</t>
+  </si>
+  <si>
+    <t>Biomassex</t>
+  </si>
+  <si>
+    <t>biomass[c] &lt;==&gt; biomass[e]</t>
+  </si>
+  <si>
+    <t>Biomassout</t>
+  </si>
+  <si>
+    <t>biomass[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>acald[e]</t>
+  </si>
+  <si>
+    <t>etoh[e]</t>
+  </si>
+  <si>
+    <t>13dpg[c]</t>
+  </si>
+  <si>
+    <t>3pg[c]</t>
+  </si>
+  <si>
+    <t>accoa[c]</t>
+  </si>
+  <si>
+    <t>etoh[c]</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Hout</t>
+  </si>
+  <si>
+    <t>h[e] &lt;==&gt; h[c]</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; h[e]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>2pg[c]</t>
+  </si>
+  <si>
+    <t>amp[c]</t>
+  </si>
+  <si>
+    <t>coa[c]</t>
+  </si>
+  <si>
+    <t>co2[c]</t>
+  </si>
+  <si>
+    <t>for[c]</t>
+  </si>
+  <si>
+    <t>acald[c]</t>
+  </si>
+  <si>
+    <t>o2[c]</t>
+  </si>
+  <si>
+    <t>q8h2[c]</t>
+  </si>
+  <si>
+    <t>q8[c]</t>
+  </si>
+  <si>
+    <t>[c] : 3pg + atp + f6p + g3p + g6p + accoa + 59.8100 h2o + 3.5470 nad + 0.5191 pep + 2.8328 pyr ---&gt; biomass + coa + 59.8100 adp + 59.8100 h + 3.5470 nadh + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>o2[e]</t>
+  </si>
+  <si>
+    <t>atp[c] + 3 h[c] + h2o[c] &lt;== &gt; adp[c] + 4 h[e] + pi[c]</t>
   </si>
 </sst>
 </file>
@@ -503,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -513,6 +778,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -821,7 +1089,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,6 +1464,313 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>2.8913542898145601</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1">
+        <v>2.8913542900000002</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1">
+        <v>16.362681829510301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>8.0678728087165403</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>8.0678728090000007</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>8.4622057415150405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>3.8003899941152701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>3.8003899940000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>2.5555082255081101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>4.7273613124650202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>4.7273613120000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>10.7834254056706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>7.1387340060907496</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>7.138734006</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>2993.0235606685001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>8.8068596116778401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>8.8068596120000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>1.44695859189348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>1.3230003719961001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>1.3230003720000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>2.9930235606685001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1.8143283990507899</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>1.2297630041444501</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>10.4085442839922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>3.6641332633253501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>3.6806736743871902</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>3.9420607098672602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>18.846306066075201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>1.8143283990000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>1.2205759033839001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>3.6641332630000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <v>10.5970553390096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>15.1961386437422</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>18.047004226458601</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>1.92211358434545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>3.0097550929400501</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>21.732329558999499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>22.7974109757345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>0.196906799173831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1519,7 +2094,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,6 +2438,952 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>-9.1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>-3.8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-2.8</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-1.2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-6.4</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-6</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>-6.6</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>-6.6</v>
+      </c>
+      <c r="G33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <v>-0.1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N36" t="s">
+        <v>187</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -2212,11 +3733,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2524,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2895,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -3265,12 +4786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,20 +4955,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="E6" s="5">
-        <v>8.4275973191444799E-4</v>
+        <v>124</v>
       </c>
       <c r="F6" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>7.4774000000000003</v>
+        <v>-2.8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -3461,20 +4975,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4"/>
       <c r="E7" s="5">
-        <v>1.1835797581124567</v>
+        <v>8.4275973191444799E-4</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.1</v>
+        <v>4.2</v>
       </c>
       <c r="G7" s="7">
-        <v>16.023499999999999</v>
+        <v>7.4774000000000003</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
         <v>50</v>
@@ -3488,20 +5002,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="E8" s="5">
-        <v>7576.5072679615205</v>
+        <v>125</v>
       </c>
       <c r="F8" s="6">
-        <v>-5.3</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.7582</v>
+        <v>1.4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
         <v>51</v>
@@ -3515,14 +5022,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-0.1</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -3536,10 +5042,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="N10" t="s">
         <v>38</v>
@@ -3553,10 +5062,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>130</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N11" t="s">
         <v>32</v>
@@ -3569,11 +5081,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>43</v>
+      <c r="F12" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="N12" t="s">
         <v>47</v>
@@ -3586,12 +5098,6 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="N13" t="s">
         <v>49</v>
       </c>
@@ -3625,6 +5131,22 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="E16" s="5">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="N16" t="s">
         <v>48</v>
       </c>
@@ -3635,7 +5157,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="E17" s="5">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-5.3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.7582</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N17" t="s">
         <v>83</v>
       </c>
@@ -3646,7 +5184,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="N18" t="s">
         <v>84</v>
       </c>
@@ -3655,316 +5203,41 @@
       </c>
       <c r="P18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1">
-        <v>2.8913542898145601</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1">
-        <v>2.8913542900000002</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1">
-        <v>16.362681829510301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2">
-        <v>8.0678728087165403</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>8.0678728090000007</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2">
-        <v>8.4622057415150405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>3.8003899941152701</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3">
-        <v>3.8003899940000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3">
-        <v>2.5555082255081101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>4.7273613124650202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>4.7273613120000002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4">
-        <v>10.7834254056706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>7.1387340060907496</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5">
-        <v>7.138734006</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5">
-        <v>2993.0235606685001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>8.8068596116778401</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>8.8068596120000002</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6">
-        <v>1.44695859189348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>1.3230003719961001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>1.3230003720000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7">
-        <v>2.9930235606685001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>1.8143283990507899</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8">
-        <v>1.2297630041444501</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>10.4085442839922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>3.6641332633253501</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9">
-        <v>3.6806736743871902</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9">
-        <v>3.9420607098672602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>18.846306066075201</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10">
-        <v>1.8143283990000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10">
-        <v>1.2205759033839001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>3.6641332630000001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11">
-        <v>10.5970553390096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>15.1961386437422</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>18.047004226458601</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12">
-        <v>1.92211358434545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13">
-        <v>3.0097550929400501</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14">
-        <v>21.732329558999499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15">
-        <v>22.7974109757345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16">
-        <v>0.196906799173831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="7245" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="7185" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,12 @@
     <sheet name="ecoliT6" sheetId="7" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="222">
   <si>
     <t>Enzymes</t>
   </si>
@@ -579,12 +574,6 @@
     <t>H2oex</t>
   </si>
   <si>
-    <t>h2o[e] &lt;==&gt; h2o[c]</t>
-  </si>
-  <si>
-    <t>&lt;==&gt; h2o[e]</t>
-  </si>
-  <si>
     <t>H2oout</t>
   </si>
   <si>
@@ -633,12 +622,6 @@
     <t>Hout</t>
   </si>
   <si>
-    <t>h[e] &lt;==&gt; h[c]</t>
-  </si>
-  <si>
-    <t>&lt;==&gt; h[e]</t>
-  </si>
-  <si>
     <t>h2o[c]</t>
   </si>
   <si>
@@ -678,7 +661,55 @@
     <t>o2[e]</t>
   </si>
   <si>
-    <t>atp[c] + 3 h[c] + h2o[c] &lt;== &gt; adp[c] + 4 h[e] + pi[c]</t>
+    <t>h2o[c] &lt;==&gt; h2o[e]</t>
+  </si>
+  <si>
+    <t>h[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>h2o[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>atp[c] + 3 h[c] + h2o[c] &lt;==&gt; adp[c] + 4 h[e] + pi[c]</t>
+  </si>
+  <si>
+    <t>Piout</t>
+  </si>
+  <si>
+    <t>pi[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>Piex</t>
+  </si>
+  <si>
+    <t>[c] : accoa + pi &lt;==&gt; actp + coa</t>
+  </si>
+  <si>
+    <t>PTAr</t>
+  </si>
+  <si>
+    <t>[c] : ac + atp &lt;==&gt; actp + adp</t>
+  </si>
+  <si>
+    <t>ACKr</t>
+  </si>
+  <si>
+    <t>ac[c] &lt;==&gt; ac[e]</t>
+  </si>
+  <si>
+    <t>ac[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>ACex</t>
+  </si>
+  <si>
+    <t>Acout</t>
+  </si>
+  <si>
+    <t>ac[c]</t>
+  </si>
+  <si>
+    <t>actp[c]</t>
   </si>
 </sst>
 </file>
@@ -842,7 +873,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,7 +908,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2439,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2774,7 @@
         <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O10" s="11">
         <v>0.01</v>
@@ -2873,7 +2904,7 @@
         <v>138</v>
       </c>
       <c r="N15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O15" s="11">
         <v>0.01</v>
@@ -2925,7 +2956,7 @@
         <v>142</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O17" s="11">
         <v>0.01</v>
@@ -2951,7 +2982,7 @@
         <v>143</v>
       </c>
       <c r="N18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O18" s="11">
         <v>0.01</v>
@@ -2977,7 +3008,7 @@
         <v>146</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O19" s="11">
         <v>0.01</v>
@@ -3011,7 +3042,7 @@
         <v>149</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O21" s="11">
         <v>0.01</v>
@@ -3028,7 +3059,7 @@
         <v>151</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O22" s="11">
         <v>0.01</v>
@@ -3045,7 +3076,7 @@
         <v>152</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O23" s="11">
         <v>0.01</v>
@@ -3062,7 +3093,7 @@
         <v>155</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O24" s="11">
         <v>0.01</v>
@@ -3079,7 +3110,7 @@
         <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O25" s="11">
         <v>0.01</v>
@@ -3096,7 +3127,7 @@
         <v>160</v>
       </c>
       <c r="N26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O26" s="11">
         <v>0.01</v>
@@ -3113,7 +3144,7 @@
         <v>161</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O27" s="11">
         <v>0.01</v>
@@ -3130,7 +3161,7 @@
         <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O28" s="11">
         <v>0.01</v>
@@ -3147,7 +3178,7 @@
         <v>166</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O29" s="11">
         <v>0.01</v>
@@ -3173,13 +3204,13 @@
         <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <v>9.9999999999999995E-8</v>
+        <v>220</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -3199,13 +3230,13 @@
         <v>170</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="11">
-        <v>9.9999999999999995E-8</v>
+        <v>221</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3225,7 +3256,7 @@
         <v>172</v>
       </c>
       <c r="N32" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3248,10 +3279,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3265,10 +3296,10 @@
         <v>175</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -3279,13 +3310,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="N35" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3296,7 +3327,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36">
         <v>250</v>
@@ -3308,10 +3339,10 @@
         <v>2</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3322,13 +3353,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N37" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3339,13 +3370,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3356,26 +3387,104 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="N39" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>194</v>
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44">
+        <v>3.8</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45">
+        <v>4.3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="286">
   <si>
     <t>Enzymes</t>
   </si>
@@ -655,9 +655,6 @@
     <t>q8[c]</t>
   </si>
   <si>
-    <t>[c] : 3pg + atp + f6p + g3p + g6p + accoa + 59.8100 h2o + 3.5470 nad + 0.5191 pep + 2.8328 pyr ---&gt; biomass + coa + 59.8100 adp + 59.8100 h + 3.5470 nadh + 59.8100 pi</t>
-  </si>
-  <si>
     <t>o2[e]</t>
   </si>
   <si>
@@ -710,6 +707,201 @@
   </si>
   <si>
     <t>actp[c]</t>
+  </si>
+  <si>
+    <t>COAex</t>
+  </si>
+  <si>
+    <t>COAout</t>
+  </si>
+  <si>
+    <t>coa[c] &lt;==&gt; coa[e]</t>
+  </si>
+  <si>
+    <t>coa[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>NADex</t>
+  </si>
+  <si>
+    <t>NADout</t>
+  </si>
+  <si>
+    <t>NADHex</t>
+  </si>
+  <si>
+    <t>NADHout</t>
+  </si>
+  <si>
+    <t>nad[c] &lt;==&gt; nad[e]</t>
+  </si>
+  <si>
+    <t>nad[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>nadh[c] &lt;==&gt; nadh[e]</t>
+  </si>
+  <si>
+    <t>nadh[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>[c] : 1.496 3pg + 3.7478 accoa + 59.8100 atp + 0.0709 f6p + 0.1290 g3p + 59.8100 h2o + 3.5470 nad + 1.7867 oaa + 0.5191 pep + 2.8328 pyr --&gt; 59.8100 adp + 4.1182 akg + 3.7478 coa + 59.8100 h + 3.5470 nadh + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>[c] : co2 + h2o + pep --&gt; h + oaa + pi</t>
+  </si>
+  <si>
+    <t>[c] : atp + oaa --&gt; adp + co2 + pep</t>
+  </si>
+  <si>
+    <t>PPCK</t>
+  </si>
+  <si>
+    <t>[c] : accoa + h2o + oaa --&gt; cit + coa + h</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>[c] : cit &lt;==&gt; icit</t>
+  </si>
+  <si>
+    <t>ACONT</t>
+  </si>
+  <si>
+    <t>[c] : icit + nadp &lt;==&gt; akg + co2 + nadph</t>
+  </si>
+  <si>
+    <t>ICDH</t>
+  </si>
+  <si>
+    <t>[c] : akg + coa + nad --&gt; co2 + nadh + succoa</t>
+  </si>
+  <si>
+    <t>AKGDH</t>
+  </si>
+  <si>
+    <t>[c] : atp + coa + succ &lt;==&gt; adp + pi + succoa</t>
+  </si>
+  <si>
+    <t>SUCCOAS</t>
+  </si>
+  <si>
+    <t>[c] : q8 + succ --&gt; fum + q8h2</t>
+  </si>
+  <si>
+    <t>SUCDH</t>
+  </si>
+  <si>
+    <t>[c] : fum + q8h2 --&gt; q8 + succ</t>
+  </si>
+  <si>
+    <t>FRD7</t>
+  </si>
+  <si>
+    <t>FUM</t>
+  </si>
+  <si>
+    <t>MDH</t>
+  </si>
+  <si>
+    <t>ME1</t>
+  </si>
+  <si>
+    <t>akg[c] &lt;==&gt; akg[e]</t>
+  </si>
+  <si>
+    <t>akg[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>succ[e] &lt;==&gt; succ[e]</t>
+  </si>
+  <si>
+    <t>succ[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>fum[c] &lt;==&gt; fum[e]</t>
+  </si>
+  <si>
+    <t>fum[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>[c] : mal + nad &lt;==&gt; h + nadh + oaa</t>
+  </si>
+  <si>
+    <t>[c] : mal + nad --&gt; co2 + nadh + pyr</t>
+  </si>
+  <si>
+    <t>[c] : fum + h2o &lt;==&gt; mal</t>
+  </si>
+  <si>
+    <t>mal[c] &lt;==&gt; mal[e]</t>
+  </si>
+  <si>
+    <t>mal[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>nadp[c] &lt;==&gt; nadp[e]</t>
+  </si>
+  <si>
+    <t>nadp[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>nadph[c] &lt;==&gt; nadph[e]</t>
+  </si>
+  <si>
+    <t>nadph[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>AKGex</t>
+  </si>
+  <si>
+    <t>AKGout</t>
+  </si>
+  <si>
+    <t>SUCCex</t>
+  </si>
+  <si>
+    <t>SUCCout</t>
+  </si>
+  <si>
+    <t>FUMex</t>
+  </si>
+  <si>
+    <t>FUMout</t>
+  </si>
+  <si>
+    <t>MALex</t>
+  </si>
+  <si>
+    <t>MALout</t>
+  </si>
+  <si>
+    <t>NADPex</t>
+  </si>
+  <si>
+    <t>NADPout</t>
+  </si>
+  <si>
+    <t>NADPHex</t>
+  </si>
+  <si>
+    <t>NADPHout</t>
+  </si>
+  <si>
+    <t>for[c] &lt;==&gt; for[e]</t>
+  </si>
+  <si>
+    <t>FORex</t>
+  </si>
+  <si>
+    <t>FORout</t>
+  </si>
+  <si>
+    <t>for[e] &lt;==&gt;</t>
   </si>
 </sst>
 </file>
@@ -2470,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3396,7 @@
         <v>168</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O30" s="11">
         <v>0.01</v>
@@ -3230,7 +3422,7 @@
         <v>170</v>
       </c>
       <c r="N31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O31" s="11">
         <v>0.01</v>
@@ -3279,10 +3471,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3296,7 +3488,7 @@
         <v>175</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N34" t="s">
         <v>193</v>
@@ -3313,7 +3505,7 @@
         <v>176</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N35" t="s">
         <v>49</v>
@@ -3356,7 +3548,7 @@
         <v>179</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="N37" t="s">
         <v>117</v>
@@ -3424,20 +3616,20 @@
         <v>191</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>43</v>
@@ -3445,7 +3637,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44">
         <v>3.8</v>
@@ -3454,12 +3646,12 @@
         <v>2</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F45">
         <v>4.3</v>
@@ -3468,23 +3660,315 @@
         <v>2</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54">
+        <v>-6.8</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55">
+        <v>0.2</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56">
+        <v>-8.6</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57">
+        <v>1.3</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58">
+        <v>3.4</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61">
+        <v>-2.1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62">
+        <v>5.7</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63">
+        <v>-0.6</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64">
+        <v>6.4</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65">
+        <v>1.3</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="7185" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="7125" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="ecoliT5" sheetId="6" r:id="rId8"/>
     <sheet name="ecoliT6" sheetId="7" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="733">
   <si>
     <t>Enzymes</t>
   </si>
@@ -902,6 +904,1368 @@
   </si>
   <si>
     <t>for[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>D-glucose transport via PEP:Pyr PTS</t>
+  </si>
+  <si>
+    <t>glc-D[e] + pep[c] --&gt; g6p[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>Transport, Extracellular</t>
+  </si>
+  <si>
+    <t>glucose-6-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>Glycolysis/Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>phosphofructokinase</t>
+  </si>
+  <si>
+    <t>fructose-bisphosphatase</t>
+  </si>
+  <si>
+    <t>[c] : fdp + h2o --&gt; f6p + pi</t>
+  </si>
+  <si>
+    <t>fructose-bisphosphate aldolase</t>
+  </si>
+  <si>
+    <t>triose-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>glyceraldehyde-3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad + pi &lt;==&gt; 13dpg + h + nadh</t>
+  </si>
+  <si>
+    <t>phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t>phosphoglycerate mutase</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; 3pg</t>
+  </si>
+  <si>
+    <t>enolase</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; h2o + pep</t>
+  </si>
+  <si>
+    <t>glc[e] + pep[c] --&gt; g6p[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>pyruvate kinase</t>
+  </si>
+  <si>
+    <t>LDH_D</t>
+  </si>
+  <si>
+    <t>D-lactate dehydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : lac-D + nad &lt;==&gt; h + nadh + pyr</t>
+  </si>
+  <si>
+    <t>Pyruvate Metabolism</t>
+  </si>
+  <si>
+    <t>malic enzyme (NAD)</t>
+  </si>
+  <si>
+    <t>[c] : mal-L + nad --&gt; co2 + nadh + pyr</t>
+  </si>
+  <si>
+    <t>Anaplerotic reactions</t>
+  </si>
+  <si>
+    <t>pyruvate dehydrogenase</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate carboxylase</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate carboxykinase</t>
+  </si>
+  <si>
+    <t>citrate synthase</t>
+  </si>
+  <si>
+    <t>Citric Acid Cycle</t>
+  </si>
+  <si>
+    <t>ACONTa</t>
+  </si>
+  <si>
+    <t>aconitase (half-reaction A, Citrate hydro-lyase)</t>
+  </si>
+  <si>
+    <t>ICDHyr</t>
+  </si>
+  <si>
+    <t>isocitrate dehydrogenase (NADP)</t>
+  </si>
+  <si>
+    <t>ICL</t>
+  </si>
+  <si>
+    <t>Isocitrate lyase</t>
+  </si>
+  <si>
+    <t>[c] : icit --&gt; glx + succ</t>
+  </si>
+  <si>
+    <t>MALS</t>
+  </si>
+  <si>
+    <t>malate synthase</t>
+  </si>
+  <si>
+    <t>[c] : accoa + glx + h2o --&gt; coa + h + mal-L</t>
+  </si>
+  <si>
+    <t>2-Oxogluterate dehydrogenase</t>
+  </si>
+  <si>
+    <t>SUCOAS</t>
+  </si>
+  <si>
+    <t>succinyl-CoA synthetase (ADP-forming)</t>
+  </si>
+  <si>
+    <t>SUCDi</t>
+  </si>
+  <si>
+    <t>succinate dehydrogenase (irreversible)</t>
+  </si>
+  <si>
+    <t>Oxidative Phosphorylation</t>
+  </si>
+  <si>
+    <t>fumarate reductase</t>
+  </si>
+  <si>
+    <t>fumarase</t>
+  </si>
+  <si>
+    <t>[c] : fum + h2o &lt;==&gt; mal-L</t>
+  </si>
+  <si>
+    <t>[c] : accoa + glx + h2o --&gt; coa + h + mal</t>
+  </si>
+  <si>
+    <t>malate dehydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : mal-L + nad &lt;==&gt; h + nadh + oaa</t>
+  </si>
+  <si>
+    <t>PYRt2r</t>
+  </si>
+  <si>
+    <t>pyruvate reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t>h[e] + pyr[e] &lt;==&gt; h[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>SUCCt2_2</t>
+  </si>
+  <si>
+    <t>succinate transport via proton symport (2 H)</t>
+  </si>
+  <si>
+    <t>(2) h[e] + succ[e] --&gt; (2) h[c] + succ[c]</t>
+  </si>
+  <si>
+    <t>SUCCt3</t>
+  </si>
+  <si>
+    <t>succinate transport out via proton antiport</t>
+  </si>
+  <si>
+    <t>h[e] + succ[c] --&gt; h[c] + succ[e]</t>
+  </si>
+  <si>
+    <t>2 h[e] + succ[e] --&gt; 2 h[c] + succ[c]</t>
+  </si>
+  <si>
+    <t>AKGt2r</t>
+  </si>
+  <si>
+    <t>2-oxoglutarate reversible transport via symport</t>
+  </si>
+  <si>
+    <t>akg[e] + h[e] &lt;==&gt; akg[c] + h[c]</t>
+  </si>
+  <si>
+    <t>FUMt2_2</t>
+  </si>
+  <si>
+    <t>Fumarate transport via proton symport (2 H)</t>
+  </si>
+  <si>
+    <t>fum[e] + (2) h[e] --&gt; fum[c] + (2) h[c]</t>
+  </si>
+  <si>
+    <t>fum[e] + 2 h[e] --&gt; fum[c] + 2 h[c]</t>
+  </si>
+  <si>
+    <t>MALt2_2</t>
+  </si>
+  <si>
+    <t>Malate transport via proton symport (2 H)</t>
+  </si>
+  <si>
+    <t>(2) h[e] + mal-L[e] --&gt; (2) h[c] + mal-L[c]</t>
+  </si>
+  <si>
+    <t>2 h[e] + mal[e] --&gt; 2 h[c] + mal[c]</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>malic enzyme (NADP)</t>
+  </si>
+  <si>
+    <t>[c] : mal-L + nadp --&gt; co2 + nadph + pyr</t>
+  </si>
+  <si>
+    <t>[c] : mal + nadp --&gt; co2 + nadph + pyr</t>
+  </si>
+  <si>
+    <t>[c] : lac + nad &lt;==&gt; h + nadh + pyr</t>
+  </si>
+  <si>
+    <t>D_LACt2</t>
+  </si>
+  <si>
+    <t>D-lactate transport via proton symport</t>
+  </si>
+  <si>
+    <t>h[e] + lac-D[e] &lt;==&gt; h[c] + lac-D[c]</t>
+  </si>
+  <si>
+    <t>h[e] + lac[e] &lt;==&gt; h[c] + lac[c]</t>
+  </si>
+  <si>
+    <t>phosphotransacetylase</t>
+  </si>
+  <si>
+    <t>acetate kinase</t>
+  </si>
+  <si>
+    <t>pyruvate formate lyase</t>
+  </si>
+  <si>
+    <t>acetaldehyde dehydrogenase (acetylating)</t>
+  </si>
+  <si>
+    <t>alcohol dehydrogenase (ethanol)</t>
+  </si>
+  <si>
+    <t>[c] : etoh + nad &lt;==&gt; acald + h + nadh</t>
+  </si>
+  <si>
+    <t>FORt2</t>
+  </si>
+  <si>
+    <t>formate transport via proton symport (uptake only)</t>
+  </si>
+  <si>
+    <t>for[e] + h[e] --&gt; for[c] + h[c]</t>
+  </si>
+  <si>
+    <t>FORti</t>
+  </si>
+  <si>
+    <t>formate transport via diffusion</t>
+  </si>
+  <si>
+    <t>for[c] --&gt; for[e]</t>
+  </si>
+  <si>
+    <t>ETOHt2r</t>
+  </si>
+  <si>
+    <t>ethanol reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t>etoh[e] + h[e] &lt;==&gt; etoh[c] + h[c]</t>
+  </si>
+  <si>
+    <t>ACt2r</t>
+  </si>
+  <si>
+    <t>acetate reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t>ac[e] + h[e] &lt;==&gt; ac[c] + h[c]</t>
+  </si>
+  <si>
+    <t>ACALDt</t>
+  </si>
+  <si>
+    <t>acetaldehyde reversible transport</t>
+  </si>
+  <si>
+    <t>acald[e] &lt;==&gt; acald[c]</t>
+  </si>
+  <si>
+    <t>EX_ac(e)</t>
+  </si>
+  <si>
+    <t>Acetate exchange</t>
+  </si>
+  <si>
+    <t>[e] : ac &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CO2t</t>
+  </si>
+  <si>
+    <t>CO2 transporter via diffusion</t>
+  </si>
+  <si>
+    <t>co2[e] &lt;==&gt; co2[c]</t>
+  </si>
+  <si>
+    <t>co2[e]&lt;==&gt;</t>
+  </si>
+  <si>
+    <t>exPYR</t>
+  </si>
+  <si>
+    <t>exSUCC</t>
+  </si>
+  <si>
+    <t>exAKG</t>
+  </si>
+  <si>
+    <t>exFUM</t>
+  </si>
+  <si>
+    <t>exMAL</t>
+  </si>
+  <si>
+    <t>exLAC</t>
+  </si>
+  <si>
+    <t>exFOR</t>
+  </si>
+  <si>
+    <t>exETOH</t>
+  </si>
+  <si>
+    <t>exAC</t>
+  </si>
+  <si>
+    <t>exACALD</t>
+  </si>
+  <si>
+    <t>exGLC</t>
+  </si>
+  <si>
+    <t>exCO2</t>
+  </si>
+  <si>
+    <t>exH</t>
+  </si>
+  <si>
+    <t>exH2O</t>
+  </si>
+  <si>
+    <t>G6PDH2r</t>
+  </si>
+  <si>
+    <t>glucose 6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : g6p + nadp &lt;==&gt; 6pgl + h + nadph</t>
+  </si>
+  <si>
+    <t>Pentose Phosphate Pathway</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>6-phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t>[c] : 6pgl + h2o --&gt; 6pgc + h</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : 6pgc + nadp --&gt; co2 + nadph + ru5p-D</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>ribulose 5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t>[c] : ru5p-D &lt;==&gt; xu5p-D</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>ribose-5-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>[c] : r5p &lt;==&gt; ru5p-D</t>
+  </si>
+  <si>
+    <t>TKT1</t>
+  </si>
+  <si>
+    <t>transketolase</t>
+  </si>
+  <si>
+    <t>[c] : r5p + xu5p-D &lt;==&gt; g3p + s7p</t>
+  </si>
+  <si>
+    <t>TKT2</t>
+  </si>
+  <si>
+    <t>[c] : e4p + xu5p-D &lt;==&gt; f6p + g3p</t>
+  </si>
+  <si>
+    <t>TALA</t>
+  </si>
+  <si>
+    <t>transaldolase</t>
+  </si>
+  <si>
+    <t>[c] : g3p + s7p &lt;==&gt; e4p + f6p</t>
+  </si>
+  <si>
+    <t>NADH dehydrogenase (ubiquinone-8 &amp; 3 protons)</t>
+  </si>
+  <si>
+    <t>(4) h[c] + nadh[c] + q8[c] --&gt; (3) h[e] + nad[c] + q8h2[c]</t>
+  </si>
+  <si>
+    <t>NADTRHD</t>
+  </si>
+  <si>
+    <t>NAD transhydrogenase</t>
+  </si>
+  <si>
+    <t>[c] : nad + nadph --&gt; nadh + nadp</t>
+  </si>
+  <si>
+    <t>THD2</t>
+  </si>
+  <si>
+    <t>NAD(P) transhydrogenase</t>
+  </si>
+  <si>
+    <t>(2) h[e] + nadh[c] + nadp[c] --&gt; (2) h[c] + nad[c] + nadph[c]</t>
+  </si>
+  <si>
+    <t>2 h[e] + nadh[c] + nadp[c] --&gt; 2 h[c] + nad[c] + nadph[c]</t>
+  </si>
+  <si>
+    <t>adenylate kinase</t>
+  </si>
+  <si>
+    <t>[c] : amp + atp &lt;==&gt; (2) adp</t>
+  </si>
+  <si>
+    <t>ATP maintenance requirement</t>
+  </si>
+  <si>
+    <t>ATP synthase (four protons for one ATP)</t>
+  </si>
+  <si>
+    <t>adp[c] + (4) h[e] + pi[c] &lt;==&gt; atp[c] + (3) h[c] + h2o[c]</t>
+  </si>
+  <si>
+    <t>adp[c] + 4 h[e] + pi[c] &lt;==&gt; atp[c] + 3 h[c] + h2o[c]</t>
+  </si>
+  <si>
+    <t>cytochrome oxidase bd (ubiquinol-8: 2 protons)</t>
+  </si>
+  <si>
+    <t>(2) h[c] + (0.5) o2[c] + q8h2[c] --&gt; (2) h[e] + h2o[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>PIt2r</t>
+  </si>
+  <si>
+    <t>phosphate reversible transport via proton symport</t>
+  </si>
+  <si>
+    <t>h[e] + pi[e] &lt;==&gt; h[c] + pi[c]</t>
+  </si>
+  <si>
+    <t>Inorganic Ion Transport and Metabolism</t>
+  </si>
+  <si>
+    <t>exPI</t>
+  </si>
+  <si>
+    <t>exO2</t>
+  </si>
+  <si>
+    <t>o2[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>O2t</t>
+  </si>
+  <si>
+    <t>o2 transport via diffusion</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> officialName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proteinClass</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Gur = -10, O2ur = 0)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> proteinGeneAssociation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> geneAssociation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proteinAssociation</t>
+  </si>
+  <si>
+    <t>1.2.1.10</t>
+  </si>
+  <si>
+    <t>( MhpF (b0351)  ) or ( AdhE (b1241)  )</t>
+  </si>
+  <si>
+    <t>( b0351  or  b1241 )</t>
+  </si>
+  <si>
+    <t>( MhpF ) or ( AdhE )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPONTANEOUS (s0001) </t>
+  </si>
+  <si>
+    <t>s0001</t>
+  </si>
+  <si>
+    <t>SPONTANEOUS</t>
+  </si>
+  <si>
+    <t>2.7.2.1</t>
+  </si>
+  <si>
+    <t>( TdcD (b3115)  ) or ( AckA (b2296)  ) or ( PurT (b1849)  )</t>
+  </si>
+  <si>
+    <t>( b3115  or  b2296  or  b1849 )</t>
+  </si>
+  <si>
+    <t>( TdcD ) or ( AckA ) or ( PurT )</t>
+  </si>
+  <si>
+    <t>4.2.1.3</t>
+  </si>
+  <si>
+    <t>( AcnB (b0118)  ) or ( AcnA (b1276)  )</t>
+  </si>
+  <si>
+    <t>( b0118  or  b1276 )</t>
+  </si>
+  <si>
+    <t>( AcnB ) or ( AcnA )</t>
+  </si>
+  <si>
+    <t>2.7.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adk (b0474) </t>
+  </si>
+  <si>
+    <t>b0474</t>
+  </si>
+  <si>
+    <t>Adk</t>
+  </si>
+  <si>
+    <t>( LpdA (b0116)  and SucAec (b0726)  and SucBec (b0727)  )</t>
+  </si>
+  <si>
+    <t>( b0116  and  b0726  and  b0727 )</t>
+  </si>
+  <si>
+    <t>( LpdA and SucAec and SucBec )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KgtPec (b2587) </t>
+  </si>
+  <si>
+    <t>b2587</t>
+  </si>
+  <si>
+    <t>KgtPec</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>( FrmA (b0356)  ) or ( AdhP (b1478)  ) or ( AdhE (b1241)  )</t>
+  </si>
+  <si>
+    <t>( b0356  or  b1478  or  b1241 )</t>
+  </si>
+  <si>
+    <t>( FrmA ) or ( AdhP ) or ( AdhE )</t>
+  </si>
+  <si>
+    <t>3.6.3.14</t>
+  </si>
+  <si>
+    <t>( AtpF0 ( b3736 and b3737 and b3738 )  and AtpF1 ( b3731 and b3732 and b3733 and b3734 and b3735 )  ) or ( AtpF0 ( b3736 and b3737 and b3738 )  and AtpF1 ( b3731 and b3732 and b3733 and b3734 and b3735 )  and AtpI (b3739)  )</t>
+  </si>
+  <si>
+    <t>( ( ( b3736  and  b3737  and  b3738 )  and  ( b3731  and  b3732  and  b3733  and  b3734  and  b3735 ) )  or  ( ( b3736  and  b3737  and  b3738 )  and  ( b3731  and  b3732  and  b3733  and  b3734  and  b3735 )  and  b3739 ) )</t>
+  </si>
+  <si>
+    <t>( AtpF0 and AtpF1 ) or ( AtpF0 and AtpF1 and AtpI )</t>
+  </si>
+  <si>
+    <t>Biomass_Ecoli_core_w/GAM</t>
+  </si>
+  <si>
+    <t>Biomass Objective Function with GAM</t>
+  </si>
+  <si>
+    <t>[c] : (1.496) 3pg + (3.7478) accoa + (59.8100) atp + (0.3610) e4p + (0.0709) f6p + (0.1290) g3p + (0.2050) g6p + (0.2557) gln-L + (4.9414) glu-L + (59.8100) h2o + (3.5470) nad + (13.0279) nadph + (1.7867) oaa + (0.5191) pep + (2.8328) pyr + (0.8977) r5p --&gt; (59.8100) adp + (4.1182) akg + (3.7478) coa + (59.8100) h + (3.5470) nadh + (13.0279) nadp + (59.8100) pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GltA (b0720) </t>
+  </si>
+  <si>
+    <t>b0720</t>
+  </si>
+  <si>
+    <t>GltA</t>
+  </si>
+  <si>
+    <t>( CbdAB ( b0978 and b0979 )  ) or ( CydA ( b0733 and b0734 )  )</t>
+  </si>
+  <si>
+    <t>( ( b0978  and  b0979 )  or  ( b0733  and  b0734 ) )</t>
+  </si>
+  <si>
+    <t>( CbdAB ) or ( CydA )</t>
+  </si>
+  <si>
+    <t>( LldP (b3603)  ) or ( GlcA (b2975)  )</t>
+  </si>
+  <si>
+    <t>( b3603  or  b2975 )</t>
+  </si>
+  <si>
+    <t>( LldP ) or ( GlcA )</t>
+  </si>
+  <si>
+    <t>4.2.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eno (b2779) </t>
+  </si>
+  <si>
+    <t>b2779</t>
+  </si>
+  <si>
+    <t>Eno</t>
+  </si>
+  <si>
+    <t>EX_acald(e)</t>
+  </si>
+  <si>
+    <t>Acetaldehyde exchange</t>
+  </si>
+  <si>
+    <t>[e] : acald &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_akg(e)</t>
+  </si>
+  <si>
+    <t>2-Oxoglutarate exchange</t>
+  </si>
+  <si>
+    <t>[e] : akg &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_co2(e)</t>
+  </si>
+  <si>
+    <t>CO2 exchange</t>
+  </si>
+  <si>
+    <t>[e] : co2 &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_etoh(e)</t>
+  </si>
+  <si>
+    <t>Ethanol exchange</t>
+  </si>
+  <si>
+    <t>[e] : etoh &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_for(e)</t>
+  </si>
+  <si>
+    <t>Formate exchange</t>
+  </si>
+  <si>
+    <t>[e] : for &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_fum(e)</t>
+  </si>
+  <si>
+    <t>Fumarate exchange</t>
+  </si>
+  <si>
+    <t>[e] : fum &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_glc(e)</t>
+  </si>
+  <si>
+    <t>D-Glucose exchange</t>
+  </si>
+  <si>
+    <t>[e] : glc-D &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_h(e)</t>
+  </si>
+  <si>
+    <t>H+ exchange</t>
+  </si>
+  <si>
+    <t>[e] : h &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_h2o(e)</t>
+  </si>
+  <si>
+    <t>H2O exchange</t>
+  </si>
+  <si>
+    <t>[e] : h2o &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_lac_D(e)</t>
+  </si>
+  <si>
+    <t>D-Lactate exchange</t>
+  </si>
+  <si>
+    <t>[e] : lac-D &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_mal_L(e)</t>
+  </si>
+  <si>
+    <t>L-Malate exchange</t>
+  </si>
+  <si>
+    <t>[e] : mal-L &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_o2(e)</t>
+  </si>
+  <si>
+    <t>O2 exchange</t>
+  </si>
+  <si>
+    <t>[e] : o2 &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_pi(e)</t>
+  </si>
+  <si>
+    <t>Phosphate exchange</t>
+  </si>
+  <si>
+    <t>[e] : pi &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_pyr(e)</t>
+  </si>
+  <si>
+    <t>Pyruvate exchange</t>
+  </si>
+  <si>
+    <t>[e] : pyr &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>EX_succ(e)</t>
+  </si>
+  <si>
+    <t>Succinate exchange</t>
+  </si>
+  <si>
+    <t>[e] : succ &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>4.1.2.13</t>
+  </si>
+  <si>
+    <t>( FbaB (b2097)  ) or ( B1773 (b1773)  ) or ( FbaA (b2925)  )</t>
+  </si>
+  <si>
+    <t>( b2097  or  b1773  or  b2925 )</t>
+  </si>
+  <si>
+    <t>( FbaB ) or ( B1773 ) or ( FbaA )</t>
+  </si>
+  <si>
+    <t>3.1.3.11</t>
+  </si>
+  <si>
+    <t>( GlpX (b3925)  ) or ( Fbp (b4232)  )</t>
+  </si>
+  <si>
+    <t>( b3925  or  b4232 )</t>
+  </si>
+  <si>
+    <t>( GlpX ) or ( Fbp )</t>
+  </si>
+  <si>
+    <t>( FocA (b0904)  ) or ( FocB (b2492)  )</t>
+  </si>
+  <si>
+    <t>( b0904  or  b2492 )</t>
+  </si>
+  <si>
+    <t>( FocA ) or ( FocB )</t>
+  </si>
+  <si>
+    <t>1.3.99.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frd ( b4151 and b4152 and b4153 and b4154 ) </t>
+  </si>
+  <si>
+    <t>( b4151  and  b4152  and  b4153  and  b4154 )</t>
+  </si>
+  <si>
+    <t>Frd</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>( FumA (b1612)  ) or ( FumB (b4122)  ) or ( FumCec (b1611)  )</t>
+  </si>
+  <si>
+    <t>( b1612  or  b4122  or  b1611 )</t>
+  </si>
+  <si>
+    <t>( FumA ) or ( FumB ) or ( FumCec )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DctA (b3528) </t>
+  </si>
+  <si>
+    <t>b3528</t>
+  </si>
+  <si>
+    <t>DctA</t>
+  </si>
+  <si>
+    <t>1.1.1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwf (b1852) </t>
+  </si>
+  <si>
+    <t>b1852</t>
+  </si>
+  <si>
+    <t>Zwf</t>
+  </si>
+  <si>
+    <t>1.2.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GapA (b1779) </t>
+  </si>
+  <si>
+    <t>b1779</t>
+  </si>
+  <si>
+    <t>GapA</t>
+  </si>
+  <si>
+    <t>( Crr (b2417)  and PtsG (b1101)  and PtsH (b2415)  and PtsI (b2416)  ) or ( ManX (b1817)  and ManY (b1818)  and ManZ (b1819)  and PtsH (b2415)  and PtsI (b2416)  ) or ( Crr (b2417)  and MalX (b1621)  and PtsH (b2415)  and PtsI (b2416)  )</t>
+  </si>
+  <si>
+    <t>( ( b2417  and  b1101  and  b2415  and  b2416 )  or  ( b1817  and  b1818  and  b1819  and  b2415  and  b2416 )  or  ( b2417  and  b1621  and  b2415  and  b2416 ) )</t>
+  </si>
+  <si>
+    <t>( Crr and PtsG and PtsH and PtsI ) or ( ManX and ManY and ManZ and PtsH and PtsI ) or ( Crr and MalX and PtsH and PtsI )</t>
+  </si>
+  <si>
+    <t>( GlnHec (b0811)  and GlnPec (b0810)  and GlnQec (b0809)  )</t>
+  </si>
+  <si>
+    <t>( b0811  and  b0810  and  b0809 )</t>
+  </si>
+  <si>
+    <t>( GlnHec and GlnPec and GlnQec )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GltP (b4077) </t>
+  </si>
+  <si>
+    <t>b4077</t>
+  </si>
+  <si>
+    <t>GltP</t>
+  </si>
+  <si>
+    <t>1.1.1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnd (b2029) </t>
+  </si>
+  <si>
+    <t>b2029</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>H2Ot</t>
+  </si>
+  <si>
+    <t>H2O transport via diffusion</t>
+  </si>
+  <si>
+    <t>h2o[e] &lt;==&gt; h2o[c]</t>
+  </si>
+  <si>
+    <t>( AqpZ (b0875)  ) or ( SPONTANEOUS (s0001)  )</t>
+  </si>
+  <si>
+    <t>( b0875  or  s0001 )</t>
+  </si>
+  <si>
+    <t>( AqpZ ) or ( SPONTANEOUS )</t>
+  </si>
+  <si>
+    <t>1.1.1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icd (b1136) </t>
+  </si>
+  <si>
+    <t>b1136</t>
+  </si>
+  <si>
+    <t>Icd</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AceA (b4015) </t>
+  </si>
+  <si>
+    <t>b4015</t>
+  </si>
+  <si>
+    <t>AceA</t>
+  </si>
+  <si>
+    <t>1.1.1.28</t>
+  </si>
+  <si>
+    <t>( Dld (b2133)  ) or ( Ldh (b1380)  )</t>
+  </si>
+  <si>
+    <t>( b2133  or  b1380 )</t>
+  </si>
+  <si>
+    <t>( Dld ) or ( Ldh )</t>
+  </si>
+  <si>
+    <t>4.1.3.2</t>
+  </si>
+  <si>
+    <t>( AceB (b4014)  ) or ( GlcB (b2976)  )</t>
+  </si>
+  <si>
+    <t>( b4014  or  b2976 )</t>
+  </si>
+  <si>
+    <t>( AceB ) or ( GlcB )</t>
+  </si>
+  <si>
+    <t>1.1.1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdh (b3236) </t>
+  </si>
+  <si>
+    <t>b3236</t>
+  </si>
+  <si>
+    <t>Mdh</t>
+  </si>
+  <si>
+    <t>1.1.1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sfc (b1479) </t>
+  </si>
+  <si>
+    <t>b1479</t>
+  </si>
+  <si>
+    <t>Sfc</t>
+  </si>
+  <si>
+    <t>1.1.1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mae (b2463) </t>
+  </si>
+  <si>
+    <t>b2463</t>
+  </si>
+  <si>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>1.6.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuo ( b2276 and b2277 and b2278 and b2279 and b2280 and b2281 and b2282 and b2283 and b2284 and b2285 and b2286 and b2287 and b2288 ) </t>
+  </si>
+  <si>
+    <t>( b2276  and  b2277  and  b2278  and  b2279  and  b2280  and  b2281  and  b2282  and  b2283  and  b2284  and  b2285  and  b2286  and  b2287  and  b2288 )</t>
+  </si>
+  <si>
+    <t>Nuo</t>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+  </si>
+  <si>
+    <t>( SthA (b3962)  ) or ( Pnt ( b1602 and b1603 )  )</t>
+  </si>
+  <si>
+    <t>( b3962  or  ( b1602  and  b1603 ) )</t>
+  </si>
+  <si>
+    <t>( SthA ) or ( Pnt )</t>
+  </si>
+  <si>
+    <t>( AceEec (b0114)  and AceFec (b0115)  and LpdA (b0116)  )</t>
+  </si>
+  <si>
+    <t>( b0114  and  b0115  and  b0116 )</t>
+  </si>
+  <si>
+    <t>( AceEec and AceFec and LpdA )</t>
+  </si>
+  <si>
+    <t>2.7.1.11</t>
+  </si>
+  <si>
+    <t>( PfkA (b3916)  ) or ( PfkB (b1723)  )</t>
+  </si>
+  <si>
+    <t>( b3916  or  b1723 )</t>
+  </si>
+  <si>
+    <t>( PfkA ) or ( PfkB )</t>
+  </si>
+  <si>
+    <t>( PflBec ( b0902 and b0903 )  and YfiD (b2579)  ) or ( PflBec ( b0902 and b0903 )  ) or ( TdcEec ( b0902 and b3114 )  ) or ( PflDec ( b3951 and b3952 )  )</t>
+  </si>
+  <si>
+    <t>( ( ( b0902  and  b0903 )  and  b2579 )  or  ( b0902  and  b0903 )  or  ( b0902  and  b3114 )  or  ( b3951  and  b3952 ) )</t>
+  </si>
+  <si>
+    <t>( PflBec and YfiD ) or ( PflBec ) or ( TdcEec ) or ( PflDec )</t>
+  </si>
+  <si>
+    <t>5.3.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgi (b4025) </t>
+  </si>
+  <si>
+    <t>b4025</t>
+  </si>
+  <si>
+    <t>Pgi</t>
+  </si>
+  <si>
+    <t>2.7.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgk (b2926) </t>
+  </si>
+  <si>
+    <t>b2926</t>
+  </si>
+  <si>
+    <t>Pgk</t>
+  </si>
+  <si>
+    <t>3.1.1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pgl (b0767) </t>
+  </si>
+  <si>
+    <t>b0767</t>
+  </si>
+  <si>
+    <t>Pgl</t>
+  </si>
+  <si>
+    <t>5.4.2.1</t>
+  </si>
+  <si>
+    <t>( YibO (b3612)  ) or ( GpmB (b4395)  ) or ( GpmA (b0755)  )</t>
+  </si>
+  <si>
+    <t>( b3612  or  b4395  or  b0755 )</t>
+  </si>
+  <si>
+    <t>( YibO ) or ( GpmB ) or ( GpmA )</t>
+  </si>
+  <si>
+    <t>( PitBec (b2987)  ) or ( PitA (b3493)  )</t>
+  </si>
+  <si>
+    <t>( b2987  or  b3493 )</t>
+  </si>
+  <si>
+    <t>( PitBec ) or ( PitA )</t>
+  </si>
+  <si>
+    <t>4.1.1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppc (b3956) </t>
+  </si>
+  <si>
+    <t>b3956</t>
+  </si>
+  <si>
+    <t>Ppc</t>
+  </si>
+  <si>
+    <t>4.1.1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pck (b3403) </t>
+  </si>
+  <si>
+    <t>b3403</t>
+  </si>
+  <si>
+    <t>Pck</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate synthase</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o + pyr --&gt; amp + (2) h + pep + pi</t>
+  </si>
+  <si>
+    <t>2.7.9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppsa (b1702) </t>
+  </si>
+  <si>
+    <t>b1702</t>
+  </si>
+  <si>
+    <t>Ppsa</t>
+  </si>
+  <si>
+    <t>2.3.1.8</t>
+  </si>
+  <si>
+    <t>( Pta (b2297)  ) or ( EutD (b2458)  )</t>
+  </si>
+  <si>
+    <t>( b2297  or  b2458 )</t>
+  </si>
+  <si>
+    <t>( Pta ) or ( EutD )</t>
+  </si>
+  <si>
+    <t>2.7.1.40</t>
+  </si>
+  <si>
+    <t>( Pyka (b1854)  ) or ( Pykf (b1676)  )</t>
+  </si>
+  <si>
+    <t>( b1854  or  b1676 )</t>
+  </si>
+  <si>
+    <t>( Pyka ) or ( Pykf )</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>( Rpeec (b3386)  ) or ( SgcE (b4301)  )</t>
+  </si>
+  <si>
+    <t>( b3386  or  b4301 )</t>
+  </si>
+  <si>
+    <t>( Rpeec ) or ( SgcE )</t>
+  </si>
+  <si>
+    <t>5.3.1.6</t>
+  </si>
+  <si>
+    <t>( RpiA (b2914)  ) or ( RpiB (b4090)  )</t>
+  </si>
+  <si>
+    <t>( b2914  or  b4090 )</t>
+  </si>
+  <si>
+    <t>( RpiA ) or ( RpiB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh ( b0721 and b0722 and b0723 and b0724 ) </t>
+  </si>
+  <si>
+    <t>( b0721  and  b0722  and  b0723  and  b0724 )</t>
+  </si>
+  <si>
+    <t>Sdh</t>
+  </si>
+  <si>
+    <t>6.2.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SucCD ( b0728 and b0729 ) </t>
+  </si>
+  <si>
+    <t>( b0728  and  b0729 )</t>
+  </si>
+  <si>
+    <t>SucCD</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>( TalA (b2464)  ) or ( TalB (b0008)  )</t>
+  </si>
+  <si>
+    <t>( b2464  or  b0008 )</t>
+  </si>
+  <si>
+    <t>( TalA ) or ( TalB )</t>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pnt ( b1602 and b1603 ) </t>
+  </si>
+  <si>
+    <t>( b1602  and  b1603 )</t>
+  </si>
+  <si>
+    <t>Pnt</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>( TktA (b2935)  ) or ( TktB (b2465)  )</t>
+  </si>
+  <si>
+    <t>( b2935  or  b2465 )</t>
+  </si>
+  <si>
+    <t>( TktA ) or ( TktB )</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tpi (b3919) </t>
+  </si>
+  <si>
+    <t>b3919</t>
+  </si>
+  <si>
+    <t>Tpi</t>
+  </si>
+  <si>
+    <t>[c] : 1.496 3pg + 3.7478 accoa + 59.8100 atp + 0.3610 e4p + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 13.0279 nadph + 1.7867 oaa + 0.5191 pep + 2.8328 pyr + 0.8977 r5p --&gt; 59.8100 adp + 4.1182 akg + 3.7478 coa + 59.8100 h + 3.5470 nadh + 13.0279 nadp + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>glc[e] &lt;==&gt;</t>
   </si>
 </sst>
 </file>
@@ -991,7 +2355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1004,6 +2368,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1014,9 +2448,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1997,6 +3428,3835 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="I34" s="57"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="I36" s="59"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" s="60"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="I38" s="61"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="I39" s="60"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="63"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="I42" s="64"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="66"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="I45" s="66"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="67"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I49" s="41"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="I50" s="41"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="I53" s="68"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="I55" s="36"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="I59" s="39"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="I61" s="43"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" s="49"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I63" s="49"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="I64" s="50"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="I65" s="51"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="I66" s="52"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" s="53"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="H68" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="53"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="H69" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="53"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="H70" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="53"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="H71" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="I71" s="53"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="H72" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="53"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="H73" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I73" s="53"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="I74" s="53"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="H75" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="53"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="H76" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="53"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H77" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="I77" s="53"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="I78" s="54"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" s="54"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I80" s="54"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="H81" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="68"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="I82" s="68"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="I83" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G2" s="81">
+        <v>2.5901270792317975E-4</v>
+      </c>
+      <c r="H2" s="76">
+        <v>0</v>
+      </c>
+      <c r="I2" s="76">
+        <v>0</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="73">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="G3" s="81">
+        <v>2334452.463340031</v>
+      </c>
+      <c r="H3" s="76">
+        <v>0</v>
+      </c>
+      <c r="I3" s="76">
+        <v>0</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>627</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="F4" s="73">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="81">
+        <v>0.11179750752009893</v>
+      </c>
+      <c r="H4" s="76">
+        <v>0</v>
+      </c>
+      <c r="I4" s="76">
+        <v>0</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="F5" s="73">
+        <v>1.6</v>
+      </c>
+      <c r="G5" s="81">
+        <v>6.7427884439643204E-2</v>
+      </c>
+      <c r="H5" s="76">
+        <v>0</v>
+      </c>
+      <c r="I5" s="76">
+        <v>0</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>639</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>678</v>
+      </c>
+      <c r="F6" s="73">
+        <v>-6.8</v>
+      </c>
+      <c r="G6" s="81">
+        <v>94936.229932937829</v>
+      </c>
+      <c r="H6" s="76">
+        <v>2.5043000000000002</v>
+      </c>
+      <c r="I6" s="76">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>679</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>680</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>682</v>
+      </c>
+      <c r="F7" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0.71384667623971898</v>
+      </c>
+      <c r="H7" s="76">
+        <v>0</v>
+      </c>
+      <c r="I7" s="76">
+        <v>0</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>683</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>684</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="80">
+        <v>7.9806279155107629E-2</v>
+      </c>
+      <c r="H8" s="76">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="I8" s="76">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="73">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G9" s="81">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="H9" s="76">
+        <v>5.0644</v>
+      </c>
+      <c r="I9" s="76">
+        <v>0</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="K9" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="73">
+        <v>-8.6</v>
+      </c>
+      <c r="G10" s="81">
+        <v>1972365.99167846</v>
+      </c>
+      <c r="H10" s="76">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="I10" s="76">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" s="73">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" s="81">
+        <v>2.7490660521270844</v>
+      </c>
+      <c r="H11" s="76">
+        <v>5.0644</v>
+      </c>
+      <c r="I11" s="76">
+        <v>0</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="K11" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>613</v>
+      </c>
+      <c r="F12" s="73">
+        <v>3.4</v>
+      </c>
+      <c r="G12" s="81">
+        <v>3.2455179049229346E-3</v>
+      </c>
+      <c r="H12" s="76">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="I12" s="76">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>615</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="G13" s="81">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="H13" s="76">
+        <v>5.0644</v>
+      </c>
+      <c r="I13" s="76">
+        <v>0</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>711</v>
+      </c>
+      <c r="F14" s="73">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="81">
+        <v>5.3947992860050586</v>
+      </c>
+      <c r="H14" s="76">
+        <v>-5.0644</v>
+      </c>
+      <c r="I14" s="76">
+        <v>0</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>712</v>
+      </c>
+      <c r="K14" s="75" t="s">
+        <v>713</v>
+      </c>
+      <c r="L14" s="75" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="76">
+        <v>0</v>
+      </c>
+      <c r="I15" s="76">
+        <v>8.5031999999999996</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="76">
+        <v>0</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0</v>
+      </c>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="76">
+        <v>0</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0</v>
+      </c>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="76">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="I18" s="76">
+        <v>-0.3775</v>
+      </c>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="76">
+        <v>0</v>
+      </c>
+      <c r="I19" s="76">
+        <v>8.2797999999999998</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="76">
+        <v>0</v>
+      </c>
+      <c r="I20" s="76">
+        <v>17.803999999999998</v>
+      </c>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="76">
+        <v>0</v>
+      </c>
+      <c r="I21" s="76">
+        <v>0</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="76">
+        <v>-10</v>
+      </c>
+      <c r="I22" s="76">
+        <v>-10</v>
+      </c>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="76">
+        <v>17.530899999999999</v>
+      </c>
+      <c r="I23" s="76">
+        <v>30.5532</v>
+      </c>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>545</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="76">
+        <v>29.175799999999999</v>
+      </c>
+      <c r="I24" s="76">
+        <v>-7.1154999999999999</v>
+      </c>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="76">
+        <v>0</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0</v>
+      </c>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="76">
+        <v>0</v>
+      </c>
+      <c r="I26" s="76">
+        <v>0</v>
+      </c>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="76">
+        <v>-21.799499999999998</v>
+      </c>
+      <c r="I27" s="76">
+        <v>0</v>
+      </c>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="76">
+        <v>-3.2149000000000001</v>
+      </c>
+      <c r="I28" s="76">
+        <v>-0.77859999999999996</v>
+      </c>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="76">
+        <v>0</v>
+      </c>
+      <c r="I29" s="76">
+        <v>0</v>
+      </c>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="76">
+        <v>0</v>
+      </c>
+      <c r="I30" s="76">
+        <v>0</v>
+      </c>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>515</v>
+      </c>
+      <c r="F31" s="73">
+        <v>-0.9</v>
+      </c>
+      <c r="G31" s="81">
+        <v>4.5580361179955871</v>
+      </c>
+      <c r="H31" s="76">
+        <v>14.716100000000001</v>
+      </c>
+      <c r="I31" s="76">
+        <v>19.120699999999999</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="K31" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="L31" s="75" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" s="73">
+        <v>4.2</v>
+      </c>
+      <c r="G32" s="81">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="H32" s="76">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="I32" s="76">
+        <v>9.7895000000000003</v>
+      </c>
+      <c r="J32" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="K32" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="L32" s="75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="F33" s="73">
+        <v>-2.8</v>
+      </c>
+      <c r="G33" s="81">
+        <v>112.08069512728699</v>
+      </c>
+      <c r="H33" s="76">
+        <v>0</v>
+      </c>
+      <c r="I33" s="76">
+        <v>0</v>
+      </c>
+      <c r="J33" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="K33" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="L33" s="75" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>590</v>
+      </c>
+      <c r="F34" s="73">
+        <v>-0.1</v>
+      </c>
+      <c r="G34" s="81">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="H34" s="76">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="I34" s="76">
+        <v>19.4373</v>
+      </c>
+      <c r="J34" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="K34" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="L34" s="75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="73">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G35" s="81">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="H35" s="76">
+        <v>9.2825000000000006</v>
+      </c>
+      <c r="I35" s="76">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>649</v>
+      </c>
+      <c r="K35" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="L35" s="75" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="F36" s="73">
+        <v>-3.8</v>
+      </c>
+      <c r="G36" s="81">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="H36" s="76">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="I36" s="76">
+        <v>9.7895000000000003</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="K36" s="75" t="s">
+        <v>654</v>
+      </c>
+      <c r="L36" s="75" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>659</v>
+      </c>
+      <c r="F37" s="73">
+        <v>-0.8</v>
+      </c>
+      <c r="G37" s="81">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="H37" s="76">
+        <v>4.8609</v>
+      </c>
+      <c r="I37" s="76">
+        <v>9.9565999999999999</v>
+      </c>
+      <c r="J37" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="K37" s="75" t="s">
+        <v>661</v>
+      </c>
+      <c r="L37" s="75" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>663</v>
+      </c>
+      <c r="F38" s="73">
+        <v>2.8</v>
+      </c>
+      <c r="G38" s="81">
+        <v>8.9221430939942625E-3</v>
+      </c>
+      <c r="H38" s="76">
+        <v>-16.023499999999999</v>
+      </c>
+      <c r="I38" s="76">
+        <v>-19.4373</v>
+      </c>
+      <c r="J38" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="K38" s="75" t="s">
+        <v>665</v>
+      </c>
+      <c r="L38" s="75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>671</v>
+      </c>
+      <c r="F39" s="73">
+        <v>0</v>
+      </c>
+      <c r="G39" s="81">
+        <v>1</v>
+      </c>
+      <c r="H39" s="76">
+        <v>-14.716100000000001</v>
+      </c>
+      <c r="I39" s="76">
+        <v>-19.120699999999999</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>672</v>
+      </c>
+      <c r="K39" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="L39" s="75" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>686</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>687</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>688</v>
+      </c>
+      <c r="F40" s="73">
+        <v>-1.2</v>
+      </c>
+      <c r="G40" s="81">
+        <v>7.5573641589575944</v>
+      </c>
+      <c r="H40" s="76">
+        <v>0</v>
+      </c>
+      <c r="I40" s="76">
+        <v>0</v>
+      </c>
+      <c r="J40" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="K40" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="L40" s="75" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="F41" s="73">
+        <v>-5.3</v>
+      </c>
+      <c r="G41" s="81">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="H41" s="76">
+        <v>1.7582</v>
+      </c>
+      <c r="I41" s="76">
+        <v>8.4042999999999992</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="L41" s="75" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>727</v>
+      </c>
+      <c r="F42" s="73">
+        <v>1.4</v>
+      </c>
+      <c r="G42" s="81">
+        <v>9.4457096578257488E-2</v>
+      </c>
+      <c r="H42" s="76">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="I42" s="76">
+        <v>9.7895000000000003</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>728</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>729</v>
+      </c>
+      <c r="L42" s="75" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>456</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="73">
+        <v>0</v>
+      </c>
+      <c r="G43" s="81">
+        <v>1</v>
+      </c>
+      <c r="H43" s="76">
+        <v>3.2149000000000001</v>
+      </c>
+      <c r="I43" s="76">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="J43" s="75" t="s">
+        <v>675</v>
+      </c>
+      <c r="K43" s="75" t="s">
+        <v>676</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="F44" s="73">
+        <v>-0.1</v>
+      </c>
+      <c r="G44" s="81">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="H44" s="76">
+        <v>0</v>
+      </c>
+      <c r="I44" s="76">
+        <v>0</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="K44" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="73">
+        <v>-6.6</v>
+      </c>
+      <c r="G45" s="81">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="H45" s="76">
+        <v>8.39</v>
+      </c>
+      <c r="I45" s="76">
+        <v>8.39</v>
+      </c>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" s="73">
+        <v>6.6</v>
+      </c>
+      <c r="G46" s="81">
+        <v>1.4755810766902159E-5</v>
+      </c>
+      <c r="H46" s="76">
+        <v>45.514000000000003</v>
+      </c>
+      <c r="I46" s="76">
+        <v>-5.4518000000000004</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="L46" s="75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" s="71"/>
+      <c r="F47" s="73">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G47" s="81">
+        <v>1.6962147614400713E+27</v>
+      </c>
+      <c r="H47" s="76">
+        <v>43.5989</v>
+      </c>
+      <c r="I47" s="76">
+        <v>0</v>
+      </c>
+      <c r="J47" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="K47" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="L47" s="75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="F48" s="76">
+        <v>5.9</v>
+      </c>
+      <c r="G48" s="76">
+        <v>4.8011555980423353E-5</v>
+      </c>
+      <c r="H48" s="76">
+        <v>0</v>
+      </c>
+      <c r="I48" s="76">
+        <v>0</v>
+      </c>
+      <c r="J48" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="K48" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="L48" s="76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>641</v>
+      </c>
+      <c r="F49" s="79">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G49" s="80">
+        <v>5449668303594.3379</v>
+      </c>
+      <c r="H49" s="76">
+        <v>38.534599999999998</v>
+      </c>
+      <c r="I49" s="76">
+        <v>0</v>
+      </c>
+      <c r="J49" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="K49" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="L49" s="76" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>645</v>
+      </c>
+      <c r="F50" s="73">
+        <v>-0.3</v>
+      </c>
+      <c r="G50" s="81">
+        <v>1.6580307753859953</v>
+      </c>
+      <c r="H50" s="76">
+        <v>0</v>
+      </c>
+      <c r="I50" s="76">
+        <v>0</v>
+      </c>
+      <c r="J50" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="K50" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="L50" s="75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="F51" s="76">
+        <v>-2.1</v>
+      </c>
+      <c r="G51" s="76">
+        <v>34.446738793374067</v>
+      </c>
+      <c r="H51" s="76">
+        <v>5.0644</v>
+      </c>
+      <c r="I51" s="76">
+        <v>0</v>
+      </c>
+      <c r="J51" s="76" t="s">
+        <v>708</v>
+      </c>
+      <c r="K51" s="76" t="s">
+        <v>709</v>
+      </c>
+      <c r="L51" s="76" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>443</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>719</v>
+      </c>
+      <c r="F52" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="81">
+        <v>0.60312511374657485</v>
+      </c>
+      <c r="H52" s="76">
+        <v>0</v>
+      </c>
+      <c r="I52" s="76">
+        <v>3.6292</v>
+      </c>
+      <c r="J52" s="75" t="s">
+        <v>720</v>
+      </c>
+      <c r="K52" s="75" t="s">
+        <v>721</v>
+      </c>
+      <c r="L52" s="75" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F53" s="73">
+        <v>-1.6</v>
+      </c>
+      <c r="G53" s="81">
+        <v>14.830659575195945</v>
+      </c>
+      <c r="H53" s="76">
+        <v>4.96</v>
+      </c>
+      <c r="I53" s="76">
+        <v>0</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K53" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L53" s="75" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>603</v>
+      </c>
+      <c r="F54" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="81">
+        <v>0.2193927327718837</v>
+      </c>
+      <c r="H54" s="76">
+        <v>4.96</v>
+      </c>
+      <c r="I54" s="76">
+        <v>0</v>
+      </c>
+      <c r="J54" s="75" t="s">
+        <v>604</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>605</v>
+      </c>
+      <c r="L54" s="75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>667</v>
+      </c>
+      <c r="F55" s="73">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G55" s="81">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="H55" s="76">
+        <v>4.96</v>
+      </c>
+      <c r="I55" s="76">
+        <v>0</v>
+      </c>
+      <c r="J55" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="K55" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="L55" s="75" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="F56" s="73">
+        <v>0</v>
+      </c>
+      <c r="G56" s="81">
+        <v>1</v>
+      </c>
+      <c r="H56" s="76">
+        <v>2.6785000000000001</v>
+      </c>
+      <c r="I56" s="76">
+        <v>-0.15210000000000001</v>
+      </c>
+      <c r="J56" s="75" t="s">
+        <v>701</v>
+      </c>
+      <c r="K56" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="L56" s="75" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>704</v>
+      </c>
+      <c r="F57" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="81">
+        <v>0.43053885780469486</v>
+      </c>
+      <c r="H57" s="76">
+        <v>-2.2814999999999999</v>
+      </c>
+      <c r="I57" s="76">
+        <v>-0.15210000000000001</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>705</v>
+      </c>
+      <c r="K57" s="75" t="s">
+        <v>706</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>715</v>
+      </c>
+      <c r="F58" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="G58" s="81">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="H58" s="76">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="I58" s="76">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="J58" s="75" t="s">
+        <v>716</v>
+      </c>
+      <c r="K58" s="75" t="s">
+        <v>717</v>
+      </c>
+      <c r="L58" s="75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E59" s="75" t="s">
+        <v>723</v>
+      </c>
+      <c r="F59" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="G59" s="81">
+        <v>4.0667450472350736E-2</v>
+      </c>
+      <c r="H59" s="76">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="I59" s="76">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="J59" s="75" t="s">
+        <v>724</v>
+      </c>
+      <c r="K59" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="L59" s="75" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>723</v>
+      </c>
+      <c r="F60" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="G60" s="81">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="H60" s="76">
+        <v>1.1815</v>
+      </c>
+      <c r="I60" s="76">
+        <v>-0.1143</v>
+      </c>
+      <c r="J60" s="75" t="s">
+        <v>724</v>
+      </c>
+      <c r="K60" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="L60" s="75" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" s="79">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G61" s="80">
+        <v>1662.2306343841162</v>
+      </c>
+      <c r="H61" s="76">
+        <v>0</v>
+      </c>
+      <c r="I61" s="76">
+        <v>-8.2797999999999998</v>
+      </c>
+      <c r="J61" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="L61" s="76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="F62" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="G62" s="81">
+        <v>7.1204304242112172E-4</v>
+      </c>
+      <c r="H62" s="76">
+        <v>0</v>
+      </c>
+      <c r="I62" s="76">
+        <v>-8.5031999999999996</v>
+      </c>
+      <c r="J62" s="75" t="s">
+        <v>478</v>
+      </c>
+      <c r="K62" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="L62" s="75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>495</v>
+      </c>
+      <c r="F63" s="79">
+        <v>6</v>
+      </c>
+      <c r="G63" s="80">
+        <v>4.0564698450902027E-5</v>
+      </c>
+      <c r="H63" s="76">
+        <v>0</v>
+      </c>
+      <c r="I63" s="76">
+        <v>-8.2797999999999998</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" s="76" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>621</v>
+      </c>
+      <c r="F64" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="G64" s="81">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="H64" s="76">
+        <v>0</v>
+      </c>
+      <c r="I64" s="76">
+        <v>0</v>
+      </c>
+      <c r="J64" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="K64" s="75" t="s">
+        <v>623</v>
+      </c>
+      <c r="L64" s="75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C65" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="71"/>
+      <c r="F65" s="73">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G65" s="81">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="H65" s="76">
+        <v>0</v>
+      </c>
+      <c r="I65" s="76">
+        <v>17.803999999999998</v>
+      </c>
+      <c r="J65" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="K65" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="L65" s="75" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="F66" s="73">
+        <v>3.8</v>
+      </c>
+      <c r="G66" s="81">
+        <v>1.6538415279210997E-3</v>
+      </c>
+      <c r="H66" s="76">
+        <v>0</v>
+      </c>
+      <c r="I66" s="76">
+        <v>8.5031999999999996</v>
+      </c>
+      <c r="J66" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="K66" s="75" t="s">
+        <v>694</v>
+      </c>
+      <c r="L66" s="75" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D67" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="76"/>
+      <c r="F67" s="79">
+        <v>0</v>
+      </c>
+      <c r="G67" s="80">
+        <v>1</v>
+      </c>
+      <c r="H67" s="76">
+        <v>0</v>
+      </c>
+      <c r="I67" s="76">
+        <v>0</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>474</v>
+      </c>
+      <c r="K67" s="76" t="s">
+        <v>475</v>
+      </c>
+      <c r="L67" s="76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="75" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="71"/>
+      <c r="F68" s="73">
+        <v>0</v>
+      </c>
+      <c r="G68" s="81">
+        <v>1</v>
+      </c>
+      <c r="H68" s="76">
+        <v>0</v>
+      </c>
+      <c r="I68" s="76">
+        <v>-8.5031999999999996</v>
+      </c>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" s="71"/>
+      <c r="F69" s="73">
+        <v>0</v>
+      </c>
+      <c r="G69" s="81">
+        <v>1</v>
+      </c>
+      <c r="H69" s="76">
+        <v>0</v>
+      </c>
+      <c r="I69" s="76">
+        <v>0</v>
+      </c>
+      <c r="J69" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="K69" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="L69" s="75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" s="71"/>
+      <c r="F70" s="73">
+        <v>0</v>
+      </c>
+      <c r="G70" s="81">
+        <v>1</v>
+      </c>
+      <c r="H70" s="76">
+        <v>-22.809799999999999</v>
+      </c>
+      <c r="I70" s="76">
+        <v>0.3775</v>
+      </c>
+      <c r="J70" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="K70" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="L70" s="75" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="71"/>
+      <c r="F71" s="73">
+        <v>0</v>
+      </c>
+      <c r="G71" s="81">
+        <v>1</v>
+      </c>
+      <c r="H71" s="76">
+        <v>0</v>
+      </c>
+      <c r="I71" s="76">
+        <v>0</v>
+      </c>
+      <c r="J71" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="K71" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" s="75" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="71"/>
+      <c r="F72" s="73">
+        <v>0</v>
+      </c>
+      <c r="G72" s="81">
+        <v>1</v>
+      </c>
+      <c r="H72" s="76">
+        <v>0</v>
+      </c>
+      <c r="I72" s="76">
+        <v>-8.2797999999999998</v>
+      </c>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="71"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="D73" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" s="76"/>
+      <c r="F73" s="79">
+        <v>0</v>
+      </c>
+      <c r="G73" s="80">
+        <v>1</v>
+      </c>
+      <c r="H73" s="76">
+        <v>0</v>
+      </c>
+      <c r="I73" s="76">
+        <v>0</v>
+      </c>
+      <c r="J73" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" s="76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" s="76"/>
+      <c r="F74" s="79">
+        <v>0</v>
+      </c>
+      <c r="G74" s="80">
+        <v>1</v>
+      </c>
+      <c r="H74" s="76">
+        <v>0</v>
+      </c>
+      <c r="I74" s="76">
+        <v>17.803999999999998</v>
+      </c>
+      <c r="J74" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" s="76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="71"/>
+      <c r="F75" s="73">
+        <v>0</v>
+      </c>
+      <c r="G75" s="81">
+        <v>1</v>
+      </c>
+      <c r="H75" s="76">
+        <v>0</v>
+      </c>
+      <c r="I75" s="76">
+        <v>0</v>
+      </c>
+      <c r="J75" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="K75" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="L75" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="71"/>
+      <c r="F76" s="73">
+        <v>-9.1</v>
+      </c>
+      <c r="G76" s="81">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="H76" s="76">
+        <v>10</v>
+      </c>
+      <c r="I76" s="76">
+        <v>10</v>
+      </c>
+      <c r="J76" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="K76" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" s="75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="71"/>
+      <c r="F77" s="73">
+        <v>-6.6</v>
+      </c>
+      <c r="G77" s="81">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="H77" s="76">
+        <v>0</v>
+      </c>
+      <c r="I77" s="76">
+        <v>0</v>
+      </c>
+      <c r="J77" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="K77" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L77" s="75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B78" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E78" s="71"/>
+      <c r="F78" s="73">
+        <v>0</v>
+      </c>
+      <c r="G78" s="81">
+        <v>1</v>
+      </c>
+      <c r="H78" s="76">
+        <v>0</v>
+      </c>
+      <c r="I78" s="76">
+        <v>0</v>
+      </c>
+      <c r="J78" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="K78" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L78" s="75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" s="76" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" s="71"/>
+      <c r="F79" s="73">
+        <v>0</v>
+      </c>
+      <c r="G79" s="81">
+        <v>1</v>
+      </c>
+      <c r="H79" s="76">
+        <v>-29.175799999999999</v>
+      </c>
+      <c r="I79" s="76">
+        <v>7.1154999999999999</v>
+      </c>
+      <c r="J79" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="K79" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="L79" s="75" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" s="76"/>
+      <c r="F80" s="79">
+        <v>0</v>
+      </c>
+      <c r="G80" s="80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="76">
+        <v>0</v>
+      </c>
+      <c r="I80" s="76">
+        <v>0</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>583</v>
+      </c>
+      <c r="K80" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="L80" s="76" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="71"/>
+      <c r="F81" s="73">
+        <v>0</v>
+      </c>
+      <c r="G81" s="81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="76">
+        <v>21.799499999999998</v>
+      </c>
+      <c r="I81" s="76">
+        <v>0</v>
+      </c>
+      <c r="J81" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="K81" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="L81" s="75" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" s="71"/>
+      <c r="F82" s="73">
+        <v>0</v>
+      </c>
+      <c r="G82" s="81">
+        <v>1</v>
+      </c>
+      <c r="H82" s="76">
+        <v>0</v>
+      </c>
+      <c r="I82" s="76">
+        <v>0</v>
+      </c>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="76" t="s">
+        <v>503</v>
+      </c>
+      <c r="B83" s="76" t="s">
+        <v>504</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="73">
+        <v>0</v>
+      </c>
+      <c r="G83" s="81">
+        <v>1</v>
+      </c>
+      <c r="H83" s="76">
+        <v>0</v>
+      </c>
+      <c r="I83" s="76">
+        <v>0</v>
+      </c>
+      <c r="J83" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="K83" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="L83" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E84" s="71"/>
+      <c r="F84" s="73">
+        <v>0</v>
+      </c>
+      <c r="G84" s="81">
+        <v>1</v>
+      </c>
+      <c r="H84" s="76">
+        <v>0</v>
+      </c>
+      <c r="I84" s="76">
+        <v>0</v>
+      </c>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="76">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="I85" s="76">
+        <v>0.2117</v>
+      </c>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L85">
+    <sortCondition ref="D2:D85"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
@@ -2664,8 +7924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -3347,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3423,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="11">
-        <v>254000000</v>
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -3454,6 +3457,9 @@
       <c r="C3">
         <v>11.09</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
       <c r="F3" s="73">
         <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.8</v>
@@ -3515,6 +3521,9 @@
       <c r="C5">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
       <c r="F5" s="73">
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
@@ -3544,6 +3553,9 @@
       <c r="C6">
         <v>8.5</v>
       </c>
+      <c r="D6" s="73">
+        <v>100</v>
+      </c>
       <c r="F6" s="73">
         <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.2</v>
@@ -3573,6 +3585,9 @@
       <c r="C7">
         <v>56.87</v>
       </c>
+      <c r="D7" s="73">
+        <v>100</v>
+      </c>
       <c r="F7" s="73">
         <v>1.4</v>
       </c>
@@ -3600,6 +3615,9 @@
       <c r="C8">
         <v>671.72</v>
       </c>
+      <c r="D8" s="73">
+        <v>100</v>
+      </c>
       <c r="F8" s="73">
         <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
@@ -3629,6 +3647,9 @@
       <c r="C9">
         <v>2225</v>
       </c>
+      <c r="D9" s="73">
+        <v>100</v>
+      </c>
       <c r="F9" s="73">
         <v>-2.8</v>
       </c>
@@ -3656,6 +3677,9 @@
       <c r="C10">
         <v>90.55</v>
       </c>
+      <c r="D10" s="73">
+        <v>100</v>
+      </c>
       <c r="F10" s="73">
         <f>VLOOKUP(A10,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
@@ -3684,6 +3708,9 @@
       <c r="C11">
         <v>355.79</v>
       </c>
+      <c r="D11" s="73">
+        <v>100</v>
+      </c>
       <c r="F11" s="73">
         <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.9</v>
@@ -3713,6 +3740,9 @@
       <c r="C12">
         <v>10.17</v>
       </c>
+      <c r="D12" s="73">
+        <v>100</v>
+      </c>
       <c r="F12" s="73">
         <f>VLOOKUP(A12,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.3</v>
@@ -3742,6 +3772,9 @@
       <c r="C13">
         <v>0.68300000000000005</v>
       </c>
+      <c r="D13" s="73">
+        <v>100</v>
+      </c>
       <c r="F13" s="73">
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.2</v>
@@ -3771,6 +3804,9 @@
       <c r="C14">
         <v>6.32</v>
       </c>
+      <c r="D14" s="73">
+        <v>100</v>
+      </c>
       <c r="F14" s="73">
         <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
@@ -3800,6 +3836,9 @@
       <c r="C15">
         <v>81</v>
       </c>
+      <c r="D15" s="73">
+        <v>100</v>
+      </c>
       <c r="F15" s="73">
         <f>VLOOKUP(A15,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6</v>
@@ -3829,6 +3868,9 @@
       <c r="C16">
         <v>5.3</v>
       </c>
+      <c r="D16" s="73">
+        <v>100</v>
+      </c>
       <c r="F16" s="73">
         <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.5</v>
@@ -3858,6 +3900,9 @@
       <c r="C17">
         <v>106.4</v>
       </c>
+      <c r="D17" s="73">
+        <v>100</v>
+      </c>
       <c r="F17" s="73">
         <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.4</v>
@@ -3887,6 +3932,9 @@
       <c r="C18">
         <v>5.2</v>
       </c>
+      <c r="D18" s="73">
+        <v>100</v>
+      </c>
       <c r="F18" s="73">
         <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.9000000000000004</v>
@@ -3916,6 +3964,9 @@
       <c r="C19">
         <v>48.1</v>
       </c>
+      <c r="D19" s="73">
+        <v>100</v>
+      </c>
       <c r="F19" s="73">
         <f>VLOOKUP(A19,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6999999999999993</v>
@@ -3945,6 +3996,9 @@
       <c r="C20">
         <v>49</v>
       </c>
+      <c r="D20" s="73">
+        <v>100</v>
+      </c>
       <c r="F20" s="73">
         <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
@@ -3974,6 +4028,9 @@
       <c r="C21">
         <v>44.73</v>
       </c>
+      <c r="D21" s="73">
+        <v>100</v>
+      </c>
       <c r="F21" s="73">
         <v>-1</v>
       </c>
@@ -4001,6 +4058,9 @@
       <c r="C22">
         <v>24</v>
       </c>
+      <c r="D22" s="73">
+        <v>100</v>
+      </c>
       <c r="F22" s="73">
         <v>-2.1</v>
       </c>
@@ -4028,6 +4088,9 @@
       <c r="C23">
         <v>3.4</v>
       </c>
+      <c r="D23" s="73">
+        <v>100</v>
+      </c>
       <c r="F23" s="73">
         <f>VLOOKUP(A23,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>5.9</v>
@@ -4057,6 +4120,9 @@
       <c r="C24">
         <v>51.7</v>
       </c>
+      <c r="D24" s="73">
+        <v>100</v>
+      </c>
       <c r="F24" s="73">
         <f>VLOOKUP(A24,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.6</v>
@@ -4086,6 +4152,9 @@
       <c r="C25">
         <v>960</v>
       </c>
+      <c r="D25" s="73">
+        <v>100</v>
+      </c>
       <c r="F25" s="73">
         <f>VLOOKUP(A25,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>6.4</v>
@@ -4106,6 +4175,9 @@
       <c r="C26">
         <v>12.8</v>
       </c>
+      <c r="D26" s="73">
+        <v>100</v>
+      </c>
       <c r="F26" s="73">
         <f>VLOOKUP(A26,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
@@ -4126,6 +4198,9 @@
       <c r="C27">
         <v>320</v>
       </c>
+      <c r="D27" s="73">
+        <v>100</v>
+      </c>
       <c r="F27" s="73">
         <v>-6.4</v>
       </c>
@@ -4145,6 +4220,9 @@
       <c r="C28">
         <v>120</v>
       </c>
+      <c r="D28" s="73">
+        <v>100</v>
+      </c>
       <c r="F28" s="73">
         <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.8</v>
@@ -4164,6 +4242,9 @@
       <c r="C29">
         <v>280</v>
       </c>
+      <c r="D29" s="73">
+        <v>100</v>
+      </c>
       <c r="F29" s="73">
         <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.3</v>
@@ -4184,6 +4265,9 @@
       <c r="C30">
         <v>15.7</v>
       </c>
+      <c r="D30" s="73">
+        <v>100</v>
+      </c>
       <c r="F30" s="73">
         <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-4.4000000000000004</v>
@@ -4204,6 +4288,9 @@
       <c r="C31">
         <v>150.19999999999999</v>
       </c>
+      <c r="D31" s="73">
+        <v>100</v>
+      </c>
       <c r="F31" s="73">
         <v>-6</v>
       </c>
@@ -4246,6 +4333,9 @@
       <c r="C33">
         <v>50</v>
       </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
       <c r="F33" s="73">
         <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
@@ -4266,6 +4356,9 @@
       <c r="C34">
         <v>75.650000000000006</v>
       </c>
+      <c r="D34" s="73">
+        <v>100</v>
+      </c>
       <c r="F34" s="73">
         <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.9</v>
@@ -4286,6 +4379,9 @@
       <c r="C35">
         <v>21.05</v>
       </c>
+      <c r="D35" s="73">
+        <v>100</v>
+      </c>
       <c r="F35" s="73">
         <v>0</v>
       </c>
@@ -4304,6 +4400,9 @@
       <c r="C36">
         <v>15.95</v>
       </c>
+      <c r="D36" s="73">
+        <v>100</v>
+      </c>
       <c r="F36" s="73">
         <v>0.5</v>
       </c>
@@ -4322,6 +4421,9 @@
       <c r="C37">
         <v>55.57</v>
       </c>
+      <c r="D37" s="73">
+        <v>100</v>
+      </c>
       <c r="F37" s="73">
         <v>1.9</v>
       </c>
@@ -4340,6 +4442,9 @@
       <c r="C38">
         <v>16.57</v>
       </c>
+      <c r="D38" s="73">
+        <v>100</v>
+      </c>
       <c r="F38" s="73">
         <v>-1.7</v>
       </c>
@@ -4358,6 +4463,9 @@
       <c r="C39">
         <v>15.45</v>
       </c>
+      <c r="D39" s="73">
+        <v>100</v>
+      </c>
       <c r="F39" s="73">
         <v>-1.7</v>
       </c>
@@ -4376,6 +4484,9 @@
       <c r="C40">
         <v>50</v>
       </c>
+      <c r="D40" s="73">
+        <v>100</v>
+      </c>
       <c r="F40" s="73">
         <f>VLOOKUP(A40,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-17.399999999999999</v>
@@ -4396,6 +4507,9 @@
       <c r="C41" s="73">
         <v>50</v>
       </c>
+      <c r="D41" s="73">
+        <v>100</v>
+      </c>
       <c r="F41" s="73">
         <f>VLOOKUP(A41,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.3</v>
@@ -4416,6 +4530,9 @@
       <c r="C42" s="73">
         <v>50</v>
       </c>
+      <c r="D42" s="73">
+        <v>100</v>
+      </c>
       <c r="F42" s="73">
         <v>0.3</v>
       </c>
@@ -4434,6 +4551,9 @@
       <c r="C43" s="73">
         <v>50</v>
       </c>
+      <c r="D43" s="73">
+        <v>100</v>
+      </c>
       <c r="F43" s="73">
         <f>VLOOKUP(A43,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
@@ -4454,6 +4574,9 @@
       <c r="C44" s="73">
         <v>50</v>
       </c>
+      <c r="D44" s="73">
+        <v>100</v>
+      </c>
       <c r="F44" s="73">
         <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.6</v>
@@ -4474,6 +4597,9 @@
       <c r="C45" s="73">
         <v>50</v>
       </c>
+      <c r="D45" s="73">
+        <v>100</v>
+      </c>
       <c r="F45" s="73">
         <f>VLOOKUP(A45,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>6.6</v>
@@ -4494,6 +4620,9 @@
       <c r="C46" s="73">
         <v>50</v>
       </c>
+      <c r="D46" s="73">
+        <v>100</v>
+      </c>
       <c r="F46" s="73">
         <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-37.200000000000003</v>
@@ -4514,6 +4643,9 @@
       <c r="C47">
         <v>13.74</v>
       </c>
+      <c r="D47" s="73">
+        <v>100</v>
+      </c>
       <c r="F47" s="73">
         <f>VLOOKUP(A47,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.8</v>
@@ -4534,6 +4666,9 @@
       <c r="C48">
         <v>50</v>
       </c>
+      <c r="D48" s="73">
+        <v>100</v>
+      </c>
       <c r="F48" s="73">
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
@@ -4554,6 +4689,9 @@
       <c r="C49" s="73">
         <v>50</v>
       </c>
+      <c r="D49" s="73">
+        <v>100</v>
+      </c>
       <c r="F49" s="73">
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.3</v>
@@ -4574,6 +4712,9 @@
       <c r="C50" s="73">
         <v>50</v>
       </c>
+      <c r="D50" s="73">
+        <v>100</v>
+      </c>
       <c r="F50" s="73">
         <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.6</v>
@@ -4609,7 +4750,9 @@
       <c r="A52" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="11">
+        <v>1.6670000000000001E-2</v>
+      </c>
       <c r="F52" s="73">
         <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="7065" activeTab="9"/>
   </bookViews>
@@ -20,8 +25,7 @@
     <sheet name="ecoliN2" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2671,6 +2675,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2718,7 +2725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2753,7 +2760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3347,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="7065" activeTab="9"/>
   </bookViews>
@@ -2725,7 +2720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2760,7 +2755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3354,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -20,7 +20,7 @@
     <sheet name="ecoliN2" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3349,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,9 +3459,6 @@
       <c r="C3">
         <v>11.09</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
       <c r="F3" s="73">
         <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.8</v>
@@ -3492,7 +3489,7 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>135.66</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="F4" s="73">
         <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -3523,9 +3520,6 @@
       <c r="C5">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
       <c r="F5" s="73">
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
@@ -3555,9 +3549,7 @@
       <c r="C6">
         <v>8.5</v>
       </c>
-      <c r="D6" s="73">
-        <v>100</v>
-      </c>
+      <c r="D6" s="73"/>
       <c r="F6" s="73">
         <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.2</v>
@@ -3587,9 +3579,7 @@
       <c r="C7">
         <v>56.87</v>
       </c>
-      <c r="D7" s="73">
-        <v>100</v>
-      </c>
+      <c r="D7" s="73"/>
       <c r="F7" s="73">
         <v>1.4</v>
       </c>
@@ -3617,9 +3607,7 @@
       <c r="C8">
         <v>671.72</v>
       </c>
-      <c r="D8" s="73">
-        <v>100</v>
-      </c>
+      <c r="D8" s="73"/>
       <c r="F8" s="73">
         <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
@@ -3649,9 +3637,7 @@
       <c r="C9">
         <v>2225</v>
       </c>
-      <c r="D9" s="73">
-        <v>100</v>
-      </c>
+      <c r="D9" s="73"/>
       <c r="F9" s="73">
         <v>-2.8</v>
       </c>
@@ -3679,9 +3665,7 @@
       <c r="C10">
         <v>90.55</v>
       </c>
-      <c r="D10" s="73">
-        <v>100</v>
-      </c>
+      <c r="D10" s="73"/>
       <c r="F10" s="73">
         <f>VLOOKUP(A10,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
@@ -3710,9 +3694,7 @@
       <c r="C11">
         <v>355.79</v>
       </c>
-      <c r="D11" s="73">
-        <v>100</v>
-      </c>
+      <c r="D11" s="73"/>
       <c r="F11" s="73">
         <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.9</v>
@@ -3742,9 +3724,7 @@
       <c r="C12">
         <v>10.17</v>
       </c>
-      <c r="D12" s="73">
-        <v>100</v>
-      </c>
+      <c r="D12" s="73"/>
       <c r="F12" s="73">
         <f>VLOOKUP(A12,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.3</v>
@@ -3775,7 +3755,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="D13" s="73">
-        <v>100</v>
+        <v>13.03</v>
       </c>
       <c r="F13" s="73">
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -3806,9 +3786,7 @@
       <c r="C14">
         <v>6.32</v>
       </c>
-      <c r="D14" s="73">
-        <v>100</v>
-      </c>
+      <c r="D14" s="73"/>
       <c r="F14" s="73">
         <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
@@ -3838,9 +3816,7 @@
       <c r="C15">
         <v>81</v>
       </c>
-      <c r="D15" s="73">
-        <v>100</v>
-      </c>
+      <c r="D15" s="73"/>
       <c r="F15" s="73">
         <f>VLOOKUP(A15,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6</v>
@@ -3870,9 +3846,7 @@
       <c r="C16">
         <v>5.3</v>
       </c>
-      <c r="D16" s="73">
-        <v>100</v>
-      </c>
+      <c r="D16" s="73"/>
       <c r="F16" s="73">
         <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.5</v>
@@ -3902,9 +3876,7 @@
       <c r="C17">
         <v>106.4</v>
       </c>
-      <c r="D17" s="73">
-        <v>100</v>
-      </c>
+      <c r="D17" s="73"/>
       <c r="F17" s="73">
         <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.4</v>
@@ -3934,9 +3906,7 @@
       <c r="C18">
         <v>5.2</v>
       </c>
-      <c r="D18" s="73">
-        <v>100</v>
-      </c>
+      <c r="D18" s="73"/>
       <c r="F18" s="73">
         <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.9000000000000004</v>
@@ -3966,9 +3936,7 @@
       <c r="C19">
         <v>48.1</v>
       </c>
-      <c r="D19" s="73">
-        <v>100</v>
-      </c>
+      <c r="D19" s="73"/>
       <c r="F19" s="73">
         <f>VLOOKUP(A19,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6999999999999993</v>
@@ -3998,9 +3966,7 @@
       <c r="C20">
         <v>49</v>
       </c>
-      <c r="D20" s="73">
-        <v>100</v>
-      </c>
+      <c r="D20" s="73"/>
       <c r="F20" s="73">
         <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
@@ -4030,9 +3996,7 @@
       <c r="C21">
         <v>44.73</v>
       </c>
-      <c r="D21" s="73">
-        <v>100</v>
-      </c>
+      <c r="D21" s="73"/>
       <c r="F21" s="73">
         <v>-1</v>
       </c>
@@ -4060,9 +4024,7 @@
       <c r="C22">
         <v>24</v>
       </c>
-      <c r="D22" s="73">
-        <v>100</v>
-      </c>
+      <c r="D22" s="73"/>
       <c r="F22" s="73">
         <v>-2.1</v>
       </c>
@@ -4091,7 +4053,7 @@
         <v>3.4</v>
       </c>
       <c r="D23" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="73">
         <f>VLOOKUP(A23,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4122,9 +4084,7 @@
       <c r="C24">
         <v>51.7</v>
       </c>
-      <c r="D24" s="73">
-        <v>100</v>
-      </c>
+      <c r="D24" s="73"/>
       <c r="F24" s="73">
         <f>VLOOKUP(A24,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.6</v>
@@ -4154,9 +4114,7 @@
       <c r="C25">
         <v>960</v>
       </c>
-      <c r="D25" s="73">
-        <v>100</v>
-      </c>
+      <c r="D25" s="73"/>
       <c r="F25" s="73">
         <f>VLOOKUP(A25,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>6.4</v>
@@ -4177,9 +4135,7 @@
       <c r="C26">
         <v>12.8</v>
       </c>
-      <c r="D26" s="73">
-        <v>100</v>
-      </c>
+      <c r="D26" s="73"/>
       <c r="F26" s="73">
         <f>VLOOKUP(A26,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
@@ -4201,7 +4157,7 @@
         <v>320</v>
       </c>
       <c r="D27" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="73">
         <v>-6.4</v>
@@ -4223,7 +4179,7 @@
         <v>120</v>
       </c>
       <c r="D28" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F28" s="73">
         <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4245,7 +4201,7 @@
         <v>280</v>
       </c>
       <c r="D29" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="73">
         <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4268,7 +4224,7 @@
         <v>15.7</v>
       </c>
       <c r="D30" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30" s="73">
         <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4291,7 +4247,7 @@
         <v>150.19999999999999</v>
       </c>
       <c r="D31" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31" s="73">
         <v>-6</v>
@@ -4313,7 +4269,7 @@
         <v>174</v>
       </c>
       <c r="D32">
-        <v>109.6</v>
+        <v>0.63</v>
       </c>
       <c r="F32" s="73">
         <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4333,10 +4289,7 @@
         <v>419</v>
       </c>
       <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="73">
         <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4358,9 +4311,7 @@
       <c r="C34">
         <v>75.650000000000006</v>
       </c>
-      <c r="D34" s="73">
-        <v>100</v>
-      </c>
+      <c r="D34" s="73"/>
       <c r="F34" s="73">
         <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.9</v>
@@ -4381,9 +4332,7 @@
       <c r="C35">
         <v>21.05</v>
       </c>
-      <c r="D35" s="73">
-        <v>100</v>
-      </c>
+      <c r="D35" s="73"/>
       <c r="F35" s="73">
         <v>0</v>
       </c>
@@ -4402,9 +4351,7 @@
       <c r="C36">
         <v>15.95</v>
       </c>
-      <c r="D36" s="73">
-        <v>100</v>
-      </c>
+      <c r="D36" s="73"/>
       <c r="F36" s="73">
         <v>0.5</v>
       </c>
@@ -4423,9 +4370,7 @@
       <c r="C37">
         <v>55.57</v>
       </c>
-      <c r="D37" s="73">
-        <v>100</v>
-      </c>
+      <c r="D37" s="73"/>
       <c r="F37" s="73">
         <v>1.9</v>
       </c>
@@ -4444,9 +4389,7 @@
       <c r="C38">
         <v>16.57</v>
       </c>
-      <c r="D38" s="73">
-        <v>100</v>
-      </c>
+      <c r="D38" s="73"/>
       <c r="F38" s="73">
         <v>-1.7</v>
       </c>
@@ -4465,9 +4408,7 @@
       <c r="C39">
         <v>15.45</v>
       </c>
-      <c r="D39" s="73">
-        <v>100</v>
-      </c>
+      <c r="D39" s="73"/>
       <c r="F39" s="73">
         <v>-1.7</v>
       </c>
@@ -4484,11 +4425,9 @@
         <v>169</v>
       </c>
       <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="73"/>
       <c r="F40" s="73">
         <f>VLOOKUP(A40,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-17.399999999999999</v>
@@ -4507,11 +4446,9 @@
         <v>441</v>
       </c>
       <c r="C41" s="73">
-        <v>50</v>
-      </c>
-      <c r="D41" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="73"/>
       <c r="F41" s="73">
         <f>VLOOKUP(A41,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.3</v>
@@ -4530,11 +4467,9 @@
         <v>444</v>
       </c>
       <c r="C42" s="73">
-        <v>50</v>
-      </c>
-      <c r="D42" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="73"/>
       <c r="F42" s="73">
         <v>0.3</v>
       </c>
@@ -4551,11 +4486,9 @@
         <v>178</v>
       </c>
       <c r="C43" s="73">
-        <v>50</v>
-      </c>
-      <c r="D43" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="73"/>
       <c r="F43" s="73">
         <f>VLOOKUP(A43,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
@@ -4574,11 +4507,9 @@
         <v>171</v>
       </c>
       <c r="C44" s="73">
-        <v>50</v>
-      </c>
-      <c r="D44" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="73"/>
       <c r="F44" s="73">
         <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.6</v>
@@ -4597,11 +4528,9 @@
         <v>173</v>
       </c>
       <c r="C45" s="73">
-        <v>50</v>
-      </c>
-      <c r="D45" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D45" s="73"/>
       <c r="F45" s="73">
         <f>VLOOKUP(A45,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>6.6</v>
@@ -4620,11 +4549,9 @@
         <v>167</v>
       </c>
       <c r="C46" s="73">
-        <v>50</v>
-      </c>
-      <c r="D46" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D46" s="73"/>
       <c r="F46" s="73">
         <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-37.200000000000003</v>
@@ -4646,7 +4573,7 @@
         <v>13.74</v>
       </c>
       <c r="D47" s="73">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="F47" s="73">
         <f>VLOOKUP(A47,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4666,11 +4593,9 @@
         <v>237</v>
       </c>
       <c r="C48">
-        <v>50</v>
-      </c>
-      <c r="D48" s="73">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" s="73"/>
       <c r="F48" s="73">
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
@@ -4689,10 +4614,10 @@
         <v>254</v>
       </c>
       <c r="C49" s="73">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D49" s="73">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F49" s="73">
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4712,10 +4637,10 @@
         <v>364</v>
       </c>
       <c r="C50" s="73">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D50" s="73">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F50" s="73">
         <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -5271,6 +5196,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="7065" activeTab="9"/>
   </bookViews>
@@ -20,7 +25,7 @@
     <sheet name="ecoliN2" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2720,7 +2725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2755,7 +2760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3350,7 +3355,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H35" sqref="H35:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="7065" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="18195" windowHeight="7005" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -25,12 +20,12 @@
     <sheet name="ecoliN2" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="807">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2490,6 +2485,9 @@
   </si>
   <si>
     <t>[c] : h + nadh + pyr &lt;==&gt; lac + nad</t>
+  </si>
+  <si>
+    <t>[c] : h + nadh + oaa &lt;==&gt; mal + nad</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +2723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2760,7 +2758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3355,7 +3353,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H39"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,6 +3523,9 @@
       <c r="C5">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="F5" s="73">
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
@@ -3757,10 +3758,10 @@
         <v>136</v>
       </c>
       <c r="C13">
-        <v>0.68300000000000005</v>
+        <v>0</v>
       </c>
       <c r="D13" s="73">
-        <v>13.03</v>
+        <v>0</v>
       </c>
       <c r="F13" s="73">
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -4117,19 +4118,19 @@
         <v>253</v>
       </c>
       <c r="C25">
-        <v>960</v>
-      </c>
-      <c r="D25" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="73">
+        <v>50</v>
+      </c>
       <c r="F25" s="73">
-        <f>VLOOKUP(A25,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>6.4</v>
+        <v>-6.4</v>
       </c>
       <c r="G25" s="73">
-        <f>VLOOKUP(A25,Sheet3!$A$2:$I$84,8,FALSE)</f>
-        <v>5.0644</v>
+        <v>-5.0644</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>261</v>
+        <v>806</v>
       </c>
       <c r="I25" s="35"/>
     </row>
@@ -4354,7 +4355,7 @@
         <v>428</v>
       </c>
       <c r="C36">
-        <v>15.95</v>
+        <v>2100</v>
       </c>
       <c r="D36" s="73"/>
       <c r="F36" s="73">
@@ -4600,7 +4601,9 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="73">
+        <v>0</v>
+      </c>
       <c r="F48" s="73">
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
@@ -4619,10 +4622,10 @@
         <v>254</v>
       </c>
       <c r="C49" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="73">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F49" s="73">
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2672,9 +2673,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3352,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="18195" windowHeight="7005" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="18195" windowHeight="6945" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,19 @@
     <sheet name="ecoliT6" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
     <sheet name="ecoliN1" sheetId="11" r:id="rId10"/>
-    <sheet name="ecoliN2" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
+    <sheet name="ecoliN2" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="813">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2489,6 +2492,24 @@
   </si>
   <si>
     <t>[c] : h + nadh + oaa &lt;==&gt; mal + nad</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>1.2.1.51</t>
+  </si>
+  <si>
+    <t>2.3.3.16</t>
+  </si>
+  <si>
+    <t>1.8.1.4</t>
+  </si>
+  <si>
+    <t>2.3.1.54</t>
+  </si>
+  <si>
+    <t>1.10.3.12</t>
   </si>
 </sst>
 </file>
@@ -2676,6 +2697,1511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ecoli_core_S"/>
+      <sheetName val="reactions"/>
+      <sheetName val="rxn max and min"/>
+      <sheetName val="metabolites"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>abbreviation</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v xml:space="preserve"> officialName</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v xml:space="preserve"> equation</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v xml:space="preserve"> subSystem</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v xml:space="preserve"> proteinClass</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ACALD</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>acetaldehyde dehydrogenase (acetylating)</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>[c] : acald + coa + nad &lt;==&gt; accoa + h + nadh</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>1.2.1.10</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ACALDt</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>acetaldehyde reversible transport</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>acald[e] &lt;==&gt; acald[c]</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ACKr</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>acetate kinase</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>[c] : ac + atp &lt;==&gt; actp + adp</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>2.7.2.1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ACONTa</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>aconitase (half-reaction A, Citrate hydro-lyase)</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>[c] : cit &lt;==&gt; acon-C + h2o</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>4.2.1.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ACONTb</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>aconitase (half-reaction B, Isocitrate hydro-lyase)</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>[c] : acon-C + h2o &lt;==&gt; icit</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>4.2.1.3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ACt2r</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>acetate reversible transport via proton symport</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>ac[e] + h[e] &lt;==&gt; ac[c] + h[c]</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ADK1</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>adenylate kinase</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>[c] : amp + atp &lt;==&gt; (2) adp</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>2.7.4.3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>AKGDH</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>2-Oxogluterate dehydrogenase</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>[c] : akg + coa + nad --&gt; co2 + nadh + succoa</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>AKGt2r</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>2-oxoglutarate reversible transport via symport</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>akg[e] + h[e] &lt;==&gt; akg[c] + h[c]</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ALCD2x</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>alcohol dehydrogenase (ethanol)</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>[c] : etoh + nad &lt;==&gt; acald + h + nadh</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>1.1.1.1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ATPM</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>ATP maintenance requirement</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>[c] : atp + h2o --&gt; adp + h + pi</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATPS4r</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ATP synthase (four protons for one ATP)</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>adp[c] + (4) h[e] + pi[c] &lt;==&gt; atp[c] + (3) h[c] + h2o[c]</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>3.6.3.14</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Biomass_Ecoli_core_w/GAM</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Biomass Objective Function with GAM</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>[c] : (1.496) 3pg + (3.7478) accoa + (59.8100) atp + (0.3610) e4p + (0.0709) f6p + (0.1290) g3p + (0.2050) g6p + (0.2557) gln-L + (4.9414) glu-L + (59.8100) h2o + (3.5470) nad + (13.0279) nadph + (1.7867) oaa + (0.5191) pep + (2.8328) pyr + (0.8977) r5p --&gt; (59.8100) adp + (4.1182) akg + (3.7478) coa + (59.8100) h + (3.5470) nadh + (13.0279) nadp + (59.8100) pi</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>CO2t</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>CO2 transporter via diffusion</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>co2[e] &lt;==&gt; co2[c]</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>CS</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>citrate synthase</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>[c] : accoa + h2o + oaa --&gt; cit + coa + h</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>CYTBD</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>cytochrome oxidase bd (ubiquinol-8: 2 protons)</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>(2) h[c] + (0.5) o2[c] + q8h2[c] --&gt; (2) h[e] + h2o[c] + q8[c]</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>D_LACt2</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>D-lactate transport via proton symport</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>h[e] + lac-D[e] &lt;==&gt; h[c] + lac-D[c]</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>ENO</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>enolase</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>[c] : 2pg &lt;==&gt; h2o + pep</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>4.2.1.11</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>ETOHt2r</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ethanol reversible transport via proton symport</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>etoh[e] + h[e] &lt;==&gt; etoh[c] + h[c]</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>EX_ac(e)</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Acetate exchange</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>[e] : ac &lt;==&gt;</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>EX_acald(e)</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Acetaldehyde exchange</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>[e] : acald &lt;==&gt;</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>EX_akg(e)</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>2-Oxoglutarate exchange</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>[e] : akg &lt;==&gt;</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>EX_co2(e)</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>CO2 exchange</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>[e] : co2 &lt;==&gt;</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>EX_etoh(e)</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Ethanol exchange</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>[e] : etoh &lt;==&gt;</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>EX_for(e)</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Formate exchange</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>[e] : for &lt;==&gt;</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>EX_fru(e)</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>D-Fructose exchange</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>[e] : fru &lt;==&gt;</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>EX_fum(e)</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Fumarate exchange</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>[e] : fum &lt;==&gt;</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>EX_glc(e)</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>D-Glucose exchange</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>[e] : glc-D &lt;==&gt;</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>EX_gln_L(e)</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>L-Glutamine exchange</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>[e] : gln-L &lt;==&gt;</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>EX_glu_L(e)</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>L-Glutamate exchange</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>[e] : glu-L &lt;==&gt;</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>EX_h(e)</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>H+ exchange</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>[e] : h &lt;==&gt;</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>EX_h2o(e)</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>H2O exchange</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>[e] : h2o &lt;==&gt;</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>EX_lac_D(e)</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>D-Lactate exchange</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>[e] : lac-D &lt;==&gt;</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>EX_mal_L(e)</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>L-Malate exchange</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>[e] : mal-L &lt;==&gt;</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>EX_nh4(e)</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Ammonium exchange</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>[e] : nh4 &lt;==&gt;</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>EX_o2(e)</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>O2 exchange</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>[e] : o2 &lt;==&gt;</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>EX_pi(e)</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Phosphate exchange</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>[e] : pi &lt;==&gt;</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>EX_pyr(e)</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Pyruvate exchange</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>[e] : pyr &lt;==&gt;</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>EX_succ(e)</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Succinate exchange</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>[e] : succ &lt;==&gt;</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Exchange</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>FBA</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>fructose-bisphosphate aldolase</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>[c] : fdp &lt;==&gt; dhap + g3p</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>4.1.2.13</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>FBP</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>fructose-bisphosphatase</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>[c] : fdp + h2o --&gt; f6p + pi</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>3.1.3.11</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>FORt2</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>formate transport via proton symport (uptake only)</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>for[e] + h[e] --&gt; for[c] + h[c]</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>FORti</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>formate transport via diffusion</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>for[c] --&gt; for[e]</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>FRD7</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>fumarate reductase</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>[c] : fum + q8h2 --&gt; q8 + succ</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>1.3.99.1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>FRUpts2</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Fructose transport via PEP:Pyr PTS (f6p generating)</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>fru[e] + pep[c] --&gt; f6p[c] + pyr[c]</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>FUM</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>fumarase</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>[c] : fum + h2o &lt;==&gt; mal-L</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>4.2.1.2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>FUMt2_2</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Fumarate transport via proton symport (2 H)</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>fum[e] + (2) h[e] --&gt; fum[c] + (2) h[c]</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>G6PDH2r</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>glucose 6-phosphate dehydrogenase</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>[c] : g6p + nadp &lt;==&gt; 6pgl + h + nadph</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>1.1.1.49</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>GAPD</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>glyceraldehyde-3-phosphate dehydrogenase</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>[c] : g3p + nad + pi &lt;==&gt; 13dpg + h + nadh</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>1.2.1.12</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>GLCpts</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>D-glucose transport via PEP:Pyr PTS</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>glc-D[e] + pep[c] --&gt; g6p[c] + pyr[c]</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>GLNS</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>glutamine synthetase</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>[c] : atp + glu-L + nh4 --&gt; adp + gln-L + h + pi</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Glutamate Metabolism</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>6.3.1.2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>GLNabc</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>L-glutamine transport via ABC system</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>atp[c] + gln-L[e] + h2o[c] --&gt; adp[c] + gln-L[c] + h[c] + pi[c]</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>GLUDy</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>glutamate dehydrogenase (NADP)</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>[c] : glu-L + h2o + nadp &lt;==&gt; akg + h + nadph + nh4</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Glutamate Metabolism</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>1.4.1.4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>GLUN</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>glutaminase</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>[c] : gln-L + h2o --&gt; glu-L + nh4</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Glutamate Metabolism</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>3.5.1.2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>GLUSy</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>glutamate synthase (NADPH)</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>[c] : akg + gln-L + h + nadph --&gt; (2) glu-L + nadp</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Glutamate Metabolism</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>1.4.1.13</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>GLUt2r</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>L-glutamate transport via proton symport, reversible (periplasm)</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>glu-L[e] + h[e] &lt;==&gt; glu-L[c] + h[c]</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>GND</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>phosphogluconate dehydrogenase</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>[c] : 6pgc + nadp --&gt; co2 + nadph + ru5p-D</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>1.1.1.44</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>H2Ot</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>H2O transport via diffusion</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>h2o[e] &lt;==&gt; h2o[c]</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>ICDHyr</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>isocitrate dehydrogenase (NADP)</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>[c] : icit + nadp &lt;==&gt; akg + co2 + nadph</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>1.1.1.42</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>ICL</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Isocitrate lyase</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>[c] : icit --&gt; glx + succ</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>4.1.3.1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>LDH_D</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>D-lactate dehydrogenase</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>[c] : lac-D + nad &lt;==&gt; h + nadh + pyr</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>1.1.1.28</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>MALS</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>malate synthase</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>[c] : accoa + glx + h2o --&gt; coa + h + mal-L</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>4.1.3.2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>MALt2_2</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Malate transport via proton symport (2 H)</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>(2) h[e] + mal-L[e] --&gt; (2) h[c] + mal-L[c]</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>MDH</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>malate dehydrogenase</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>[c] : mal-L + nad &lt;==&gt; h + nadh + oaa</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>1.1.1.37</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>ME1</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>malic enzyme (NAD)</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>[c] : mal-L + nad --&gt; co2 + nadh + pyr</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>1.1.1.38</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>ME2</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>malic enzyme (NADP)</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>[c] : mal-L + nadp --&gt; co2 + nadph + pyr</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>1.1.1.40</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>NADH16</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>NADH dehydrogenase (ubiquinone-8 &amp; 3 protons)</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>(4) h[c] + nadh[c] + q8[c] --&gt; (3) h[e] + nad[c] + q8h2[c]</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>1.6.5.3</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>NADTRHD</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>NAD transhydrogenase</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>[c] : nad + nadph --&gt; nadh + nadp</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>1.6.1.2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>NH4t</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>ammonia reversible transport</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>nh4[e] &lt;==&gt; nh4[c]</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Inorganic Ion Transport and Metabolism</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>O2t</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>o2 transport via diffusion</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>o2[e] &lt;==&gt; o2[c]</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>PDH</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>pyruvate dehydrogenase</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>[c] : coa + nad + pyr --&gt; accoa + co2 + nadh</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>PFK</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>phosphofructokinase</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>[c] : atp + f6p --&gt; adp + fdp + h</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>2.7.1.11</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>PFL</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>pyruvate formate lyase</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>[c] : coa + pyr --&gt; accoa + for</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>PGI</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>glucose-6-phosphate isomerase</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>[c] : g6p &lt;==&gt; f6p</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>5.3.1.9</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>PGK</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>phosphoglycerate kinase</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>[c] : 3pg + atp &lt;==&gt; 13dpg + adp</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>2.7.2.3</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>PGL</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>6-phosphogluconolactonase</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>[c] : 6pgl + h2o --&gt; 6pgc + h</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>3.1.1.31</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>PGM</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>phosphoglycerate mutase</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>[c] : 2pg &lt;==&gt; 3pg</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>5.4.2.1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>PIt2r</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>phosphate reversible transport via proton symport</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>h[e] + pi[e] &lt;==&gt; h[c] + pi[c]</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Inorganic Ion Transport and Metabolism</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>PPC</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>phosphoenolpyruvate carboxylase</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>[c] : co2 + h2o + pep --&gt; h + oaa + pi</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>4.1.1.31</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>PPCK</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>phosphoenolpyruvate carboxykinase</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>[c] : atp + oaa --&gt; adp + co2 + pep</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>Anaplerotic reactions</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>4.1.1.49</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>PPS</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>phosphoenolpyruvate synthase</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>[c] : atp + h2o + pyr --&gt; amp + (2) h + pep + pi</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>2.7.9.2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>PTAr</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>phosphotransacetylase</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>[c] : accoa + pi &lt;==&gt; actp + coa</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>Pyruvate Metabolism</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>2.3.1.8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>PYK</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>pyruvate kinase</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>[c] : adp + h + pep --&gt; atp + pyr</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>2.7.1.40</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>PYRt2r</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>pyruvate reversible transport via proton symport</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>h[e] + pyr[e] &lt;==&gt; h[c] + pyr[c]</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>RPE</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>ribulose 5-phosphate 3-epimerase</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>[c] : ru5p-D &lt;==&gt; xu5p-D</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>5.1.3.1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>RPI</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>ribose-5-phosphate isomerase</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>[c] : r5p &lt;==&gt; ru5p-D</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>5.3.1.6</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>SUCCt2_2</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>succinate transport via proton symport (2 H)</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>(2) h[e] + succ[e] --&gt; (2) h[c] + succ[c]</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>SUCCt3</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>succinate transport out via proton antiport</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>h[e] + succ[c] --&gt; h[c] + succ[e]</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>Transport, Extracellular</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>SUCDi</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>succinate dehydrogenase (irreversible)</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>[c] : q8 + succ --&gt; fum + q8h2</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>1.3.99.1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>SUCOAS</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>succinyl-CoA synthetase (ADP-forming)</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>[c] : atp + coa + succ &lt;==&gt; adp + pi + succoa</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>Citric Acid Cycle</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>6.2.1.5</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>TALA</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>transaldolase</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>[c] : g3p + s7p &lt;==&gt; e4p + f6p</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>2.2.1.2</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>THD2</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>NAD(P) transhydrogenase</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>(2) h[e] + nadh[c] + nadp[c] --&gt; (2) h[c] + nad[c] + nadph[c]</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>Oxidative Phosphorylation</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>1.6.1.1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>TKT1</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>transketolase</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>[c] : r5p + xu5p-D &lt;==&gt; g3p + s7p</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>2.2.1.1</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>TKT2</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>transketolase</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>[c] : e4p + xu5p-D &lt;==&gt; f6p + g3p</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>Pentose Phosphate Pathway</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>2.2.1.1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>TPI</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>triose-phosphate isomerase</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>[c] : dhap &lt;==&gt; g3p</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>Glycolysis/Gluconeogenesis</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>5.3.1.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3350,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,6 +6734,2674 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="11">
+        <v>250</v>
+      </c>
+      <c r="D2" s="73">
+        <v>1</v>
+      </c>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73">
+        <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="73">
+        <v>20</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="77">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="P2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73">
+        <v>11.09</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73">
+        <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="G3" s="73">
+        <v>19.801039425479001</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="77" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="73">
+        <v>3.48</v>
+      </c>
+      <c r="P3" s="73">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73">
+        <v>49</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73">
+        <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="G4" s="73">
+        <v>19.0346044708484</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="77" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="P4" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73">
+        <v>22</v>
+      </c>
+      <c r="D5" s="73">
+        <v>0</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73">
+        <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="G5" s="73">
+        <v>0</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="77" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.3.11</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="P5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73">
+        <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="G6" s="73">
+        <v>19.0346044708484</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="77" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="O6" s="73">
+        <v>0.218</v>
+      </c>
+      <c r="P6" s="73">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73">
+        <v>56.87</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
+        <v>1.4</v>
+      </c>
+      <c r="G7" s="78">
+        <v>19.0346044708484</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="77" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73">
+        <v>671.72</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73">
+        <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="73">
+        <v>37.420015145125497</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="77" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="73">
+        <v>2.13</v>
+      </c>
+      <c r="P8" s="73">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73">
+        <v>2225</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73">
+        <v>-2.8</v>
+      </c>
+      <c r="G9" s="73">
+        <v>37.420015145125497</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>795</v>
+      </c>
+      <c r="I9" s="77" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="P9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73">
+        <v>90.55</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73">
+        <f>VLOOKUP(A10,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="73">
+        <v>35.968088220815801</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="77" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="P10" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73">
+        <v>355.79</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73">
+        <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="G11" s="73">
+        <v>35.968088220815801</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="77" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="P11" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73">
+        <v>10.17</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73">
+        <f>VLOOKUP(A12,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-5.3</v>
+      </c>
+      <c r="G12" s="73">
+        <v>15.464281224553</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="77" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="O12" s="73">
+        <v>0.111</v>
+      </c>
+      <c r="P12" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73">
+        <v>0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>0</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73">
+        <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="G13" s="73">
+        <v>0</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="77" t="str">
+        <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.9.2</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="O13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73">
+        <v>6.32</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73">
+        <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G14" s="73">
+        <v>0</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73" t="s">
+        <v>799</v>
+      </c>
+      <c r="O14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73">
+        <v>81</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73">
+        <f>VLOOKUP(A15,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.6</v>
+      </c>
+      <c r="G15" s="73">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73" t="s">
+        <v>800</v>
+      </c>
+      <c r="O15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73">
+        <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="73">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="77" t="str">
+        <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.3</v>
+      </c>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="O16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="P16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73">
+        <v>106.4</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73">
+        <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.4</v>
+      </c>
+      <c r="G17" s="73">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="77" t="str">
+        <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.42</v>
+      </c>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="O17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="P17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73">
+        <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G18" s="73">
+        <v>0</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="77" t="str">
+        <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.3.1</v>
+      </c>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="P18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73">
+        <v>48.1</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73">
+        <f>VLOOKUP(A19,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="G19" s="73">
+        <v>0</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" s="77" t="str">
+        <f>VLOOKUP(A19,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.3.2</v>
+      </c>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="P19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73">
+        <v>49</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73">
+        <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G20" s="73">
+        <v>3.9968753072807401</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>810</v>
+      </c>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73" t="s">
+        <v>802</v>
+      </c>
+      <c r="O20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73">
+        <v>44.73</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="73">
+        <v>-3.9968753072807401</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="77" t="str">
+        <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>6.2.1.5</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="O21" s="73">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P21" s="73">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73">
+        <v>24</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="G22" s="73">
+        <v>3.9968753072807401</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="77" t="str">
+        <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="73">
+        <v>1.47</v>
+      </c>
+      <c r="P22" s="73">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73">
+        <v>3.4</v>
+      </c>
+      <c r="D23" s="73">
+        <v>0</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73">
+        <f>VLOOKUP(A23,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>5.9</v>
+      </c>
+      <c r="G23" s="73">
+        <v>0</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="77" t="str">
+        <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73">
+        <v>51.7</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73">
+        <f>VLOOKUP(A24,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G24" s="73">
+        <v>3.9968753072807401</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="77" t="str">
+        <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.2</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="O24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73">
+        <v>1</v>
+      </c>
+      <c r="D25" s="73">
+        <v>50</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73">
+        <v>-6.4</v>
+      </c>
+      <c r="G25" s="73">
+        <v>-1.73406272437436</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>806</v>
+      </c>
+      <c r="I25" s="77" t="str">
+        <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.37</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73">
+        <v>12.8</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73">
+        <f>VLOOKUP(A26,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G26" s="73">
+        <v>34.977749829395002</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>811</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73">
+        <v>320</v>
+      </c>
+      <c r="D27" s="73">
+        <v>0</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73">
+        <v>-6.4</v>
+      </c>
+      <c r="G27" s="73">
+        <v>0</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="I27" s="77" t="str">
+        <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.28</v>
+      </c>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73">
+        <v>120</v>
+      </c>
+      <c r="D28" s="73">
+        <v>0</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73">
+        <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="G28" s="78">
+        <v>21.2358352193176</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="77" t="str">
+        <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.3.1.8</v>
+      </c>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73">
+        <v>280</v>
+      </c>
+      <c r="D29" s="73">
+        <v>0</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73">
+        <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="G29" s="73">
+        <v>-21.2358352193176</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="77" t="str">
+        <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.1</v>
+      </c>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73">
+        <v>15.7</v>
+      </c>
+      <c r="D30" s="73">
+        <v>0</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73">
+        <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G30" s="73">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="77" t="str">
+        <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.10</v>
+      </c>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="D31" s="73">
+        <v>0</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73">
+        <v>-6</v>
+      </c>
+      <c r="G31" s="73">
+        <v>10.1045270920776</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="77" t="str">
+        <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73">
+        <v>174</v>
+      </c>
+      <c r="D32" s="73">
+        <v>0.63</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73">
+        <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="G32" s="73">
+        <v>0</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="I32" s="77" t="str">
+        <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.49</v>
+      </c>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73">
+        <v>0</v>
+      </c>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73">
+        <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G33" s="73">
+        <v>0</v>
+      </c>
+      <c r="H33" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.1.31</v>
+      </c>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73">
+        <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G34" s="73">
+        <v>0</v>
+      </c>
+      <c r="H34" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="I34" s="77" t="str">
+        <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.44</v>
+      </c>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73">
+        <v>21.05</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73">
+        <v>0</v>
+      </c>
+      <c r="G35" s="78">
+        <v>-0.69762371202792395</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="I35" s="77" t="str">
+        <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.1.3.1</v>
+      </c>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73">
+        <v>2100</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="78">
+        <v>-0.69762371202792395</v>
+      </c>
+      <c r="H36" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="I36" s="77" t="str">
+        <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.6</v>
+      </c>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73">
+        <v>55.57</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="G37" s="73">
+        <v>-0.17362949649665499</v>
+      </c>
+      <c r="H37" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="I37" s="77" t="str">
+        <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73">
+        <v>16.57</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="G38" s="73">
+        <v>-0.17362949649665499</v>
+      </c>
+      <c r="H38" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="I38" s="77" t="str">
+        <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.2</v>
+      </c>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73">
+        <v>15.45</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="G39" s="73">
+        <v>-0.52399421553126901</v>
+      </c>
+      <c r="H39" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="I39" s="77" t="str">
+        <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73">
+        <v>0</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73">
+        <f>VLOOKUP(A40,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G40" s="73">
+        <v>16.0031246927193</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="77" t="str">
+        <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73">
+        <v>0</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73">
+        <f>VLOOKUP(A41,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="G41" s="73">
+        <v>0</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="I41" s="77" t="str">
+        <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.2</v>
+      </c>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73">
+        <v>0</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="73">
+        <v>10.381277508814</v>
+      </c>
+      <c r="H42" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="I42" s="77" t="str">
+        <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.1</v>
+      </c>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73">
+        <v>0</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73">
+        <f>VLOOKUP(A43,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="G43" s="73">
+        <v>0</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="77" t="str">
+        <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.4.3</v>
+      </c>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73">
+        <v>0</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73">
+        <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="G44" s="73">
+        <v>8.39</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="77">
+        <f>VLOOKUP(A44,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73">
+        <v>0</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73">
+        <f>VLOOKUP(A45,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>6.6</v>
+      </c>
+      <c r="G45" s="73">
+        <v>7.35555836532013</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="I45" s="77" t="str">
+        <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73">
+        <v>0</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73">
+        <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G46" s="73">
+        <v>20</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="77" t="s">
+        <v>812</v>
+      </c>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73">
+        <v>13.74</v>
+      </c>
+      <c r="D47" s="73">
+        <v>18.2</v>
+      </c>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73">
+        <f>VLOOKUP(A47,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.8</v>
+      </c>
+      <c r="G47" s="73">
+        <v>0</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" s="77" t="str">
+        <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.31</v>
+      </c>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73">
+        <v>0</v>
+      </c>
+      <c r="D48" s="73">
+        <v>0</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73">
+        <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G48" s="73">
+        <v>0</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="77" t="str">
+        <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.49</v>
+      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73">
+        <v>0</v>
+      </c>
+      <c r="D49" s="73">
+        <v>0</v>
+      </c>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73">
+        <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.3</v>
+      </c>
+      <c r="G49" s="73">
+        <v>0</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="I49" s="77" t="str">
+        <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.38</v>
+      </c>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73">
+        <v>0</v>
+      </c>
+      <c r="D50" s="73">
+        <v>0</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73">
+        <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.6</v>
+      </c>
+      <c r="G50" s="73">
+        <v>2.2628125829063799</v>
+      </c>
+      <c r="H50" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="I50" s="77" t="str">
+        <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.40</v>
+      </c>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73">
+        <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="73">
+        <v>7.11118951189348</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="I51" s="77"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="73"/>
+      <c r="C52" s="11">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73">
+        <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="73">
+        <v>10</v>
+      </c>
+      <c r="H52" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="77"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73">
+        <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="73">
+        <v>3.5703232462952501</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="I53" s="77"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73">
+        <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="73">
+        <v>-6.25968789018712</v>
+      </c>
+      <c r="H54" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="I54" s="77"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73">
+        <v>0</v>
+      </c>
+      <c r="G55" s="73">
+        <v>0</v>
+      </c>
+      <c r="H55" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="I55" s="77"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73">
+        <v>0</v>
+      </c>
+      <c r="G56" s="73">
+        <v>0</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="I56" s="77"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73">
+        <v>0</v>
+      </c>
+      <c r="G57" s="73">
+        <v>0</v>
+      </c>
+      <c r="H57" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="I57" s="77"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73">
+        <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="73">
+        <v>0</v>
+      </c>
+      <c r="H58" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="I58" s="77"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73">
+        <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="73">
+        <v>0</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="I59" s="77"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73">
+        <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="73">
+        <v>0</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="I60" s="77"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73">
+        <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="73">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="I61" s="77"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73">
+        <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="73">
+        <v>0</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" s="77"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73">
+        <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="73">
+        <v>34.977749829395002</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="I63" s="77"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73">
+        <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="73">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="H64" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="I64" s="77"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73">
+        <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="73">
+        <v>-21.2358352193176</v>
+      </c>
+      <c r="H65" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="I65" s="77"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73">
+        <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="73">
+        <v>0</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="I66" s="77"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73">
+        <v>0</v>
+      </c>
+      <c r="G67" s="73">
+        <v>0</v>
+      </c>
+      <c r="H67" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" s="77"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73">
+        <v>0</v>
+      </c>
+      <c r="G68" s="73">
+        <v>0</v>
+      </c>
+      <c r="H68" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="77"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73">
+        <v>0</v>
+      </c>
+      <c r="G69" s="73">
+        <v>0</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="77"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73">
+        <v>0</v>
+      </c>
+      <c r="G70" s="73">
+        <v>0</v>
+      </c>
+      <c r="H70" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="77"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73">
+        <v>0</v>
+      </c>
+      <c r="G71" s="73">
+        <v>0</v>
+      </c>
+      <c r="H71" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I71" s="77"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73">
+        <v>0</v>
+      </c>
+      <c r="G72" s="73">
+        <v>0</v>
+      </c>
+      <c r="H72" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="77"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="73">
+        <v>34.977749829395002</v>
+      </c>
+      <c r="H73" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I73" s="77"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73">
+        <v>0</v>
+      </c>
+      <c r="G74" s="73">
+        <v>10.1045270920776</v>
+      </c>
+      <c r="H74" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I74" s="77"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73">
+        <v>0</v>
+      </c>
+      <c r="G75" s="73">
+        <v>21.2358352193176</v>
+      </c>
+      <c r="H75" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="77"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73">
+        <v>0</v>
+      </c>
+      <c r="G76" s="73">
+        <v>0</v>
+      </c>
+      <c r="H76" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="77"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73">
+        <v>0</v>
+      </c>
+      <c r="G77" s="73">
+        <v>-20</v>
+      </c>
+      <c r="H77" s="77" t="s">
+        <v>794</v>
+      </c>
+      <c r="I77" s="77"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73">
+        <v>0</v>
+      </c>
+      <c r="G78" s="73">
+        <v>6.25968789018712</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="I78" s="77"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73">
+        <v>0</v>
+      </c>
+      <c r="G79" s="73">
+        <v>65.594624664349297</v>
+      </c>
+      <c r="H79" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" s="77"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73">
+        <v>0</v>
+      </c>
+      <c r="G80" s="73">
+        <v>-7.11118951189348</v>
+      </c>
+      <c r="H80" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I80" s="77"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73">
+        <v>0</v>
+      </c>
+      <c r="G81" s="73">
+        <v>-3.5703232462952501</v>
+      </c>
+      <c r="H81" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="77"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73">
+        <v>0</v>
+      </c>
+      <c r="G82" s="73">
+        <v>-10</v>
+      </c>
+      <c r="H82" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="I82" s="77"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73">
+        <v>0</v>
+      </c>
+      <c r="G83" s="73">
+        <v>0.97053938790751804</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6522,7 +10716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="18195" windowHeight="6945" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="6885" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="814">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2500,9 +2500,6 @@
     <t>1.2.1.51</t>
   </si>
   <si>
-    <t>2.3.3.16</t>
-  </si>
-  <si>
     <t>1.8.1.4</t>
   </si>
   <si>
@@ -2510,6 +2507,12 @@
   </si>
   <si>
     <t>1.10.3.12</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>2.3.3.9</t>
   </si>
 </sst>
 </file>
@@ -6736,8 +6739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7120,8 +7123,7 @@
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73">
-        <f>VLOOKUP(A10,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G10" s="73">
         <v>35.968088220815801</v>
@@ -7321,7 +7323,7 @@
         <v>238</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J15" s="73"/>
       <c r="K15" s="73"/>
@@ -7471,9 +7473,8 @@
       <c r="H19" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="I19" s="77" t="str">
-        <f>VLOOKUP(A19,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>4.1.3.2</v>
+      <c r="I19" s="77" t="s">
+        <v>813</v>
       </c>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
@@ -7510,7 +7511,7 @@
         <v>244</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
@@ -7732,7 +7733,7 @@
         <v>142</v>
       </c>
       <c r="I26" s="77" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J26" s="73"/>
       <c r="K26" s="73"/>
@@ -8375,7 +8376,7 @@
         <v>168</v>
       </c>
       <c r="I46" s="77" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J46" s="73"/>
       <c r="K46" s="73"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="6885" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="6885" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -24,12 +29,12 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="817">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2513,6 +2518,15 @@
   </si>
   <si>
     <t>2.3.3.9</t>
+  </si>
+  <si>
+    <t>Enzyme Name</t>
+  </si>
+  <si>
+    <t>delGlb</t>
+  </si>
+  <si>
+    <t>delGub</t>
   </si>
 </sst>
 </file>
@@ -2698,6 +2712,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4250,7 +4267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4285,7 +4302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4880,7 +4897,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P83"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6737,2663 +6754,2508 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="73" t="s">
+      <c r="J1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="79" t="s">
+      <c r="K1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="73" t="s">
+      <c r="L1" s="73" t="s">
         <v>807</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="M1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="11">
-        <v>250</v>
+      <c r="C2" s="77" t="s">
+        <v>303</v>
       </c>
       <c r="D2" s="73">
-        <v>1</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73">
         <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-9.1</v>
       </c>
-      <c r="G2" s="73">
+      <c r="H2" s="11">
+        <v>250</v>
+      </c>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73">
+        <v>1</v>
+      </c>
+      <c r="K2" s="73">
         <v>20</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="77">
+      <c r="L2" s="77">
         <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
       <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="73">
+      <c r="R2" s="73">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="P2" s="73">
+      <c r="S2" s="73">
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73">
-        <v>11.09</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73">
+      <c r="C3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="73">
         <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.8</v>
       </c>
-      <c r="G3" s="73">
+      <c r="H3" s="73">
+        <v>11.09</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73">
         <v>19.801039425479001</v>
       </c>
-      <c r="H3" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="77" t="str">
+      <c r="L3" s="77" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.9</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
       <c r="M3" s="73"/>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="73">
+      <c r="R3" s="73">
         <v>3.48</v>
       </c>
-      <c r="P3" s="73">
+      <c r="S3" s="73">
         <v>3.48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73">
-        <v>49</v>
+      <c r="C4" s="77" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="73">
-        <v>2.7690000000000001</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73">
         <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
       </c>
-      <c r="G4" s="73">
+      <c r="H4" s="73">
+        <v>49</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="K4" s="73">
         <v>19.0346044708484</v>
       </c>
-      <c r="H4" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="77" t="str">
+      <c r="L4" s="77" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.11</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
       <c r="M4" s="73"/>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="73">
+      <c r="R4" s="73">
         <v>0.6</v>
       </c>
-      <c r="P4" s="73">
+      <c r="S4" s="73">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73">
-        <v>22</v>
+      <c r="C5" s="77" t="s">
+        <v>293</v>
       </c>
       <c r="D5" s="73">
-        <v>0</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73">
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
       </c>
-      <c r="G5" s="73">
-        <v>0</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="I5" s="77" t="str">
+      <c r="H5" s="73">
+        <v>22</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73">
+        <v>0</v>
+      </c>
+      <c r="K5" s="73">
+        <v>0</v>
+      </c>
+      <c r="L5" s="77" t="str">
         <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.3.11</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
       <c r="M5" s="73"/>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="73">
+      <c r="R5" s="73">
         <v>0.27200000000000002</v>
       </c>
-      <c r="P5" s="73">
+      <c r="S5" s="73">
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73">
-        <v>8.5</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73">
+      <c r="C6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="73">
         <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="G6" s="73">
+      <c r="H6" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73">
         <v>19.0346044708484</v>
       </c>
-      <c r="H6" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="77" t="str">
+      <c r="L6" s="77" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.2.13</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
       <c r="M6" s="73"/>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73" t="s">
         <v>796</v>
       </c>
-      <c r="O6" s="73">
+      <c r="R6" s="73">
         <v>0.218</v>
       </c>
-      <c r="P6" s="73">
+      <c r="S6" s="73">
         <v>0.218</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73">
+      <c r="C7" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="73">
+        <v>1.4</v>
+      </c>
+      <c r="H7" s="73">
         <v>56.87</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
-        <v>1.4</v>
-      </c>
-      <c r="G7" s="78">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="78">
         <v>19.0346044708484</v>
       </c>
-      <c r="H7" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="77" t="str">
+      <c r="L7" s="77" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.1</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
       <c r="M7" s="73"/>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="73">
+      <c r="R7" s="73">
         <v>0.16700000000000001</v>
       </c>
-      <c r="P7" s="73">
+      <c r="S7" s="73">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73">
-        <v>671.72</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73">
+      <c r="C8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="73">
         <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
       </c>
-      <c r="G8" s="73">
+      <c r="H8" s="73">
+        <v>671.72</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73">
         <v>37.420015145125497</v>
       </c>
-      <c r="H8" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="I8" s="77" t="str">
+      <c r="L8" s="77" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.12</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
       <c r="M8" s="73"/>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="O8" s="73">
+      <c r="R8" s="73">
         <v>2.13</v>
       </c>
-      <c r="P8" s="73">
+      <c r="S8" s="73">
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73">
+      <c r="C9" s="77" t="s">
+        <v>795</v>
+      </c>
+      <c r="D9" s="73">
+        <v>-2.8</v>
+      </c>
+      <c r="H9" s="73">
         <v>2225</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73">
-        <v>-2.8</v>
-      </c>
-      <c r="G9" s="73">
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73">
         <v>37.420015145125497</v>
       </c>
-      <c r="H9" s="77" t="s">
-        <v>795</v>
-      </c>
-      <c r="I9" s="77" t="str">
+      <c r="L9" s="77" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.3</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
       <c r="M9" s="73"/>
-      <c r="N9" s="73" t="s">
+      <c r="N9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="O9" s="73">
+      <c r="R9" s="73">
         <v>0.39900000000000002</v>
       </c>
-      <c r="P9" s="73">
+      <c r="S9" s="73">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73">
+      <c r="C10" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="73">
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="73">
         <v>90.55</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73">
-        <v>4.2</v>
-      </c>
-      <c r="G10" s="73">
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73">
         <v>35.968088220815801</v>
       </c>
-      <c r="H10" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="77" t="str">
+      <c r="L10" s="77" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.4.2.1</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
       <c r="M10" s="73"/>
-      <c r="N10" s="73" t="s">
+      <c r="N10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="73">
+      <c r="R10" s="73">
         <v>2.67</v>
       </c>
-      <c r="P10" s="73">
+      <c r="S10" s="73">
         <v>2.67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73">
-        <v>355.79</v>
-      </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73">
+      <c r="C11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="73">
         <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.9</v>
       </c>
-      <c r="G11" s="73">
+      <c r="H11" s="73">
+        <v>355.79</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73">
         <v>35.968088220815801</v>
       </c>
-      <c r="H11" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" s="77" t="str">
+      <c r="L11" s="77" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.11</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
       <c r="M11" s="73"/>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="73">
+      <c r="R11" s="73">
         <v>2.67</v>
       </c>
-      <c r="P11" s="73">
+      <c r="S11" s="73">
         <v>2.67</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73">
-        <v>10.17</v>
-      </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73">
+      <c r="C12" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="73">
         <f>VLOOKUP(A12,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.3</v>
       </c>
-      <c r="G12" s="73">
+      <c r="H12" s="73">
+        <v>10.17</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73">
         <v>15.464281224553</v>
       </c>
-      <c r="H12" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="77" t="str">
+      <c r="L12" s="77" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.40</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
       <c r="M12" s="73"/>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73" t="s">
         <v>797</v>
       </c>
-      <c r="O12" s="73">
+      <c r="R12" s="73">
         <v>0.111</v>
       </c>
-      <c r="P12" s="73">
+      <c r="S12" s="73">
         <v>0.111</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73">
-        <v>0</v>
+      <c r="C13" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="D13" s="73">
-        <v>0</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73">
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.2</v>
       </c>
-      <c r="G13" s="73">
-        <v>0</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="77" t="str">
+      <c r="H13" s="73">
+        <v>0</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73">
+        <v>0</v>
+      </c>
+      <c r="K13" s="73">
+        <v>0</v>
+      </c>
+      <c r="L13" s="77" t="str">
         <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.9.2</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
       <c r="M13" s="73"/>
-      <c r="N13" s="73" t="s">
+      <c r="N13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73" t="s">
         <v>798</v>
       </c>
-      <c r="O13" s="73">
+      <c r="R13" s="73">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P13" s="73">
+      <c r="S13" s="73">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73">
-        <v>6.32</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73">
+      <c r="C14" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="73">
         <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="G14" s="73">
-        <v>0</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="77" t="s">
+      <c r="H14" s="73">
+        <v>6.32</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73">
+        <v>0</v>
+      </c>
+      <c r="L14" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
       <c r="M14" s="73"/>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73" t="s">
         <v>799</v>
       </c>
-      <c r="O14" s="73">
+      <c r="R14" s="73">
         <v>0.27600000000000002</v>
       </c>
-      <c r="P14" s="73">
+      <c r="S14" s="73">
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73">
-        <v>81</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73">
+      <c r="C15" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="73">
         <f>VLOOKUP(A15,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6</v>
       </c>
-      <c r="G15" s="73">
-        <v>0</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="I15" s="77" t="s">
+      <c r="H15" s="73">
+        <v>81</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73">
+        <v>0</v>
+      </c>
+      <c r="L15" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
       <c r="M15" s="73"/>
-      <c r="N15" s="73" t="s">
+      <c r="N15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73" t="s">
         <v>800</v>
       </c>
-      <c r="O15" s="73">
+      <c r="R15" s="73">
         <v>0.39800000000000002</v>
       </c>
-      <c r="P15" s="73">
+      <c r="S15" s="73">
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73">
-        <v>5.3</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73">
+      <c r="C16" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="73">
         <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="G16" s="73">
-        <v>0</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="I16" s="77" t="str">
+      <c r="H16" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73">
+        <v>0</v>
+      </c>
+      <c r="L16" s="77" t="str">
         <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.3</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
       <c r="M16" s="73"/>
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73" t="s">
         <v>801</v>
       </c>
-      <c r="O16" s="73">
+      <c r="R16" s="73">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="P16" s="73">
+      <c r="S16" s="73">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73">
-        <v>106.4</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73">
+      <c r="C17" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="73">
         <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="G17" s="73">
-        <v>0</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="77" t="str">
+      <c r="H17" s="73">
+        <v>106.4</v>
+      </c>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73">
+        <v>0</v>
+      </c>
+      <c r="L17" s="77" t="str">
         <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.42</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
       <c r="M17" s="73"/>
-      <c r="N17" s="73" t="s">
+      <c r="N17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="O17" s="73">
+      <c r="R17" s="73">
         <v>0.95499999999999996</v>
       </c>
-      <c r="P17" s="73">
+      <c r="S17" s="73">
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73">
-        <v>5.2</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73">
+      <c r="C18" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="73">
         <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="G18" s="73">
-        <v>0</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="77" t="str">
+      <c r="H18" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73">
+        <v>0</v>
+      </c>
+      <c r="L18" s="77" t="str">
         <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.3.1</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
       <c r="M18" s="73"/>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="73">
+      <c r="R18" s="73">
         <v>0.59499999999999997</v>
       </c>
-      <c r="P18" s="73">
+      <c r="S18" s="73">
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73">
-        <v>48.1</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73">
+      <c r="C19" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="73">
         <f>VLOOKUP(A19,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.6999999999999993</v>
       </c>
-      <c r="G19" s="73">
-        <v>0</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="I19" s="77" t="s">
+      <c r="H19" s="73">
+        <v>48.1</v>
+      </c>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73">
+        <v>0</v>
+      </c>
+      <c r="L19" s="77" t="s">
         <v>813</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
       <c r="M19" s="73"/>
-      <c r="N19" s="73" t="s">
+      <c r="N19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="73">
+      <c r="R19" s="73">
         <v>4.2699999999999996</v>
       </c>
-      <c r="P19" s="73">
+      <c r="S19" s="73">
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73">
-        <v>49</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73">
+      <c r="C20" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="73">
         <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="G20" s="73">
+      <c r="H20" s="73">
+        <v>49</v>
+      </c>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73">
         <v>3.9968753072807401</v>
       </c>
-      <c r="H20" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="I20" s="77" t="s">
+      <c r="L20" s="77" t="s">
         <v>809</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
       <c r="M20" s="73"/>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73" t="s">
         <v>802</v>
       </c>
-      <c r="O20" s="73">
+      <c r="R20" s="73">
         <v>0.19500000000000001</v>
       </c>
-      <c r="P20" s="73">
+      <c r="S20" s="73">
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73">
+      <c r="C21" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="73">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="73">
         <v>44.73</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="73">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73">
         <v>-3.9968753072807401</v>
       </c>
-      <c r="H21" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="I21" s="77" t="str">
+      <c r="L21" s="77" t="str">
         <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>6.2.1.5</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
       <c r="M21" s="73"/>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73" t="s">
         <v>803</v>
       </c>
-      <c r="O21" s="73">
+      <c r="R21" s="73">
         <v>6.2E-2</v>
       </c>
-      <c r="P21" s="73">
+      <c r="S21" s="73">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73">
+      <c r="C22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="H22" s="73">
         <v>24</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73">
-        <v>-2.1</v>
-      </c>
-      <c r="G22" s="73">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73">
         <v>3.9968753072807401</v>
       </c>
-      <c r="H22" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" s="77" t="str">
+      <c r="L22" s="77" t="str">
         <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
       <c r="M22" s="73"/>
-      <c r="N22" s="73" t="s">
+      <c r="N22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="73">
+      <c r="R22" s="73">
         <v>1.47</v>
       </c>
-      <c r="P22" s="73">
+      <c r="S22" s="73">
         <v>1.47</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73">
-        <v>3.4</v>
+      <c r="C23" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="D23" s="73">
-        <v>0</v>
-      </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73">
         <f>VLOOKUP(A23,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>5.9</v>
       </c>
-      <c r="G23" s="73">
-        <v>0</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="I23" s="77" t="str">
+      <c r="H23" s="73">
+        <v>3.4</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73">
+        <v>0</v>
+      </c>
+      <c r="K23" s="73">
+        <v>0</v>
+      </c>
+      <c r="L23" s="77" t="str">
         <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
       <c r="M23" s="73"/>
-      <c r="N23" s="73" t="s">
+      <c r="N23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="O23" s="73">
+      <c r="R23" s="73">
         <v>0.1</v>
       </c>
-      <c r="P23" s="73">
+      <c r="S23" s="73">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73">
-        <v>51.7</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73">
+      <c r="C24" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="73">
         <f>VLOOKUP(A24,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.6</v>
       </c>
-      <c r="G24" s="73">
+      <c r="H24" s="73">
+        <v>51.7</v>
+      </c>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73">
         <v>3.9968753072807401</v>
       </c>
-      <c r="H24" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" s="77" t="str">
+      <c r="L24" s="77" t="str">
         <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.2</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
       <c r="M24" s="73"/>
-      <c r="N24" s="73" t="s">
+      <c r="N24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73" t="s">
         <v>804</v>
       </c>
-      <c r="O24" s="73">
+      <c r="R24" s="73">
         <v>0.80800000000000005</v>
       </c>
-      <c r="P24" s="73">
+      <c r="S24" s="73">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73">
+      <c r="C25" s="77" t="s">
+        <v>806</v>
+      </c>
+      <c r="D25" s="73">
+        <v>-6.4</v>
+      </c>
+      <c r="H25" s="73">
         <v>1</v>
       </c>
-      <c r="D25" s="73">
+      <c r="I25" s="73"/>
+      <c r="J25" s="73">
         <v>50</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73">
-        <v>-6.4</v>
-      </c>
-      <c r="G25" s="73">
+      <c r="K25" s="73">
         <v>-1.73406272437436</v>
       </c>
-      <c r="H25" s="77" t="s">
-        <v>806</v>
-      </c>
-      <c r="I25" s="77" t="str">
+      <c r="L25" s="77" t="str">
         <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.37</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
       <c r="P25" s="73"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73">
-        <v>12.8</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73">
+      <c r="C26" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="73">
         <f>VLOOKUP(A26,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
       </c>
-      <c r="G26" s="73">
+      <c r="H26" s="73">
+        <v>12.8</v>
+      </c>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73">
         <v>34.977749829395002</v>
       </c>
-      <c r="H26" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="77" t="s">
+      <c r="L26" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
       <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73">
+      <c r="C27" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="D27" s="73">
+        <v>-6.4</v>
+      </c>
+      <c r="H27" s="73">
         <v>320</v>
       </c>
-      <c r="D27" s="73">
-        <v>0</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73">
-        <v>-6.4</v>
-      </c>
-      <c r="G27" s="73">
-        <v>0</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>805</v>
-      </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="73"/>
+      <c r="J27" s="73">
+        <v>0</v>
+      </c>
+      <c r="K27" s="73">
+        <v>0</v>
+      </c>
+      <c r="L27" s="77" t="str">
         <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.28</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
       <c r="P27" s="73"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73">
-        <v>120</v>
+      <c r="C28" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="D28" s="73">
-        <v>0</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73">
         <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="G28" s="78">
+      <c r="H28" s="73">
+        <v>120</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73">
+        <v>0</v>
+      </c>
+      <c r="K28" s="78">
         <v>21.2358352193176</v>
       </c>
-      <c r="H28" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" s="77" t="str">
+      <c r="L28" s="77" t="str">
         <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.3.1.8</v>
       </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
       <c r="P28" s="73"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73">
-        <v>280</v>
+      <c r="C29" s="77" t="s">
+        <v>213</v>
       </c>
       <c r="D29" s="73">
-        <v>0</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73">
         <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.3</v>
       </c>
-      <c r="G29" s="73">
+      <c r="H29" s="73">
+        <v>280</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73">
+        <v>0</v>
+      </c>
+      <c r="K29" s="73">
         <v>-21.2358352193176</v>
       </c>
-      <c r="H29" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="77" t="str">
+      <c r="L29" s="77" t="str">
         <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.1</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
       <c r="P29" s="73"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73">
-        <v>15.7</v>
+      <c r="C30" s="78" t="s">
+        <v>143</v>
       </c>
       <c r="D30" s="73">
-        <v>0</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73">
         <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-4.4000000000000004</v>
       </c>
-      <c r="G30" s="73">
+      <c r="H30" s="73">
+        <v>15.7</v>
+      </c>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73">
+        <v>0</v>
+      </c>
+      <c r="K30" s="73">
         <v>-10.1045270920776</v>
       </c>
-      <c r="H30" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="77" t="str">
+      <c r="L30" s="77" t="str">
         <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.10</v>
       </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
       <c r="P30" s="73"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73">
+      <c r="C31" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="73">
+        <v>-6</v>
+      </c>
+      <c r="H31" s="73">
         <v>150.19999999999999</v>
       </c>
-      <c r="D31" s="73">
-        <v>0</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73">
-        <v>-6</v>
-      </c>
-      <c r="G31" s="73">
+      <c r="I31" s="73"/>
+      <c r="J31" s="73">
+        <v>0</v>
+      </c>
+      <c r="K31" s="73">
         <v>10.1045270920776</v>
       </c>
-      <c r="H31" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="77" t="str">
+      <c r="L31" s="77" t="str">
         <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
       <c r="P31" s="73"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73">
-        <v>174</v>
+      <c r="C32" s="77" t="s">
+        <v>417</v>
       </c>
       <c r="D32" s="73">
-        <v>0.63</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73">
         <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.6</v>
       </c>
-      <c r="G32" s="73">
-        <v>0</v>
-      </c>
-      <c r="H32" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="I32" s="77" t="str">
+      <c r="H32" s="73">
+        <v>174</v>
+      </c>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73">
+        <v>0.63</v>
+      </c>
+      <c r="K32" s="73">
+        <v>0</v>
+      </c>
+      <c r="L32" s="77" t="str">
         <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.49</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
       <c r="P32" s="73"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>419</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73">
-        <v>0</v>
-      </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73">
+      <c r="C33" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="73">
         <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
       </c>
-      <c r="G33" s="73">
-        <v>0</v>
-      </c>
-      <c r="H33" s="77" t="s">
-        <v>421</v>
-      </c>
-      <c r="I33" s="77" t="str">
+      <c r="H33" s="73">
+        <v>0</v>
+      </c>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73">
+        <v>0</v>
+      </c>
+      <c r="L33" s="77" t="str">
         <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.1.31</v>
       </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
       <c r="P33" s="73"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73">
-        <v>75.650000000000006</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73">
+      <c r="C34" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="73">
         <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.9</v>
       </c>
-      <c r="G34" s="73">
-        <v>0</v>
-      </c>
-      <c r="H34" s="77" t="s">
-        <v>424</v>
-      </c>
-      <c r="I34" s="77" t="str">
+      <c r="H34" s="73">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73">
+        <v>0</v>
+      </c>
+      <c r="L34" s="77" t="str">
         <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.44</v>
       </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
       <c r="M34" s="73"/>
       <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
       <c r="P34" s="73"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73">
+      <c r="C35" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="73">
+        <v>0</v>
+      </c>
+      <c r="H35" s="73">
         <v>21.05</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73">
-        <v>0</v>
-      </c>
-      <c r="G35" s="78">
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="78">
         <v>-0.69762371202792395</v>
       </c>
-      <c r="H35" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="I35" s="77" t="str">
+      <c r="L35" s="77" t="str">
         <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.1.3.1</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
       <c r="P35" s="73"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73">
+      <c r="C36" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="73">
         <v>2100</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="78">
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="78">
         <v>-0.69762371202792395</v>
       </c>
-      <c r="H36" s="77" t="s">
-        <v>430</v>
-      </c>
-      <c r="I36" s="77" t="str">
+      <c r="L36" s="77" t="str">
         <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.6</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
       <c r="P36" s="73"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73">
+      <c r="C37" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H37" s="73">
         <v>55.57</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73">
-        <v>1.9</v>
-      </c>
-      <c r="G37" s="73">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73">
         <v>-0.17362949649665499</v>
       </c>
-      <c r="H37" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="I37" s="77" t="str">
+      <c r="L37" s="77" t="str">
         <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
       <c r="P37" s="73"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73">
+      <c r="C38" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="H38" s="73">
         <v>16.57</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73">
-        <v>-1.7</v>
-      </c>
-      <c r="G38" s="73">
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73">
         <v>-0.17362949649665499</v>
       </c>
-      <c r="H38" s="77" t="s">
-        <v>438</v>
-      </c>
-      <c r="I38" s="77" t="str">
+      <c r="L38" s="77" t="str">
         <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.2</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
       <c r="M38" s="73"/>
       <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
       <c r="P38" s="73"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73">
+      <c r="C39" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="D39" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="H39" s="73">
         <v>15.45</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73">
-        <v>-1.7</v>
-      </c>
-      <c r="G39" s="73">
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73">
         <v>-0.52399421553126901</v>
       </c>
-      <c r="H39" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="I39" s="77" t="str">
+      <c r="L39" s="77" t="str">
         <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
       <c r="M39" s="73"/>
       <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
       <c r="P39" s="73"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73">
-        <v>0</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73">
+      <c r="C40" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="73">
         <f>VLOOKUP(A40,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-17.399999999999999</v>
       </c>
-      <c r="G40" s="73">
+      <c r="H40" s="73">
+        <v>0</v>
+      </c>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73">
         <v>16.0031246927193</v>
       </c>
-      <c r="H40" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="77" t="str">
+      <c r="L40" s="77" t="str">
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.5.3</v>
       </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
       <c r="M40" s="73"/>
       <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
       <c r="P40" s="73"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73">
-        <v>0</v>
-      </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73">
+      <c r="C41" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" s="73">
         <f>VLOOKUP(A41,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.3</v>
       </c>
-      <c r="G41" s="73">
-        <v>0</v>
-      </c>
-      <c r="H41" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="I41" s="77" t="str">
+      <c r="H41" s="73">
+        <v>0</v>
+      </c>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73">
+        <v>0</v>
+      </c>
+      <c r="L41" s="77" t="str">
         <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.2</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
       <c r="M41" s="73"/>
       <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
       <c r="P41" s="73"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73">
-        <v>0</v>
-      </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73">
+      <c r="C42" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" s="73">
         <v>0.3</v>
       </c>
-      <c r="G42" s="73">
+      <c r="H42" s="73">
+        <v>0</v>
+      </c>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73">
         <v>10.381277508814</v>
       </c>
-      <c r="H42" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="I42" s="77" t="str">
+      <c r="L42" s="77" t="str">
         <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.1</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
       <c r="M42" s="73"/>
       <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
       <c r="P42" s="73"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73">
-        <v>0</v>
-      </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73">
+      <c r="C43" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="73">
         <f>VLOOKUP(A43,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
       </c>
-      <c r="G43" s="73">
-        <v>0</v>
-      </c>
-      <c r="H43" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="77" t="str">
+      <c r="H43" s="73">
+        <v>0</v>
+      </c>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73">
+        <v>0</v>
+      </c>
+      <c r="L43" s="77" t="str">
         <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.4.3</v>
       </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
       <c r="M43" s="73"/>
       <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
       <c r="P43" s="73"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73">
-        <v>0</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73">
+      <c r="C44" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="73">
         <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.6</v>
       </c>
-      <c r="G44" s="73">
+      <c r="H44" s="73">
+        <v>0</v>
+      </c>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73">
         <v>8.39</v>
       </c>
-      <c r="H44" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="77">
+      <c r="L44" s="77">
         <f>VLOOKUP(A44,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
       <c r="M44" s="73"/>
       <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
       <c r="P44" s="73"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73">
-        <v>0</v>
-      </c>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73">
+      <c r="C45" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" s="73">
         <f>VLOOKUP(A45,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>6.6</v>
       </c>
-      <c r="G45" s="73">
+      <c r="H45" s="73">
+        <v>0</v>
+      </c>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73">
         <v>7.35555836532013</v>
       </c>
-      <c r="H45" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="I45" s="77" t="str">
+      <c r="L45" s="77" t="str">
         <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.6.3.14</v>
       </c>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
       <c r="M45" s="73"/>
       <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
       <c r="P45" s="73"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73">
-        <v>0</v>
-      </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73">
+      <c r="C46" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="73">
         <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="G46" s="73">
+      <c r="H46" s="73">
+        <v>0</v>
+      </c>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73">
         <v>20</v>
       </c>
-      <c r="H46" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="77" t="s">
+      <c r="L46" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
       <c r="M46" s="73"/>
       <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
       <c r="P46" s="73"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73">
-        <v>13.74</v>
+      <c r="C47" s="77" t="s">
+        <v>235</v>
       </c>
       <c r="D47" s="73">
-        <v>18.2</v>
-      </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73">
         <f>VLOOKUP(A47,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.8</v>
       </c>
-      <c r="G47" s="73">
-        <v>0</v>
-      </c>
-      <c r="H47" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="77" t="str">
+      <c r="H47" s="73">
+        <v>13.74</v>
+      </c>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73">
+        <v>18.2</v>
+      </c>
+      <c r="K47" s="73">
+        <v>0</v>
+      </c>
+      <c r="L47" s="77" t="str">
         <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.31</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
       <c r="M47" s="73"/>
       <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
       <c r="P47" s="73"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73">
-        <v>0</v>
+      <c r="C48" s="77" t="s">
+        <v>236</v>
       </c>
       <c r="D48" s="73">
-        <v>0</v>
-      </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73">
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="G48" s="73">
-        <v>0</v>
-      </c>
-      <c r="H48" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="I48" s="77" t="str">
+      <c r="H48" s="73">
+        <v>0</v>
+      </c>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73">
+        <v>0</v>
+      </c>
+      <c r="K48" s="73">
+        <v>0</v>
+      </c>
+      <c r="L48" s="77" t="str">
         <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.49</v>
       </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
       <c r="M48" s="73"/>
       <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
       <c r="P48" s="73"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73">
-        <v>0</v>
+      <c r="C49" s="77" t="s">
+        <v>262</v>
       </c>
       <c r="D49" s="73">
-        <v>0</v>
-      </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73">
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="G49" s="73">
-        <v>0</v>
-      </c>
-      <c r="H49" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="I49" s="77" t="str">
+      <c r="H49" s="73">
+        <v>0</v>
+      </c>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73">
+        <v>0</v>
+      </c>
+      <c r="K49" s="73">
+        <v>0</v>
+      </c>
+      <c r="L49" s="77" t="str">
         <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.38</v>
       </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
       <c r="M49" s="73"/>
       <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
       <c r="P49" s="73"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73">
-        <v>0</v>
+      <c r="C50" s="77" t="s">
+        <v>367</v>
       </c>
       <c r="D50" s="73">
-        <v>0</v>
-      </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73">
         <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.6</v>
       </c>
-      <c r="G50" s="73">
+      <c r="H50" s="73">
+        <v>0</v>
+      </c>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73">
+        <v>0</v>
+      </c>
+      <c r="K50" s="73">
         <v>2.2628125829063799</v>
       </c>
-      <c r="H50" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="I50" s="77" t="str">
+      <c r="L50" s="77" t="str">
         <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.40</v>
       </c>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
       <c r="M50" s="73"/>
       <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
       <c r="P50" s="73"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73">
+      <c r="C51" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="D51" s="73">
         <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="73">
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73">
         <v>7.11118951189348</v>
       </c>
-      <c r="H51" s="77" t="s">
-        <v>665</v>
-      </c>
-      <c r="I51" s="77"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
+      <c r="L51" s="77"/>
       <c r="M51" s="73"/>
       <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
       <c r="P51" s="73"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="s">
         <v>463</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="11">
+      <c r="C52" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="73">
+        <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
         <v>1.6670000000000001E-2</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73">
-        <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="73">
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73">
         <v>10</v>
       </c>
-      <c r="H52" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="77"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
+      <c r="L52" s="77"/>
       <c r="M52" s="73"/>
       <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
       <c r="P52" s="73"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73">
+      <c r="C53" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="73">
         <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="73">
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73">
         <v>3.5703232462952501</v>
       </c>
-      <c r="H53" s="77" t="s">
-        <v>458</v>
-      </c>
-      <c r="I53" s="77"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
+      <c r="L53" s="77"/>
       <c r="M53" s="73"/>
       <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
       <c r="P53" s="73"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73">
+      <c r="C54" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="73">
         <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="73">
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73">
         <v>-6.25968789018712</v>
       </c>
-      <c r="H54" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="I54" s="77"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
+      <c r="L54" s="77"/>
       <c r="M54" s="73"/>
       <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
       <c r="P54" s="73"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73">
-        <v>0</v>
-      </c>
-      <c r="G55" s="73">
-        <v>0</v>
-      </c>
-      <c r="H55" s="77" t="s">
+      <c r="C55" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="I55" s="77"/>
+      <c r="D55" s="73">
+        <v>0</v>
+      </c>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
+      <c r="K55" s="73">
+        <v>0</v>
+      </c>
+      <c r="L55" s="77"/>
       <c r="M55" s="73"/>
       <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
       <c r="P55" s="73"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73">
-        <v>0</v>
-      </c>
-      <c r="G56" s="73">
-        <v>0</v>
-      </c>
-      <c r="H56" s="77" t="s">
+      <c r="C56" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="I56" s="77"/>
+      <c r="D56" s="73">
+        <v>0</v>
+      </c>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
+      <c r="K56" s="73">
+        <v>0</v>
+      </c>
+      <c r="L56" s="77"/>
       <c r="M56" s="73"/>
       <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
       <c r="P56" s="73"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73">
-        <v>0</v>
-      </c>
-      <c r="G57" s="73">
-        <v>0</v>
-      </c>
-      <c r="H57" s="77" t="s">
+      <c r="C57" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="I57" s="77"/>
+      <c r="D57" s="73">
+        <v>0</v>
+      </c>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
       <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="K57" s="73">
+        <v>0</v>
+      </c>
+      <c r="L57" s="77"/>
       <c r="M57" s="73"/>
       <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
       <c r="P57" s="73"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73">
+      <c r="C58" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="73">
         <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="73">
-        <v>0</v>
-      </c>
-      <c r="H58" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="I58" s="77"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
+      <c r="K58" s="73">
+        <v>0</v>
+      </c>
+      <c r="L58" s="77"/>
       <c r="M58" s="73"/>
       <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
       <c r="P58" s="73"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73">
+      <c r="C59" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="73">
         <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="73">
-        <v>0</v>
-      </c>
-      <c r="H59" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="I59" s="77"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
+      <c r="K59" s="73">
+        <v>0</v>
+      </c>
+      <c r="L59" s="77"/>
       <c r="M59" s="73"/>
       <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
       <c r="P59" s="73"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73">
+      <c r="C60" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="73">
         <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="73">
-        <v>0</v>
-      </c>
-      <c r="H60" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="I60" s="77"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
+      <c r="K60" s="73">
+        <v>0</v>
+      </c>
+      <c r="L60" s="77"/>
       <c r="M60" s="73"/>
       <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
       <c r="P60" s="73"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73">
+      <c r="C61" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" s="73">
         <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="73">
-        <v>0</v>
-      </c>
-      <c r="H61" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="I61" s="77"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
+      <c r="K61" s="73">
+        <v>0</v>
+      </c>
+      <c r="L61" s="77"/>
       <c r="M61" s="73"/>
       <c r="N61" s="73"/>
-      <c r="O61" s="73"/>
       <c r="P61" s="73"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73">
+      <c r="C62" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D62" s="73">
         <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="73">
-        <v>0</v>
-      </c>
-      <c r="H62" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="I62" s="77"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
+      <c r="K62" s="73">
+        <v>0</v>
+      </c>
+      <c r="L62" s="77"/>
       <c r="M62" s="73"/>
       <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
       <c r="P62" s="73"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73">
+      <c r="C63" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="73">
         <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="73">
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73">
         <v>34.977749829395002</v>
       </c>
-      <c r="H63" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="I63" s="77"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
+      <c r="L63" s="77"/>
       <c r="M63" s="73"/>
       <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
       <c r="P63" s="73"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73">
+      <c r="C64" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="73">
         <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="73">
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73">
         <v>-10.1045270920776</v>
       </c>
-      <c r="H64" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
+      <c r="L64" s="77"/>
       <c r="M64" s="73"/>
       <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
       <c r="P64" s="73"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73">
+      <c r="C65" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" s="73">
         <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="73">
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73">
         <v>-21.2358352193176</v>
       </c>
-      <c r="H65" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="I65" s="77"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
+      <c r="L65" s="77"/>
       <c r="M65" s="73"/>
       <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
       <c r="P65" s="73"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
         <v>390</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73">
+      <c r="C66" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="73">
         <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="73">
-        <v>0</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="I66" s="77"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
+      <c r="K66" s="73">
+        <v>0</v>
+      </c>
+      <c r="L66" s="77"/>
       <c r="M66" s="73"/>
       <c r="N66" s="73"/>
-      <c r="O66" s="73"/>
       <c r="P66" s="73"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73">
-        <v>0</v>
-      </c>
-      <c r="G67" s="73">
-        <v>0</v>
-      </c>
-      <c r="H67" s="77" t="s">
+      <c r="C67" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="I67" s="77"/>
+      <c r="D67" s="73">
+        <v>0</v>
+      </c>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
+      <c r="K67" s="73">
+        <v>0</v>
+      </c>
+      <c r="L67" s="77"/>
       <c r="M67" s="73"/>
       <c r="N67" s="73"/>
-      <c r="O67" s="73"/>
       <c r="P67" s="73"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73">
-        <v>0</v>
-      </c>
-      <c r="G68" s="73">
-        <v>0</v>
-      </c>
-      <c r="H68" s="77" t="s">
+      <c r="C68" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="I68" s="77"/>
+      <c r="D68" s="73">
+        <v>0</v>
+      </c>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
       <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
+      <c r="K68" s="73">
+        <v>0</v>
+      </c>
+      <c r="L68" s="77"/>
       <c r="M68" s="73"/>
       <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
       <c r="P68" s="73"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73">
-        <v>0</v>
-      </c>
-      <c r="G69" s="73">
-        <v>0</v>
-      </c>
-      <c r="H69" s="77" t="s">
+      <c r="C69" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="I69" s="77"/>
+      <c r="D69" s="73">
+        <v>0</v>
+      </c>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
+      <c r="K69" s="73">
+        <v>0</v>
+      </c>
+      <c r="L69" s="77"/>
       <c r="M69" s="73"/>
       <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
       <c r="P69" s="73"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73">
-        <v>0</v>
-      </c>
-      <c r="G70" s="73">
-        <v>0</v>
-      </c>
-      <c r="H70" s="77" t="s">
+      <c r="C70" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="I70" s="77"/>
+      <c r="D70" s="73">
+        <v>0</v>
+      </c>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="73"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="73"/>
+      <c r="K70" s="73">
+        <v>0</v>
+      </c>
+      <c r="L70" s="77"/>
       <c r="M70" s="73"/>
       <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
       <c r="P70" s="73"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73">
-        <v>0</v>
-      </c>
-      <c r="G71" s="73">
-        <v>0</v>
-      </c>
-      <c r="H71" s="77" t="s">
+      <c r="C71" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="I71" s="77"/>
+      <c r="D71" s="73">
+        <v>0</v>
+      </c>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="73"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="73"/>
+      <c r="K71" s="73">
+        <v>0</v>
+      </c>
+      <c r="L71" s="77"/>
       <c r="M71" s="73"/>
       <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
       <c r="P71" s="73"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73">
-        <v>0</v>
-      </c>
-      <c r="G72" s="73">
-        <v>0</v>
-      </c>
-      <c r="H72" s="77" t="s">
+      <c r="C72" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="77"/>
+      <c r="D72" s="73">
+        <v>0</v>
+      </c>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="73"/>
+      <c r="K72" s="73">
+        <v>0</v>
+      </c>
+      <c r="L72" s="77"/>
       <c r="M72" s="73"/>
       <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
       <c r="P72" s="73"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="73">
+      <c r="C73" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73">
         <v>34.977749829395002</v>
       </c>
-      <c r="H73" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I73" s="77"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
+      <c r="L73" s="77"/>
       <c r="M73" s="73"/>
       <c r="N73" s="73"/>
-      <c r="O73" s="73"/>
       <c r="P73" s="73"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73">
-        <v>0</v>
-      </c>
-      <c r="G74" s="73">
+      <c r="C74" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="73">
+        <v>0</v>
+      </c>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73">
         <v>10.1045270920776</v>
       </c>
-      <c r="H74" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I74" s="77"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
+      <c r="L74" s="77"/>
       <c r="M74" s="73"/>
       <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
       <c r="P74" s="73"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73">
-        <v>0</v>
-      </c>
-      <c r="G75" s="73">
+      <c r="C75" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="73">
+        <v>0</v>
+      </c>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73">
         <v>21.2358352193176</v>
       </c>
-      <c r="H75" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="I75" s="77"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
+      <c r="L75" s="77"/>
       <c r="M75" s="73"/>
       <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
       <c r="P75" s="73"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73">
-        <v>0</v>
-      </c>
-      <c r="G76" s="73">
-        <v>0</v>
-      </c>
-      <c r="H76" s="77" t="s">
+      <c r="C76" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="I76" s="77"/>
+      <c r="D76" s="73">
+        <v>0</v>
+      </c>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
+      <c r="K76" s="73">
+        <v>0</v>
+      </c>
+      <c r="L76" s="77"/>
       <c r="M76" s="73"/>
       <c r="N76" s="73"/>
-      <c r="O76" s="73"/>
       <c r="P76" s="73"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73">
-        <v>0</v>
-      </c>
-      <c r="G77" s="73">
+      <c r="C77" s="77" t="s">
+        <v>794</v>
+      </c>
+      <c r="D77" s="73">
+        <v>0</v>
+      </c>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73">
         <v>-20</v>
       </c>
-      <c r="H77" s="77" t="s">
-        <v>794</v>
-      </c>
-      <c r="I77" s="77"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
+      <c r="L77" s="77"/>
       <c r="M77" s="73"/>
       <c r="N77" s="73"/>
-      <c r="O77" s="73"/>
       <c r="P77" s="73"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73">
-        <v>0</v>
-      </c>
-      <c r="G78" s="73">
+      <c r="C78" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="73">
+        <v>0</v>
+      </c>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73">
         <v>6.25968789018712</v>
       </c>
-      <c r="H78" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="I78" s="77"/>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
+      <c r="L78" s="77"/>
       <c r="M78" s="73"/>
       <c r="N78" s="73"/>
-      <c r="O78" s="73"/>
       <c r="P78" s="73"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73">
-        <v>0</v>
-      </c>
-      <c r="G79" s="73">
+      <c r="C79" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="73">
+        <v>0</v>
+      </c>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73">
         <v>65.594624664349297</v>
       </c>
-      <c r="H79" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="I79" s="77"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
+      <c r="L79" s="77"/>
       <c r="M79" s="73"/>
       <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
       <c r="P79" s="73"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73">
-        <v>0</v>
-      </c>
-      <c r="G80" s="73">
+      <c r="C80" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="73">
+        <v>0</v>
+      </c>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73">
         <v>-7.11118951189348</v>
       </c>
-      <c r="H80" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="I80" s="77"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
+      <c r="L80" s="77"/>
       <c r="M80" s="73"/>
       <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
       <c r="P80" s="73"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73">
-        <v>0</v>
-      </c>
-      <c r="G81" s="73">
+      <c r="C81" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="73">
+        <v>0</v>
+      </c>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73">
         <v>-3.5703232462952501</v>
       </c>
-      <c r="H81" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="I81" s="77"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
+      <c r="L81" s="77"/>
       <c r="M81" s="73"/>
       <c r="N81" s="73"/>
-      <c r="O81" s="73"/>
       <c r="P81" s="73"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73">
-        <v>0</v>
-      </c>
-      <c r="G82" s="73">
+      <c r="C82" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="D82" s="73">
+        <v>0</v>
+      </c>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73">
         <v>-10</v>
       </c>
-      <c r="H82" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="I82" s="77"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
+      <c r="L82" s="77"/>
       <c r="M82" s="73"/>
       <c r="N82" s="73"/>
-      <c r="O82" s="73"/>
       <c r="P82" s="73"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73">
-        <v>0</v>
-      </c>
-      <c r="G83" s="73">
-        <v>0.97053938790751804</v>
-      </c>
-      <c r="H83" s="78" t="s">
+      <c r="C83" s="78" t="s">
         <v>793</v>
       </c>
+      <c r="D83" s="73">
+        <v>0</v>
+      </c>
+      <c r="H83" s="73"/>
       <c r="I83" s="73"/>
       <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
+      <c r="K83" s="73">
+        <v>0.97053938790751804</v>
+      </c>
       <c r="L83" s="73"/>
       <c r="M83" s="73"/>
       <c r="N83" s="73"/>
-      <c r="O83" s="73"/>
       <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="720" windowWidth="18195" windowHeight="6885" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="780" windowWidth="18195" windowHeight="6825" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,12 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="833">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2502,9 +2497,6 @@
     <t>EC</t>
   </si>
   <si>
-    <t>1.2.1.51</t>
-  </si>
-  <si>
     <t>1.8.1.4</t>
   </si>
   <si>
@@ -2527,6 +2519,57 @@
   </si>
   <si>
     <t>delGub</t>
+  </si>
+  <si>
+    <t>kcat+(1/s)</t>
+  </si>
+  <si>
+    <t>kcat-(1/s)</t>
+  </si>
+  <si>
+    <t>[c] : g3p &lt;==&gt; dhap</t>
+  </si>
+  <si>
+    <t>[c] : atp + pyr &lt;==&gt; adp + h + pep</t>
+  </si>
+  <si>
+    <t>1.2.4.1</t>
+  </si>
+  <si>
+    <t>[c] : cit + coa + h &lt;==&gt; accoa + h2o + oaa</t>
+  </si>
+  <si>
+    <t>[c] : coa + h + mal &lt;==&gt; accoa + glx + h2o</t>
+  </si>
+  <si>
+    <t>[c] : q8 + succ &lt;==&gt; fum + q8h2</t>
+  </si>
+  <si>
+    <t>[c] : mal &lt;==&gt; fum + h2o</t>
+  </si>
+  <si>
+    <t>[c] : accoa + for &lt;==&gt; coa + pyr</t>
+  </si>
+  <si>
+    <t>[c] : lac + nad &lt;==&gt; h + nadh + pyr</t>
+  </si>
+  <si>
+    <t>[c] : g3p + s7p &lt;==&gt; r5p + xu5p-D</t>
+  </si>
+  <si>
+    <t>[c] : f6p + g3p &lt;==&gt; e4p + xu5p-D</t>
+  </si>
+  <si>
+    <t>3 h[e] + nad[c] + q8h2[c] &lt;==&gt; 4 h[c] + nadh[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>[c] : nad + nadph &lt;==&gt; nadh + nadp</t>
+  </si>
+  <si>
+    <t>2 h[c] + nad[c] + nadph[c] &lt;==&gt; 2 h[e] + nadh[c] + nadp[c]</t>
+  </si>
+  <si>
+    <t>[c] : h + oaa + pi &lt;==&gt; co2 + h2o + pep</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2701,6 +2744,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2729,7 +2775,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -2866,7 +2912,7 @@
             <v>AKGDH</v>
           </cell>
           <cell r="B9" t="str">
-            <v>2-Oxogluterate dehydrogenase</v>
+            <v>2-Oxoglutarate dehydrogenase</v>
           </cell>
           <cell r="C9" t="str">
             <v>[c] : akg + coa + nad --&gt; co2 + nadh + succoa</v>
@@ -4217,8 +4263,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4267,7 +4313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4302,7 +4348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4896,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6754,29 +6800,36 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C1" s="79" t="s">
         <v>7</v>
@@ -6785,52 +6838,55 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F1" t="s">
         <v>815</v>
-      </c>
-      <c r="F1" t="s">
-        <v>816</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="73" t="s">
+        <v>816</v>
+      </c>
+      <c r="I1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="K1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="L1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="M1" s="73" t="s">
         <v>807</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="N1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="T1" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>16</v>
       </c>
@@ -6841,34 +6897,40 @@
         <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-9.1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="E2">
+        <v>-50.4</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="86">
         <v>250</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73">
         <v>1</v>
       </c>
-      <c r="K2" s="73">
+      <c r="L2" s="84">
         <v>20</v>
       </c>
-      <c r="L2" s="77">
+      <c r="M2" s="77">
         <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="73"/>
       <c r="N2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73" t="s">
+      <c r="O2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="73">
-        <v>5.5599999999999997E-2</v>
       </c>
       <c r="S2" s="73">
         <v>5.5599999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
@@ -6879,32 +6941,38 @@
         <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.8</v>
       </c>
+      <c r="E3">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="F3">
+        <v>20.6</v>
+      </c>
       <c r="H3" s="73">
         <v>11.09</v>
       </c>
-      <c r="I3" s="73"/>
       <c r="J3" s="73"/>
-      <c r="K3" s="73">
+      <c r="K3" s="73"/>
+      <c r="L3" s="84">
         <v>19.801039425479001</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="M3" s="77" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.9</v>
       </c>
-      <c r="M3" s="73"/>
       <c r="N3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73" t="s">
+      <c r="O3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="73">
-        <v>3.48</v>
       </c>
       <c r="S3" s="73">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="73">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
@@ -6915,34 +6983,40 @@
         <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
       </c>
+      <c r="E4">
+        <v>-53.9</v>
+      </c>
+      <c r="F4">
+        <v>21.4</v>
+      </c>
       <c r="H4" s="73">
         <v>49</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73">
+      <c r="J4" s="73"/>
+      <c r="K4" s="73">
         <v>2.7690000000000001</v>
       </c>
-      <c r="K4" s="73">
+      <c r="L4" s="84">
         <v>19.0346044708484</v>
       </c>
-      <c r="L4" s="77" t="str">
+      <c r="M4" s="77" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.11</v>
       </c>
-      <c r="M4" s="73"/>
       <c r="N4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73" t="s">
+      <c r="O4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73" t="s">
         <v>29</v>
-      </c>
-      <c r="R4" s="73">
-        <v>0.6</v>
       </c>
       <c r="S4" s="73">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>124</v>
       </c>
@@ -6953,34 +7027,40 @@
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
       </c>
+      <c r="E5">
+        <v>-48.8</v>
+      </c>
+      <c r="F5">
+        <v>-9.6999999999999993</v>
+      </c>
       <c r="H5" s="73">
         <v>22</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73">
-        <v>0</v>
-      </c>
+      <c r="J5" s="73"/>
       <c r="K5" s="73">
         <v>0</v>
       </c>
-      <c r="L5" s="77" t="str">
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77" t="str">
         <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.3.11</v>
       </c>
-      <c r="M5" s="73"/>
       <c r="N5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73" t="s">
+      <c r="O5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73" t="s">
         <v>32</v>
-      </c>
-      <c r="R5" s="73">
-        <v>0.27200000000000002</v>
       </c>
       <c r="S5" s="73">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
@@ -6991,67 +7071,84 @@
         <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.2</v>
       </c>
+      <c r="E6">
+        <v>-29.4</v>
+      </c>
+      <c r="F6">
+        <v>27.1</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="73">
         <v>8.5</v>
       </c>
-      <c r="I6" s="73"/>
       <c r="J6" s="73"/>
-      <c r="K6" s="73">
+      <c r="K6" s="73"/>
+      <c r="L6" s="84">
         <v>19.0346044708484</v>
       </c>
-      <c r="L6" s="77" t="str">
+      <c r="M6" s="77" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.2.13</v>
       </c>
-      <c r="M6" s="73"/>
       <c r="N6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73" t="s">
+      <c r="O6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73" t="s">
         <v>796</v>
-      </c>
-      <c r="R6" s="73">
-        <v>0.218</v>
       </c>
       <c r="S6" s="73">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="73">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>88</v>
+        <v>818</v>
       </c>
       <c r="D7" s="73">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="73">
-        <v>56.87</v>
-      </c>
-      <c r="I7" s="73"/>
+        <v>-1.4</v>
+      </c>
+      <c r="E7">
+        <v>-24.3</v>
+      </c>
+      <c r="F7">
+        <v>13.4</v>
+      </c>
+      <c r="G7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7">
+        <v>9000</v>
+      </c>
       <c r="J7" s="73"/>
-      <c r="K7" s="78">
-        <v>19.0346044708484</v>
-      </c>
-      <c r="L7" s="77" t="str">
+      <c r="K7" s="73"/>
+      <c r="L7" s="85">
+        <v>-19.0346044708484</v>
+      </c>
+      <c r="M7" s="77" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.1</v>
       </c>
-      <c r="M7" s="73"/>
       <c r="N7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73" t="s">
+      <c r="O7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73" t="s">
         <v>83</v>
-      </c>
-      <c r="R7" s="73">
-        <v>0.16700000000000001</v>
       </c>
       <c r="S7" s="73">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>127</v>
       </c>
@@ -7062,102 +7159,122 @@
         <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
       </c>
+      <c r="E8">
+        <v>-12.8</v>
+      </c>
+      <c r="F8">
+        <v>62.6</v>
+      </c>
       <c r="H8" s="73">
         <v>671.72</v>
       </c>
-      <c r="I8" s="73"/>
       <c r="J8" s="73"/>
-      <c r="K8" s="73">
+      <c r="K8" s="73"/>
+      <c r="L8" s="84">
         <v>37.420015145125497</v>
       </c>
-      <c r="L8" s="77" t="str">
+      <c r="M8" s="77" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.12</v>
       </c>
-      <c r="M8" s="73"/>
       <c r="N8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73" t="s">
+      <c r="O8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73" t="s">
         <v>187</v>
-      </c>
-      <c r="R8" s="73">
-        <v>2.13</v>
       </c>
       <c r="S8" s="73">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="73">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>795</v>
+        <v>128</v>
       </c>
       <c r="D9" s="73">
-        <v>-2.8</v>
-      </c>
-      <c r="H9" s="73">
+        <v>2.8</v>
+      </c>
+      <c r="E9">
+        <v>-19.2</v>
+      </c>
+      <c r="F9">
+        <v>56.1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="I9" s="73">
         <v>2225</v>
       </c>
-      <c r="I9" s="73"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="73">
-        <v>37.420015145125497</v>
-      </c>
-      <c r="L9" s="77" t="str">
+      <c r="K9" s="73"/>
+      <c r="L9" s="84">
+        <v>-37.420015145125497</v>
+      </c>
+      <c r="M9" s="77" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.3</v>
       </c>
-      <c r="M9" s="73"/>
       <c r="N9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73" t="s">
+      <c r="O9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73" t="s">
         <v>194</v>
-      </c>
-      <c r="R9" s="73">
-        <v>0.39900000000000002</v>
       </c>
       <c r="S9" s="73">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="73">
-        <v>4.2</v>
-      </c>
-      <c r="H10" s="73">
+        <v>300</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10">
+        <v>-23.1</v>
+      </c>
+      <c r="F10">
+        <v>14.6</v>
+      </c>
+      <c r="G10">
+        <v>5.49</v>
+      </c>
+      <c r="I10" s="73">
         <v>90.55</v>
       </c>
-      <c r="I10" s="73"/>
       <c r="J10" s="73"/>
-      <c r="K10" s="73">
-        <v>35.968088220815801</v>
-      </c>
-      <c r="L10" s="77" t="str">
+      <c r="K10" s="73"/>
+      <c r="L10" s="84">
+        <v>-35.968088220815801</v>
+      </c>
+      <c r="M10" s="77" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.4.2.1</v>
       </c>
-      <c r="M10" s="73"/>
       <c r="N10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73" t="s">
+      <c r="O10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73" t="s">
         <v>23</v>
-      </c>
-      <c r="R10" s="73">
-        <v>2.67</v>
       </c>
       <c r="S10" s="73">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>134</v>
       </c>
@@ -7168,68 +7285,80 @@
         <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.9</v>
       </c>
+      <c r="E11">
+        <v>-22.9</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
+      </c>
       <c r="H11" s="73">
         <v>355.79</v>
       </c>
-      <c r="I11" s="73"/>
       <c r="J11" s="73"/>
-      <c r="K11" s="73">
+      <c r="K11" s="73"/>
+      <c r="L11" s="84">
         <v>35.968088220815801</v>
       </c>
-      <c r="L11" s="77" t="str">
+      <c r="M11" s="77" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.11</v>
       </c>
-      <c r="M11" s="73"/>
       <c r="N11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73" t="s">
+      <c r="O11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73" t="s">
         <v>26</v>
-      </c>
-      <c r="R11" s="73">
-        <v>2.67</v>
       </c>
       <c r="S11" s="73">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="73">
-        <f>VLOOKUP(A12,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-5.3</v>
-      </c>
-      <c r="H12" s="73">
+        <v>819</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12">
+        <v>-10.8</v>
+      </c>
+      <c r="F12">
+        <v>65.3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.4E-5</v>
+      </c>
+      <c r="I12" s="73">
         <v>10.17</v>
       </c>
-      <c r="I12" s="73"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="73">
-        <v>15.464281224553</v>
-      </c>
-      <c r="L12" s="77" t="str">
+      <c r="K12" s="73"/>
+      <c r="L12" s="84">
+        <v>-15.464281224553</v>
+      </c>
+      <c r="M12" s="77" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.40</v>
       </c>
-      <c r="M12" s="73"/>
       <c r="N12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73" t="s">
+      <c r="O12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73" t="s">
         <v>797</v>
-      </c>
-      <c r="R12" s="73">
-        <v>0.111</v>
       </c>
       <c r="S12" s="73">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>136</v>
       </c>
@@ -7240,34 +7369,40 @@
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.2</v>
       </c>
+      <c r="E13">
+        <v>-50.9</v>
+      </c>
+      <c r="F13">
+        <v>24.4</v>
+      </c>
       <c r="H13" s="73">
-        <v>0</v>
-      </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" s="73"/>
       <c r="K13" s="73">
         <v>0</v>
       </c>
-      <c r="L13" s="77" t="str">
+      <c r="L13" s="84">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77" t="str">
         <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.9.2</v>
       </c>
-      <c r="M13" s="73"/>
       <c r="N13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73" t="s">
+      <c r="O13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73" t="s">
         <v>798</v>
-      </c>
-      <c r="R13" s="73">
-        <v>0.13800000000000001</v>
       </c>
       <c r="S13" s="73">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>140</v>
       </c>
@@ -7278,66 +7413,77 @@
         <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
+      <c r="E14">
+        <v>-73</v>
+      </c>
+      <c r="F14">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="H14" s="73">
         <v>6.32</v>
       </c>
-      <c r="I14" s="73"/>
       <c r="J14" s="73"/>
-      <c r="K14" s="73">
-        <v>0</v>
-      </c>
-      <c r="L14" s="77" t="s">
-        <v>808</v>
-      </c>
-      <c r="M14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="84">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77" t="s">
+        <v>820</v>
+      </c>
       <c r="N14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73" t="s">
+      <c r="O14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73" t="s">
         <v>799</v>
-      </c>
-      <c r="R14" s="73">
-        <v>0.27600000000000002</v>
       </c>
       <c r="S14" s="73">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>238</v>
+        <v>821</v>
       </c>
       <c r="D15" s="73">
-        <f>VLOOKUP(A15,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-8.6</v>
-      </c>
-      <c r="H15" s="73">
+        <v>8.6</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
+        <v>60.9</v>
+      </c>
+      <c r="I15" s="73">
         <v>81</v>
       </c>
-      <c r="I15" s="73"/>
       <c r="J15" s="73"/>
-      <c r="K15" s="73">
-        <v>0</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>812</v>
-      </c>
-      <c r="M15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="84">
+        <v>0</v>
+      </c>
+      <c r="M15" s="77" t="s">
+        <v>811</v>
+      </c>
       <c r="N15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73" t="s">
+      <c r="O15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73" t="s">
         <v>800</v>
-      </c>
-      <c r="R15" s="73">
-        <v>0.39800000000000002</v>
       </c>
       <c r="S15" s="73">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>317</v>
       </c>
@@ -7348,32 +7494,38 @@
         <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.5</v>
       </c>
+      <c r="E16">
+        <v>-11.2</v>
+      </c>
+      <c r="F16">
+        <v>26.5</v>
+      </c>
       <c r="H16" s="73">
         <v>5.3</v>
       </c>
-      <c r="I16" s="73"/>
       <c r="J16" s="73"/>
-      <c r="K16" s="73">
-        <v>0</v>
-      </c>
-      <c r="L16" s="77" t="str">
+      <c r="K16" s="73"/>
+      <c r="L16" s="84">
+        <v>0</v>
+      </c>
+      <c r="M16" s="77" t="str">
         <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.3</v>
       </c>
-      <c r="M16" s="73"/>
       <c r="N16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73" t="s">
+      <c r="O16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73" t="s">
         <v>801</v>
-      </c>
-      <c r="R16" s="73">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="S16" s="73">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>323</v>
       </c>
@@ -7384,32 +7536,38 @@
         <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.4</v>
       </c>
+      <c r="E17">
+        <v>-48.4</v>
+      </c>
+      <c r="F17">
+        <v>26.9</v>
+      </c>
       <c r="H17" s="73">
         <v>106.4</v>
       </c>
-      <c r="I17" s="73"/>
       <c r="J17" s="73"/>
-      <c r="K17" s="73">
-        <v>0</v>
-      </c>
-      <c r="L17" s="77" t="str">
+      <c r="K17" s="73"/>
+      <c r="L17" s="84">
+        <v>0</v>
+      </c>
+      <c r="M17" s="77" t="str">
         <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.42</v>
       </c>
-      <c r="M17" s="73"/>
       <c r="N17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73" t="s">
+      <c r="O17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73" t="s">
         <v>195</v>
-      </c>
-      <c r="R17" s="73">
-        <v>0.95499999999999996</v>
       </c>
       <c r="S17" s="73">
         <v>0.95499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>325</v>
       </c>
@@ -7420,67 +7578,78 @@
         <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.9000000000000004</v>
       </c>
+      <c r="E18">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="F18">
+        <v>17.8</v>
+      </c>
       <c r="H18" s="73">
         <v>5.2</v>
       </c>
-      <c r="I18" s="73"/>
       <c r="J18" s="73"/>
-      <c r="K18" s="73">
-        <v>0</v>
-      </c>
-      <c r="L18" s="77" t="str">
+      <c r="K18" s="73"/>
+      <c r="L18" s="84">
+        <v>0</v>
+      </c>
+      <c r="M18" s="77" t="str">
         <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.3.1</v>
       </c>
-      <c r="M18" s="73"/>
       <c r="N18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73" t="s">
+      <c r="O18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73" t="s">
         <v>38</v>
-      </c>
-      <c r="R18" s="73">
-        <v>0.59499999999999997</v>
       </c>
       <c r="S18" s="73">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>340</v>
+        <v>822</v>
       </c>
       <c r="D19" s="73">
-        <f>VLOOKUP(A19,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="H19" s="73">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E19">
+        <v>-9.1</v>
+      </c>
+      <c r="F19">
+        <v>63.1</v>
+      </c>
+      <c r="I19" s="73">
         <v>48.1</v>
       </c>
-      <c r="I19" s="73"/>
       <c r="J19" s="73"/>
-      <c r="K19" s="73">
-        <v>0</v>
-      </c>
-      <c r="L19" s="77" t="s">
-        <v>813</v>
-      </c>
-      <c r="M19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="84">
+        <v>0</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>812</v>
+      </c>
       <c r="N19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73" t="s">
+      <c r="O19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73" t="s">
         <v>41</v>
-      </c>
-      <c r="R19" s="73">
-        <v>4.2699999999999996</v>
       </c>
       <c r="S19" s="73">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>245</v>
       </c>
@@ -7491,66 +7660,79 @@
         <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
+      <c r="E20">
+        <v>-72.3</v>
+      </c>
+      <c r="F20">
+        <v>20.3</v>
+      </c>
       <c r="H20" s="73">
         <v>49</v>
       </c>
-      <c r="I20" s="73"/>
       <c r="J20" s="73"/>
-      <c r="K20" s="73">
+      <c r="K20" s="73"/>
+      <c r="L20" s="84">
         <v>3.9968753072807401</v>
       </c>
-      <c r="L20" s="77" t="s">
-        <v>809</v>
-      </c>
-      <c r="M20" s="73"/>
+      <c r="M20" s="77" t="s">
+        <v>808</v>
+      </c>
       <c r="N20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73" t="s">
+      <c r="O20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73" t="s">
         <v>802</v>
-      </c>
-      <c r="R20" s="73">
-        <v>0.19500000000000001</v>
       </c>
       <c r="S20" s="73">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>332</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="73">
-        <v>-1</v>
+      <c r="D21" s="73"/>
+      <c r="E21">
+        <v>-39.5</v>
+      </c>
+      <c r="F21">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G21">
+        <v>2.12</v>
       </c>
       <c r="H21" s="73">
         <v>44.73</v>
       </c>
-      <c r="I21" s="73"/>
       <c r="J21" s="73"/>
-      <c r="K21" s="73">
+      <c r="K21" s="73"/>
+      <c r="L21" s="84">
         <v>-3.9968753072807401</v>
       </c>
-      <c r="L21" s="77" t="str">
+      <c r="M21" s="77" t="str">
         <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>6.2.1.5</v>
       </c>
-      <c r="M21" s="73"/>
       <c r="N21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73" t="s">
+      <c r="O21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73" t="s">
         <v>803</v>
-      </c>
-      <c r="R21" s="73">
-        <v>6.2E-2</v>
       </c>
       <c r="S21" s="73">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="73">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>334</v>
       </c>
@@ -7560,197 +7742,240 @@
       <c r="D22" s="73">
         <v>-2.1</v>
       </c>
+      <c r="E22">
+        <v>-40.4</v>
+      </c>
+      <c r="F22">
+        <v>16.100000000000001</v>
+      </c>
       <c r="H22" s="73">
         <v>24</v>
       </c>
-      <c r="I22" s="73"/>
       <c r="J22" s="73"/>
-      <c r="K22" s="73">
+      <c r="K22" s="73"/>
+      <c r="L22" s="84">
         <v>3.9968753072807401</v>
       </c>
-      <c r="L22" s="77" t="str">
+      <c r="M22" s="77" t="str">
         <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="M22" s="73"/>
       <c r="N22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73" t="s">
+      <c r="O22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73" t="s">
         <v>100</v>
-      </c>
-      <c r="R22" s="73">
-        <v>1.47</v>
       </c>
       <c r="S22" s="73">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="73">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="78" t="s">
+        <v>823</v>
+      </c>
+      <c r="D23" s="73">
+        <v>-5.9</v>
+      </c>
+      <c r="E23">
+        <v>-40.4</v>
+      </c>
+      <c r="F23">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H23" s="73">
         <v>250</v>
       </c>
-      <c r="D23" s="73">
-        <f>VLOOKUP(A23,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>5.9</v>
-      </c>
-      <c r="H23" s="73">
-        <v>3.4</v>
-      </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73">
-        <v>0</v>
-      </c>
+      <c r="I23">
+        <v>110</v>
+      </c>
+      <c r="J23" s="73"/>
       <c r="K23" s="73">
         <v>0</v>
       </c>
-      <c r="L23" s="77" t="str">
+      <c r="L23" s="84">
+        <v>0</v>
+      </c>
+      <c r="M23" s="77" t="str">
         <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="M23" s="73"/>
       <c r="N23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73" t="s">
+      <c r="O23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73" t="s">
         <v>101</v>
-      </c>
-      <c r="R23" s="73">
-        <v>0.1</v>
       </c>
       <c r="S23" s="73">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>252</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>263</v>
+        <v>824</v>
       </c>
       <c r="D24" s="73">
-        <f>VLOOKUP(A24,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>-15.4</v>
+      </c>
+      <c r="F24">
+        <v>22.3</v>
       </c>
       <c r="H24" s="73">
         <v>51.7</v>
       </c>
-      <c r="I24" s="73"/>
+      <c r="I24">
+        <v>11.2</v>
+      </c>
       <c r="J24" s="73"/>
-      <c r="K24" s="73">
-        <v>3.9968753072807401</v>
-      </c>
-      <c r="L24" s="77" t="str">
+      <c r="K24" s="73"/>
+      <c r="L24" s="84">
+        <v>-3.9968753072807401</v>
+      </c>
+      <c r="M24" s="77" t="str">
         <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.2</v>
       </c>
-      <c r="M24" s="73"/>
       <c r="N24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73" t="s">
+      <c r="O24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73" t="s">
         <v>804</v>
-      </c>
-      <c r="R24" s="73">
-        <v>0.80800000000000005</v>
       </c>
       <c r="S24" s="73">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>806</v>
+        <v>261</v>
       </c>
       <c r="D25" s="73">
-        <v>-6.4</v>
+        <v>6.4</v>
+      </c>
+      <c r="E25">
+        <v>-7.3</v>
+      </c>
+      <c r="F25">
+        <v>68.599999999999994</v>
       </c>
       <c r="H25" s="73">
-        <v>1</v>
-      </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73">
+        <v>931</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73">
         <v>50</v>
       </c>
-      <c r="K25" s="73">
-        <v>-1.73406272437436</v>
-      </c>
-      <c r="L25" s="77" t="str">
+      <c r="L25" s="84">
+        <v>1.73406272437436</v>
+      </c>
+      <c r="M25" s="77" t="str">
         <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.37</v>
       </c>
-      <c r="M25" s="73"/>
       <c r="N25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="O25" s="73"/>
       <c r="Q25" s="73"/>
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="73"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>142</v>
+        <v>825</v>
       </c>
       <c r="D26" s="73">
-        <f>VLOOKUP(A26,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-5.0999999999999996</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E26">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="F26">
+        <v>51.5</v>
       </c>
       <c r="H26" s="73">
         <v>12.8</v>
       </c>
-      <c r="I26" s="73"/>
+      <c r="I26">
+        <v>4</v>
+      </c>
       <c r="J26" s="73"/>
-      <c r="K26" s="73">
-        <v>34.977749829395002</v>
-      </c>
-      <c r="L26" s="77" t="s">
-        <v>810</v>
-      </c>
-      <c r="M26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="84">
+        <v>-34.977749829395002</v>
+      </c>
+      <c r="M26" s="77" t="s">
+        <v>809</v>
+      </c>
       <c r="N26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="O26" s="73"/>
       <c r="Q26" s="73"/>
       <c r="R26" s="73"/>
       <c r="S26" s="73"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="73"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="D27" s="73">
-        <v>-6.4</v>
-      </c>
-      <c r="H27" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="E27">
+        <v>-13.2</v>
+      </c>
+      <c r="F27">
+        <v>62.1</v>
+      </c>
+      <c r="H27">
         <v>320</v>
       </c>
       <c r="I27" s="73"/>
-      <c r="J27" s="73">
-        <v>0</v>
-      </c>
+      <c r="J27" s="73"/>
       <c r="K27" s="73">
         <v>0</v>
       </c>
-      <c r="L27" s="77" t="str">
+      <c r="L27" s="84">
+        <v>0</v>
+      </c>
+      <c r="M27" s="77" t="str">
         <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.28</v>
       </c>
-      <c r="M27" s="73"/>
       <c r="N27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="O27" s="73"/>
       <c r="Q27" s="73"/>
       <c r="R27" s="73"/>
       <c r="S27" s="73"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>212</v>
       </c>
@@ -7761,28 +7986,34 @@
         <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.8</v>
       </c>
+      <c r="E28">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="F28">
+        <v>28.7</v>
+      </c>
       <c r="H28" s="73">
         <v>120</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73">
-        <v>0</v>
-      </c>
-      <c r="K28" s="78">
+      <c r="J28" s="73"/>
+      <c r="K28" s="73">
+        <v>0</v>
+      </c>
+      <c r="L28" s="85">
         <v>21.2358352193176</v>
       </c>
-      <c r="L28" s="77" t="str">
+      <c r="M28" s="77" t="str">
         <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.3.1.8</v>
       </c>
-      <c r="M28" s="73"/>
       <c r="N28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="O28" s="73"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="73"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="73"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>214</v>
       </c>
@@ -7793,28 +8024,34 @@
         <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.3</v>
       </c>
+      <c r="E29">
+        <v>-24.3</v>
+      </c>
+      <c r="F29">
+        <v>52.1</v>
+      </c>
       <c r="H29" s="73">
         <v>280</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73">
-        <v>0</v>
-      </c>
+      <c r="J29" s="73"/>
       <c r="K29" s="73">
+        <v>0</v>
+      </c>
+      <c r="L29" s="84">
         <v>-21.2358352193176</v>
       </c>
-      <c r="L29" s="77" t="str">
+      <c r="M29" s="77" t="str">
         <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.1</v>
       </c>
-      <c r="M29" s="73"/>
       <c r="N29" s="73"/>
-      <c r="P29" s="73"/>
+      <c r="O29" s="73"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="73"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>144</v>
       </c>
@@ -7825,59 +8062,72 @@
         <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-4.4000000000000004</v>
       </c>
+      <c r="E30">
+        <v>-47.4</v>
+      </c>
+      <c r="F30">
+        <v>49.2</v>
+      </c>
       <c r="H30" s="73">
         <v>15.7</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73">
-        <v>0</v>
-      </c>
+      <c r="J30" s="73"/>
       <c r="K30" s="73">
+        <v>0</v>
+      </c>
+      <c r="L30" s="84">
         <v>-10.1045270920776</v>
       </c>
-      <c r="L30" s="77" t="str">
+      <c r="M30" s="77" t="str">
         <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.10</v>
       </c>
-      <c r="M30" s="73"/>
       <c r="N30" s="73"/>
-      <c r="P30" s="73"/>
+      <c r="O30" s="73"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="73"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="73"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="73">
-        <v>-6</v>
+        <v>377</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="F31">
+        <v>59.3</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="H31" s="73">
         <v>150.19999999999999</v>
       </c>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73">
-        <v>0</v>
-      </c>
+      <c r="J31" s="73"/>
       <c r="K31" s="73">
-        <v>10.1045270920776</v>
-      </c>
-      <c r="L31" s="77" t="str">
+        <v>0</v>
+      </c>
+      <c r="L31" s="84">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="M31" s="77" t="str">
         <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="M31" s="73"/>
       <c r="N31" s="73"/>
-      <c r="P31" s="73"/>
+      <c r="O31" s="73"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="73"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>415</v>
       </c>
@@ -7888,28 +8138,34 @@
         <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.6</v>
       </c>
+      <c r="E32">
+        <v>-42.6</v>
+      </c>
+      <c r="F32">
+        <v>35.299999999999997</v>
+      </c>
       <c r="H32" s="73">
         <v>174</v>
       </c>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73">
+      <c r="J32" s="73"/>
+      <c r="K32" s="73">
         <v>0.63</v>
       </c>
-      <c r="K32" s="73">
-        <v>0</v>
-      </c>
-      <c r="L32" s="77" t="str">
+      <c r="L32" s="84">
+        <v>0</v>
+      </c>
+      <c r="M32" s="77" t="str">
         <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.49</v>
       </c>
-      <c r="M32" s="73"/>
       <c r="N32" s="73"/>
-      <c r="P32" s="73"/>
+      <c r="O32" s="73"/>
       <c r="Q32" s="73"/>
       <c r="R32" s="73"/>
       <c r="S32" s="73"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="73"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>419</v>
       </c>
@@ -7920,26 +8176,32 @@
         <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
       </c>
+      <c r="E33">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="F33">
+        <v>-2.1</v>
+      </c>
       <c r="H33" s="73">
-        <v>0</v>
-      </c>
-      <c r="I33" s="73"/>
+        <v>25</v>
+      </c>
       <c r="J33" s="73"/>
-      <c r="K33" s="73">
-        <v>0</v>
-      </c>
-      <c r="L33" s="77" t="str">
+      <c r="K33" s="73"/>
+      <c r="L33" s="84">
+        <v>0</v>
+      </c>
+      <c r="M33" s="77" t="str">
         <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.1.31</v>
       </c>
-      <c r="M33" s="73"/>
       <c r="N33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="O33" s="73"/>
       <c r="Q33" s="73"/>
       <c r="R33" s="73"/>
       <c r="S33" s="73"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="73"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>422</v>
       </c>
@@ -7950,55 +8212,68 @@
         <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.9</v>
       </c>
+      <c r="E34">
+        <v>-43.6</v>
+      </c>
+      <c r="F34">
+        <v>31.7</v>
+      </c>
       <c r="H34" s="73">
         <v>75.650000000000006</v>
       </c>
-      <c r="I34" s="73"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="73">
-        <v>0</v>
-      </c>
-      <c r="L34" s="77" t="str">
+      <c r="K34" s="73"/>
+      <c r="L34" s="84">
+        <v>0</v>
+      </c>
+      <c r="M34" s="77" t="str">
         <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.44</v>
       </c>
-      <c r="M34" s="73"/>
       <c r="N34" s="73"/>
-      <c r="P34" s="73"/>
+      <c r="O34" s="73"/>
       <c r="Q34" s="73"/>
       <c r="R34" s="73"/>
       <c r="S34" s="73"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="73"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>425</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="D35" s="73">
-        <v>0</v>
+      <c r="D35" s="73"/>
+      <c r="E35">
+        <v>-22.2</v>
+      </c>
+      <c r="F35">
+        <v>15.5</v>
+      </c>
+      <c r="G35">
+        <v>3.91</v>
       </c>
       <c r="H35" s="73">
         <v>21.05</v>
       </c>
-      <c r="I35" s="73"/>
       <c r="J35" s="73"/>
-      <c r="K35" s="78">
+      <c r="K35" s="73"/>
+      <c r="L35" s="85">
         <v>-0.69762371202792395</v>
       </c>
-      <c r="L35" s="77" t="str">
+      <c r="M35" s="77" t="str">
         <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.1.3.1</v>
       </c>
-      <c r="M35" s="73"/>
       <c r="N35" s="73"/>
-      <c r="P35" s="73"/>
+      <c r="O35" s="73"/>
       <c r="Q35" s="73"/>
       <c r="R35" s="73"/>
       <c r="S35" s="73"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="73"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>428</v>
       </c>
@@ -8008,55 +8283,68 @@
       <c r="D36" s="73">
         <v>0.5</v>
       </c>
+      <c r="E36">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="F36">
+        <v>20.8</v>
+      </c>
       <c r="H36" s="73">
         <v>2100</v>
       </c>
-      <c r="I36" s="73"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="78">
+      <c r="K36" s="73"/>
+      <c r="L36" s="85">
         <v>-0.69762371202792395</v>
       </c>
-      <c r="L36" s="77" t="str">
+      <c r="M36" s="77" t="str">
         <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.6</v>
       </c>
-      <c r="M36" s="73"/>
       <c r="N36" s="73"/>
-      <c r="P36" s="73"/>
+      <c r="O36" s="73"/>
       <c r="Q36" s="73"/>
       <c r="R36" s="73"/>
       <c r="S36" s="73"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="73"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>431</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="D37" s="73">
-        <v>1.9</v>
-      </c>
-      <c r="H37" s="73">
+        <v>827</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37">
+        <v>-33.9</v>
+      </c>
+      <c r="F37">
+        <v>41.5</v>
+      </c>
+      <c r="G37">
+        <v>0.216</v>
+      </c>
+      <c r="I37" s="73">
         <v>55.57</v>
       </c>
-      <c r="I37" s="73"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="73">
-        <v>-0.17362949649665499</v>
-      </c>
-      <c r="L37" s="77" t="str">
+      <c r="K37" s="73"/>
+      <c r="L37" s="84">
+        <v>0.17362949649665499</v>
+      </c>
+      <c r="M37" s="77" t="str">
         <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="M37" s="73"/>
       <c r="N37" s="73"/>
-      <c r="P37" s="73"/>
+      <c r="O37" s="73"/>
       <c r="Q37" s="73"/>
       <c r="R37" s="73"/>
       <c r="S37" s="73"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="73"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>436</v>
       </c>
@@ -8066,174 +8354,215 @@
       <c r="D38" s="73">
         <v>-1.7</v>
       </c>
+      <c r="E38">
+        <v>-38.4</v>
+      </c>
+      <c r="F38">
+        <v>36.9</v>
+      </c>
       <c r="H38" s="73">
         <v>16.57</v>
       </c>
-      <c r="I38" s="73"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="73">
+      <c r="K38" s="73"/>
+      <c r="L38" s="84">
         <v>-0.17362949649665499</v>
       </c>
-      <c r="L38" s="77" t="str">
+      <c r="M38" s="77" t="str">
         <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.2</v>
       </c>
-      <c r="M38" s="73"/>
       <c r="N38" s="73"/>
-      <c r="P38" s="73"/>
+      <c r="O38" s="73"/>
       <c r="Q38" s="73"/>
       <c r="R38" s="73"/>
       <c r="S38" s="73"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="73"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>434</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>435</v>
+        <v>828</v>
       </c>
       <c r="D39" s="73">
-        <v>-1.7</v>
-      </c>
-      <c r="H39" s="73">
+        <v>1.7</v>
+      </c>
+      <c r="E39">
+        <v>-27.7</v>
+      </c>
+      <c r="F39">
+        <v>47.7</v>
+      </c>
+      <c r="G39">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I39" s="73">
         <v>15.45</v>
       </c>
-      <c r="I39" s="73"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="73">
-        <v>-0.52399421553126901</v>
-      </c>
-      <c r="L39" s="77" t="str">
+      <c r="K39" s="73"/>
+      <c r="L39" s="84">
+        <v>0.52399421553126901</v>
+      </c>
+      <c r="M39" s="77" t="str">
         <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="M39" s="73"/>
       <c r="N39" s="73"/>
-      <c r="P39" s="73"/>
+      <c r="O39" s="73"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73"/>
       <c r="S39" s="73"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="73"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="78" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>170</v>
+        <v>829</v>
       </c>
       <c r="D40" s="73">
-        <f>VLOOKUP(A40,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="H40" s="73">
-        <v>0</v>
-      </c>
-      <c r="I40" s="73"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E40">
+        <v>24.2</v>
+      </c>
+      <c r="F40">
+        <v>122.4</v>
+      </c>
+      <c r="H40" s="73"/>
+      <c r="I40">
+        <v>26</v>
+      </c>
       <c r="J40" s="73"/>
-      <c r="K40" s="73">
-        <v>16.0031246927193</v>
-      </c>
-      <c r="L40" s="77" t="str">
+      <c r="K40" s="73"/>
+      <c r="L40" s="84">
+        <v>-16.0031246927193</v>
+      </c>
+      <c r="M40" s="77" t="str">
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.5.3</v>
       </c>
-      <c r="M40" s="73"/>
       <c r="N40" s="73"/>
-      <c r="P40" s="73"/>
+      <c r="O40" s="73"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="73"/>
       <c r="S40" s="73"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="73"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="77" t="s">
         <v>441</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="D41" s="73">
-        <f>VLOOKUP(A41,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="H41" s="73">
-        <v>0</v>
-      </c>
-      <c r="I41" s="73"/>
+        <v>830</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41">
+        <v>-38.6</v>
+      </c>
+      <c r="F41">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G41">
+        <v>1.48</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41">
+        <v>6.6699999999999995E-2</v>
+      </c>
       <c r="J41" s="73"/>
-      <c r="K41" s="73">
-        <v>0</v>
-      </c>
-      <c r="L41" s="77" t="str">
+      <c r="K41" s="73"/>
+      <c r="L41" s="84">
+        <v>0</v>
+      </c>
+      <c r="M41" s="77" t="str">
         <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.2</v>
       </c>
-      <c r="M41" s="73"/>
       <c r="N41" s="73"/>
-      <c r="P41" s="73"/>
+      <c r="O41" s="73"/>
       <c r="Q41" s="73"/>
       <c r="R41" s="73"/>
       <c r="S41" s="73"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="73"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
         <v>444</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="73">
-        <v>0.3</v>
+        <v>831</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73">
+        <v>-38.6</v>
+      </c>
+      <c r="F42" s="73">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G42">
+        <v>1.48</v>
       </c>
       <c r="H42" s="73">
-        <v>0</v>
-      </c>
-      <c r="I42" s="73"/>
+        <v>167.9</v>
+      </c>
       <c r="J42" s="73"/>
-      <c r="K42" s="73">
-        <v>10.381277508814</v>
-      </c>
-      <c r="L42" s="77" t="str">
+      <c r="K42" s="73"/>
+      <c r="L42" s="84">
+        <v>-10.381277508814</v>
+      </c>
+      <c r="M42" s="77" t="str">
         <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.1</v>
       </c>
-      <c r="M42" s="73"/>
       <c r="N42" s="73"/>
-      <c r="P42" s="73"/>
+      <c r="O42" s="73"/>
       <c r="Q42" s="73"/>
       <c r="R42" s="73"/>
       <c r="S42" s="73"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="73"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="73">
-        <f>VLOOKUP(A43,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-0.1</v>
+      <c r="D43" s="73"/>
+      <c r="E43">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="F43">
+        <v>35.1</v>
+      </c>
+      <c r="G43">
+        <v>2.82</v>
       </c>
       <c r="H43" s="73">
-        <v>0</v>
-      </c>
-      <c r="I43" s="73"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="J43" s="73"/>
-      <c r="K43" s="73">
-        <v>0</v>
-      </c>
-      <c r="L43" s="77" t="str">
+      <c r="K43" s="73"/>
+      <c r="L43" s="84">
+        <v>0</v>
+      </c>
+      <c r="M43" s="77" t="str">
         <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.4.3</v>
       </c>
-      <c r="M43" s="73"/>
       <c r="N43" s="73"/>
-      <c r="P43" s="73"/>
+      <c r="O43" s="73"/>
       <c r="Q43" s="73"/>
       <c r="R43" s="73"/>
       <c r="S43" s="73"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="73"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>171</v>
       </c>
@@ -8245,55 +8574,67 @@
         <v>-6.6</v>
       </c>
       <c r="H44" s="73">
-        <v>0</v>
-      </c>
-      <c r="I44" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44" s="73"/>
-      <c r="K44" s="73">
+      <c r="K44" s="73"/>
+      <c r="L44" s="84">
         <v>8.39</v>
       </c>
-      <c r="L44" s="77">
+      <c r="M44" s="77">
         <f>VLOOKUP(A44,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="73"/>
       <c r="N44" s="73"/>
-      <c r="P44" s="73"/>
+      <c r="O44" s="73"/>
       <c r="Q44" s="73"/>
       <c r="R44" s="73"/>
       <c r="S44" s="73"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="73"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
         <v>173</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="D45" s="73">
-        <f>VLOOKUP(A45,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>6.6</v>
+        <v>207</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45">
+        <v>-62.3</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="11">
+        <v>42000</v>
       </c>
       <c r="H45" s="73">
-        <v>0</v>
-      </c>
-      <c r="I45" s="73"/>
+        <v>3800</v>
+      </c>
+      <c r="I45">
+        <v>2200</v>
+      </c>
       <c r="J45" s="73"/>
-      <c r="K45" s="73">
-        <v>7.35555836532013</v>
-      </c>
-      <c r="L45" s="77" t="str">
+      <c r="K45" s="73"/>
+      <c r="L45" s="84">
+        <v>-7.35555836532013</v>
+      </c>
+      <c r="M45" s="77" t="str">
         <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.6.3.14</v>
       </c>
-      <c r="M45" s="73"/>
       <c r="N45" s="73"/>
-      <c r="P45" s="73"/>
+      <c r="O45" s="73"/>
       <c r="Q45" s="73"/>
       <c r="R45" s="73"/>
       <c r="S45" s="73"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="73"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="77" t="s">
         <v>167</v>
       </c>
@@ -8305,56 +8646,67 @@
         <v>-37.200000000000003</v>
       </c>
       <c r="H46" s="73">
-        <v>0</v>
-      </c>
-      <c r="I46" s="73"/>
+        <v>341</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
       <c r="J46" s="73"/>
-      <c r="K46" s="73">
+      <c r="K46" s="73"/>
+      <c r="L46" s="84">
         <v>20</v>
       </c>
-      <c r="L46" s="77" t="s">
-        <v>811</v>
-      </c>
-      <c r="M46" s="73"/>
+      <c r="M46" s="77" t="s">
+        <v>810</v>
+      </c>
       <c r="N46" s="73"/>
-      <c r="P46" s="73"/>
+      <c r="O46" s="73"/>
       <c r="Q46" s="73"/>
       <c r="R46" s="73"/>
       <c r="S46" s="73"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="73"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>234</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>235</v>
+        <v>832</v>
       </c>
       <c r="D47" s="73">
-        <f>VLOOKUP(A47,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-6.8</v>
-      </c>
-      <c r="H47" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="E47">
+        <v>-7.1</v>
+      </c>
+      <c r="F47">
+        <v>55.6</v>
+      </c>
+      <c r="H47">
         <v>13.74</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73">
+      <c r="I47" s="73">
+        <v>540</v>
+      </c>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73">
         <v>18.2</v>
       </c>
-      <c r="K47" s="73">
-        <v>0</v>
-      </c>
-      <c r="L47" s="77" t="str">
+      <c r="L47" s="84">
+        <v>0</v>
+      </c>
+      <c r="M47" s="77" t="str">
         <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.31</v>
       </c>
-      <c r="M47" s="73"/>
       <c r="N47" s="73"/>
-      <c r="P47" s="73"/>
+      <c r="O47" s="73"/>
       <c r="Q47" s="73"/>
       <c r="R47" s="73"/>
       <c r="S47" s="73"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="73"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>237</v>
       </c>
@@ -8365,28 +8717,34 @@
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
       </c>
+      <c r="E48">
+        <v>-44.4</v>
+      </c>
+      <c r="F48">
+        <v>30.9</v>
+      </c>
       <c r="H48" s="73">
-        <v>0</v>
-      </c>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" s="73"/>
       <c r="K48" s="73">
         <v>0</v>
       </c>
-      <c r="L48" s="77" t="str">
+      <c r="L48" s="84">
+        <v>0</v>
+      </c>
+      <c r="M48" s="77" t="str">
         <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.49</v>
       </c>
-      <c r="M48" s="73"/>
       <c r="N48" s="73"/>
-      <c r="P48" s="73"/>
+      <c r="O48" s="73"/>
       <c r="Q48" s="73"/>
       <c r="R48" s="73"/>
       <c r="S48" s="73"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="73"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
         <v>254</v>
       </c>
@@ -8397,28 +8755,34 @@
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.3</v>
       </c>
+      <c r="E49">
+        <v>-41.8</v>
+      </c>
+      <c r="F49">
+        <v>33.6</v>
+      </c>
       <c r="H49" s="73">
-        <v>0</v>
-      </c>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" s="73"/>
       <c r="K49" s="73">
         <v>0</v>
       </c>
-      <c r="L49" s="77" t="str">
+      <c r="L49" s="84">
+        <v>0</v>
+      </c>
+      <c r="M49" s="77" t="str">
         <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.38</v>
       </c>
-      <c r="M49" s="73"/>
       <c r="N49" s="73"/>
-      <c r="P49" s="73"/>
+      <c r="O49" s="73"/>
       <c r="Q49" s="73"/>
       <c r="R49" s="73"/>
       <c r="S49" s="73"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="73"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>364</v>
       </c>
@@ -8429,28 +8793,34 @@
         <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.6</v>
       </c>
+      <c r="E50">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="F50">
+        <v>34.5</v>
+      </c>
       <c r="H50" s="73">
-        <v>0</v>
-      </c>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" s="73"/>
       <c r="K50" s="73">
+        <v>0</v>
+      </c>
+      <c r="L50" s="84">
         <v>2.2628125829063799</v>
       </c>
-      <c r="L50" s="77" t="str">
+      <c r="M50" s="77" t="str">
         <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.40</v>
       </c>
-      <c r="M50" s="73"/>
       <c r="N50" s="73"/>
-      <c r="P50" s="73"/>
+      <c r="O50" s="73"/>
       <c r="Q50" s="73"/>
       <c r="R50" s="73"/>
       <c r="S50" s="73"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="73"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>663</v>
       </c>
@@ -8461,21 +8831,26 @@
         <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
+      <c r="H51" s="73">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
       <c r="J51" s="73"/>
-      <c r="K51" s="73">
+      <c r="K51" s="73"/>
+      <c r="L51" s="84">
         <v>7.11118951189348</v>
       </c>
-      <c r="L51" s="77"/>
-      <c r="M51" s="73"/>
+      <c r="M51" s="77"/>
       <c r="N51" s="73"/>
-      <c r="P51" s="73"/>
+      <c r="O51" s="73"/>
       <c r="Q51" s="73"/>
       <c r="R51" s="73"/>
       <c r="S51" s="73"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="73"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="s">
         <v>463</v>
       </c>
@@ -8486,23 +8861,26 @@
         <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="86">
         <v>1.6670000000000001E-2</v>
       </c>
-      <c r="I52" s="73"/>
+      <c r="I52">
+        <v>1.6670000000000001E-2</v>
+      </c>
       <c r="J52" s="73"/>
-      <c r="K52" s="73">
+      <c r="K52" s="73"/>
+      <c r="L52" s="84">
         <v>10</v>
       </c>
-      <c r="L52" s="77"/>
-      <c r="M52" s="73"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="73"/>
-      <c r="P52" s="73"/>
+      <c r="O52" s="73"/>
       <c r="Q52" s="73"/>
       <c r="R52" s="73"/>
       <c r="S52" s="73"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="73"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
         <v>456</v>
       </c>
@@ -8513,21 +8891,26 @@
         <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
+      <c r="H53" s="86">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="J53" s="73"/>
-      <c r="K53" s="73">
+      <c r="K53" s="73"/>
+      <c r="L53" s="84">
         <v>3.5703232462952501</v>
       </c>
-      <c r="L53" s="77"/>
-      <c r="M53" s="73"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="73"/>
-      <c r="P53" s="73"/>
+      <c r="O53" s="73"/>
       <c r="Q53" s="73"/>
       <c r="R53" s="73"/>
       <c r="S53" s="73"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="73"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>397</v>
       </c>
@@ -8538,21 +8921,26 @@
         <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
+      <c r="H54" s="86">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54" s="73"/>
-      <c r="K54" s="73">
+      <c r="K54" s="73"/>
+      <c r="L54" s="84">
         <v>-6.25968789018712</v>
       </c>
-      <c r="L54" s="77"/>
-      <c r="M54" s="73"/>
+      <c r="M54" s="77"/>
       <c r="N54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="O54" s="73"/>
       <c r="Q54" s="73"/>
       <c r="R54" s="73"/>
       <c r="S54" s="73"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="73"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>343</v>
       </c>
@@ -8562,21 +8950,26 @@
       <c r="D55" s="73">
         <v>0</v>
       </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
+      <c r="H55" s="86">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
       <c r="J55" s="73"/>
-      <c r="K55" s="73">
-        <v>0</v>
-      </c>
-      <c r="L55" s="77"/>
-      <c r="M55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="84">
+        <v>0</v>
+      </c>
+      <c r="M55" s="77"/>
       <c r="N55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="O55" s="73"/>
       <c r="Q55" s="73"/>
       <c r="R55" s="73"/>
       <c r="S55" s="73"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="73"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>346</v>
       </c>
@@ -8586,21 +8979,26 @@
       <c r="D56" s="73">
         <v>0</v>
       </c>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
+      <c r="H56" s="86">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56" s="73"/>
-      <c r="K56" s="73">
-        <v>0</v>
-      </c>
-      <c r="L56" s="77"/>
-      <c r="M56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="84">
+        <v>0</v>
+      </c>
+      <c r="M56" s="77"/>
       <c r="N56" s="73"/>
-      <c r="P56" s="73"/>
+      <c r="O56" s="73"/>
       <c r="Q56" s="73"/>
       <c r="R56" s="73"/>
       <c r="S56" s="73"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="73"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>349</v>
       </c>
@@ -8610,21 +9008,26 @@
       <c r="D57" s="73">
         <v>0</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
+      <c r="H57" s="86">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
       <c r="J57" s="73"/>
-      <c r="K57" s="73">
-        <v>0</v>
-      </c>
-      <c r="L57" s="77"/>
-      <c r="M57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="84">
+        <v>0</v>
+      </c>
+      <c r="M57" s="77"/>
       <c r="N57" s="73"/>
-      <c r="P57" s="73"/>
+      <c r="O57" s="73"/>
       <c r="Q57" s="73"/>
       <c r="R57" s="73"/>
       <c r="S57" s="73"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="73"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>353</v>
       </c>
@@ -8635,21 +9038,26 @@
         <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
+      <c r="H58" s="86">
+        <v>1</v>
+      </c>
+      <c r="I58" s="73">
+        <v>1</v>
+      </c>
       <c r="J58" s="73"/>
-      <c r="K58" s="73">
-        <v>0</v>
-      </c>
-      <c r="L58" s="77"/>
-      <c r="M58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="84">
+        <v>0</v>
+      </c>
+      <c r="M58" s="77"/>
       <c r="N58" s="73"/>
-      <c r="P58" s="73"/>
+      <c r="O58" s="73"/>
       <c r="Q58" s="73"/>
       <c r="R58" s="73"/>
       <c r="S58" s="73"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="73"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="s">
         <v>356</v>
       </c>
@@ -8660,21 +9068,26 @@
         <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
+      <c r="H59" s="86">
+        <v>1</v>
+      </c>
+      <c r="I59" s="73">
+        <v>0</v>
+      </c>
       <c r="J59" s="73"/>
-      <c r="K59" s="73">
-        <v>0</v>
-      </c>
-      <c r="L59" s="77"/>
-      <c r="M59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="84">
+        <v>0</v>
+      </c>
+      <c r="M59" s="77"/>
       <c r="N59" s="73"/>
-      <c r="P59" s="73"/>
+      <c r="O59" s="73"/>
       <c r="Q59" s="73"/>
       <c r="R59" s="73"/>
       <c r="S59" s="73"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="73"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>360</v>
       </c>
@@ -8685,21 +9098,26 @@
         <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
+      <c r="H60" s="86">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
       <c r="J60" s="73"/>
-      <c r="K60" s="73">
-        <v>0</v>
-      </c>
-      <c r="L60" s="77"/>
-      <c r="M60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="84">
+        <v>0</v>
+      </c>
+      <c r="M60" s="77"/>
       <c r="N60" s="73"/>
-      <c r="P60" s="73"/>
+      <c r="O60" s="73"/>
       <c r="Q60" s="73"/>
       <c r="R60" s="73"/>
       <c r="S60" s="73"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="73"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>368</v>
       </c>
@@ -8710,21 +9128,26 @@
         <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
+      <c r="H61" s="86">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
       <c r="J61" s="73"/>
-      <c r="K61" s="73">
-        <v>0</v>
-      </c>
-      <c r="L61" s="77"/>
-      <c r="M61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="84">
+        <v>0</v>
+      </c>
+      <c r="M61" s="77"/>
       <c r="N61" s="73"/>
-      <c r="P61" s="73"/>
+      <c r="O61" s="73"/>
       <c r="Q61" s="73"/>
       <c r="R61" s="73"/>
       <c r="S61" s="73"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="73"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
         <v>378</v>
       </c>
@@ -8735,21 +9158,26 @@
         <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
+      <c r="H62" s="86">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="J62" s="73"/>
-      <c r="K62" s="73">
-        <v>0</v>
-      </c>
-      <c r="L62" s="77"/>
-      <c r="M62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="84">
+        <v>0</v>
+      </c>
+      <c r="M62" s="77"/>
       <c r="N62" s="73"/>
-      <c r="P62" s="73"/>
+      <c r="O62" s="73"/>
       <c r="Q62" s="73"/>
       <c r="R62" s="73"/>
       <c r="S62" s="73"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="73"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
         <v>381</v>
       </c>
@@ -8760,21 +9188,26 @@
         <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="H63" s="86">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63" s="73"/>
-      <c r="K63" s="73">
+      <c r="K63" s="73"/>
+      <c r="L63" s="84">
         <v>34.977749829395002</v>
       </c>
-      <c r="L63" s="77"/>
-      <c r="M63" s="73"/>
+      <c r="M63" s="77"/>
       <c r="N63" s="73"/>
-      <c r="P63" s="73"/>
+      <c r="O63" s="73"/>
       <c r="Q63" s="73"/>
       <c r="R63" s="73"/>
       <c r="S63" s="73"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="73"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>384</v>
       </c>
@@ -8785,21 +9218,26 @@
         <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="H64" s="86">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
       <c r="J64" s="73"/>
-      <c r="K64" s="73">
+      <c r="K64" s="73"/>
+      <c r="L64" s="84">
         <v>-10.1045270920776</v>
       </c>
-      <c r="L64" s="77"/>
-      <c r="M64" s="73"/>
+      <c r="M64" s="77"/>
       <c r="N64" s="73"/>
-      <c r="P64" s="73"/>
+      <c r="O64" s="73"/>
       <c r="Q64" s="73"/>
       <c r="R64" s="73"/>
       <c r="S64" s="73"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="73"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>387</v>
       </c>
@@ -8810,21 +9248,26 @@
         <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="H65" s="86">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
       <c r="J65" s="73"/>
-      <c r="K65" s="73">
+      <c r="K65" s="73"/>
+      <c r="L65" s="84">
         <v>-21.2358352193176</v>
       </c>
-      <c r="L65" s="77"/>
-      <c r="M65" s="73"/>
+      <c r="M65" s="77"/>
       <c r="N65" s="73"/>
-      <c r="P65" s="73"/>
+      <c r="O65" s="73"/>
       <c r="Q65" s="73"/>
       <c r="R65" s="73"/>
       <c r="S65" s="73"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="73"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
         <v>390</v>
       </c>
@@ -8835,21 +9278,26 @@
         <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="H66" s="86">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
       <c r="J66" s="73"/>
-      <c r="K66" s="73">
-        <v>0</v>
-      </c>
-      <c r="L66" s="77"/>
-      <c r="M66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="84">
+        <v>0</v>
+      </c>
+      <c r="M66" s="77"/>
       <c r="N66" s="73"/>
-      <c r="P66" s="73"/>
+      <c r="O66" s="73"/>
       <c r="Q66" s="73"/>
       <c r="R66" s="73"/>
       <c r="S66" s="73"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="73"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="s">
         <v>401</v>
       </c>
@@ -8860,20 +9308,20 @@
         <v>0</v>
       </c>
       <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
       <c r="J67" s="73"/>
-      <c r="K67" s="73">
-        <v>0</v>
-      </c>
-      <c r="L67" s="77"/>
-      <c r="M67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="84">
+        <v>0</v>
+      </c>
+      <c r="M67" s="77"/>
       <c r="N67" s="73"/>
-      <c r="P67" s="73"/>
+      <c r="O67" s="73"/>
       <c r="Q67" s="73"/>
       <c r="R67" s="73"/>
       <c r="S67" s="73"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="73"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="s">
         <v>402</v>
       </c>
@@ -8884,20 +9332,20 @@
         <v>0</v>
       </c>
       <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
       <c r="J68" s="73"/>
-      <c r="K68" s="73">
-        <v>0</v>
-      </c>
-      <c r="L68" s="77"/>
-      <c r="M68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="84">
+        <v>0</v>
+      </c>
+      <c r="M68" s="77"/>
       <c r="N68" s="73"/>
-      <c r="P68" s="73"/>
+      <c r="O68" s="73"/>
       <c r="Q68" s="73"/>
       <c r="R68" s="73"/>
       <c r="S68" s="73"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="73"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>403</v>
       </c>
@@ -8908,20 +9356,20 @@
         <v>0</v>
       </c>
       <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
       <c r="J69" s="73"/>
-      <c r="K69" s="73">
-        <v>0</v>
-      </c>
-      <c r="L69" s="77"/>
-      <c r="M69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="84">
+        <v>0</v>
+      </c>
+      <c r="M69" s="77"/>
       <c r="N69" s="73"/>
-      <c r="P69" s="73"/>
+      <c r="O69" s="73"/>
       <c r="Q69" s="73"/>
       <c r="R69" s="73"/>
       <c r="S69" s="73"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="73"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>404</v>
       </c>
@@ -8932,20 +9380,20 @@
         <v>0</v>
       </c>
       <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
       <c r="J70" s="73"/>
-      <c r="K70" s="73">
-        <v>0</v>
-      </c>
-      <c r="L70" s="77"/>
-      <c r="M70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="84">
+        <v>0</v>
+      </c>
+      <c r="M70" s="77"/>
       <c r="N70" s="73"/>
-      <c r="P70" s="73"/>
+      <c r="O70" s="73"/>
       <c r="Q70" s="73"/>
       <c r="R70" s="73"/>
       <c r="S70" s="73"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="73"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>405</v>
       </c>
@@ -8956,20 +9404,20 @@
         <v>0</v>
       </c>
       <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
       <c r="J71" s="73"/>
-      <c r="K71" s="73">
-        <v>0</v>
-      </c>
-      <c r="L71" s="77"/>
-      <c r="M71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="84">
+        <v>0</v>
+      </c>
+      <c r="M71" s="77"/>
       <c r="N71" s="73"/>
-      <c r="P71" s="73"/>
+      <c r="O71" s="73"/>
       <c r="Q71" s="73"/>
       <c r="R71" s="73"/>
       <c r="S71" s="73"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="73"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>406</v>
       </c>
@@ -8980,20 +9428,20 @@
         <v>0</v>
       </c>
       <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
       <c r="J72" s="73"/>
-      <c r="K72" s="73">
-        <v>0</v>
-      </c>
-      <c r="L72" s="77"/>
-      <c r="M72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="84">
+        <v>0</v>
+      </c>
+      <c r="M72" s="77"/>
       <c r="N72" s="73"/>
-      <c r="P72" s="73"/>
+      <c r="O72" s="73"/>
       <c r="Q72" s="73"/>
       <c r="R72" s="73"/>
       <c r="S72" s="73"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="73"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>407</v>
       </c>
@@ -9004,20 +9452,20 @@
         <v>0</v>
       </c>
       <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
       <c r="J73" s="73"/>
-      <c r="K73" s="73">
+      <c r="K73" s="73"/>
+      <c r="L73" s="84">
         <v>34.977749829395002</v>
       </c>
-      <c r="L73" s="77"/>
-      <c r="M73" s="73"/>
+      <c r="M73" s="77"/>
       <c r="N73" s="73"/>
-      <c r="P73" s="73"/>
+      <c r="O73" s="73"/>
       <c r="Q73" s="73"/>
       <c r="R73" s="73"/>
       <c r="S73" s="73"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="73"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="s">
         <v>408</v>
       </c>
@@ -9028,20 +9476,20 @@
         <v>0</v>
       </c>
       <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
       <c r="J74" s="73"/>
-      <c r="K74" s="73">
+      <c r="K74" s="73"/>
+      <c r="L74" s="84">
         <v>10.1045270920776</v>
       </c>
-      <c r="L74" s="77"/>
-      <c r="M74" s="73"/>
+      <c r="M74" s="77"/>
       <c r="N74" s="73"/>
-      <c r="P74" s="73"/>
+      <c r="O74" s="73"/>
       <c r="Q74" s="73"/>
       <c r="R74" s="73"/>
       <c r="S74" s="73"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="73"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>409</v>
       </c>
@@ -9052,20 +9500,20 @@
         <v>0</v>
       </c>
       <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
       <c r="J75" s="73"/>
-      <c r="K75" s="73">
+      <c r="K75" s="73"/>
+      <c r="L75" s="84">
         <v>21.2358352193176</v>
       </c>
-      <c r="L75" s="77"/>
-      <c r="M75" s="73"/>
+      <c r="M75" s="77"/>
       <c r="N75" s="73"/>
-      <c r="P75" s="73"/>
+      <c r="O75" s="73"/>
       <c r="Q75" s="73"/>
       <c r="R75" s="73"/>
       <c r="S75" s="73"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="73"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
         <v>410</v>
       </c>
@@ -9076,20 +9524,20 @@
         <v>0</v>
       </c>
       <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
       <c r="J76" s="73"/>
-      <c r="K76" s="73">
-        <v>0</v>
-      </c>
-      <c r="L76" s="77"/>
-      <c r="M76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="84">
+        <v>0</v>
+      </c>
+      <c r="M76" s="77"/>
       <c r="N76" s="73"/>
-      <c r="P76" s="73"/>
+      <c r="O76" s="73"/>
       <c r="Q76" s="73"/>
       <c r="R76" s="73"/>
       <c r="S76" s="73"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="73"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="s">
         <v>411</v>
       </c>
@@ -9100,20 +9548,20 @@
         <v>0</v>
       </c>
       <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
       <c r="J77" s="73"/>
-      <c r="K77" s="73">
+      <c r="K77" s="73"/>
+      <c r="L77" s="84">
         <v>-20</v>
       </c>
-      <c r="L77" s="77"/>
-      <c r="M77" s="73"/>
+      <c r="M77" s="77"/>
       <c r="N77" s="73"/>
-      <c r="P77" s="73"/>
+      <c r="O77" s="73"/>
       <c r="Q77" s="73"/>
       <c r="R77" s="73"/>
       <c r="S77" s="73"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="73"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
         <v>412</v>
       </c>
@@ -9124,20 +9572,20 @@
         <v>0</v>
       </c>
       <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
       <c r="J78" s="73"/>
-      <c r="K78" s="73">
+      <c r="K78" s="73"/>
+      <c r="L78" s="84">
         <v>6.25968789018712</v>
       </c>
-      <c r="L78" s="77"/>
-      <c r="M78" s="73"/>
+      <c r="M78" s="77"/>
       <c r="N78" s="73"/>
-      <c r="P78" s="73"/>
+      <c r="O78" s="73"/>
       <c r="Q78" s="73"/>
       <c r="R78" s="73"/>
       <c r="S78" s="73"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="73"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
         <v>413</v>
       </c>
@@ -9148,20 +9596,20 @@
         <v>0</v>
       </c>
       <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
       <c r="J79" s="73"/>
-      <c r="K79" s="73">
+      <c r="K79" s="73"/>
+      <c r="L79" s="84">
         <v>65.594624664349297</v>
       </c>
-      <c r="L79" s="77"/>
-      <c r="M79" s="73"/>
+      <c r="M79" s="77"/>
       <c r="N79" s="73"/>
-      <c r="P79" s="73"/>
+      <c r="O79" s="73"/>
       <c r="Q79" s="73"/>
       <c r="R79" s="73"/>
       <c r="S79" s="73"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="73"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>414</v>
       </c>
@@ -9172,20 +9620,20 @@
         <v>0</v>
       </c>
       <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
       <c r="J80" s="73"/>
-      <c r="K80" s="73">
+      <c r="K80" s="73"/>
+      <c r="L80" s="84">
         <v>-7.11118951189348</v>
       </c>
-      <c r="L80" s="77"/>
-      <c r="M80" s="73"/>
+      <c r="M80" s="77"/>
       <c r="N80" s="73"/>
-      <c r="P80" s="73"/>
+      <c r="O80" s="73"/>
       <c r="Q80" s="73"/>
       <c r="R80" s="73"/>
       <c r="S80" s="73"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="73"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>460</v>
       </c>
@@ -9196,20 +9644,20 @@
         <v>0</v>
       </c>
       <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
       <c r="J81" s="73"/>
-      <c r="K81" s="73">
+      <c r="K81" s="73"/>
+      <c r="L81" s="84">
         <v>-3.5703232462952501</v>
       </c>
-      <c r="L81" s="77"/>
-      <c r="M81" s="73"/>
+      <c r="M81" s="77"/>
       <c r="N81" s="73"/>
-      <c r="P81" s="73"/>
+      <c r="O81" s="73"/>
       <c r="Q81" s="73"/>
       <c r="R81" s="73"/>
       <c r="S81" s="73"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="73"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="s">
         <v>461</v>
       </c>
@@ -9220,20 +9668,20 @@
         <v>0</v>
       </c>
       <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
       <c r="J82" s="73"/>
-      <c r="K82" s="73">
+      <c r="K82" s="73"/>
+      <c r="L82" s="84">
         <v>-10</v>
       </c>
-      <c r="L82" s="77"/>
-      <c r="M82" s="73"/>
+      <c r="M82" s="77"/>
       <c r="N82" s="73"/>
-      <c r="P82" s="73"/>
+      <c r="O82" s="73"/>
       <c r="Q82" s="73"/>
       <c r="R82" s="73"/>
       <c r="S82" s="73"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="73"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
         <v>179</v>
       </c>
@@ -9244,18 +9692,18 @@
         <v>0</v>
       </c>
       <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
       <c r="J83" s="73"/>
-      <c r="K83" s="73">
+      <c r="K83" s="73"/>
+      <c r="L83" s="84">
         <v>0.97053938790751804</v>
       </c>
-      <c r="L83" s="73"/>
       <c r="M83" s="73"/>
       <c r="N83" s="73"/>
-      <c r="P83" s="73"/>
+      <c r="O83" s="73"/>
       <c r="Q83" s="73"/>
       <c r="R83" s="73"/>
       <c r="S83" s="73"/>
+      <c r="T83" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="780" windowWidth="18195" windowHeight="6825" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="840" windowWidth="18195" windowHeight="6765" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
     <sheet name="ecoliN2" sheetId="10" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="834">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2570,6 +2571,9 @@
   </si>
   <si>
     <t>[c] : h + oaa + pi &lt;==&gt; co2 + h2o + pep</t>
+  </si>
+  <si>
+    <t>0.28,0.147</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2779,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4263,8 +4267,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4942,7 +4946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6803,8 +6807,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,9 +6911,7 @@
         <v>250</v>
       </c>
       <c r="J2" s="73"/>
-      <c r="K2" s="73">
-        <v>1</v>
-      </c>
+      <c r="K2" s="73"/>
       <c r="L2" s="84">
         <v>20</v>
       </c>
@@ -6953,13 +6955,15 @@
       <c r="J3" s="73"/>
       <c r="K3" s="73"/>
       <c r="L3" s="84">
-        <v>19.801039425479001</v>
+        <v>19.641084088999801</v>
       </c>
       <c r="M3" s="77" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.9</v>
       </c>
-      <c r="N3" s="73"/>
+      <c r="N3" s="73" t="s">
+        <v>833</v>
+      </c>
       <c r="O3" s="73"/>
       <c r="Q3" s="73"/>
       <c r="R3" s="73" t="s">
@@ -6993,11 +6997,9 @@
         <v>49</v>
       </c>
       <c r="J4" s="73"/>
-      <c r="K4" s="73">
-        <v>2.7690000000000001</v>
-      </c>
+      <c r="K4" s="73"/>
       <c r="L4" s="84">
-        <v>19.0346044708484</v>
+        <v>18.2584699674542</v>
       </c>
       <c r="M4" s="77" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7037,9 +7039,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="73"/>
-      <c r="K5" s="73">
-        <v>0</v>
-      </c>
+      <c r="K5" s="73"/>
       <c r="L5" s="84">
         <v>0</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="84">
-        <v>19.0346044708484</v>
+        <v>18.2584699674542</v>
       </c>
       <c r="M6" s="77" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7129,7 +7129,7 @@
       <c r="J7" s="73"/>
       <c r="K7" s="73"/>
       <c r="L7" s="85">
-        <v>-19.0346044708484</v>
+        <v>-18.2584699674542</v>
       </c>
       <c r="M7" s="77" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7171,7 +7171,7 @@
       <c r="J8" s="73"/>
       <c r="K8" s="73"/>
       <c r="L8" s="84">
-        <v>37.420015145125497</v>
+        <v>35.345823579454603</v>
       </c>
       <c r="M8" s="77" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7213,7 +7213,7 @@
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
       <c r="L9" s="84">
-        <v>-37.420015145125497</v>
+        <v>-35.345823579454603</v>
       </c>
       <c r="M9" s="77" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7255,7 +7255,7 @@
       <c r="J10" s="73"/>
       <c r="K10" s="73"/>
       <c r="L10" s="84">
-        <v>-35.968088220815801</v>
+        <v>-32.726612833814102</v>
       </c>
       <c r="M10" s="77" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7297,7 +7297,7 @@
       <c r="J11" s="73"/>
       <c r="K11" s="73"/>
       <c r="L11" s="84">
-        <v>35.968088220815801</v>
+        <v>32.726612833814102</v>
       </c>
       <c r="M11" s="77" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7337,9 +7337,11 @@
         <v>10.17</v>
       </c>
       <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="73">
+        <v>0.97</v>
+      </c>
       <c r="L12" s="84">
-        <v>-15.464281224553</v>
+        <v>-15.8997796489202</v>
       </c>
       <c r="M12" s="77" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7379,9 +7381,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="73"/>
-      <c r="K13" s="73">
-        <v>0</v>
-      </c>
+      <c r="K13" s="73"/>
       <c r="L13" s="84">
         <v>0</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
       <c r="L14" s="84">
-        <v>0</v>
+        <v>8.4636074707051101</v>
       </c>
       <c r="M14" s="77" t="s">
         <v>820</v>
@@ -7465,7 +7465,7 @@
       <c r="J15" s="73"/>
       <c r="K15" s="73"/>
       <c r="L15" s="84">
-        <v>0</v>
+        <v>7.2101829496634</v>
       </c>
       <c r="M15" s="77" t="s">
         <v>811</v>
@@ -7506,7 +7506,7 @@
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
       <c r="L16" s="84">
-        <v>0</v>
+        <v>-7.2101829496634</v>
       </c>
       <c r="M16" s="77" t="str">
         <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7548,7 +7548,7 @@
       <c r="J17" s="73"/>
       <c r="K17" s="73"/>
       <c r="L17" s="84">
-        <v>0</v>
+        <v>-7.2101829496634</v>
       </c>
       <c r="M17" s="77" t="str">
         <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7672,7 +7672,7 @@
       <c r="J20" s="73"/>
       <c r="K20" s="73"/>
       <c r="L20" s="84">
-        <v>3.9968753072807401</v>
+        <v>0</v>
       </c>
       <c r="M20" s="77" t="s">
         <v>808</v>
@@ -7713,7 +7713,7 @@
       <c r="J21" s="73"/>
       <c r="K21" s="73"/>
       <c r="L21" s="84">
-        <v>-3.9968753072807401</v>
+        <v>0</v>
       </c>
       <c r="M21" s="77" t="str">
         <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7754,7 +7754,7 @@
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
       <c r="L22" s="84">
-        <v>3.9968753072807401</v>
+        <v>100</v>
       </c>
       <c r="M22" s="77" t="str">
         <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7792,15 +7792,10 @@
       <c r="H23" s="73">
         <v>250</v>
       </c>
-      <c r="I23">
-        <v>110</v>
-      </c>
       <c r="J23" s="73"/>
-      <c r="K23" s="73">
-        <v>0</v>
-      </c>
+      <c r="K23" s="73"/>
       <c r="L23" s="84">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="77" t="str">
         <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7838,13 +7833,10 @@
       <c r="H24" s="73">
         <v>51.7</v>
       </c>
-      <c r="I24">
-        <v>11.2</v>
-      </c>
       <c r="J24" s="73"/>
       <c r="K24" s="73"/>
       <c r="L24" s="84">
-        <v>-3.9968753072807401</v>
+        <v>0</v>
       </c>
       <c r="M24" s="77" t="str">
         <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7887,7 +7879,7 @@
         <v>50</v>
       </c>
       <c r="L25" s="84">
-        <v>1.73406272437436</v>
+        <v>0</v>
       </c>
       <c r="M25" s="77" t="str">
         <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7919,13 +7911,12 @@
       <c r="H26" s="73">
         <v>12.8</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
       <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="K26" s="73">
+        <v>0.125</v>
+      </c>
       <c r="L26" s="84">
-        <v>-34.977749829395002</v>
+        <v>-22.476479530989</v>
       </c>
       <c r="M26" s="77" t="s">
         <v>809</v>
@@ -7958,9 +7949,7 @@
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
-      <c r="K27" s="73">
-        <v>0</v>
-      </c>
+      <c r="K27" s="73"/>
       <c r="L27" s="84">
         <v>0</v>
       </c>
@@ -7996,11 +7985,9 @@
         <v>120</v>
       </c>
       <c r="J28" s="73"/>
-      <c r="K28" s="73">
-        <v>0</v>
-      </c>
+      <c r="K28" s="73"/>
       <c r="L28" s="85">
-        <v>21.2358352193176</v>
+        <v>31.588586774545199</v>
       </c>
       <c r="M28" s="77" t="str">
         <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8034,11 +8021,9 @@
         <v>280</v>
       </c>
       <c r="J29" s="73"/>
-      <c r="K29" s="73">
-        <v>0</v>
-      </c>
+      <c r="K29" s="73"/>
       <c r="L29" s="84">
-        <v>-21.2358352193176</v>
+        <v>-31.588586774545199</v>
       </c>
       <c r="M29" s="77" t="str">
         <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8072,11 +8057,9 @@
         <v>15.7</v>
       </c>
       <c r="J30" s="73"/>
-      <c r="K30" s="73">
-        <v>0</v>
-      </c>
+      <c r="K30" s="73"/>
       <c r="L30" s="84">
-        <v>-10.1045270920776</v>
+        <v>0</v>
       </c>
       <c r="M30" s="77" t="str">
         <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8110,11 +8093,9 @@
         <v>150.19999999999999</v>
       </c>
       <c r="J31" s="73"/>
-      <c r="K31" s="73">
-        <v>0</v>
-      </c>
+      <c r="K31" s="73"/>
       <c r="L31" s="84">
-        <v>-10.1045270920776</v>
+        <v>0</v>
       </c>
       <c r="M31" s="77" t="str">
         <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8260,7 +8241,7 @@
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
       <c r="L35" s="85">
-        <v>-0.69762371202792395</v>
+        <v>-1.2584817406192199</v>
       </c>
       <c r="M35" s="77" t="str">
         <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8295,7 +8276,7 @@
       <c r="J36" s="73"/>
       <c r="K36" s="73"/>
       <c r="L36" s="85">
-        <v>-0.69762371202792395</v>
+        <v>-1.2584817406192199</v>
       </c>
       <c r="M36" s="77" t="str">
         <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8331,7 +8312,7 @@
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
       <c r="L37" s="84">
-        <v>0.17362949649665499</v>
+        <v>0.31321978769724201</v>
       </c>
       <c r="M37" s="77" t="str">
         <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8366,7 +8347,7 @@
       <c r="J38" s="73"/>
       <c r="K38" s="73"/>
       <c r="L38" s="84">
-        <v>-0.17362949649665499</v>
+        <v>-0.31321978769724201</v>
       </c>
       <c r="M38" s="77" t="str">
         <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8404,7 +8385,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
       <c r="L39" s="84">
-        <v>0.52399421553126901</v>
+        <v>0.94526195292197401</v>
       </c>
       <c r="M39" s="77" t="str">
         <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8440,7 +8421,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
       <c r="L40" s="84">
-        <v>-16.0031246927193</v>
+        <v>-20</v>
       </c>
       <c r="M40" s="77" t="str">
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8477,7 +8458,7 @@
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
       <c r="L41" s="84">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M41" s="77" t="str">
         <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8513,7 +8494,7 @@
       <c r="J42" s="73"/>
       <c r="K42" s="73"/>
       <c r="L42" s="84">
-        <v>-10.381277508814</v>
+        <v>69.980448284876005</v>
       </c>
       <c r="M42" s="77" t="str">
         <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8584,10 +8565,7 @@
       <c r="L44" s="84">
         <v>8.39</v>
       </c>
-      <c r="M44" s="77">
-        <f>VLOOKUP(A44,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="M44" s="77"/>
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
       <c r="Q44" s="73"/>
@@ -8612,16 +8590,14 @@
       <c r="G45" s="11">
         <v>42000</v>
       </c>
-      <c r="H45" s="73">
-        <v>3800</v>
-      </c>
+      <c r="H45" s="73"/>
       <c r="I45">
         <v>2200</v>
       </c>
       <c r="J45" s="73"/>
       <c r="K45" s="73"/>
       <c r="L45" s="84">
-        <v>-7.35555836532013</v>
+        <v>-48.530185510493098</v>
       </c>
       <c r="M45" s="77" t="str">
         <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8682,9 +8658,6 @@
       <c r="F47">
         <v>55.6</v>
       </c>
-      <c r="H47">
-        <v>13.74</v>
-      </c>
       <c r="I47" s="73">
         <v>540</v>
       </c>
@@ -8693,7 +8666,7 @@
         <v>18.2</v>
       </c>
       <c r="L47" s="84">
-        <v>0</v>
+        <v>4.0820119341314696</v>
       </c>
       <c r="M47" s="77" t="str">
         <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8727,9 +8700,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="73"/>
-      <c r="K48" s="73">
-        <v>0</v>
-      </c>
+      <c r="K48" s="73"/>
       <c r="L48" s="84">
         <v>0</v>
       </c>
@@ -8765,9 +8736,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="73"/>
-      <c r="K49" s="73">
-        <v>0</v>
-      </c>
+      <c r="K49" s="73"/>
       <c r="L49" s="84">
         <v>0</v>
       </c>
@@ -8803,11 +8772,9 @@
         <v>1</v>
       </c>
       <c r="J50" s="73"/>
-      <c r="K50" s="73">
-        <v>0</v>
-      </c>
+      <c r="K50" s="73"/>
       <c r="L50" s="84">
-        <v>2.2628125829063799</v>
+        <v>0</v>
       </c>
       <c r="M50" s="77" t="str">
         <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8840,7 +8807,7 @@
       <c r="J51" s="73"/>
       <c r="K51" s="73"/>
       <c r="L51" s="84">
-        <v>7.11118951189348</v>
+        <v>0.55691231785686302</v>
       </c>
       <c r="M51" s="77"/>
       <c r="N51" s="73"/>
@@ -8900,7 +8867,7 @@
       <c r="J53" s="73"/>
       <c r="K53" s="73"/>
       <c r="L53" s="84">
-        <v>3.5703232462952501</v>
+        <v>6.4407022526654396</v>
       </c>
       <c r="M53" s="77"/>
       <c r="N53" s="73"/>
@@ -8930,7 +8897,7 @@
       <c r="J54" s="73"/>
       <c r="K54" s="73"/>
       <c r="L54" s="84">
-        <v>-6.25968789018712</v>
+        <v>-5.3354364551731797</v>
       </c>
       <c r="M54" s="77"/>
       <c r="N54" s="73"/>
@@ -9197,7 +9164,7 @@
       <c r="J63" s="73"/>
       <c r="K63" s="73"/>
       <c r="L63" s="84">
-        <v>34.977749829395002</v>
+        <v>22.476479530989</v>
       </c>
       <c r="M63" s="77"/>
       <c r="N63" s="73"/>
@@ -9227,7 +9194,7 @@
       <c r="J64" s="73"/>
       <c r="K64" s="73"/>
       <c r="L64" s="84">
-        <v>-10.1045270920776</v>
+        <v>0</v>
       </c>
       <c r="M64" s="77"/>
       <c r="N64" s="73"/>
@@ -9257,7 +9224,7 @@
       <c r="J65" s="73"/>
       <c r="K65" s="73"/>
       <c r="L65" s="84">
-        <v>-21.2358352193176</v>
+        <v>-31.588586774545199</v>
       </c>
       <c r="M65" s="77"/>
       <c r="N65" s="73"/>
@@ -9455,7 +9422,7 @@
       <c r="J73" s="73"/>
       <c r="K73" s="73"/>
       <c r="L73" s="84">
-        <v>34.977749829395002</v>
+        <v>22.476479530989</v>
       </c>
       <c r="M73" s="77"/>
       <c r="N73" s="73"/>
@@ -9479,7 +9446,7 @@
       <c r="J74" s="73"/>
       <c r="K74" s="73"/>
       <c r="L74" s="84">
-        <v>10.1045270920776</v>
+        <v>0</v>
       </c>
       <c r="M74" s="77"/>
       <c r="N74" s="73"/>
@@ -9503,7 +9470,7 @@
       <c r="J75" s="73"/>
       <c r="K75" s="73"/>
       <c r="L75" s="84">
-        <v>21.2358352193176</v>
+        <v>31.588586774545199</v>
       </c>
       <c r="M75" s="77"/>
       <c r="N75" s="73"/>
@@ -9575,7 +9542,7 @@
       <c r="J78" s="73"/>
       <c r="K78" s="73"/>
       <c r="L78" s="84">
-        <v>6.25968789018712</v>
+        <v>5.3354364551731797</v>
       </c>
       <c r="M78" s="77"/>
       <c r="N78" s="73"/>
@@ -9599,7 +9566,7 @@
       <c r="J79" s="73"/>
       <c r="K79" s="73"/>
       <c r="L79" s="84">
-        <v>65.594624664349297</v>
+        <v>70.988039049659307</v>
       </c>
       <c r="M79" s="77"/>
       <c r="N79" s="73"/>
@@ -9623,7 +9590,7 @@
       <c r="J80" s="73"/>
       <c r="K80" s="73"/>
       <c r="L80" s="84">
-        <v>-7.11118951189348</v>
+        <v>-0.55691231785686302</v>
       </c>
       <c r="M80" s="77"/>
       <c r="N80" s="73"/>
@@ -9647,7 +9614,7 @@
       <c r="J81" s="73"/>
       <c r="K81" s="73"/>
       <c r="L81" s="84">
-        <v>-3.5703232462952501</v>
+        <v>-6.4407022526654396</v>
       </c>
       <c r="M81" s="77"/>
       <c r="N81" s="73"/>
@@ -9695,7 +9662,7 @@
       <c r="J83" s="73"/>
       <c r="K83" s="73"/>
       <c r="L83" s="84">
-        <v>0.97053938790751804</v>
+        <v>1.7508093219521601</v>
       </c>
       <c r="M83" s="73"/>
       <c r="N83" s="73"/>
@@ -11031,7 +10998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
@@ -14356,6 +14323,3261 @@
   <sortState ref="A2:L85">
     <sortCondition ref="D2:D85"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:T83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>814</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>816</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>817</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="73">
+        <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="E2" s="73">
+        <v>-50.4</v>
+      </c>
+      <c r="F2" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="86">
+        <v>250</v>
+      </c>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73">
+        <v>1</v>
+      </c>
+      <c r="L2" s="84">
+        <v>20</v>
+      </c>
+      <c r="M2" s="77">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="T2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="73">
+        <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="E3" s="73">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="F3" s="73">
+        <v>20.6</v>
+      </c>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73">
+        <v>11.09</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="84">
+        <v>19.801039425479001</v>
+      </c>
+      <c r="M3" s="77" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>833</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="73">
+        <v>3.48</v>
+      </c>
+      <c r="T3" s="73">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="73">
+        <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="E4" s="73">
+        <v>-53.9</v>
+      </c>
+      <c r="F4" s="73">
+        <v>21.4</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73">
+        <v>49</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="L4" s="84">
+        <v>19.0346044708484</v>
+      </c>
+      <c r="M4" s="77" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="73">
+        <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="E5" s="73">
+        <v>-48.8</v>
+      </c>
+      <c r="F5" s="73">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73">
+        <v>22</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73">
+        <v>0</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.3.11</v>
+      </c>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="T5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="73">
+        <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="73">
+        <v>-29.4</v>
+      </c>
+      <c r="F6" s="73">
+        <v>27.1</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="84">
+        <v>19.0346044708484</v>
+      </c>
+      <c r="M6" s="77" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="S6" s="73">
+        <v>0.218</v>
+      </c>
+      <c r="T6" s="73">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="77" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="73">
+        <v>-1.4</v>
+      </c>
+      <c r="E7" s="73">
+        <v>-24.3</v>
+      </c>
+      <c r="F7" s="73">
+        <v>13.4</v>
+      </c>
+      <c r="G7" s="73">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73">
+        <v>9000</v>
+      </c>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="85">
+        <v>-19.0346044708484</v>
+      </c>
+      <c r="M7" s="77" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="73">
+        <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E8" s="73">
+        <v>-12.8</v>
+      </c>
+      <c r="F8" s="73">
+        <v>62.6</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73">
+        <v>671.72</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="84">
+        <v>37.420015145125497</v>
+      </c>
+      <c r="M8" s="77" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="73">
+        <v>2.13</v>
+      </c>
+      <c r="T8" s="73">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="73">
+        <v>2.8</v>
+      </c>
+      <c r="E9" s="73">
+        <v>-19.2</v>
+      </c>
+      <c r="F9" s="73">
+        <v>56.1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73">
+        <v>2225</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="84">
+        <v>-37.420015145125497</v>
+      </c>
+      <c r="M9" s="77" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73">
+        <v>-23.1</v>
+      </c>
+      <c r="F10" s="73">
+        <v>14.6</v>
+      </c>
+      <c r="G10" s="73">
+        <v>5.49</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73">
+        <v>90.55</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="84">
+        <v>-35.968088220815801</v>
+      </c>
+      <c r="M10" s="77" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="T10" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="73">
+        <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="E11" s="73">
+        <v>-22.9</v>
+      </c>
+      <c r="F11" s="73">
+        <v>14.7</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73">
+        <v>355.79</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="84">
+        <v>35.968088220815801</v>
+      </c>
+      <c r="M11" s="77" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="T11" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="77" t="s">
+        <v>819</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73">
+        <v>-10.8</v>
+      </c>
+      <c r="F12" s="73">
+        <v>65.3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.4E-5</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73">
+        <v>10.17</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="84">
+        <v>-15.464281224553</v>
+      </c>
+      <c r="M12" s="77" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="S12" s="73">
+        <v>0.111</v>
+      </c>
+      <c r="T12" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="73">
+        <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="E13" s="73">
+        <v>-50.9</v>
+      </c>
+      <c r="F13" s="73">
+        <v>24.4</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73">
+        <v>1</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73">
+        <v>0</v>
+      </c>
+      <c r="L13" s="84">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77" t="str">
+        <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.9.2</v>
+      </c>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="S13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="73">
+        <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="E14" s="73">
+        <v>-73</v>
+      </c>
+      <c r="F14" s="73">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73">
+        <v>6.32</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="84">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77" t="s">
+        <v>820</v>
+      </c>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73" t="s">
+        <v>799</v>
+      </c>
+      <c r="S14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="T14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="77" t="s">
+        <v>821</v>
+      </c>
+      <c r="D15" s="73">
+        <v>8.6</v>
+      </c>
+      <c r="E15" s="73">
+        <v>-4</v>
+      </c>
+      <c r="F15" s="73">
+        <v>60.9</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73">
+        <v>81</v>
+      </c>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="84">
+        <v>0</v>
+      </c>
+      <c r="M15" s="77" t="s">
+        <v>811</v>
+      </c>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73" t="s">
+        <v>800</v>
+      </c>
+      <c r="S15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="73">
+        <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="73">
+        <v>-11.2</v>
+      </c>
+      <c r="F16" s="73">
+        <v>26.5</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="84">
+        <v>0</v>
+      </c>
+      <c r="M16" s="77" t="str">
+        <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.3</v>
+      </c>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="S16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="73">
+        <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E17" s="73">
+        <v>-48.4</v>
+      </c>
+      <c r="F17" s="73">
+        <v>26.9</v>
+      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73">
+        <v>106.4</v>
+      </c>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="84">
+        <v>0</v>
+      </c>
+      <c r="M17" s="77" t="str">
+        <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.42</v>
+      </c>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="S17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="T17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="73">
+        <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E18" s="73">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="F18" s="73">
+        <v>17.8</v>
+      </c>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="84">
+        <v>0</v>
+      </c>
+      <c r="M18" s="77" t="str">
+        <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.3.1</v>
+      </c>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="T18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="D19" s="73">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E19" s="73">
+        <v>-9.1</v>
+      </c>
+      <c r="F19" s="73">
+        <v>63.1</v>
+      </c>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73">
+        <v>48.1</v>
+      </c>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="84">
+        <v>0</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>812</v>
+      </c>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="T19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="73">
+        <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="E20" s="73">
+        <v>-72.3</v>
+      </c>
+      <c r="F20" s="73">
+        <v>20.3</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73">
+        <v>49</v>
+      </c>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="84">
+        <v>3.9968753072807401</v>
+      </c>
+      <c r="M20" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73" t="s">
+        <v>802</v>
+      </c>
+      <c r="S20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73">
+        <v>-39.5</v>
+      </c>
+      <c r="F21" s="73">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G21" s="73">
+        <v>2.12</v>
+      </c>
+      <c r="H21" s="73">
+        <v>44.73</v>
+      </c>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="84">
+        <v>-3.9968753072807401</v>
+      </c>
+      <c r="M21" s="77" t="str">
+        <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>6.2.1.5</v>
+      </c>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="S21" s="73">
+        <v>6.2E-2</v>
+      </c>
+      <c r="T21" s="73">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="E22" s="73">
+        <v>-40.4</v>
+      </c>
+      <c r="F22" s="73">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73">
+        <v>24</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="84">
+        <v>3.9968753072807401</v>
+      </c>
+      <c r="M22" s="77" t="str">
+        <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="73">
+        <v>1.47</v>
+      </c>
+      <c r="T22" s="73">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="78" t="s">
+        <v>823</v>
+      </c>
+      <c r="D23" s="73">
+        <v>-5.9</v>
+      </c>
+      <c r="E23" s="73">
+        <v>-40.4</v>
+      </c>
+      <c r="F23" s="73">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73">
+        <v>250</v>
+      </c>
+      <c r="I23" s="73">
+        <v>110</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73">
+        <v>0</v>
+      </c>
+      <c r="L23" s="84">
+        <v>0</v>
+      </c>
+      <c r="M23" s="77" t="str">
+        <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="S23" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="T23" s="73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="D24" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="73">
+        <v>-15.4</v>
+      </c>
+      <c r="F24" s="73">
+        <v>22.3</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73">
+        <v>51.7</v>
+      </c>
+      <c r="I24" s="73">
+        <v>11.2</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="84">
+        <v>-3.9968753072807401</v>
+      </c>
+      <c r="M24" s="77" t="str">
+        <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.2</v>
+      </c>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="S24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="T24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="E25" s="73">
+        <v>-7.3</v>
+      </c>
+      <c r="F25" s="73">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73">
+        <v>931</v>
+      </c>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73">
+        <v>50</v>
+      </c>
+      <c r="L25" s="84">
+        <v>1.73406272437436</v>
+      </c>
+      <c r="M25" s="77" t="str">
+        <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.37</v>
+      </c>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77" t="s">
+        <v>825</v>
+      </c>
+      <c r="D26" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E26" s="73">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="F26" s="73">
+        <v>51.5</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73">
+        <v>12.8</v>
+      </c>
+      <c r="I26" s="73">
+        <v>4</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="84">
+        <v>-34.977749829395002</v>
+      </c>
+      <c r="M26" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D27" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="E27" s="73">
+        <v>-13.2</v>
+      </c>
+      <c r="F27" s="73">
+        <v>62.1</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73">
+        <v>320</v>
+      </c>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73">
+        <v>0</v>
+      </c>
+      <c r="L27" s="84">
+        <v>0</v>
+      </c>
+      <c r="M27" s="77" t="str">
+        <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.28</v>
+      </c>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="73">
+        <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E28" s="73">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="F28" s="73">
+        <v>28.7</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73">
+        <v>120</v>
+      </c>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73">
+        <v>0</v>
+      </c>
+      <c r="L28" s="85">
+        <v>21.2358352193176</v>
+      </c>
+      <c r="M28" s="77" t="str">
+        <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.3.1.8</v>
+      </c>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="73">
+        <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="E29" s="73">
+        <v>-24.3</v>
+      </c>
+      <c r="F29" s="73">
+        <v>52.1</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73">
+        <v>280</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73">
+        <v>0</v>
+      </c>
+      <c r="L29" s="84">
+        <v>-21.2358352193176</v>
+      </c>
+      <c r="M29" s="77" t="str">
+        <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.1</v>
+      </c>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="73">
+        <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="E30" s="73">
+        <v>-47.4</v>
+      </c>
+      <c r="F30" s="73">
+        <v>49.2</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73">
+        <v>15.7</v>
+      </c>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73">
+        <v>0</v>
+      </c>
+      <c r="L30" s="84">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="M30" s="77" t="str">
+        <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.10</v>
+      </c>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="F31" s="73">
+        <v>59.3</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="H31" s="73">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73">
+        <v>0</v>
+      </c>
+      <c r="L31" s="84">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="M31" s="77" t="str">
+        <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" s="73">
+        <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="E32" s="73">
+        <v>-42.6</v>
+      </c>
+      <c r="F32" s="73">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73">
+        <v>174</v>
+      </c>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73">
+        <v>0.63</v>
+      </c>
+      <c r="L32" s="84">
+        <v>0</v>
+      </c>
+      <c r="M32" s="77" t="str">
+        <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.49</v>
+      </c>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="73">
+        <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E33" s="73">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="F33" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73">
+        <v>25</v>
+      </c>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="84">
+        <v>0</v>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.1.31</v>
+      </c>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="73">
+        <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="73">
+        <v>-43.6</v>
+      </c>
+      <c r="F34" s="73">
+        <v>31.7</v>
+      </c>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="84">
+        <v>0</v>
+      </c>
+      <c r="M34" s="77" t="str">
+        <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.44</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73">
+        <v>-22.2</v>
+      </c>
+      <c r="F35" s="73">
+        <v>15.5</v>
+      </c>
+      <c r="G35" s="73">
+        <v>3.91</v>
+      </c>
+      <c r="H35" s="73">
+        <v>21.05</v>
+      </c>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="85">
+        <v>-0.69762371202792395</v>
+      </c>
+      <c r="M35" s="77" t="str">
+        <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.1.3.1</v>
+      </c>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="73">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="F36" s="73">
+        <v>20.8</v>
+      </c>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73">
+        <v>2100</v>
+      </c>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="85">
+        <v>-0.69762371202792395</v>
+      </c>
+      <c r="M36" s="77" t="str">
+        <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.6</v>
+      </c>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="77" t="s">
+        <v>827</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73">
+        <v>-33.9</v>
+      </c>
+      <c r="F37" s="73">
+        <v>41.5</v>
+      </c>
+      <c r="G37" s="73">
+        <v>0.216</v>
+      </c>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73">
+        <v>55.57</v>
+      </c>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="84">
+        <v>0.17362949649665499</v>
+      </c>
+      <c r="M37" s="77" t="str">
+        <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="E38" s="73">
+        <v>-38.4</v>
+      </c>
+      <c r="F38" s="73">
+        <v>36.9</v>
+      </c>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73">
+        <v>16.57</v>
+      </c>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="84">
+        <v>-0.17362949649665499</v>
+      </c>
+      <c r="M38" s="77" t="str">
+        <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.2</v>
+      </c>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="D39" s="73">
+        <v>1.7</v>
+      </c>
+      <c r="E39" s="73">
+        <v>-27.7</v>
+      </c>
+      <c r="F39" s="73">
+        <v>47.7</v>
+      </c>
+      <c r="G39" s="73">
+        <v>1.77E-2</v>
+      </c>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73">
+        <v>15.45</v>
+      </c>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="84">
+        <v>0.52399421553126901</v>
+      </c>
+      <c r="M39" s="77" t="str">
+        <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="78" t="s">
+        <v>829</v>
+      </c>
+      <c r="D40" s="73">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E40" s="73">
+        <v>24.2</v>
+      </c>
+      <c r="F40" s="73">
+        <v>122.4</v>
+      </c>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73">
+        <v>26</v>
+      </c>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="84">
+        <v>-16.0031246927193</v>
+      </c>
+      <c r="M40" s="77" t="str">
+        <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="77" t="s">
+        <v>830</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73">
+        <v>-38.6</v>
+      </c>
+      <c r="F41" s="73">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G41" s="73">
+        <v>1.48</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="84">
+        <v>0</v>
+      </c>
+      <c r="M41" s="77" t="str">
+        <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.2</v>
+      </c>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73">
+        <v>-38.6</v>
+      </c>
+      <c r="F42" s="73">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G42" s="73">
+        <v>1.48</v>
+      </c>
+      <c r="H42" s="73">
+        <v>167.9</v>
+      </c>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="84">
+        <v>-10.381277508814</v>
+      </c>
+      <c r="M42" s="77" t="str">
+        <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.1</v>
+      </c>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="F43" s="73">
+        <v>35.1</v>
+      </c>
+      <c r="G43" s="73">
+        <v>2.82</v>
+      </c>
+      <c r="H43" s="73">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="84">
+        <v>0</v>
+      </c>
+      <c r="M43" s="77" t="str">
+        <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.4.3</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="73">
+        <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73">
+        <v>1</v>
+      </c>
+      <c r="I44" s="73">
+        <v>0</v>
+      </c>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="84">
+        <v>8.39</v>
+      </c>
+      <c r="M44" s="77">
+        <f>VLOOKUP(A44,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="73"/>
+      <c r="C45" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73">
+        <v>-62.3</v>
+      </c>
+      <c r="F45" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="11">
+        <v>42000</v>
+      </c>
+      <c r="H45" s="73">
+        <v>3800</v>
+      </c>
+      <c r="I45" s="73">
+        <v>2200</v>
+      </c>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="84">
+        <v>-7.35555836532013</v>
+      </c>
+      <c r="M45" s="77" t="str">
+        <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="73"/>
+      <c r="C46" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="73">
+        <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73">
+        <v>341</v>
+      </c>
+      <c r="I46" s="73">
+        <v>0</v>
+      </c>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="84">
+        <v>20</v>
+      </c>
+      <c r="M46" s="77" t="s">
+        <v>810</v>
+      </c>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="73"/>
+      <c r="C47" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="D47" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="E47" s="73">
+        <v>-7.1</v>
+      </c>
+      <c r="F47" s="73">
+        <v>55.6</v>
+      </c>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73">
+        <v>13.74</v>
+      </c>
+      <c r="I47" s="73">
+        <v>540</v>
+      </c>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73">
+        <v>18.2</v>
+      </c>
+      <c r="L47" s="84">
+        <v>0</v>
+      </c>
+      <c r="M47" s="77" t="str">
+        <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.31</v>
+      </c>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="73">
+        <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="73">
+        <v>-44.4</v>
+      </c>
+      <c r="F48" s="73">
+        <v>30.9</v>
+      </c>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73">
+        <v>1</v>
+      </c>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73">
+        <v>0</v>
+      </c>
+      <c r="L48" s="84">
+        <v>0</v>
+      </c>
+      <c r="M48" s="77" t="str">
+        <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.49</v>
+      </c>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="73"/>
+      <c r="C49" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="73">
+        <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E49" s="73">
+        <v>-41.8</v>
+      </c>
+      <c r="F49" s="73">
+        <v>33.6</v>
+      </c>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73">
+        <v>1</v>
+      </c>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73">
+        <v>0</v>
+      </c>
+      <c r="L49" s="84">
+        <v>0</v>
+      </c>
+      <c r="M49" s="77" t="str">
+        <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.38</v>
+      </c>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="73">
+        <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.6</v>
+      </c>
+      <c r="E50" s="73">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="F50" s="73">
+        <v>34.5</v>
+      </c>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73">
+        <v>1</v>
+      </c>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73">
+        <v>0</v>
+      </c>
+      <c r="L50" s="84">
+        <v>2.2628125829063799</v>
+      </c>
+      <c r="M50" s="77" t="str">
+        <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.40</v>
+      </c>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" s="73"/>
+      <c r="C51" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="D51" s="73">
+        <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73">
+        <v>1</v>
+      </c>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="84">
+        <v>7.11118951189348</v>
+      </c>
+      <c r="M51" s="77"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="73"/>
+      <c r="C52" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="73">
+        <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="86">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="I52" s="73">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="84">
+        <v>10</v>
+      </c>
+      <c r="M52" s="77"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="73"/>
+      <c r="C53" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="73">
+        <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="86">
+        <v>1</v>
+      </c>
+      <c r="I53" s="73">
+        <v>1</v>
+      </c>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="84">
+        <v>3.5703232462952501</v>
+      </c>
+      <c r="M53" s="77"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="73"/>
+      <c r="C54" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="73">
+        <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="86">
+        <v>1</v>
+      </c>
+      <c r="I54" s="73">
+        <v>1</v>
+      </c>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="84">
+        <v>-6.25968789018712</v>
+      </c>
+      <c r="M54" s="77"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="73">
+        <v>0</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="86">
+        <v>1</v>
+      </c>
+      <c r="I55" s="73">
+        <v>1</v>
+      </c>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="84">
+        <v>0</v>
+      </c>
+      <c r="M55" s="77"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="73"/>
+      <c r="C56" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="73">
+        <v>0</v>
+      </c>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="86">
+        <v>1</v>
+      </c>
+      <c r="I56" s="73">
+        <v>1</v>
+      </c>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="84">
+        <v>0</v>
+      </c>
+      <c r="M56" s="77"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="D57" s="73">
+        <v>0</v>
+      </c>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="86">
+        <v>1</v>
+      </c>
+      <c r="I57" s="73">
+        <v>1</v>
+      </c>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="84">
+        <v>0</v>
+      </c>
+      <c r="M57" s="77"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" s="73"/>
+      <c r="C58" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="73">
+        <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="86">
+        <v>1</v>
+      </c>
+      <c r="I58" s="73">
+        <v>1</v>
+      </c>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="84">
+        <v>0</v>
+      </c>
+      <c r="M58" s="77"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="73"/>
+      <c r="C59" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="73">
+        <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="86">
+        <v>1</v>
+      </c>
+      <c r="I59" s="73">
+        <v>0</v>
+      </c>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="84">
+        <v>0</v>
+      </c>
+      <c r="M59" s="77"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="73">
+        <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="86">
+        <v>1</v>
+      </c>
+      <c r="I60" s="73">
+        <v>0</v>
+      </c>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="84">
+        <v>0</v>
+      </c>
+      <c r="M60" s="77"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="73"/>
+      <c r="C61" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" s="73">
+        <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="86">
+        <v>1</v>
+      </c>
+      <c r="I61" s="73">
+        <v>1</v>
+      </c>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="84">
+        <v>0</v>
+      </c>
+      <c r="M61" s="77"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D62" s="73">
+        <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="86">
+        <v>1</v>
+      </c>
+      <c r="I62" s="73">
+        <v>0</v>
+      </c>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="84">
+        <v>0</v>
+      </c>
+      <c r="M62" s="77"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="73"/>
+      <c r="C63" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="73">
+        <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="86">
+        <v>1</v>
+      </c>
+      <c r="I63" s="73">
+        <v>0</v>
+      </c>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="84">
+        <v>34.977749829395002</v>
+      </c>
+      <c r="M63" s="77"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="73">
+        <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="86">
+        <v>1</v>
+      </c>
+      <c r="I64" s="73">
+        <v>1</v>
+      </c>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="84">
+        <v>-10.1045270920776</v>
+      </c>
+      <c r="M64" s="77"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" s="73">
+        <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="86">
+        <v>1</v>
+      </c>
+      <c r="I65" s="73">
+        <v>1</v>
+      </c>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="84">
+        <v>-21.2358352193176</v>
+      </c>
+      <c r="M65" s="77"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="73">
+        <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="86">
+        <v>1</v>
+      </c>
+      <c r="I66" s="73">
+        <v>1</v>
+      </c>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="84">
+        <v>0</v>
+      </c>
+      <c r="M66" s="77"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" s="73"/>
+      <c r="C67" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="73">
+        <v>0</v>
+      </c>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="84">
+        <v>0</v>
+      </c>
+      <c r="M67" s="77"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="73"/>
+      <c r="C68" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="73">
+        <v>0</v>
+      </c>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="84">
+        <v>0</v>
+      </c>
+      <c r="M68" s="77"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="73"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="73"/>
+      <c r="C69" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="73">
+        <v>0</v>
+      </c>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="84">
+        <v>0</v>
+      </c>
+      <c r="M69" s="77"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="73"/>
+      <c r="C70" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" s="73">
+        <v>0</v>
+      </c>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="84">
+        <v>0</v>
+      </c>
+      <c r="M70" s="77"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="73"/>
+      <c r="C71" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="73">
+        <v>0</v>
+      </c>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="84">
+        <v>0</v>
+      </c>
+      <c r="M71" s="77"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="73"/>
+      <c r="C72" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="73">
+        <v>0</v>
+      </c>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="84">
+        <v>0</v>
+      </c>
+      <c r="M72" s="77"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="73"/>
+      <c r="C73" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="84">
+        <v>34.977749829395002</v>
+      </c>
+      <c r="M73" s="77"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="73"/>
+      <c r="C74" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="73">
+        <v>0</v>
+      </c>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="84">
+        <v>10.1045270920776</v>
+      </c>
+      <c r="M74" s="77"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="73"/>
+      <c r="C75" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="73">
+        <v>0</v>
+      </c>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="84">
+        <v>21.2358352193176</v>
+      </c>
+      <c r="M75" s="77"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="73"/>
+      <c r="C76" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="73">
+        <v>0</v>
+      </c>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="84">
+        <v>0</v>
+      </c>
+      <c r="M76" s="77"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" s="73"/>
+      <c r="C77" s="77" t="s">
+        <v>794</v>
+      </c>
+      <c r="D77" s="73">
+        <v>0</v>
+      </c>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="84">
+        <v>-20</v>
+      </c>
+      <c r="M77" s="77"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="73"/>
+      <c r="C78" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="73">
+        <v>0</v>
+      </c>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="84">
+        <v>6.25968789018712</v>
+      </c>
+      <c r="M78" s="77"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="73"/>
+      <c r="C79" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="73">
+        <v>0</v>
+      </c>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="84">
+        <v>65.594624664349297</v>
+      </c>
+      <c r="M79" s="77"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="73"/>
+      <c r="C80" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="73">
+        <v>0</v>
+      </c>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="84">
+        <v>-7.11118951189348</v>
+      </c>
+      <c r="M80" s="77"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="73"/>
+      <c r="C81" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="73">
+        <v>0</v>
+      </c>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="84">
+        <v>-3.5703232462952501</v>
+      </c>
+      <c r="M81" s="77"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="73"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="73"/>
+      <c r="C82" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="D82" s="73">
+        <v>0</v>
+      </c>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="84">
+        <v>-10</v>
+      </c>
+      <c r="M82" s="77"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="73"/>
+      <c r="C83" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="D83" s="73">
+        <v>0</v>
+      </c>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="84">
+        <v>0.97053938790751804</v>
+      </c>
+      <c r="M83" s="73"/>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="73"/>
+      <c r="T83" s="73"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="840" windowWidth="18195" windowHeight="6765" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="ecoliN2" sheetId="10" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="977">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2574,6 +2575,435 @@
   </si>
   <si>
     <t>0.28,0.147</t>
+  </si>
+  <si>
+    <t>'GLCpts'</t>
+  </si>
+  <si>
+    <t>'PGI_f'</t>
+  </si>
+  <si>
+    <t>'PGI_b'</t>
+  </si>
+  <si>
+    <t>'PFK'</t>
+  </si>
+  <si>
+    <t>'FBP'</t>
+  </si>
+  <si>
+    <t>'FBA_f'</t>
+  </si>
+  <si>
+    <t>'FBA_b'</t>
+  </si>
+  <si>
+    <t>'TPI_f'</t>
+  </si>
+  <si>
+    <t>'TPI_b'</t>
+  </si>
+  <si>
+    <t>'GAPD_f'</t>
+  </si>
+  <si>
+    <t>'GAPD_b'</t>
+  </si>
+  <si>
+    <t>'PGK_f'</t>
+  </si>
+  <si>
+    <t>'PGK_b'</t>
+  </si>
+  <si>
+    <t>'PGM_f'</t>
+  </si>
+  <si>
+    <t>'PGM_b'</t>
+  </si>
+  <si>
+    <t>'ENO_f'</t>
+  </si>
+  <si>
+    <t>'ENO_b'</t>
+  </si>
+  <si>
+    <t>'PYK_f'</t>
+  </si>
+  <si>
+    <t>'PYK_b'</t>
+  </si>
+  <si>
+    <t>'PPS'</t>
+  </si>
+  <si>
+    <t>'PDH'</t>
+  </si>
+  <si>
+    <t>'CS_f'</t>
+  </si>
+  <si>
+    <t>'CS_b'</t>
+  </si>
+  <si>
+    <t>'ACONTa_f'</t>
+  </si>
+  <si>
+    <t>'ACONTa_b'</t>
+  </si>
+  <si>
+    <t>'ICDHyr_f'</t>
+  </si>
+  <si>
+    <t>'ICDHyr_b'</t>
+  </si>
+  <si>
+    <t>'ICL'</t>
+  </si>
+  <si>
+    <t>'MALS_f'</t>
+  </si>
+  <si>
+    <t>'MALS_b'</t>
+  </si>
+  <si>
+    <t>'AKGDH'</t>
+  </si>
+  <si>
+    <t>'SUCOAS_f'</t>
+  </si>
+  <si>
+    <t>'SUCOAS_b'</t>
+  </si>
+  <si>
+    <t>'SUCDi'</t>
+  </si>
+  <si>
+    <t>'FRD7_f'</t>
+  </si>
+  <si>
+    <t>'FRD7_b'</t>
+  </si>
+  <si>
+    <t>'FUM_f'</t>
+  </si>
+  <si>
+    <t>'FUM_b'</t>
+  </si>
+  <si>
+    <t>'MDH_f'</t>
+  </si>
+  <si>
+    <t>'MDH_b'</t>
+  </si>
+  <si>
+    <t>'PFL_f'</t>
+  </si>
+  <si>
+    <t>'PFL_b'</t>
+  </si>
+  <si>
+    <t>'LDH_D_f'</t>
+  </si>
+  <si>
+    <t>'LDH_D_b'</t>
+  </si>
+  <si>
+    <t>'PTAr_f'</t>
+  </si>
+  <si>
+    <t>'PTAr_b'</t>
+  </si>
+  <si>
+    <t>'ACKr_f'</t>
+  </si>
+  <si>
+    <t>'ACKr_b'</t>
+  </si>
+  <si>
+    <t>'ACALD_f'</t>
+  </si>
+  <si>
+    <t>'ACALD_b'</t>
+  </si>
+  <si>
+    <t>'ALCD2x_f'</t>
+  </si>
+  <si>
+    <t>'ALCD2x_b'</t>
+  </si>
+  <si>
+    <t>'G6PDH2r_f'</t>
+  </si>
+  <si>
+    <t>'G6PDH2r_b'</t>
+  </si>
+  <si>
+    <t>'PGL'</t>
+  </si>
+  <si>
+    <t>'GND'</t>
+  </si>
+  <si>
+    <t>'RPE_f'</t>
+  </si>
+  <si>
+    <t>'RPE_b'</t>
+  </si>
+  <si>
+    <t>'RPI_f'</t>
+  </si>
+  <si>
+    <t>'RPI_b'</t>
+  </si>
+  <si>
+    <t>'TKT1_f'</t>
+  </si>
+  <si>
+    <t>'TKT1_b'</t>
+  </si>
+  <si>
+    <t>'TALA_f'</t>
+  </si>
+  <si>
+    <t>'TALA_b'</t>
+  </si>
+  <si>
+    <t>'TKT2_f'</t>
+  </si>
+  <si>
+    <t>'TKT2_b'</t>
+  </si>
+  <si>
+    <t>'NADH16_f'</t>
+  </si>
+  <si>
+    <t>'NADH16_b'</t>
+  </si>
+  <si>
+    <t>'NADTRHD_f'</t>
+  </si>
+  <si>
+    <t>'NADTRHD_b'</t>
+  </si>
+  <si>
+    <t>'THD2_f'</t>
+  </si>
+  <si>
+    <t>'THD2_b'</t>
+  </si>
+  <si>
+    <t>'ADK1_f'</t>
+  </si>
+  <si>
+    <t>'ADK1_b'</t>
+  </si>
+  <si>
+    <t>'ATPM'</t>
+  </si>
+  <si>
+    <t>'ATPS4r_f'</t>
+  </si>
+  <si>
+    <t>'ATPS4r_b'</t>
+  </si>
+  <si>
+    <t>'CYTBD'</t>
+  </si>
+  <si>
+    <t>'PPC_f'</t>
+  </si>
+  <si>
+    <t>'PPC_b'</t>
+  </si>
+  <si>
+    <t>'PPCK'</t>
+  </si>
+  <si>
+    <t>'ME1'</t>
+  </si>
+  <si>
+    <t>'ME2'</t>
+  </si>
+  <si>
+    <t>'H2Ot_f'</t>
+  </si>
+  <si>
+    <t>'H2Ot_b'</t>
+  </si>
+  <si>
+    <t>'O2t_f'</t>
+  </si>
+  <si>
+    <t>'O2t_b'</t>
+  </si>
+  <si>
+    <t>'PIt2r_f'</t>
+  </si>
+  <si>
+    <t>'PIt2r_b'</t>
+  </si>
+  <si>
+    <t>'CO2t_f'</t>
+  </si>
+  <si>
+    <t>'CO2t_b'</t>
+  </si>
+  <si>
+    <t>'PYRt2r_f'</t>
+  </si>
+  <si>
+    <t>'PYRt2r_b'</t>
+  </si>
+  <si>
+    <t>'SUCCt2_2'</t>
+  </si>
+  <si>
+    <t>'SUCCt3'</t>
+  </si>
+  <si>
+    <t>'AKGt2r_f'</t>
+  </si>
+  <si>
+    <t>'AKGt2r_b'</t>
+  </si>
+  <si>
+    <t>'FUMt2_2'</t>
+  </si>
+  <si>
+    <t>'MALt2_2'</t>
+  </si>
+  <si>
+    <t>'D_LACt2_f'</t>
+  </si>
+  <si>
+    <t>'D_LACt2_b'</t>
+  </si>
+  <si>
+    <t>'FORt2'</t>
+  </si>
+  <si>
+    <t>'FORti'</t>
+  </si>
+  <si>
+    <t>'ETOHt2r_f'</t>
+  </si>
+  <si>
+    <t>'ETOHt2r_b'</t>
+  </si>
+  <si>
+    <t>'ACt2r_f'</t>
+  </si>
+  <si>
+    <t>'ACt2r_b'</t>
+  </si>
+  <si>
+    <t>'ACALDt_f'</t>
+  </si>
+  <si>
+    <t>'ACALDt_b'</t>
+  </si>
+  <si>
+    <t>'exPYR_f'</t>
+  </si>
+  <si>
+    <t>'exPYR_b'</t>
+  </si>
+  <si>
+    <t>'exSUCC_f'</t>
+  </si>
+  <si>
+    <t>'exSUCC_b'</t>
+  </si>
+  <si>
+    <t>'exAKG_f'</t>
+  </si>
+  <si>
+    <t>'exAKG_b'</t>
+  </si>
+  <si>
+    <t>'exFUM_f'</t>
+  </si>
+  <si>
+    <t>'exFUM_b'</t>
+  </si>
+  <si>
+    <t>'exMAL_f'</t>
+  </si>
+  <si>
+    <t>'exMAL_b'</t>
+  </si>
+  <si>
+    <t>'exLAC_f'</t>
+  </si>
+  <si>
+    <t>'exLAC_b'</t>
+  </si>
+  <si>
+    <t>'exFOR_f'</t>
+  </si>
+  <si>
+    <t>'exFOR_b'</t>
+  </si>
+  <si>
+    <t>'exETOH_f'</t>
+  </si>
+  <si>
+    <t>'exETOH_b'</t>
+  </si>
+  <si>
+    <t>'exAC_f'</t>
+  </si>
+  <si>
+    <t>'exAC_b'</t>
+  </si>
+  <si>
+    <t>'exACALD_f'</t>
+  </si>
+  <si>
+    <t>'exACALD_b'</t>
+  </si>
+  <si>
+    <t>'exGLC_f'</t>
+  </si>
+  <si>
+    <t>'exGLC_b'</t>
+  </si>
+  <si>
+    <t>'exCO2_f'</t>
+  </si>
+  <si>
+    <t>'exCO2_b'</t>
+  </si>
+  <si>
+    <t>'exH_f'</t>
+  </si>
+  <si>
+    <t>'exH_b'</t>
+  </si>
+  <si>
+    <t>'exH2O_f'</t>
+  </si>
+  <si>
+    <t>'exH2O_b'</t>
+  </si>
+  <si>
+    <t>'exPI_f'</t>
+  </si>
+  <si>
+    <t>'exPI_b'</t>
+  </si>
+  <si>
+    <t>'exO2_f'</t>
+  </si>
+  <si>
+    <t>'exO2_b'</t>
+  </si>
+  <si>
+    <t>'EC_biomass'</t>
+  </si>
+  <si>
+    <t>'netFlux'</t>
   </si>
 </sst>
 </file>
@@ -6807,8 +7237,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8829,10 +9259,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="86">
-        <v>1.6670000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1.6670000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="73"/>
       <c r="K52" s="73"/>
@@ -10998,7 +11428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
@@ -14331,11 +14761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:T83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
@@ -17576,6 +18009,1910 @@
       <c r="R83" s="73"/>
       <c r="S83" s="73"/>
       <c r="T83" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B2">
+        <v>19.487319257707199</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="84">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="84">
+        <v>19.641084088999801</v>
+      </c>
+      <c r="F3">
+        <v>19.641084088999801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B4">
+        <v>17.512373003127401</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="84">
+        <v>18.2584699674542</v>
+      </c>
+      <c r="F4">
+        <v>18.2584699674542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="84">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B6">
+        <v>17.512373003127401</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="84">
+        <v>18.2584699674542</v>
+      </c>
+      <c r="F6">
+        <v>18.2584699674542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="85">
+        <v>-18.2584699674542</v>
+      </c>
+      <c r="F7">
+        <v>-18.2584699674542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="84">
+        <v>35.345823579454603</v>
+      </c>
+      <c r="F8">
+        <v>35.345823579454603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9">
+        <v>17.512373003127401</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="84">
+        <v>-35.345823579454603</v>
+      </c>
+      <c r="F9">
+        <v>-35.345823579454603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>843</v>
+      </c>
+      <c r="B10">
+        <v>33.351906257377699</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="84">
+        <v>-32.726612833814102</v>
+      </c>
+      <c r="F10">
+        <v>-32.726612833814102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="84">
+        <v>32.726612833814102</v>
+      </c>
+      <c r="F11">
+        <v>32.726612833814102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="84">
+        <v>-15.8997796489202</v>
+      </c>
+      <c r="F12">
+        <v>-15.8997796489202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13">
+        <v>33.351906257377699</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="84">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>847</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="84">
+        <v>8.4636074707051101</v>
+      </c>
+      <c r="F14">
+        <v>8.4636074707046305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>848</v>
+      </c>
+      <c r="B15">
+        <v>29.6105872794733</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="84">
+        <v>7.2101829496634</v>
+      </c>
+      <c r="F15">
+        <v>7.2101829496634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>849</v>
+      </c>
+      <c r="B16">
+        <v>29.6105872794733</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="84">
+        <v>-7.2101829496634</v>
+      </c>
+      <c r="F16">
+        <v>-7.2101829496634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>850</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="84">
+        <v>-7.2101829496634</v>
+      </c>
+      <c r="F17">
+        <v>-7.2101829496634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>851</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="84">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19">
+        <v>14.1431852176778</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="84">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>853</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="84">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>854</v>
+      </c>
+      <c r="B21">
+        <v>27.0586876236889</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="84">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>855</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="84">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="84">
+        <v>-100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>857</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="84">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>858</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="84">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>859</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="84">
+        <v>-22.476479530989</v>
+      </c>
+      <c r="F26">
+        <v>-22.476479530989501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>860</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="84">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>861</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="85">
+        <v>31.588586774545199</v>
+      </c>
+      <c r="F28">
+        <v>31.588586774545501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>862</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="84">
+        <v>-31.588586774545199</v>
+      </c>
+      <c r="F29">
+        <v>-31.588586774545501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>863</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="84">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.4868995751603501E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B31">
+        <v>10.299130892249799</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="84">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2.4868995751603501E-13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>865</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="84">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>866</v>
+      </c>
+      <c r="B33">
+        <v>10.299130892249799</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" s="84">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>867</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="E34" s="84">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>868</v>
+      </c>
+      <c r="B35">
+        <v>10.299130892249799</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="85">
+        <v>-1.2584817406192199</v>
+      </c>
+      <c r="F35">
+        <v>-1.2584817406192199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>869</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="E36" s="85">
+        <v>-1.2584817406192199</v>
+      </c>
+      <c r="F36">
+        <v>-1.2584817406192199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>870</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="84">
+        <v>0.31321978769724201</v>
+      </c>
+      <c r="F37">
+        <v>0.31321978769724201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>871</v>
+      </c>
+      <c r="B38">
+        <v>10.299130892249799</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="E38" s="84">
+        <v>-0.31321978769724201</v>
+      </c>
+      <c r="F38">
+        <v>-0.31321978769724201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>872</v>
+      </c>
+      <c r="B39">
+        <v>10.299130892249799</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="84">
+        <v>0.94526195292197401</v>
+      </c>
+      <c r="F39">
+        <v>0.94526195292197401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>873</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="84">
+        <v>-20</v>
+      </c>
+      <c r="F40">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>874</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="E41" s="84">
+        <v>-100</v>
+      </c>
+      <c r="F41">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>875</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="E42" s="84">
+        <v>69.980448284876005</v>
+      </c>
+      <c r="F42">
+        <v>69.980448284876005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>876</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="84">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>877</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="84">
+        <v>8.39</v>
+      </c>
+      <c r="F44">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B45">
+        <v>17.685883301904202</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="84">
+        <v>-48.530185510493098</v>
+      </c>
+      <c r="F45">
+        <v>-48.530185510492899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>879</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="84">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>880</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="84">
+        <v>4.0820119341314696</v>
+      </c>
+      <c r="F47">
+        <v>4.0820119341314696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>881</v>
+      </c>
+      <c r="B48">
+        <v>17.685883301904202</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="84">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>882</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="84">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>883</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" s="84">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>884</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="E51" s="84">
+        <v>0.55691231785686302</v>
+      </c>
+      <c r="F51">
+        <v>0.55691231785706197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>885</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="E52" s="84">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>886</v>
+      </c>
+      <c r="B53" s="11">
+        <v>-2.2382096176443199E-13</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="E53" s="84">
+        <v>6.4407022526654396</v>
+      </c>
+      <c r="F53">
+        <v>6.4407022526654298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>887</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="E54" s="84">
+        <v>-5.3354364551731797</v>
+      </c>
+      <c r="F54">
+        <v>-5.3354364551727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>888</v>
+      </c>
+      <c r="B55" s="11">
+        <v>-2.2315482794965601E-13</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="E55" s="84">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>889</v>
+      </c>
+      <c r="B56" s="11">
+        <v>-2.2315482794965601E-13</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" s="84">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>890</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="84">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>891</v>
+      </c>
+      <c r="B58">
+        <v>1.7976337441964301</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="E58" s="84">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>892</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E59" s="84">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>893</v>
+      </c>
+      <c r="B60">
+        <v>1.79763374419621</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="E60" s="84">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>894</v>
+      </c>
+      <c r="B61">
+        <v>0.44740773071336798</v>
+      </c>
+      <c r="D61" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="84">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>895</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" s="84">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>896</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" s="84">
+        <v>22.476479530989</v>
+      </c>
+      <c r="F63">
+        <v>22.476479530989501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>897</v>
+      </c>
+      <c r="B64">
+        <v>0.44740773071336798</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="E64" s="84">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>2.4868995751603501E-13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>898</v>
+      </c>
+      <c r="B65">
+        <v>1.3502260134830599</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" s="84">
+        <v>-31.588586774545199</v>
+      </c>
+      <c r="F65">
+        <v>-31.588586774545501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>899</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="E66" s="84">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>900</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" s="84">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>901</v>
+      </c>
+      <c r="B68">
+        <v>57.298246643096903</v>
+      </c>
+      <c r="D68" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="E68" s="84">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>902</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="E69" s="84">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>903</v>
+      </c>
+      <c r="B70">
+        <v>95.722996525785405</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" s="84">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>904</v>
+      </c>
+      <c r="B71">
+        <v>63.141760220811697</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="E71" s="84">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>905</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="84">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>906</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="84">
+        <v>22.476479530989</v>
+      </c>
+      <c r="F73">
+        <v>22.476479530989501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>907</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" s="84">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>-2.4868995751603501E-13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>908</v>
+      </c>
+      <c r="B75">
+        <v>8.39</v>
+      </c>
+      <c r="D75" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="84">
+        <v>31.588586774545199</v>
+      </c>
+      <c r="F75">
+        <v>31.588586774545501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>909</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="D76" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="E76" s="84">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>910</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="D77" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="E77" s="84">
+        <v>-20</v>
+      </c>
+      <c r="F77">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>911</v>
+      </c>
+      <c r="B78">
+        <v>67.597377535346595</v>
+      </c>
+      <c r="D78" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="84">
+        <v>5.3354364551731797</v>
+      </c>
+      <c r="F78">
+        <v>5.3354364551727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>912</v>
+      </c>
+      <c r="B79">
+        <v>5.8308056129572003</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="84">
+        <v>70.988039049659307</v>
+      </c>
+      <c r="F79">
+        <v>70.988039049660202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>913</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="D80" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="E80" s="84">
+        <v>-0.55691231785686302</v>
+      </c>
+      <c r="F80">
+        <v>-0.55691231785706197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>914</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="E81" s="84">
+        <v>-6.4407022526654396</v>
+      </c>
+      <c r="F81">
+        <v>-6.4407022526654298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>915</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" s="84">
+        <v>-10</v>
+      </c>
+      <c r="F82">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>916</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="D83" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="84">
+        <v>1.7508093219521601</v>
+      </c>
+      <c r="F83">
+        <v>1.7508093219521601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>917</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>918</v>
+      </c>
+      <c r="B85">
+        <v>34.771906869445701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>919</v>
+      </c>
+      <c r="B86">
+        <v>33.798688767673298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>920</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>921</v>
+      </c>
+      <c r="B88">
+        <v>9.1999933984068996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>922</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>923</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>924</v>
+      </c>
+      <c r="B91">
+        <v>43.188624128895597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>925</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>926</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>927</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>928</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>929</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>930</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>931</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>932</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>933</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>934</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>935</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>936</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>937</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>938</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>939</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>940</v>
+      </c>
+      <c r="B107">
+        <v>17.685883301904202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>941</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>942</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>943</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>944</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>945</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>946</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>947</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>948</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>949</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>950</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>951</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>952</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>953</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>954</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>955</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>956</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>957</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>958</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>959</v>
+      </c>
+      <c r="B126">
+        <v>17.685883301904202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>960</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>961</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>962</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>963</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>964</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>965</v>
+      </c>
+      <c r="B132">
+        <v>43.188624128895597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>966</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>967</v>
+      </c>
+      <c r="B134">
+        <v>41.858905345104603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>968</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>969</v>
+      </c>
+      <c r="B136">
+        <v>34.771906869445701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>970</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>971</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>972</v>
+      </c>
+      <c r="B139">
+        <v>9.1999933984068996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>973</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>974</v>
+      </c>
+      <c r="B141">
+        <v>33.798688767673298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>975</v>
+      </c>
+      <c r="B142">
+        <v>2.5008816697221499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>976</v>
+      </c>
+      <c r="B143">
+        <v>1091.4901946959901</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
   </bookViews>
@@ -26,7 +31,7 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4747,7 +4752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4782,7 +4787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7237,8 +7242,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
   </bookViews>
@@ -31,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4752,7 +4747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4787,7 +4782,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7242,8 +7237,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18024,8 +18019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -7237,8 +7237,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14761,8 +14761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18019,8 +18019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18071,7 +18071,7 @@
         <v>19.641084088999801</v>
       </c>
       <c r="F3">
-        <v>19.641084088999801</v>
+        <v>19.487319257707</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -18088,7 +18088,7 @@
         <v>18.2584699674542</v>
       </c>
       <c r="F4">
-        <v>18.2584699674542</v>
+        <v>17.512373003127401</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
         <v>18.2584699674542</v>
       </c>
       <c r="F6">
-        <v>18.2584699674542</v>
+        <v>17.512373003127401</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18139,7 +18139,7 @@
         <v>-18.2584699674542</v>
       </c>
       <c r="F7">
-        <v>-18.2584699674542</v>
+        <v>-17.512373003127401</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18156,7 +18156,7 @@
         <v>35.345823579454603</v>
       </c>
       <c r="F8">
-        <v>35.345823579454603</v>
+        <v>33.3519062573776</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -18173,7 +18173,7 @@
         <v>-35.345823579454603</v>
       </c>
       <c r="F9">
-        <v>-35.345823579454603</v>
+        <v>-33.3519062573776</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18190,7 +18190,7 @@
         <v>-32.726612833814102</v>
       </c>
       <c r="F10">
-        <v>-32.726612833814102</v>
+        <v>-29.6105872794733</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18207,7 +18207,7 @@
         <v>32.726612833814102</v>
       </c>
       <c r="F11">
-        <v>32.726612833814102</v>
+        <v>29.6105872794733</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -18224,7 +18224,7 @@
         <v>-15.8997796489202</v>
       </c>
       <c r="F12">
-        <v>-15.8997796489202</v>
+        <v>-14.143185217677701</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -18258,7 +18258,7 @@
         <v>8.4636074707051101</v>
       </c>
       <c r="F14">
-        <v>8.4636074707046305</v>
+        <v>27.058687623688801</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -18275,7 +18275,7 @@
         <v>7.2101829496634</v>
       </c>
       <c r="F15">
-        <v>7.2101829496634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -18292,7 +18292,7 @@
         <v>-7.2101829496634</v>
       </c>
       <c r="F16">
-        <v>-7.2101829496634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -18309,7 +18309,7 @@
         <v>-7.2101829496634</v>
       </c>
       <c r="F17">
-        <v>-7.2101829496634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -18360,7 +18360,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>10.2991308922496</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-10.2991308922496</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -18411,7 +18411,7 @@
         <v>-100</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>10.2991308922496</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -18428,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>-10.2991308922496</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10.2991308922496</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -18462,7 +18462,7 @@
         <v>-22.476479530989</v>
       </c>
       <c r="F26">
-        <v>-22.476479530989501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -18496,7 +18496,7 @@
         <v>31.588586774545199</v>
       </c>
       <c r="F28">
-        <v>31.588586774545501</v>
+        <v>17.6858833019045</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -18513,7 +18513,7 @@
         <v>-31.588586774545199</v>
       </c>
       <c r="F29">
-        <v>-31.588586774545501</v>
+        <v>-17.6858833019045</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>2.4868995751603501E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <v>2.4868995751603501E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -18615,7 +18615,7 @@
         <v>-1.2584817406192199</v>
       </c>
       <c r="F35">
-        <v>-1.2584817406192199</v>
+        <v>-1.79763374419628</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -18632,7 +18632,7 @@
         <v>-1.2584817406192199</v>
       </c>
       <c r="F36">
-        <v>-1.2584817406192199</v>
+        <v>-1.79763374419628</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -18649,7 +18649,7 @@
         <v>0.31321978769724201</v>
       </c>
       <c r="F37">
-        <v>0.31321978769724201</v>
+        <v>0.44740773071329298</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -18666,7 +18666,7 @@
         <v>-0.31321978769724201</v>
       </c>
       <c r="F38">
-        <v>-0.31321978769724201</v>
+        <v>-0.44740773071329298</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -18683,7 +18683,7 @@
         <v>0.94526195292197401</v>
       </c>
       <c r="F39">
-        <v>0.94526195292197401</v>
+        <v>1.35022601348299</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -18700,7 +18700,7 @@
         <v>-20</v>
       </c>
       <c r="F40">
-        <v>-20</v>
+        <v>-57.298246643096498</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -18717,7 +18717,7 @@
         <v>-100</v>
       </c>
       <c r="F41">
-        <v>-100</v>
+        <v>-95.722996525786201</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -18734,7 +18734,7 @@
         <v>69.980448284876005</v>
       </c>
       <c r="F42">
-        <v>69.980448284876005</v>
+        <v>63.141760220812799</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18785,7 +18785,7 @@
         <v>-48.530185510493098</v>
       </c>
       <c r="F45">
-        <v>-48.530185510492899</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -18802,7 +18802,7 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>67.597377535346098</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -18819,7 +18819,7 @@
         <v>4.0820119341314696</v>
       </c>
       <c r="F47">
-        <v>4.0820119341314696</v>
+        <v>5.8308056129572003</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -18887,7 +18887,7 @@
         <v>0.55691231785686302</v>
       </c>
       <c r="F51">
-        <v>0.55691231785706197</v>
+        <v>-34.771906869445303</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18904,7 +18904,7 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>33.798688767672999</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -18921,7 +18921,7 @@
         <v>6.4407022526654396</v>
       </c>
       <c r="F53">
-        <v>6.4407022526654298</v>
+        <v>9.19999339840688</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -18938,7 +18938,7 @@
         <v>-5.3354364551731797</v>
       </c>
       <c r="F54">
-        <v>-5.3354364551727</v>
+        <v>-43.188624128895299</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -19091,7 +19091,7 @@
         <v>22.476479530989</v>
       </c>
       <c r="F63">
-        <v>22.476479530989501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>2.4868995751603501E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -19125,7 +19125,7 @@
         <v>-31.588586774545199</v>
       </c>
       <c r="F65">
-        <v>-31.588586774545501</v>
+        <v>-17.6858833019045</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -19261,7 +19261,7 @@
         <v>22.476479530989</v>
       </c>
       <c r="F73">
-        <v>22.476479530989501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>-2.4868995751603501E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -19295,7 +19295,7 @@
         <v>31.588586774545199</v>
       </c>
       <c r="F75">
-        <v>31.588586774545501</v>
+        <v>17.6858833019045</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -19346,7 +19346,7 @@
         <v>5.3354364551731797</v>
       </c>
       <c r="F78">
-        <v>5.3354364551727</v>
+        <v>43.188624128895299</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19363,7 +19363,7 @@
         <v>70.988039049659307</v>
       </c>
       <c r="F79">
-        <v>70.988039049660202</v>
+        <v>41.858905345104802</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -19380,7 +19380,7 @@
         <v>-0.55691231785686302</v>
       </c>
       <c r="F80">
-        <v>-0.55691231785706197</v>
+        <v>34.771906869445303</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -19397,7 +19397,7 @@
         <v>-6.4407022526654396</v>
       </c>
       <c r="F81">
-        <v>-6.4407022526654298</v>
+        <v>-9.19999339840688</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -19414,7 +19414,7 @@
         <v>-10</v>
       </c>
       <c r="F82">
-        <v>-10</v>
+        <v>-33.798688767672999</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -19431,7 +19431,7 @@
         <v>1.7508093219521601</v>
       </c>
       <c r="F83">
-        <v>1.7508093219521601</v>
+        <v>2.5008816697221499</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,15 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="979">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3004,6 +3007,12 @@
   </si>
   <si>
     <t>'netFlux'</t>
+  </si>
+  <si>
+    <t>6 h[c] + 0.5 o2[c] + q8h2[c] --&gt; 6 h[e] + h2o[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>4 h[e] + nad[c] + q8h2[c] &lt;==&gt; 5 h[c] + nadh[c] + q8[c]</t>
   </si>
 </sst>
 </file>
@@ -3067,7 +3076,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3077,6 +3086,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3093,7 +3108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3181,6 +3196,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -7236,9 +7253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8833,7 +8850,7 @@
         <v>169</v>
       </c>
       <c r="C40" s="78" t="s">
-        <v>829</v>
+        <v>978</v>
       </c>
       <c r="D40" s="73">
         <v>17.399999999999999</v>
@@ -9045,7 +9062,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>168</v>
+        <v>977</v>
       </c>
       <c r="D46" s="73">
         <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
@@ -18017,19 +18034,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>834</v>
       </c>
@@ -18039,8 +18057,11 @@
       <c r="E1" s="79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>835</v>
       </c>
@@ -18056,8 +18077,23 @@
       <c r="F2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="73">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>836</v>
       </c>
@@ -18073,8 +18109,23 @@
       <c r="F3">
         <v>19.487319257707</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>-5</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="73">
+        <v>7.7072621001273998</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>837</v>
       </c>
@@ -18090,8 +18141,23 @@
       <c r="F4">
         <v>17.512373003127401</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="73">
+        <v>13.6919193029346</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>838</v>
       </c>
@@ -18107,8 +18173,23 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="73">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>839</v>
       </c>
@@ -18124,8 +18205,23 @@
       <c r="F6">
         <v>17.512373003127401</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="73">
+        <v>13.6919193029346</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>840</v>
       </c>
@@ -18141,8 +18237,23 @@
       <c r="F7">
         <v>-17.512373003127401</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>818</v>
+      </c>
+      <c r="J7" s="73">
+        <v>-13.6919193029346</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>841</v>
       </c>
@@ -18158,8 +18269,23 @@
       <c r="F8">
         <v>33.3519062573776</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" s="73">
+        <v>29.7222275420458</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>842</v>
       </c>
@@ -18175,8 +18301,23 @@
       <c r="F9">
         <v>-33.3519062573776</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="73">
+        <v>-29.7222275420458</v>
+      </c>
+      <c r="K9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>843</v>
       </c>
@@ -18192,8 +18333,23 @@
       <c r="F10">
         <v>-29.6105872794733</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="73">
+        <v>-26.152463852282899</v>
+      </c>
+      <c r="K10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>844</v>
       </c>
@@ -18209,8 +18365,23 @@
       <c r="F11">
         <v>29.6105872794733</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="J11" s="73">
+        <v>26.152463852282899</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>845</v>
       </c>
@@ -18226,8 +18397,23 @@
       <c r="F12">
         <v>-14.143185217677701</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>819</v>
+      </c>
+      <c r="J12" s="73">
+        <v>-10.477223017608001</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>846</v>
       </c>
@@ -18243,8 +18429,23 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="73">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>847</v>
       </c>
@@ -18260,8 +18461,23 @@
       <c r="F14">
         <v>27.058687623688801</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="73">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>848</v>
       </c>
@@ -18277,8 +18493,23 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>821</v>
+      </c>
+      <c r="J15" s="73">
+        <v>-7.4801174400043697</v>
+      </c>
+      <c r="K15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>849</v>
       </c>
@@ -18294,8 +18525,23 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16" s="73">
+        <v>7.4801174400043697</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>850</v>
       </c>
@@ -18311,8 +18557,23 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="73">
+        <v>7.4801174400043697</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>851</v>
       </c>
@@ -18328,8 +18589,23 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="J18" s="73">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>852</v>
       </c>
@@ -18345,8 +18621,23 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="J19" s="73">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>853</v>
       </c>
@@ -18362,8 +18653,23 @@
       <c r="F20">
         <v>10.2991308922496</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="73">
+        <v>17.306989650687299</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>854</v>
       </c>
@@ -18379,8 +18685,23 @@
       <c r="F21">
         <v>-10.2991308922496</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="73">
+        <v>-17.306989650687299</v>
+      </c>
+      <c r="K21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>855</v>
       </c>
@@ -18396,8 +18717,23 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="88">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>856</v>
       </c>
@@ -18413,8 +18749,23 @@
       <c r="F23">
         <v>10.2991308922496</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>823</v>
+      </c>
+      <c r="J23" s="88">
+        <v>17.306989650687299</v>
+      </c>
+      <c r="K23">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>857</v>
       </c>
@@ -18430,8 +18781,23 @@
       <c r="F24">
         <v>-10.2991308922496</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="J24" s="73">
+        <v>-17.306989650687299</v>
+      </c>
+      <c r="K24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>858</v>
       </c>
@@ -18447,8 +18813,23 @@
       <c r="F25">
         <v>10.2991308922496</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" s="73">
+        <v>17.306989650687299</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>859</v>
       </c>
@@ -18464,8 +18845,23 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>825</v>
+      </c>
+      <c r="J26" s="73">
+        <v>-23.7175795815382</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>860</v>
       </c>
@@ -18481,8 +18877,23 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="J27" s="73">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>861</v>
       </c>
@@ -18498,8 +18909,23 @@
       <c r="F28">
         <v>17.6858833019045</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="73">
+        <v>7.2944405128616401</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>862</v>
       </c>
@@ -18515,8 +18941,23 @@
       <c r="F29">
         <v>-17.6858833019045</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="73">
+        <v>-7.2944405128616401</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>863</v>
       </c>
@@ -18532,8 +18973,23 @@
       <c r="F30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="73">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>864</v>
       </c>
@@ -18549,8 +19005,23 @@
       <c r="F31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="J31" s="73">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>865</v>
       </c>
@@ -18566,8 +19037,23 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="I32" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="J32" s="73">
+        <v>11.8035657365027</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>866</v>
       </c>
@@ -18583,8 +19069,23 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="I33" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="J33" s="73">
+        <v>11.8035657365027</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>867</v>
       </c>
@@ -18600,8 +19101,23 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="I34" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" s="73">
+        <v>11.8035657365027</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>868</v>
       </c>
@@ -18617,8 +19133,23 @@
       <c r="F35">
         <v>-1.79763374419628</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="I35" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="J35" s="73">
+        <v>6.1538391851629299</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>869</v>
       </c>
@@ -18634,8 +19165,23 @@
       <c r="F36">
         <v>-1.79763374419628</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="I36" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="J36" s="73">
+        <v>-5.6497265513397501</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>870</v>
       </c>
@@ -18651,8 +19197,23 @@
       <c r="F37">
         <v>0.44740773071329298</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>-2</v>
+      </c>
+      <c r="H37" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="I37" s="77" t="s">
+        <v>827</v>
+      </c>
+      <c r="J37" s="73">
+        <v>-3.5076297169144901</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>871</v>
       </c>
@@ -18668,8 +19229,23 @@
       <c r="F38">
         <v>-0.44740773071329298</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="I38" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="J38" s="73">
+        <v>3.5076297169144901</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>872</v>
       </c>
@@ -18685,8 +19261,23 @@
       <c r="F39">
         <v>1.35022601348299</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>-2</v>
+      </c>
+      <c r="H39" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="I39" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="J39" s="73">
+        <v>-2.6462094682484398</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>873</v>
       </c>
@@ -18702,8 +19293,23 @@
       <c r="F40">
         <v>-57.298246643096498</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>-12</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>978</v>
+      </c>
+      <c r="J40" s="73">
+        <v>-72.800078372557607</v>
+      </c>
+      <c r="K40">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>874</v>
       </c>
@@ -18719,8 +19325,23 @@
       <c r="F41">
         <v>-95.722996525786201</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="I41" s="77" t="s">
+        <v>830</v>
+      </c>
+      <c r="J41" s="73">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>875</v>
       </c>
@@ -18736,8 +19357,23 @@
       <c r="F42">
         <v>63.141760220812799</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="I42" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="J42" s="73">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>876</v>
       </c>
@@ -18753,8 +19389,23 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="73">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>877</v>
       </c>
@@ -18770,8 +19421,23 @@
       <c r="F44">
         <v>8.39</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="73">
+        <v>8.39</v>
+      </c>
+      <c r="K44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>878</v>
       </c>
@@ -18787,8 +19453,23 @@
       <c r="F45">
         <v>-100</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>-36</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" s="73">
+        <v>-100</v>
+      </c>
+      <c r="K45">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>879</v>
       </c>
@@ -18804,8 +19485,23 @@
       <c r="F46">
         <v>67.597377535346098</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="77" t="s">
+        <v>977</v>
+      </c>
+      <c r="J46" s="73">
+        <v>90.107068023245006</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>880</v>
       </c>
@@ -18821,8 +19517,23 @@
       <c r="F47">
         <v>5.8308056129572003</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="J47" s="73">
+        <v>5.5634385312047403</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>881</v>
       </c>
@@ -18838,8 +19549,23 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="J48" s="73">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>882</v>
       </c>
@@ -18855,8 +19581,23 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" s="73">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>883</v>
       </c>
@@ -18872,8 +19613,23 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="I50" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" s="73">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>884</v>
       </c>
@@ -18889,8 +19645,23 @@
       <c r="F51">
         <v>-34.771906869445303</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>-6</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="I51" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="J51" s="73">
+        <v>-34.123336159270004</v>
+      </c>
+      <c r="K51">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>885</v>
       </c>
@@ -18906,8 +19677,23 @@
       <c r="F52">
         <v>33.798688767672999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="I52" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" s="73">
+        <v>45.053534011622503</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>886</v>
       </c>
@@ -18923,8 +19709,23 @@
       <c r="F53">
         <v>9.19999339840688</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="I53" s="77" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" s="73">
+        <v>8.7781348165313595</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>887</v>
       </c>
@@ -18940,8 +19741,23 @@
       <c r="F54">
         <v>-43.188624128895299</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>-6</v>
+      </c>
+      <c r="H54" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="I54" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" s="73">
+        <v>-42.154111358399099</v>
+      </c>
+      <c r="K54">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>888</v>
       </c>
@@ -18957,8 +19773,23 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="I55" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" s="73">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>889</v>
       </c>
@@ -18974,8 +19805,23 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I56" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" s="73">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>890</v>
       </c>
@@ -18991,8 +19837,23 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="I57" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="J57" s="73">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>891</v>
       </c>
@@ -19008,8 +19869,23 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="I58" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58" s="73">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>892</v>
       </c>
@@ -19025,8 +19901,23 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="I59" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="J59" s="73">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>893</v>
       </c>
@@ -19042,8 +19933,23 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="J60" s="73">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>894</v>
       </c>
@@ -19059,8 +19965,23 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="I61" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="J61" s="73">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>895</v>
       </c>
@@ -19076,8 +19997,23 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="I62" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" s="73">
+        <v>76.282420418454905</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>896</v>
       </c>
@@ -19093,8 +20029,23 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="I63" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="J63" s="73">
+        <v>99.999999999993094</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>897</v>
       </c>
@@ -19110,8 +20061,23 @@
       <c r="F64" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="I64" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="J64" s="73">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>898</v>
       </c>
@@ -19127,8 +20093,23 @@
       <c r="F65">
         <v>-17.6858833019045</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="I65" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="J65" s="73">
+        <v>-7.2944405128616401</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>899</v>
       </c>
@@ -19144,8 +20125,23 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="J66" s="73">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>900</v>
       </c>
@@ -19161,8 +20157,23 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="J67" s="73">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>901</v>
       </c>
@@ -19178,8 +20189,23 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="I68" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="J68" s="73">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>902</v>
       </c>
@@ -19195,8 +20221,23 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="I69" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" s="73">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>903</v>
       </c>
@@ -19212,8 +20253,23 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="I70" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="J70" s="73">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>904</v>
       </c>
@@ -19229,8 +20285,23 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="I71" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="73">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>905</v>
       </c>
@@ -19246,8 +20317,23 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="I72" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J72" s="73">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>906</v>
       </c>
@@ -19263,8 +20349,23 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="J73" s="73">
+        <v>23.7175795815381</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>907</v>
       </c>
@@ -19280,8 +20381,23 @@
       <c r="F74" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="I74" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J74" s="73">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>908</v>
       </c>
@@ -19297,8 +20413,23 @@
       <c r="F75">
         <v>17.6858833019045</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="I75" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="J75" s="73">
+        <v>7.2944405128616401</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>909</v>
       </c>
@@ -19314,8 +20445,23 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="I76" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76" s="73">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>910</v>
       </c>
@@ -19331,8 +20477,23 @@
       <c r="F77">
         <v>-20</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="H77" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="I77" s="77" t="s">
+        <v>794</v>
+      </c>
+      <c r="J77" s="73">
+        <v>-20</v>
+      </c>
+      <c r="K77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>911</v>
       </c>
@@ -19348,8 +20509,23 @@
       <c r="F78">
         <v>43.188624128895299</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>6</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="I78" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="J78" s="73">
+        <v>42.154111358399099</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>912</v>
       </c>
@@ -19365,8 +20541,23 @@
       <c r="F79">
         <v>41.858905345104802</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="I79" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" s="73">
+        <v>54.076606907575503</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>913</v>
       </c>
@@ -19382,8 +20573,23 @@
       <c r="F80">
         <v>34.771906869445303</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="I80" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J80" s="73">
+        <v>34.123336159270004</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>914</v>
       </c>
@@ -19399,8 +20605,23 @@
       <c r="F81">
         <v>-9.19999339840688</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" s="73">
+        <v>-8.7781348165257107</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>915</v>
       </c>
@@ -19416,8 +20637,23 @@
       <c r="F82">
         <v>-33.798688767672999</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>-6</v>
+      </c>
+      <c r="H82" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="I82" s="77" t="s">
+        <v>462</v>
+      </c>
+      <c r="J82" s="73">
+        <v>-45.053534011622503</v>
+      </c>
+      <c r="K82">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>916</v>
       </c>
@@ -19433,8 +20669,23 @@
       <c r="F83">
         <v>2.5008816697221499</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="I83" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="J83" s="73">
+        <v>2.3862056749752201</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>917</v>
       </c>
@@ -19442,7 +20693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>918</v>
       </c>
@@ -19450,7 +20701,7 @@
         <v>34.771906869445701</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>919</v>
       </c>
@@ -19458,7 +20709,7 @@
         <v>33.798688767673298</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>920</v>
       </c>
@@ -19466,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>921</v>
       </c>
@@ -19474,7 +20725,7 @@
         <v>9.1999933984068996</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>922</v>
       </c>
@@ -19482,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>923</v>
       </c>
@@ -19490,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>924</v>
       </c>
@@ -19498,7 +20749,7 @@
         <v>43.188624128895597</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>925</v>
       </c>
@@ -19506,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>926</v>
       </c>
@@ -19514,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>927</v>
       </c>
@@ -19522,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>928</v>
       </c>
@@ -19530,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>929</v>
       </c>
@@ -19915,6 +21166,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J143"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -7253,9 +7253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18036,7 +18036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -7254,8 +7254,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,7 +7263,7 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
@@ -7387,8 +7387,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="73">
-        <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-0.8</v>
+        <v>3.1320000000000001</v>
       </c>
       <c r="E3">
         <v>-17.100000000000001</v>
@@ -7397,7 +7396,7 @@
         <v>20.6</v>
       </c>
       <c r="H3" s="73">
-        <v>11.09</v>
+        <v>120</v>
       </c>
       <c r="J3" s="73"/>
       <c r="K3" s="73"/>
@@ -7528,6 +7527,9 @@
       <c r="H6" s="73">
         <v>8.5</v>
       </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
       <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="84">
@@ -7557,17 +7559,14 @@
       <c r="C7" s="77" t="s">
         <v>818</v>
       </c>
-      <c r="D7" s="73">
-        <v>-1.4</v>
+      <c r="D7" s="86">
+        <v>7.5979999999999999</v>
       </c>
       <c r="E7">
         <v>-24.3</v>
       </c>
       <c r="F7">
         <v>13.4</v>
-      </c>
-      <c r="G7">
-        <v>9.1199999999999992</v>
       </c>
       <c r="H7" s="73"/>
       <c r="I7">
@@ -7613,7 +7612,7 @@
         <v>62.6</v>
       </c>
       <c r="H8" s="73">
-        <v>671.72</v>
+        <v>268</v>
       </c>
       <c r="J8" s="73"/>
       <c r="K8" s="73"/>
@@ -7645,7 +7644,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="73">
-        <v>2.8</v>
+        <v>-10.51</v>
       </c>
       <c r="E9">
         <v>-19.2</v>
@@ -7655,7 +7654,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="73">
-        <v>2225</v>
+        <v>654</v>
       </c>
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
@@ -7686,18 +7685,17 @@
       <c r="C10" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="73">
+        <v>6.2290000000000001</v>
+      </c>
       <c r="E10">
         <v>-23.1</v>
       </c>
       <c r="F10">
         <v>14.6</v>
       </c>
-      <c r="G10">
-        <v>5.49</v>
-      </c>
       <c r="I10" s="73">
-        <v>90.55</v>
+        <v>530</v>
       </c>
       <c r="J10" s="73"/>
       <c r="K10" s="73"/>
@@ -7770,16 +7768,16 @@
       <c r="C12" s="77" t="s">
         <v>819</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="73">
+        <v>-31.12</v>
+      </c>
       <c r="E12">
         <v>-10.8</v>
       </c>
       <c r="F12">
         <v>65.3</v>
       </c>
-      <c r="G12" s="11">
-        <v>1.4E-5</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="I12" s="73">
         <v>10.17</v>
       </c>
@@ -8937,6 +8935,9 @@
       </c>
       <c r="H42" s="73">
         <v>167.9</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
       </c>
       <c r="J42" s="73"/>
       <c r="K42" s="73"/>
@@ -9072,7 +9073,7 @@
         <v>341</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="73"/>
       <c r="K46" s="73"/>
@@ -11445,8 +11446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14778,7 +14779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -18037,7 +18038,7 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="900" windowWidth="18195" windowHeight="6705" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="18195" windowHeight="6645" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="980">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3013,6 +3013,9 @@
   </si>
   <si>
     <t>4 h[e] + nad[c] + q8h2[c] &lt;==&gt; 5 h[c] + nadh[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0.013,1</t>
   </si>
 </sst>
 </file>
@@ -3076,7 +3079,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3094,6 +3097,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3108,7 +3123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3198,6 +3213,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -7254,8 +7272,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,9 +7545,6 @@
       <c r="H6" s="73">
         <v>8.5</v>
       </c>
-      <c r="I6">
-        <v>0.4</v>
-      </c>
       <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="84">
@@ -8429,6 +8444,9 @@
       <c r="H28" s="73">
         <v>120</v>
       </c>
+      <c r="I28">
+        <v>0.02</v>
+      </c>
       <c r="J28" s="73"/>
       <c r="K28" s="73"/>
       <c r="L28" s="85">
@@ -8850,14 +8868,15 @@
       <c r="C40" s="78" t="s">
         <v>978</v>
       </c>
-      <c r="D40" s="73">
-        <v>17.399999999999999</v>
-      </c>
+      <c r="D40" s="73"/>
       <c r="E40">
         <v>24.2</v>
       </c>
       <c r="F40">
         <v>122.4</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1.4000000000000001E-15</v>
       </c>
       <c r="H40" s="73"/>
       <c r="I40">
@@ -8872,7 +8891,9 @@
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.5.3</v>
       </c>
-      <c r="N40" s="73"/>
+      <c r="N40" s="73" t="s">
+        <v>979</v>
+      </c>
       <c r="O40" s="73"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="73"/>
@@ -9239,7 +9260,7 @@
       <c r="A51" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="89" t="s">
         <v>665</v>
       </c>
       <c r="D51" s="73">
@@ -9269,7 +9290,7 @@
       <c r="A52" s="77" t="s">
         <v>463</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="89" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="73">
@@ -9299,7 +9320,7 @@
       <c r="A53" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="89" t="s">
         <v>458</v>
       </c>
       <c r="D53" s="73">
@@ -9329,7 +9350,7 @@
       <c r="A54" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="89" t="s">
         <v>399</v>
       </c>
       <c r="D54" s="73">
@@ -9359,7 +9380,7 @@
       <c r="A55" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="89" t="s">
         <v>345</v>
       </c>
       <c r="D55" s="73">
@@ -9388,7 +9409,7 @@
       <c r="A56" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="89" t="s">
         <v>352</v>
       </c>
       <c r="D56" s="73">
@@ -9417,7 +9438,7 @@
       <c r="A57" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="89" t="s">
         <v>351</v>
       </c>
       <c r="D57" s="73">
@@ -9446,7 +9467,7 @@
       <c r="A58" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="C58" s="77" t="s">
+      <c r="C58" s="89" t="s">
         <v>355</v>
       </c>
       <c r="D58" s="73">
@@ -9476,7 +9497,7 @@
       <c r="A59" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="89" t="s">
         <v>359</v>
       </c>
       <c r="D59" s="73">
@@ -9506,7 +9527,7 @@
       <c r="A60" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="90" t="s">
         <v>363</v>
       </c>
       <c r="D60" s="73">
@@ -9536,7 +9557,7 @@
       <c r="A61" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="89" t="s">
         <v>371</v>
       </c>
       <c r="D61" s="73">
@@ -9566,7 +9587,7 @@
       <c r="A62" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="90" t="s">
         <v>380</v>
       </c>
       <c r="D62" s="73">
@@ -9596,7 +9617,7 @@
       <c r="A63" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="90" t="s">
         <v>383</v>
       </c>
       <c r="D63" s="73">
@@ -9626,7 +9647,7 @@
       <c r="A64" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="89" t="s">
         <v>386</v>
       </c>
       <c r="D64" s="73">
@@ -9656,7 +9677,7 @@
       <c r="A65" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="89" t="s">
         <v>389</v>
       </c>
       <c r="D65" s="73">
@@ -9686,7 +9707,7 @@
       <c r="A66" s="78" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="90" t="s">
         <v>392</v>
       </c>
       <c r="D66" s="73">
@@ -9716,7 +9737,7 @@
       <c r="A67" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C67" s="91" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="73">
@@ -9740,7 +9761,7 @@
       <c r="A68" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="91" t="s">
         <v>258</v>
       </c>
       <c r="D68" s="73">
@@ -9764,7 +9785,7 @@
       <c r="A69" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="91" t="s">
         <v>256</v>
       </c>
       <c r="D69" s="73">
@@ -9788,7 +9809,7 @@
       <c r="A70" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="C70" s="77" t="s">
+      <c r="C70" s="91" t="s">
         <v>260</v>
       </c>
       <c r="D70" s="73">
@@ -9812,7 +9833,7 @@
       <c r="A71" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="91" t="s">
         <v>265</v>
       </c>
       <c r="D71" s="73">
@@ -9836,7 +9857,7 @@
       <c r="A72" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="C72" s="77" t="s">
+      <c r="C72" s="91" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="73">
@@ -9860,7 +9881,7 @@
       <c r="A73" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="91" t="s">
         <v>285</v>
       </c>
       <c r="D73" s="73">
@@ -9884,7 +9905,7 @@
       <c r="A74" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="C74" s="77" t="s">
+      <c r="C74" s="91" t="s">
         <v>161</v>
       </c>
       <c r="D74" s="73">
@@ -9908,7 +9929,7 @@
       <c r="A75" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="91" t="s">
         <v>216</v>
       </c>
       <c r="D75" s="73">
@@ -9932,7 +9953,7 @@
       <c r="A76" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="91" t="s">
         <v>157</v>
       </c>
       <c r="D76" s="73">
@@ -9956,7 +9977,7 @@
       <c r="A77" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="C77" s="77" t="s">
+      <c r="C77" s="91" t="s">
         <v>794</v>
       </c>
       <c r="D77" s="73">
@@ -9980,7 +10001,7 @@
       <c r="A78" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="77" t="s">
+      <c r="C78" s="91" t="s">
         <v>400</v>
       </c>
       <c r="D78" s="73">
@@ -10004,7 +10025,7 @@
       <c r="A79" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="91" t="s">
         <v>205</v>
       </c>
       <c r="D79" s="73">
@@ -10028,7 +10049,7 @@
       <c r="A80" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="C80" s="77" t="s">
+      <c r="C80" s="91" t="s">
         <v>206</v>
       </c>
       <c r="D80" s="73">
@@ -10052,7 +10073,7 @@
       <c r="A81" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="91" t="s">
         <v>209</v>
       </c>
       <c r="D81" s="73">
@@ -10076,7 +10097,7 @@
       <c r="A82" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="C82" s="77" t="s">
+      <c r="C82" s="91" t="s">
         <v>462</v>
       </c>
       <c r="D82" s="73">
@@ -11446,8 +11467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14779,8 +14800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="18195" windowHeight="6645" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="1020" windowWidth="18195" windowHeight="6585" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -3244,7 +3244,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4732,8 +4732,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7272,8 +7272,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73:C75"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="1020" windowWidth="18195" windowHeight="6585" firstSheet="5" activeTab="10"/>
   </bookViews>
@@ -29,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4782,7 +4787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4817,7 +4822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7272,8 +7277,8 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1020" windowWidth="18195" windowHeight="6585" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="1080" windowWidth="18195" windowHeight="6525" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -34,12 +29,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="994">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3021,6 +3016,48 @@
   </si>
   <si>
     <t>1,1,1,1,0.013,1</t>
+  </si>
+  <si>
+    <t>0.174,0.0075,1,1,1</t>
+  </si>
+  <si>
+    <t>[c] : g6p + nadp --&gt; 6pgl + h + nadph</t>
+  </si>
+  <si>
+    <t>Compensated Species</t>
+  </si>
+  <si>
+    <t>pi,h</t>
+  </si>
+  <si>
+    <t>h2o,pi</t>
+  </si>
+  <si>
+    <t>h2o,h,pi</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>h,h2o</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>h2o,h</t>
+  </si>
+  <si>
+    <t>h[c],h[e]</t>
+  </si>
+  <si>
+    <t>h,pi</t>
+  </si>
+  <si>
+    <t>h[c],pi[c]</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3121,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3114,6 +3151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3128,7 +3171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3221,6 +3264,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3249,7 +3295,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4737,8 +4783,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4787,7 +4833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4822,7 +4868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7274,11 +7320,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7286,19 +7332,19 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -7308,2843 +7354,2949 @@
       <c r="C1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>814</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>815</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>817</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="K1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="L1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="M1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="N1" s="73" t="s">
         <v>807</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="O1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="T1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="U1" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="73">
+      <c r="E2" s="73">
         <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-9.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-50.4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.9</v>
       </c>
-      <c r="H2" s="86">
+      <c r="I2" s="86">
         <v>250</v>
       </c>
-      <c r="J2" s="73"/>
       <c r="K2" s="73"/>
-      <c r="L2" s="84">
+      <c r="L2" s="73"/>
+      <c r="M2" s="84">
         <v>20</v>
       </c>
-      <c r="M2" s="77">
+      <c r="N2" s="77">
         <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="73"/>
       <c r="O2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="P2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="73">
-        <v>5.5599999999999997E-2</v>
       </c>
       <c r="T2" s="73">
         <v>5.5599999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73">
+      <c r="E3" s="73">
         <v>3.1320000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-17.100000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>20.6</v>
       </c>
-      <c r="H3" s="73">
+      <c r="I3" s="73">
         <v>120</v>
       </c>
-      <c r="J3" s="73"/>
       <c r="K3" s="73"/>
-      <c r="L3" s="84">
+      <c r="L3" s="73"/>
+      <c r="M3" s="84">
         <v>19.641084088999801</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="N3" s="77" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.9</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="O3" s="73" t="s">
         <v>833</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73" t="s">
+      <c r="P3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73" t="s">
         <v>20</v>
-      </c>
-      <c r="S3" s="73">
-        <v>3.48</v>
       </c>
       <c r="T3" s="73">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="73">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="73">
+      <c r="E4" s="73">
         <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-53.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>21.4</v>
       </c>
-      <c r="H4" s="73">
+      <c r="I4" s="73">
         <v>49</v>
       </c>
-      <c r="J4" s="73"/>
       <c r="K4" s="73"/>
-      <c r="L4" s="84">
+      <c r="L4" s="73"/>
+      <c r="M4" s="84">
         <v>18.2584699674542</v>
       </c>
-      <c r="M4" s="77" t="str">
+      <c r="N4" s="77" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.11</v>
       </c>
-      <c r="N4" s="73"/>
       <c r="O4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73" t="s">
+      <c r="P4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73" t="s">
         <v>29</v>
-      </c>
-      <c r="S4" s="73">
-        <v>0.6</v>
       </c>
       <c r="T4" s="73">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E5" s="73">
         <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-2.8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-48.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="H5" s="73">
+      <c r="I5" s="73">
         <v>22</v>
       </c>
-      <c r="J5" s="73"/>
       <c r="K5" s="73"/>
-      <c r="L5" s="84">
-        <v>0</v>
-      </c>
-      <c r="M5" s="77" t="str">
+      <c r="L5" s="73"/>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77" t="str">
         <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.3.11</v>
       </c>
-      <c r="N5" s="73"/>
       <c r="O5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73" t="s">
+      <c r="P5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73" t="s">
         <v>32</v>
-      </c>
-      <c r="S5" s="73">
-        <v>0.27200000000000002</v>
       </c>
       <c r="T5" s="73">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="73">
+      <c r="E6" s="73">
         <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-29.4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>27.1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="73">
+      <c r="H6" s="11"/>
+      <c r="I6" s="73">
         <v>8.5</v>
       </c>
-      <c r="J6" s="73"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="84">
+      <c r="L6" s="73"/>
+      <c r="M6" s="84">
         <v>18.2584699674542</v>
       </c>
-      <c r="M6" s="77" t="str">
+      <c r="N6" s="77" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.2.13</v>
       </c>
-      <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73" t="s">
+      <c r="P6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73" t="s">
         <v>796</v>
-      </c>
-      <c r="S6" s="73">
-        <v>0.218</v>
       </c>
       <c r="T6" s="73">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="73">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>818</v>
       </c>
-      <c r="D7" s="86">
+      <c r="E7" s="86">
         <v>7.5979999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-24.3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.4</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7">
+      <c r="I7" s="73"/>
+      <c r="J7">
         <v>9000</v>
       </c>
-      <c r="J7" s="73"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="85">
+      <c r="L7" s="73"/>
+      <c r="M7" s="85">
         <v>-18.2584699674542</v>
       </c>
-      <c r="M7" s="77" t="str">
+      <c r="N7" s="77" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.1</v>
       </c>
-      <c r="N7" s="73"/>
       <c r="O7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73" t="s">
+      <c r="P7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73" t="s">
         <v>83</v>
-      </c>
-      <c r="S7" s="73">
-        <v>0.16700000000000001</v>
       </c>
       <c r="T7" s="73">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" t="s">
+        <v>983</v>
+      </c>
+      <c r="E8" s="73">
         <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-12.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>62.6</v>
       </c>
-      <c r="H8" s="73">
+      <c r="I8" s="73">
         <v>268</v>
       </c>
-      <c r="J8" s="73"/>
       <c r="K8" s="73"/>
-      <c r="L8" s="84">
+      <c r="L8" s="73"/>
+      <c r="M8" s="84">
         <v>35.345823579454603</v>
       </c>
-      <c r="M8" s="77" t="str">
+      <c r="N8" s="77" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.12</v>
       </c>
-      <c r="N8" s="73"/>
       <c r="O8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73" t="s">
+      <c r="P8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73" t="s">
         <v>187</v>
-      </c>
-      <c r="S8" s="73">
-        <v>2.13</v>
       </c>
       <c r="T8" s="73">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="73">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="73">
+      <c r="E9" s="73">
         <v>-10.51</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-19.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>56.1</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="I9" s="73">
+      <c r="H9" s="11"/>
+      <c r="J9" s="73">
         <v>654</v>
       </c>
-      <c r="J9" s="73"/>
       <c r="K9" s="73"/>
-      <c r="L9" s="84">
+      <c r="L9" s="73"/>
+      <c r="M9" s="84">
         <v>-35.345823579454603</v>
       </c>
-      <c r="M9" s="77" t="str">
+      <c r="N9" s="77" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.3</v>
       </c>
-      <c r="N9" s="73"/>
       <c r="O9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73" t="s">
+      <c r="P9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73" t="s">
         <v>194</v>
-      </c>
-      <c r="S9" s="73">
-        <v>0.39900000000000002</v>
       </c>
       <c r="T9" s="73">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="73">
+      <c r="E10" s="73">
         <v>6.2290000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-23.1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14.6</v>
       </c>
-      <c r="I10" s="73">
+      <c r="J10" s="73">
         <v>530</v>
       </c>
-      <c r="J10" s="73"/>
       <c r="K10" s="73"/>
-      <c r="L10" s="84">
+      <c r="L10" s="73"/>
+      <c r="M10" s="84">
         <v>-32.726612833814102</v>
       </c>
-      <c r="M10" s="77" t="str">
+      <c r="N10" s="77" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.4.2.1</v>
       </c>
-      <c r="N10" s="73"/>
       <c r="O10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73" t="s">
+      <c r="P10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73" t="s">
         <v>23</v>
-      </c>
-      <c r="S10" s="73">
-        <v>2.67</v>
       </c>
       <c r="T10" s="73">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="73">
+      <c r="E11" s="73">
         <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-0.9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-22.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" s="73">
+      <c r="I11" s="73">
         <v>355.79</v>
       </c>
-      <c r="J11" s="73"/>
       <c r="K11" s="73"/>
-      <c r="L11" s="84">
+      <c r="L11" s="73"/>
+      <c r="M11" s="84">
         <v>32.726612833814102</v>
       </c>
-      <c r="M11" s="77" t="str">
+      <c r="N11" s="77" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.11</v>
       </c>
-      <c r="N11" s="73"/>
       <c r="O11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73" t="s">
+      <c r="P11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73" t="s">
         <v>26</v>
-      </c>
-      <c r="S11" s="73">
-        <v>2.67</v>
       </c>
       <c r="T11" s="73">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>819</v>
       </c>
-      <c r="D12" s="73">
+      <c r="E12" s="73">
         <v>-31.12</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-10.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>65.3</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="I12" s="73">
+      <c r="H12" s="11"/>
+      <c r="J12" s="73">
         <v>10.17</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73">
+      <c r="K12" s="73"/>
+      <c r="L12" s="73">
         <v>0.97</v>
       </c>
-      <c r="L12" s="84">
+      <c r="M12" s="84">
         <v>-15.8997796489202</v>
       </c>
-      <c r="M12" s="77" t="str">
+      <c r="N12" s="77" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.40</v>
       </c>
-      <c r="N12" s="73"/>
       <c r="O12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73" t="s">
+      <c r="P12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73" t="s">
         <v>797</v>
-      </c>
-      <c r="S12" s="73">
-        <v>0.111</v>
       </c>
       <c r="T12" s="73">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" t="s">
+        <v>985</v>
+      </c>
+      <c r="E13" s="73">
         <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-50.9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>24.4</v>
       </c>
-      <c r="H13" s="73">
+      <c r="I13" s="73">
         <v>1</v>
       </c>
-      <c r="J13" s="73"/>
       <c r="K13" s="73"/>
-      <c r="L13" s="84">
-        <v>0</v>
-      </c>
-      <c r="M13" s="77" t="str">
+      <c r="L13" s="73"/>
+      <c r="M13" s="84">
+        <v>0</v>
+      </c>
+      <c r="N13" s="77" t="str">
         <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.9.2</v>
       </c>
-      <c r="N13" s="73"/>
       <c r="O13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73" t="s">
+      <c r="P13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73" t="s">
         <v>798</v>
-      </c>
-      <c r="S13" s="73">
-        <v>0.13800000000000001</v>
       </c>
       <c r="T13" s="73">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" t="s">
+        <v>986</v>
+      </c>
+      <c r="E14" s="73">
         <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-73</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H14" s="73">
+      <c r="I14" s="73">
         <v>6.32</v>
       </c>
-      <c r="J14" s="73"/>
       <c r="K14" s="73"/>
-      <c r="L14" s="84">
+      <c r="L14" s="73"/>
+      <c r="M14" s="84">
         <v>8.4636074707051101</v>
       </c>
-      <c r="M14" s="77" t="s">
+      <c r="N14" s="77" t="s">
         <v>820</v>
       </c>
-      <c r="N14" s="73"/>
       <c r="O14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73" t="s">
+      <c r="P14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73" t="s">
         <v>799</v>
-      </c>
-      <c r="S14" s="73">
-        <v>0.27600000000000002</v>
       </c>
       <c r="T14" s="73">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>821</v>
       </c>
-      <c r="D15" s="73">
+      <c r="E15" s="73">
         <v>8.6</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>60.9</v>
       </c>
-      <c r="I15" s="73">
+      <c r="J15" s="73">
         <v>81</v>
       </c>
-      <c r="J15" s="73"/>
       <c r="K15" s="73"/>
-      <c r="L15" s="84">
+      <c r="L15" s="73"/>
+      <c r="M15" s="84">
         <v>7.2101829496634</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="N15" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="N15" s="73"/>
       <c r="O15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73" t="s">
+      <c r="P15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73" t="s">
         <v>800</v>
-      </c>
-      <c r="S15" s="73">
-        <v>0.39800000000000002</v>
       </c>
       <c r="T15" s="73">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>317</v>
       </c>
       <c r="C16" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="73">
+      <c r="E16" s="73">
         <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-11.2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26.5</v>
       </c>
-      <c r="H16" s="73">
+      <c r="I16" s="73">
         <v>5.3</v>
       </c>
-      <c r="J16" s="73"/>
       <c r="K16" s="73"/>
-      <c r="L16" s="84">
+      <c r="L16" s="73"/>
+      <c r="M16" s="84">
         <v>-7.2101829496634</v>
       </c>
-      <c r="M16" s="77" t="str">
+      <c r="N16" s="77" t="str">
         <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.3</v>
       </c>
-      <c r="N16" s="73"/>
       <c r="O16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73" t="s">
+      <c r="P16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73" t="s">
         <v>801</v>
-      </c>
-      <c r="S16" s="73">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T16" s="73">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>323</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" s="73">
         <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-48.4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>26.9</v>
       </c>
-      <c r="H17" s="73">
+      <c r="I17" s="73">
         <v>106.4</v>
       </c>
-      <c r="J17" s="73"/>
       <c r="K17" s="73"/>
-      <c r="L17" s="84">
+      <c r="L17" s="73"/>
+      <c r="M17" s="84">
         <v>-7.2101829496634</v>
       </c>
-      <c r="M17" s="77" t="str">
+      <c r="N17" s="77" t="str">
         <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.42</v>
       </c>
-      <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73" t="s">
+      <c r="P17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73" t="s">
         <v>195</v>
-      </c>
-      <c r="S17" s="73">
-        <v>0.95499999999999996</v>
       </c>
       <c r="T17" s="73">
         <v>0.95499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>325</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D18" s="73">
+      <c r="E18" s="73">
         <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-38.700000000000003</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>17.8</v>
       </c>
-      <c r="H18" s="73">
+      <c r="I18" s="73">
         <v>5.2</v>
       </c>
-      <c r="J18" s="73"/>
       <c r="K18" s="73"/>
-      <c r="L18" s="84">
-        <v>0</v>
-      </c>
-      <c r="M18" s="77" t="str">
+      <c r="L18" s="73"/>
+      <c r="M18" s="84">
+        <v>0</v>
+      </c>
+      <c r="N18" s="77" t="str">
         <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.3.1</v>
       </c>
-      <c r="N18" s="73"/>
       <c r="O18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73" t="s">
+      <c r="P18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73" t="s">
         <v>38</v>
-      </c>
-      <c r="S18" s="73">
-        <v>0.59499999999999997</v>
       </c>
       <c r="T18" s="73">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>822</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" t="s">
+        <v>987</v>
+      </c>
+      <c r="E19" s="73">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-9.1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>63.1</v>
       </c>
-      <c r="I19" s="73">
+      <c r="J19" s="73">
         <v>48.1</v>
       </c>
-      <c r="J19" s="73"/>
       <c r="K19" s="73"/>
-      <c r="L19" s="84">
-        <v>0</v>
-      </c>
-      <c r="M19" s="77" t="s">
+      <c r="L19" s="73"/>
+      <c r="M19" s="84">
+        <v>0</v>
+      </c>
+      <c r="N19" s="77" t="s">
         <v>812</v>
       </c>
-      <c r="N19" s="73"/>
       <c r="O19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73" t="s">
+      <c r="P19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73" t="s">
         <v>41</v>
-      </c>
-      <c r="S19" s="73">
-        <v>4.2699999999999996</v>
       </c>
       <c r="T19" s="73">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" t="s">
+        <v>986</v>
+      </c>
+      <c r="E20" s="73">
         <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-72.3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>20.3</v>
       </c>
-      <c r="H20" s="73">
+      <c r="I20" s="73">
         <v>49</v>
       </c>
-      <c r="J20" s="73"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="84">
-        <v>0</v>
-      </c>
-      <c r="M20" s="77" t="s">
+      <c r="L20" s="73"/>
+      <c r="M20" s="84">
+        <v>0</v>
+      </c>
+      <c r="N20" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="N20" s="73"/>
       <c r="O20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73" t="s">
+      <c r="P20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73" t="s">
         <v>802</v>
-      </c>
-      <c r="S20" s="73">
-        <v>0.19500000000000001</v>
       </c>
       <c r="T20" s="73">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>332</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21">
+      <c r="D21" t="s">
+        <v>988</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21">
         <v>-39.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>35.799999999999997</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.12</v>
       </c>
-      <c r="H21" s="73">
+      <c r="I21" s="73">
         <v>44.73</v>
       </c>
-      <c r="J21" s="73"/>
       <c r="K21" s="73"/>
-      <c r="L21" s="84">
-        <v>0</v>
-      </c>
-      <c r="M21" s="77" t="str">
+      <c r="L21" s="73"/>
+      <c r="M21" s="84">
+        <v>0</v>
+      </c>
+      <c r="N21" s="77" t="str">
         <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>6.2.1.5</v>
       </c>
-      <c r="N21" s="73"/>
       <c r="O21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73" t="s">
+      <c r="P21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73" t="s">
         <v>803</v>
-      </c>
-      <c r="S21" s="73">
-        <v>6.2E-2</v>
       </c>
       <c r="T21" s="73">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="73">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>334</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="73">
+      <c r="E22" s="73">
         <v>-2.1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-40.4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>16.100000000000001</v>
       </c>
-      <c r="H22" s="73">
+      <c r="I22" s="73">
         <v>24</v>
       </c>
-      <c r="J22" s="73"/>
       <c r="K22" s="73"/>
-      <c r="L22" s="84">
+      <c r="L22" s="73"/>
+      <c r="M22" s="84">
         <v>100</v>
       </c>
-      <c r="M22" s="77" t="str">
+      <c r="N22" s="77" t="str">
         <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73" t="s">
+      <c r="P22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73" t="s">
         <v>100</v>
-      </c>
-      <c r="S22" s="73">
-        <v>1.47</v>
       </c>
       <c r="T22" s="73">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="73">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="78" t="s">
         <v>823</v>
       </c>
-      <c r="D23" s="73">
+      <c r="E23" s="73">
         <v>-5.9</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-40.4</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>16.100000000000001</v>
       </c>
-      <c r="H23" s="73">
+      <c r="I23" s="73">
         <v>250</v>
       </c>
-      <c r="J23" s="73"/>
       <c r="K23" s="73"/>
-      <c r="L23" s="84">
+      <c r="L23" s="73"/>
+      <c r="M23" s="84">
         <v>-100</v>
       </c>
-      <c r="M23" s="77" t="str">
+      <c r="N23" s="77" t="str">
         <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.3.99.1</v>
       </c>
-      <c r="N23" s="73"/>
       <c r="O23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73" t="s">
+      <c r="P23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73" t="s">
         <v>101</v>
-      </c>
-      <c r="S23" s="73">
-        <v>0.1</v>
       </c>
       <c r="T23" s="73">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>252</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>824</v>
       </c>
-      <c r="D24" s="73">
+      <c r="E24" s="73">
         <v>0.6</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-15.4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>22.3</v>
       </c>
-      <c r="H24" s="73">
+      <c r="I24" s="73">
         <v>51.7</v>
       </c>
-      <c r="J24" s="73"/>
       <c r="K24" s="73"/>
-      <c r="L24" s="84">
-        <v>0</v>
-      </c>
-      <c r="M24" s="77" t="str">
+      <c r="L24" s="73"/>
+      <c r="M24" s="84">
+        <v>0</v>
+      </c>
+      <c r="N24" s="77" t="str">
         <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.2.1.2</v>
       </c>
-      <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73" t="s">
+      <c r="P24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73" t="s">
         <v>804</v>
-      </c>
-      <c r="S24" s="73">
-        <v>0.80800000000000005</v>
       </c>
       <c r="T24" s="73">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" t="s">
+        <v>989</v>
+      </c>
+      <c r="E25" s="73">
         <v>6.4</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-7.3</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>68.599999999999994</v>
       </c>
-      <c r="H25" s="73">
+      <c r="I25" s="73">
         <v>931</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73">
+      <c r="K25" s="73"/>
+      <c r="L25" s="73">
         <v>50</v>
       </c>
-      <c r="L25" s="84">
-        <v>0</v>
-      </c>
-      <c r="M25" s="77" t="str">
+      <c r="M25" s="84">
+        <v>0</v>
+      </c>
+      <c r="N25" s="77" t="str">
         <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.37</v>
       </c>
-      <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="Q25" s="73"/>
+      <c r="P25" s="73"/>
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
       <c r="T25" s="73"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="73"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>825</v>
       </c>
-      <c r="D26" s="73">
+      <c r="E26" s="73">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-16.399999999999999</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>51.5</v>
       </c>
-      <c r="H26" s="73">
+      <c r="I26" s="73">
         <v>12.8</v>
       </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73">
+      <c r="K26" s="73"/>
+      <c r="L26" s="73">
         <v>0.125</v>
       </c>
-      <c r="L26" s="84">
+      <c r="M26" s="84">
         <v>-22.476479530989</v>
       </c>
-      <c r="M26" s="77" t="s">
+      <c r="N26" s="77" t="s">
         <v>809</v>
       </c>
-      <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="Q26" s="73"/>
+      <c r="P26" s="73"/>
       <c r="R26" s="73"/>
       <c r="S26" s="73"/>
       <c r="T26" s="73"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="73"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="77" t="s">
         <v>826</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" t="s">
+        <v>989</v>
+      </c>
+      <c r="E27" s="73">
         <v>6.4</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-13.2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>62.1</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>320</v>
       </c>
-      <c r="I27" s="73"/>
       <c r="J27" s="73"/>
       <c r="K27" s="73"/>
-      <c r="L27" s="84">
-        <v>0</v>
-      </c>
-      <c r="M27" s="77" t="str">
+      <c r="L27" s="73"/>
+      <c r="M27" s="84">
+        <v>0</v>
+      </c>
+      <c r="N27" s="77" t="str">
         <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.28</v>
       </c>
-      <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="P27" s="73"/>
       <c r="R27" s="73"/>
       <c r="S27" s="73"/>
       <c r="T27" s="73"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="73"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E28" s="73">
         <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-20.399999999999999</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>28.7</v>
       </c>
-      <c r="H28" s="73">
+      <c r="I28" s="73">
         <v>120</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.02</v>
       </c>
-      <c r="J28" s="73"/>
       <c r="K28" s="73"/>
-      <c r="L28" s="85">
+      <c r="L28" s="73"/>
+      <c r="M28" s="85">
         <v>31.588586774545199</v>
       </c>
-      <c r="M28" s="77" t="str">
+      <c r="N28" s="77" t="str">
         <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.3.1.8</v>
       </c>
-      <c r="N28" s="73"/>
       <c r="O28" s="73"/>
-      <c r="Q28" s="73"/>
+      <c r="P28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="73"/>
       <c r="T28" s="73"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="73"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>214</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="73">
+      <c r="E29" s="73">
         <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>4.3</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-24.3</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>52.1</v>
       </c>
-      <c r="H29" s="73">
+      <c r="I29" s="73">
         <v>280</v>
       </c>
-      <c r="J29" s="73"/>
       <c r="K29" s="73"/>
-      <c r="L29" s="84">
+      <c r="L29" s="73"/>
+      <c r="M29" s="84">
         <v>-31.588586774545199</v>
       </c>
-      <c r="M29" s="77" t="str">
+      <c r="N29" s="77" t="str">
         <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.2.1</v>
       </c>
-      <c r="N29" s="73"/>
       <c r="O29" s="73"/>
-      <c r="Q29" s="73"/>
+      <c r="P29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
       <c r="T29" s="73"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="73"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" t="s">
+        <v>989</v>
+      </c>
+      <c r="E30" s="73">
         <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-4.4000000000000004</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-47.4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>49.2</v>
       </c>
-      <c r="H30" s="73">
+      <c r="I30" s="73">
         <v>15.7</v>
       </c>
-      <c r="J30" s="73"/>
       <c r="K30" s="73"/>
-      <c r="L30" s="84">
-        <v>0</v>
-      </c>
-      <c r="M30" s="77" t="str">
+      <c r="L30" s="73"/>
+      <c r="M30" s="84">
+        <v>0</v>
+      </c>
+      <c r="N30" s="77" t="str">
         <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.2.1.10</v>
       </c>
-      <c r="N30" s="73"/>
       <c r="O30" s="73"/>
-      <c r="Q30" s="73"/>
+      <c r="P30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="73"/>
       <c r="T30" s="73"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="73"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31">
+      <c r="D31" t="s">
+        <v>989</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31">
         <v>-16.600000000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>59.3</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="11">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="H31" s="73">
+      <c r="I31" s="73">
         <v>150.19999999999999</v>
       </c>
-      <c r="J31" s="73"/>
       <c r="K31" s="73"/>
-      <c r="L31" s="84">
-        <v>0</v>
-      </c>
-      <c r="M31" s="77" t="str">
+      <c r="L31" s="73"/>
+      <c r="M31" s="84">
+        <v>0</v>
+      </c>
+      <c r="N31" s="77" t="str">
         <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="N31" s="73"/>
       <c r="O31" s="73"/>
-      <c r="Q31" s="73"/>
+      <c r="P31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="73"/>
       <c r="T31" s="73"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="73"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
         <v>415</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="D32" s="73">
+        <v>981</v>
+      </c>
+      <c r="D32" t="s">
+        <v>989</v>
+      </c>
+      <c r="E32" s="73">
         <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-1.6</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-42.6</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>35.299999999999997</v>
       </c>
-      <c r="H32" s="73">
+      <c r="I32" s="73">
         <v>174</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73">
+      <c r="K32" s="73"/>
+      <c r="L32" s="73">
         <v>0.63</v>
       </c>
-      <c r="L32" s="84">
-        <v>0</v>
-      </c>
-      <c r="M32" s="77" t="str">
+      <c r="M32" s="84">
+        <v>0</v>
+      </c>
+      <c r="N32" s="77" t="str">
         <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.49</v>
       </c>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="Q32" s="73"/>
+      <c r="O32" s="73" t="s">
+        <v>980</v>
+      </c>
+      <c r="P32" s="73"/>
       <c r="R32" s="73"/>
       <c r="S32" s="73"/>
       <c r="T32" s="73"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="73"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
         <v>419</v>
       </c>
       <c r="C33" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" s="73">
         <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-5.0999999999999996</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-39.799999999999997</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-2.1</v>
       </c>
-      <c r="H33" s="73">
+      <c r="I33" s="73">
         <v>25</v>
       </c>
-      <c r="J33" s="73"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="84">
-        <v>0</v>
-      </c>
-      <c r="M33" s="77" t="str">
+      <c r="L33" s="73"/>
+      <c r="M33" s="84">
+        <v>0</v>
+      </c>
+      <c r="N33" s="77" t="str">
         <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.1.1.31</v>
       </c>
-      <c r="N33" s="73"/>
       <c r="O33" s="73"/>
-      <c r="Q33" s="73"/>
+      <c r="P33" s="73"/>
       <c r="R33" s="73"/>
       <c r="S33" s="73"/>
       <c r="T33" s="73"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="73"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>422</v>
       </c>
       <c r="C34" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" t="s">
+        <v>986</v>
+      </c>
+      <c r="E34" s="73">
         <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.9</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-43.6</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>31.7</v>
       </c>
-      <c r="H34" s="73">
+      <c r="I34" s="73">
         <v>75.650000000000006</v>
       </c>
-      <c r="J34" s="73"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="84">
-        <v>0</v>
-      </c>
-      <c r="M34" s="77" t="str">
+      <c r="L34" s="73"/>
+      <c r="M34" s="84">
+        <v>0</v>
+      </c>
+      <c r="N34" s="77" t="str">
         <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.44</v>
       </c>
-      <c r="N34" s="73"/>
       <c r="O34" s="73"/>
-      <c r="Q34" s="73"/>
+      <c r="P34" s="73"/>
       <c r="R34" s="73"/>
       <c r="S34" s="73"/>
       <c r="T34" s="73"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="73"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
         <v>425</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35">
+      <c r="E35" s="73"/>
+      <c r="F35">
         <v>-22.2</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>15.5</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.91</v>
       </c>
-      <c r="H35" s="73">
+      <c r="I35" s="73">
         <v>21.05</v>
       </c>
-      <c r="J35" s="73"/>
       <c r="K35" s="73"/>
-      <c r="L35" s="85">
+      <c r="L35" s="73"/>
+      <c r="M35" s="85">
         <v>-1.2584817406192199</v>
       </c>
-      <c r="M35" s="77" t="str">
+      <c r="N35" s="77" t="str">
         <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.1.3.1</v>
       </c>
-      <c r="N35" s="73"/>
       <c r="O35" s="73"/>
-      <c r="Q35" s="73"/>
+      <c r="P35" s="73"/>
       <c r="R35" s="73"/>
       <c r="S35" s="73"/>
       <c r="T35" s="73"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="73"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
         <v>428</v>
       </c>
       <c r="C36" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="D36" s="73">
+      <c r="E36" s="73">
         <v>0.5</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-16.899999999999999</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>20.8</v>
       </c>
-      <c r="H36" s="73">
+      <c r="I36" s="73">
         <v>2100</v>
       </c>
-      <c r="J36" s="73"/>
       <c r="K36" s="73"/>
-      <c r="L36" s="85">
+      <c r="L36" s="73"/>
+      <c r="M36" s="85">
         <v>-1.2584817406192199</v>
       </c>
-      <c r="M36" s="77" t="str">
+      <c r="N36" s="77" t="str">
         <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>5.3.1.6</v>
       </c>
-      <c r="N36" s="73"/>
       <c r="O36" s="73"/>
-      <c r="Q36" s="73"/>
+      <c r="P36" s="73"/>
       <c r="R36" s="73"/>
       <c r="S36" s="73"/>
       <c r="T36" s="73"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="73"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>431</v>
       </c>
       <c r="C37" s="77" t="s">
         <v>827</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37">
+      <c r="E37" s="73"/>
+      <c r="F37">
         <v>-33.9</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>41.5</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.216</v>
       </c>
-      <c r="I37" s="73">
+      <c r="J37" s="73">
         <v>55.57</v>
       </c>
-      <c r="J37" s="73"/>
       <c r="K37" s="73"/>
-      <c r="L37" s="84">
+      <c r="L37" s="73"/>
+      <c r="M37" s="84">
         <v>0.31321978769724201</v>
       </c>
-      <c r="M37" s="77" t="str">
+      <c r="N37" s="77" t="str">
         <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="N37" s="73"/>
       <c r="O37" s="73"/>
-      <c r="Q37" s="73"/>
+      <c r="P37" s="73"/>
       <c r="R37" s="73"/>
       <c r="S37" s="73"/>
       <c r="T37" s="73"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="73"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>436</v>
       </c>
       <c r="C38" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="D38" s="73">
+      <c r="E38" s="73">
         <v>-1.7</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-38.4</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>36.9</v>
       </c>
-      <c r="H38" s="73">
+      <c r="I38" s="73">
         <v>16.57</v>
       </c>
-      <c r="J38" s="73"/>
       <c r="K38" s="73"/>
-      <c r="L38" s="84">
+      <c r="L38" s="73"/>
+      <c r="M38" s="84">
         <v>-0.31321978769724201</v>
       </c>
-      <c r="M38" s="77" t="str">
+      <c r="N38" s="77" t="str">
         <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.2</v>
       </c>
-      <c r="N38" s="73"/>
       <c r="O38" s="73"/>
-      <c r="Q38" s="73"/>
+      <c r="P38" s="73"/>
       <c r="R38" s="73"/>
       <c r="S38" s="73"/>
       <c r="T38" s="73"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="73"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>434</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>828</v>
       </c>
-      <c r="D39" s="73">
+      <c r="E39" s="73">
         <v>1.7</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-27.7</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>47.7</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1.77E-2</v>
       </c>
-      <c r="I39" s="73">
+      <c r="J39" s="73">
         <v>15.45</v>
       </c>
-      <c r="J39" s="73"/>
       <c r="K39" s="73"/>
-      <c r="L39" s="84">
+      <c r="L39" s="73"/>
+      <c r="M39" s="84">
         <v>0.94526195292197401</v>
       </c>
-      <c r="M39" s="77" t="str">
+      <c r="N39" s="77" t="str">
         <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.2.1.1</v>
       </c>
-      <c r="N39" s="73"/>
       <c r="O39" s="73"/>
-      <c r="Q39" s="73"/>
+      <c r="P39" s="73"/>
       <c r="R39" s="73"/>
       <c r="S39" s="73"/>
       <c r="T39" s="73"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="92" t="s">
         <v>978</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40">
+      <c r="D40" t="s">
+        <v>991</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40">
         <v>24.2</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>122.4</v>
       </c>
-      <c r="G40" s="11">
+      <c r="H40" s="11">
         <v>1.4000000000000001E-15</v>
       </c>
-      <c r="H40" s="73"/>
-      <c r="I40">
+      <c r="I40" s="73"/>
+      <c r="J40">
         <v>26</v>
       </c>
-      <c r="J40" s="73"/>
       <c r="K40" s="73"/>
-      <c r="L40" s="84">
+      <c r="L40" s="73"/>
+      <c r="M40" s="84">
         <v>-20</v>
       </c>
-      <c r="M40" s="77" t="str">
+      <c r="N40" s="77" t="str">
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.5.3</v>
       </c>
-      <c r="N40" s="73" t="s">
+      <c r="O40" s="73" t="s">
         <v>979</v>
       </c>
-      <c r="O40" s="73"/>
-      <c r="Q40" s="73"/>
+      <c r="P40" s="73"/>
       <c r="R40" s="73"/>
       <c r="S40" s="73"/>
       <c r="T40" s="73"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="77" t="s">
+      <c r="U40" s="73"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
         <v>441</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="B41" s="93"/>
+      <c r="C41" s="94" t="s">
         <v>830</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41">
+      <c r="E41" s="73"/>
+      <c r="F41">
         <v>-38.6</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>36.700000000000003</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1.48</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41">
+      <c r="I41" s="73"/>
+      <c r="J41">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="J41" s="73"/>
       <c r="K41" s="73"/>
-      <c r="L41" s="84">
+      <c r="L41" s="73"/>
+      <c r="M41" s="84">
         <v>-100</v>
       </c>
-      <c r="M41" s="77" t="str">
+      <c r="N41" s="77" t="str">
         <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.2</v>
       </c>
-      <c r="N41" s="73"/>
       <c r="O41" s="73"/>
-      <c r="Q41" s="73"/>
+      <c r="P41" s="73"/>
       <c r="R41" s="73"/>
       <c r="S41" s="73"/>
       <c r="T41" s="73"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="U41" s="73"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
         <v>444</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="94" t="s">
         <v>831</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73">
+      <c r="D42" t="s">
+        <v>991</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73">
         <v>-38.6</v>
       </c>
-      <c r="F42" s="73">
+      <c r="G42" s="73">
         <v>36.700000000000003</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1.48</v>
       </c>
-      <c r="H42" s="73">
+      <c r="I42" s="73">
         <v>167.9</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>100</v>
       </c>
-      <c r="J42" s="73"/>
       <c r="K42" s="73"/>
-      <c r="L42" s="84">
+      <c r="L42" s="73"/>
+      <c r="M42" s="84">
         <v>69.980448284876005</v>
       </c>
-      <c r="M42" s="77" t="str">
+      <c r="N42" s="77" t="str">
         <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.1.1</v>
       </c>
-      <c r="N42" s="73"/>
       <c r="O42" s="73"/>
-      <c r="Q42" s="73"/>
+      <c r="P42" s="73"/>
       <c r="R42" s="73"/>
       <c r="S42" s="73"/>
       <c r="T42" s="73"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="73"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43">
+      <c r="E43" s="73"/>
+      <c r="F43">
         <v>-40.200000000000003</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>35.1</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2.82</v>
       </c>
-      <c r="H43" s="73">
+      <c r="I43" s="73">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J43" s="73"/>
       <c r="K43" s="73"/>
-      <c r="L43" s="84">
-        <v>0</v>
-      </c>
-      <c r="M43" s="77" t="str">
+      <c r="L43" s="73"/>
+      <c r="M43" s="84">
+        <v>0</v>
+      </c>
+      <c r="N43" s="77" t="str">
         <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.4.3</v>
       </c>
-      <c r="N43" s="73"/>
       <c r="O43" s="73"/>
-      <c r="Q43" s="73"/>
+      <c r="P43" s="73"/>
       <c r="R43" s="73"/>
       <c r="S43" s="73"/>
       <c r="T43" s="73"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="73"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" t="s">
+        <v>992</v>
+      </c>
+      <c r="E44" s="73">
         <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-6.6</v>
       </c>
-      <c r="H44" s="73">
+      <c r="I44" s="73">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="73"/>
+      <c r="J44">
+        <v>0</v>
+      </c>
       <c r="K44" s="73"/>
-      <c r="L44" s="84">
+      <c r="L44" s="73"/>
+      <c r="M44" s="84">
         <v>8.39</v>
       </c>
-      <c r="M44" s="77"/>
-      <c r="N44" s="73"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="73"/>
-      <c r="Q44" s="73"/>
+      <c r="P44" s="73"/>
       <c r="R44" s="73"/>
       <c r="S44" s="73"/>
       <c r="T44" s="73"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+      <c r="U44" s="73"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="B45" s="93"/>
+      <c r="C45" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="73"/>
-      <c r="E45">
+      <c r="D45" t="s">
+        <v>993</v>
+      </c>
+      <c r="E45" s="73"/>
+      <c r="F45">
         <v>-62.3</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1.5</v>
       </c>
-      <c r="G45" s="11">
+      <c r="H45" s="11">
         <v>42000</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45">
+      <c r="I45" s="73"/>
+      <c r="J45">
         <v>2200</v>
       </c>
-      <c r="J45" s="73"/>
       <c r="K45" s="73"/>
-      <c r="L45" s="84">
+      <c r="L45" s="73"/>
+      <c r="M45" s="84">
         <v>-48.530185510493098</v>
       </c>
-      <c r="M45" s="77" t="str">
+      <c r="N45" s="77" t="str">
         <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.6.3.14</v>
       </c>
-      <c r="N45" s="73"/>
       <c r="O45" s="73"/>
-      <c r="Q45" s="73"/>
+      <c r="P45" s="73"/>
       <c r="R45" s="73"/>
       <c r="S45" s="73"/>
       <c r="T45" s="73"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
+      <c r="U45" s="73"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="B46" s="93"/>
+      <c r="C46" s="94" t="s">
         <v>977</v>
       </c>
-      <c r="D46" s="73">
+      <c r="E46" s="73">
         <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="H46" s="73">
+      <c r="I46" s="73">
         <v>341</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>100</v>
       </c>
-      <c r="J46" s="73"/>
       <c r="K46" s="73"/>
-      <c r="L46" s="84">
+      <c r="L46" s="73"/>
+      <c r="M46" s="84">
         <v>20</v>
       </c>
-      <c r="M46" s="77" t="s">
+      <c r="N46" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="N46" s="73"/>
       <c r="O46" s="73"/>
-      <c r="Q46" s="73"/>
+      <c r="P46" s="73"/>
       <c r="R46" s="73"/>
       <c r="S46" s="73"/>
       <c r="T46" s="73"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="73"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>234</v>
       </c>
       <c r="C47" s="77" t="s">
         <v>832</v>
       </c>
-      <c r="D47" s="73">
+      <c r="E47" s="73">
         <v>6.8</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-7.1</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>55.6</v>
       </c>
-      <c r="I47" s="73">
+      <c r="J47" s="73">
         <v>540</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73">
+      <c r="K47" s="73"/>
+      <c r="L47" s="73">
         <v>18.2</v>
       </c>
-      <c r="L47" s="84">
+      <c r="M47" s="84">
         <v>4.0820119341314696</v>
       </c>
-      <c r="M47" s="77" t="str">
+      <c r="N47" s="77" t="str">
         <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.31</v>
       </c>
-      <c r="N47" s="73"/>
       <c r="O47" s="73"/>
-      <c r="Q47" s="73"/>
+      <c r="P47" s="73"/>
       <c r="R47" s="73"/>
       <c r="S47" s="73"/>
       <c r="T47" s="73"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="73"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>237</v>
       </c>
       <c r="C48" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" t="s">
+        <v>986</v>
+      </c>
+      <c r="E48" s="73">
         <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-44.4</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>30.9</v>
       </c>
-      <c r="H48" s="73">
+      <c r="I48" s="73">
         <v>1</v>
       </c>
-      <c r="J48" s="73"/>
       <c r="K48" s="73"/>
-      <c r="L48" s="84">
-        <v>0</v>
-      </c>
-      <c r="M48" s="77" t="str">
+      <c r="L48" s="73"/>
+      <c r="M48" s="84">
+        <v>0</v>
+      </c>
+      <c r="N48" s="77" t="str">
         <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>4.1.1.49</v>
       </c>
-      <c r="N48" s="73"/>
       <c r="O48" s="73"/>
-      <c r="Q48" s="73"/>
+      <c r="P48" s="73"/>
       <c r="R48" s="73"/>
       <c r="S48" s="73"/>
       <c r="T48" s="73"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="73"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="s">
         <v>254</v>
       </c>
       <c r="C49" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" t="s">
+        <v>986</v>
+      </c>
+      <c r="E49" s="73">
         <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-41.8</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>33.6</v>
       </c>
-      <c r="H49" s="73">
+      <c r="I49" s="73">
         <v>1</v>
       </c>
-      <c r="J49" s="73"/>
       <c r="K49" s="73"/>
-      <c r="L49" s="84">
-        <v>0</v>
-      </c>
-      <c r="M49" s="77" t="str">
+      <c r="L49" s="73"/>
+      <c r="M49" s="84">
+        <v>0</v>
+      </c>
+      <c r="N49" s="77" t="str">
         <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.38</v>
       </c>
-      <c r="N49" s="73"/>
       <c r="O49" s="73"/>
-      <c r="Q49" s="73"/>
+      <c r="P49" s="73"/>
       <c r="R49" s="73"/>
       <c r="S49" s="73"/>
       <c r="T49" s="73"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="73"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="s">
         <v>364</v>
       </c>
       <c r="C50" s="77" t="s">
         <v>367</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" t="s">
+        <v>986</v>
+      </c>
+      <c r="E50" s="73">
         <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>1.6</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-40.799999999999997</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>34.5</v>
       </c>
-      <c r="H50" s="73">
+      <c r="I50" s="73">
         <v>1</v>
       </c>
-      <c r="J50" s="73"/>
       <c r="K50" s="73"/>
-      <c r="L50" s="84">
-        <v>0</v>
-      </c>
-      <c r="M50" s="77" t="str">
+      <c r="L50" s="73"/>
+      <c r="M50" s="84">
+        <v>0</v>
+      </c>
+      <c r="N50" s="77" t="str">
         <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.1.1.40</v>
       </c>
-      <c r="N50" s="73"/>
       <c r="O50" s="73"/>
-      <c r="Q50" s="73"/>
+      <c r="P50" s="73"/>
       <c r="R50" s="73"/>
       <c r="S50" s="73"/>
       <c r="T50" s="73"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="73"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>663</v>
       </c>
       <c r="C51" s="89" t="s">
         <v>665</v>
       </c>
-      <c r="D51" s="73">
+      <c r="E51" s="73">
         <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="73">
+      <c r="I51" s="73">
         <v>1</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="J51" s="73"/>
       <c r="K51" s="73"/>
-      <c r="L51" s="84">
+      <c r="L51" s="73"/>
+      <c r="M51" s="84">
         <v>0.55691231785686302</v>
       </c>
-      <c r="M51" s="77"/>
-      <c r="N51" s="73"/>
+      <c r="N51" s="77"/>
       <c r="O51" s="73"/>
-      <c r="Q51" s="73"/>
+      <c r="P51" s="73"/>
       <c r="R51" s="73"/>
       <c r="S51" s="73"/>
       <c r="T51" s="73"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="73"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="s">
         <v>463</v>
       </c>
       <c r="C52" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="73">
+      <c r="E52" s="73">
         <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="86">
+      <c r="I52" s="86">
         <v>1</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="J52" s="73"/>
       <c r="K52" s="73"/>
-      <c r="L52" s="84">
+      <c r="L52" s="73"/>
+      <c r="M52" s="84">
         <v>10</v>
       </c>
-      <c r="M52" s="77"/>
-      <c r="N52" s="73"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="73"/>
-      <c r="Q52" s="73"/>
+      <c r="P52" s="73"/>
       <c r="R52" s="73"/>
       <c r="S52" s="73"/>
       <c r="T52" s="73"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="73"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="s">
         <v>456</v>
       </c>
       <c r="C53" s="89" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="73">
+      <c r="E53" s="73">
         <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="86">
+      <c r="I53" s="86">
         <v>1</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>1</v>
       </c>
-      <c r="J53" s="73"/>
       <c r="K53" s="73"/>
-      <c r="L53" s="84">
+      <c r="L53" s="73"/>
+      <c r="M53" s="84">
         <v>6.4407022526654396</v>
       </c>
-      <c r="M53" s="77"/>
-      <c r="N53" s="73"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="73"/>
-      <c r="Q53" s="73"/>
+      <c r="P53" s="73"/>
       <c r="R53" s="73"/>
       <c r="S53" s="73"/>
       <c r="T53" s="73"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="73"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="s">
         <v>397</v>
       </c>
       <c r="C54" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="D54" s="73">
+      <c r="E54" s="73">
         <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="86">
+      <c r="I54" s="86">
         <v>1</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1</v>
       </c>
-      <c r="J54" s="73"/>
       <c r="K54" s="73"/>
-      <c r="L54" s="84">
+      <c r="L54" s="73"/>
+      <c r="M54" s="84">
         <v>-5.3354364551731797</v>
       </c>
-      <c r="M54" s="77"/>
-      <c r="N54" s="73"/>
+      <c r="N54" s="77"/>
       <c r="O54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="P54" s="73"/>
       <c r="R54" s="73"/>
       <c r="S54" s="73"/>
       <c r="T54" s="73"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="73"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>343</v>
       </c>
       <c r="C55" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="D55" s="73">
-        <v>0</v>
-      </c>
-      <c r="H55" s="86">
+      <c r="D55" t="s">
+        <v>991</v>
+      </c>
+      <c r="E55" s="73">
+        <v>0</v>
+      </c>
+      <c r="I55" s="86">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1</v>
       </c>
-      <c r="J55" s="73"/>
       <c r="K55" s="73"/>
-      <c r="L55" s="84">
-        <v>0</v>
-      </c>
-      <c r="M55" s="77"/>
-      <c r="N55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="84">
+        <v>0</v>
+      </c>
+      <c r="N55" s="77"/>
       <c r="O55" s="73"/>
-      <c r="Q55" s="73"/>
+      <c r="P55" s="73"/>
       <c r="R55" s="73"/>
       <c r="S55" s="73"/>
       <c r="T55" s="73"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="73"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>346</v>
       </c>
       <c r="C56" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="D56" s="73">
-        <v>0</v>
-      </c>
-      <c r="H56" s="86">
+      <c r="D56" t="s">
+        <v>991</v>
+      </c>
+      <c r="E56" s="73">
+        <v>0</v>
+      </c>
+      <c r="I56" s="86">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1</v>
       </c>
-      <c r="J56" s="73"/>
       <c r="K56" s="73"/>
-      <c r="L56" s="84">
-        <v>0</v>
-      </c>
-      <c r="M56" s="77"/>
-      <c r="N56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="84">
+        <v>0</v>
+      </c>
+      <c r="N56" s="77"/>
       <c r="O56" s="73"/>
-      <c r="Q56" s="73"/>
+      <c r="P56" s="73"/>
       <c r="R56" s="73"/>
       <c r="S56" s="73"/>
       <c r="T56" s="73"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="73"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>349</v>
       </c>
       <c r="C57" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="D57" s="73">
-        <v>0</v>
-      </c>
-      <c r="H57" s="86">
+      <c r="D57" t="s">
+        <v>991</v>
+      </c>
+      <c r="E57" s="73">
+        <v>0</v>
+      </c>
+      <c r="I57" s="86">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>1</v>
       </c>
-      <c r="J57" s="73"/>
       <c r="K57" s="73"/>
-      <c r="L57" s="84">
-        <v>0</v>
-      </c>
-      <c r="M57" s="77"/>
-      <c r="N57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="84">
+        <v>0</v>
+      </c>
+      <c r="N57" s="77"/>
       <c r="O57" s="73"/>
-      <c r="Q57" s="73"/>
+      <c r="P57" s="73"/>
       <c r="R57" s="73"/>
       <c r="S57" s="73"/>
       <c r="T57" s="73"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="73"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
         <v>353</v>
       </c>
       <c r="C58" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="D58" s="73">
+      <c r="D58" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E58" s="73">
         <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="86">
+      <c r="I58" s="86">
         <v>1</v>
       </c>
-      <c r="I58" s="73">
+      <c r="J58" s="73">
         <v>1</v>
       </c>
-      <c r="J58" s="73"/>
       <c r="K58" s="73"/>
-      <c r="L58" s="84">
-        <v>0</v>
-      </c>
-      <c r="M58" s="77"/>
-      <c r="N58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="84">
+        <v>0</v>
+      </c>
+      <c r="N58" s="77"/>
       <c r="O58" s="73"/>
-      <c r="Q58" s="73"/>
+      <c r="P58" s="73"/>
       <c r="R58" s="73"/>
       <c r="S58" s="73"/>
       <c r="T58" s="73"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="73"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="s">
         <v>356</v>
       </c>
       <c r="C59" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D59" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E59" s="73">
         <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="86">
+      <c r="I59" s="86">
         <v>1</v>
       </c>
-      <c r="I59" s="73">
-        <v>0</v>
-      </c>
-      <c r="J59" s="73"/>
+      <c r="J59" s="73">
+        <v>0</v>
+      </c>
       <c r="K59" s="73"/>
-      <c r="L59" s="84">
-        <v>0</v>
-      </c>
-      <c r="M59" s="77"/>
-      <c r="N59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="84">
+        <v>0</v>
+      </c>
+      <c r="N59" s="77"/>
       <c r="O59" s="73"/>
-      <c r="Q59" s="73"/>
+      <c r="P59" s="73"/>
       <c r="R59" s="73"/>
       <c r="S59" s="73"/>
       <c r="T59" s="73"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="73"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="78" t="s">
         <v>360</v>
       </c>
       <c r="C60" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D60" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E60" s="73">
         <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="86">
+      <c r="I60" s="86">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" s="73"/>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60" s="73"/>
-      <c r="L60" s="84">
-        <v>0</v>
-      </c>
-      <c r="M60" s="77"/>
-      <c r="N60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="84">
+        <v>0</v>
+      </c>
+      <c r="N60" s="77"/>
       <c r="O60" s="73"/>
-      <c r="Q60" s="73"/>
+      <c r="P60" s="73"/>
       <c r="R60" s="73"/>
       <c r="S60" s="73"/>
       <c r="T60" s="73"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="73"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>368</v>
       </c>
       <c r="C61" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="D61" s="73">
+      <c r="D61" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E61" s="73">
         <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="86">
+      <c r="I61" s="86">
         <v>1</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1</v>
       </c>
-      <c r="J61" s="73"/>
       <c r="K61" s="73"/>
-      <c r="L61" s="84">
-        <v>0</v>
-      </c>
-      <c r="M61" s="77"/>
-      <c r="N61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="84">
+        <v>0</v>
+      </c>
+      <c r="N61" s="77"/>
       <c r="O61" s="73"/>
-      <c r="Q61" s="73"/>
+      <c r="P61" s="73"/>
       <c r="R61" s="73"/>
       <c r="S61" s="73"/>
       <c r="T61" s="73"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="73"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="78" t="s">
         <v>378</v>
       </c>
       <c r="C62" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D62" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E62" s="73">
         <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="86">
+      <c r="I62" s="86">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" s="73"/>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62" s="73"/>
-      <c r="L62" s="84">
-        <v>0</v>
-      </c>
-      <c r="M62" s="77"/>
-      <c r="N62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="84">
+        <v>0</v>
+      </c>
+      <c r="N62" s="77"/>
       <c r="O62" s="73"/>
-      <c r="Q62" s="73"/>
+      <c r="P62" s="73"/>
       <c r="R62" s="73"/>
       <c r="S62" s="73"/>
       <c r="T62" s="73"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="73"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="78" t="s">
         <v>381</v>
       </c>
       <c r="C63" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="D63" s="73">
+      <c r="E63" s="73">
         <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="86">
+      <c r="I63" s="86">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" s="73"/>
+      <c r="J63">
+        <v>0</v>
+      </c>
       <c r="K63" s="73"/>
-      <c r="L63" s="84">
+      <c r="L63" s="73"/>
+      <c r="M63" s="84">
         <v>22.476479530989</v>
       </c>
-      <c r="M63" s="77"/>
-      <c r="N63" s="73"/>
+      <c r="N63" s="77"/>
       <c r="O63" s="73"/>
-      <c r="Q63" s="73"/>
+      <c r="P63" s="73"/>
       <c r="R63" s="73"/>
       <c r="S63" s="73"/>
       <c r="T63" s="73"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="73"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>384</v>
       </c>
       <c r="C64" s="89" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="73">
+      <c r="E64" s="73">
         <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="86">
+      <c r="I64" s="86">
         <v>1</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="J64" s="73"/>
       <c r="K64" s="73"/>
-      <c r="L64" s="84">
-        <v>0</v>
-      </c>
-      <c r="M64" s="77"/>
-      <c r="N64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="84">
+        <v>0</v>
+      </c>
+      <c r="N64" s="77"/>
       <c r="O64" s="73"/>
-      <c r="Q64" s="73"/>
+      <c r="P64" s="73"/>
       <c r="R64" s="73"/>
       <c r="S64" s="73"/>
       <c r="T64" s="73"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="73"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>387</v>
       </c>
       <c r="C65" s="89" t="s">
         <v>389</v>
       </c>
-      <c r="D65" s="73">
+      <c r="D65" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E65" s="73">
         <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="86">
+      <c r="I65" s="86">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1</v>
       </c>
-      <c r="J65" s="73"/>
       <c r="K65" s="73"/>
-      <c r="L65" s="84">
+      <c r="L65" s="73"/>
+      <c r="M65" s="84">
         <v>-31.588586774545199</v>
       </c>
-      <c r="M65" s="77"/>
-      <c r="N65" s="73"/>
+      <c r="N65" s="77"/>
       <c r="O65" s="73"/>
-      <c r="Q65" s="73"/>
+      <c r="P65" s="73"/>
       <c r="R65" s="73"/>
       <c r="S65" s="73"/>
       <c r="T65" s="73"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="73"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="78" t="s">
         <v>390</v>
       </c>
       <c r="C66" s="90" t="s">
         <v>392</v>
       </c>
-      <c r="D66" s="73">
+      <c r="E66" s="73">
         <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="86">
+      <c r="I66" s="86">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1</v>
       </c>
-      <c r="J66" s="73"/>
       <c r="K66" s="73"/>
-      <c r="L66" s="84">
-        <v>0</v>
-      </c>
-      <c r="M66" s="77"/>
-      <c r="N66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="84">
+        <v>0</v>
+      </c>
+      <c r="N66" s="77"/>
       <c r="O66" s="73"/>
-      <c r="Q66" s="73"/>
+      <c r="P66" s="73"/>
       <c r="R66" s="73"/>
       <c r="S66" s="73"/>
       <c r="T66" s="73"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="73"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="s">
         <v>401</v>
       </c>
       <c r="C67" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="73">
-        <v>0</v>
-      </c>
-      <c r="H67" s="73"/>
-      <c r="J67" s="73"/>
+      <c r="E67" s="73">
+        <v>0</v>
+      </c>
+      <c r="I67" s="73"/>
       <c r="K67" s="73"/>
-      <c r="L67" s="84">
-        <v>0</v>
-      </c>
-      <c r="M67" s="77"/>
-      <c r="N67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="84">
+        <v>0</v>
+      </c>
+      <c r="N67" s="77"/>
       <c r="O67" s="73"/>
-      <c r="Q67" s="73"/>
+      <c r="P67" s="73"/>
       <c r="R67" s="73"/>
       <c r="S67" s="73"/>
       <c r="T67" s="73"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="73"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="s">
         <v>402</v>
       </c>
       <c r="C68" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="73">
-        <v>0</v>
-      </c>
-      <c r="H68" s="73"/>
-      <c r="J68" s="73"/>
+      <c r="E68" s="73">
+        <v>0</v>
+      </c>
+      <c r="I68" s="73"/>
       <c r="K68" s="73"/>
-      <c r="L68" s="84">
-        <v>0</v>
-      </c>
-      <c r="M68" s="77"/>
-      <c r="N68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="84">
+        <v>0</v>
+      </c>
+      <c r="N68" s="77"/>
       <c r="O68" s="73"/>
-      <c r="Q68" s="73"/>
+      <c r="P68" s="73"/>
       <c r="R68" s="73"/>
       <c r="S68" s="73"/>
       <c r="T68" s="73"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="73"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="s">
         <v>403</v>
       </c>
       <c r="C69" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="73">
-        <v>0</v>
-      </c>
-      <c r="H69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="E69" s="73">
+        <v>0</v>
+      </c>
+      <c r="I69" s="73"/>
       <c r="K69" s="73"/>
-      <c r="L69" s="84">
-        <v>0</v>
-      </c>
-      <c r="M69" s="77"/>
-      <c r="N69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="84">
+        <v>0</v>
+      </c>
+      <c r="N69" s="77"/>
       <c r="O69" s="73"/>
-      <c r="Q69" s="73"/>
+      <c r="P69" s="73"/>
       <c r="R69" s="73"/>
       <c r="S69" s="73"/>
       <c r="T69" s="73"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="73"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="s">
         <v>404</v>
       </c>
       <c r="C70" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="73">
-        <v>0</v>
-      </c>
-      <c r="H70" s="73"/>
-      <c r="J70" s="73"/>
+      <c r="E70" s="73">
+        <v>0</v>
+      </c>
+      <c r="I70" s="73"/>
       <c r="K70" s="73"/>
-      <c r="L70" s="84">
-        <v>0</v>
-      </c>
-      <c r="M70" s="77"/>
-      <c r="N70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="84">
+        <v>0</v>
+      </c>
+      <c r="N70" s="77"/>
       <c r="O70" s="73"/>
-      <c r="Q70" s="73"/>
+      <c r="P70" s="73"/>
       <c r="R70" s="73"/>
       <c r="S70" s="73"/>
       <c r="T70" s="73"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="73"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="s">
         <v>405</v>
       </c>
       <c r="C71" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="D71" s="73">
-        <v>0</v>
-      </c>
-      <c r="H71" s="73"/>
-      <c r="J71" s="73"/>
+      <c r="E71" s="73">
+        <v>0</v>
+      </c>
+      <c r="I71" s="73"/>
       <c r="K71" s="73"/>
-      <c r="L71" s="84">
-        <v>0</v>
-      </c>
-      <c r="M71" s="77"/>
-      <c r="N71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="84">
+        <v>0</v>
+      </c>
+      <c r="N71" s="77"/>
       <c r="O71" s="73"/>
-      <c r="Q71" s="73"/>
+      <c r="P71" s="73"/>
       <c r="R71" s="73"/>
       <c r="S71" s="73"/>
       <c r="T71" s="73"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="73"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="s">
         <v>406</v>
       </c>
       <c r="C72" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="73">
-        <v>0</v>
-      </c>
-      <c r="H72" s="73"/>
-      <c r="J72" s="73"/>
+      <c r="E72" s="73">
+        <v>0</v>
+      </c>
+      <c r="I72" s="73"/>
       <c r="K72" s="73"/>
-      <c r="L72" s="84">
-        <v>0</v>
-      </c>
-      <c r="M72" s="77"/>
-      <c r="N72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="84">
+        <v>0</v>
+      </c>
+      <c r="N72" s="77"/>
       <c r="O72" s="73"/>
-      <c r="Q72" s="73"/>
+      <c r="P72" s="73"/>
       <c r="R72" s="73"/>
       <c r="S72" s="73"/>
       <c r="T72" s="73"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="73"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="s">
         <v>407</v>
       </c>
       <c r="C73" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="E73" s="73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="73"/>
       <c r="K73" s="73"/>
-      <c r="L73" s="84">
+      <c r="L73" s="73"/>
+      <c r="M73" s="84">
         <v>22.476479530989</v>
       </c>
-      <c r="M73" s="77"/>
-      <c r="N73" s="73"/>
+      <c r="N73" s="77"/>
       <c r="O73" s="73"/>
-      <c r="Q73" s="73"/>
+      <c r="P73" s="73"/>
       <c r="R73" s="73"/>
       <c r="S73" s="73"/>
       <c r="T73" s="73"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="73"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="s">
         <v>408</v>
       </c>
       <c r="C74" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="73">
-        <v>0</v>
-      </c>
-      <c r="H74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="E74" s="73">
+        <v>0</v>
+      </c>
+      <c r="I74" s="73"/>
       <c r="K74" s="73"/>
-      <c r="L74" s="84">
-        <v>0</v>
-      </c>
-      <c r="M74" s="77"/>
-      <c r="N74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="84">
+        <v>0</v>
+      </c>
+      <c r="N74" s="77"/>
       <c r="O74" s="73"/>
-      <c r="Q74" s="73"/>
+      <c r="P74" s="73"/>
       <c r="R74" s="73"/>
       <c r="S74" s="73"/>
       <c r="T74" s="73"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="73"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="s">
         <v>409</v>
       </c>
       <c r="C75" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="D75" s="73">
-        <v>0</v>
-      </c>
-      <c r="H75" s="73"/>
-      <c r="J75" s="73"/>
+      <c r="E75" s="73">
+        <v>0</v>
+      </c>
+      <c r="I75" s="73"/>
       <c r="K75" s="73"/>
-      <c r="L75" s="84">
+      <c r="L75" s="73"/>
+      <c r="M75" s="84">
         <v>31.588586774545199</v>
       </c>
-      <c r="M75" s="77"/>
-      <c r="N75" s="73"/>
+      <c r="N75" s="77"/>
       <c r="O75" s="73"/>
-      <c r="Q75" s="73"/>
+      <c r="P75" s="73"/>
       <c r="R75" s="73"/>
       <c r="S75" s="73"/>
       <c r="T75" s="73"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="73"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="s">
         <v>410</v>
       </c>
       <c r="C76" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="73">
-        <v>0</v>
-      </c>
-      <c r="H76" s="73"/>
-      <c r="J76" s="73"/>
+      <c r="E76" s="73">
+        <v>0</v>
+      </c>
+      <c r="I76" s="73"/>
       <c r="K76" s="73"/>
-      <c r="L76" s="84">
-        <v>0</v>
-      </c>
-      <c r="M76" s="77"/>
-      <c r="N76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="84">
+        <v>0</v>
+      </c>
+      <c r="N76" s="77"/>
       <c r="O76" s="73"/>
-      <c r="Q76" s="73"/>
+      <c r="P76" s="73"/>
       <c r="R76" s="73"/>
       <c r="S76" s="73"/>
       <c r="T76" s="73"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="73"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="s">
         <v>411</v>
       </c>
       <c r="C77" s="91" t="s">
         <v>794</v>
       </c>
-      <c r="D77" s="73">
-        <v>0</v>
-      </c>
-      <c r="H77" s="73"/>
-      <c r="J77" s="73"/>
+      <c r="E77" s="73">
+        <v>0</v>
+      </c>
+      <c r="I77" s="73"/>
       <c r="K77" s="73"/>
-      <c r="L77" s="84">
+      <c r="L77" s="73"/>
+      <c r="M77" s="84">
         <v>-20</v>
       </c>
-      <c r="M77" s="77"/>
-      <c r="N77" s="73"/>
+      <c r="N77" s="77"/>
       <c r="O77" s="73"/>
-      <c r="Q77" s="73"/>
+      <c r="P77" s="73"/>
       <c r="R77" s="73"/>
       <c r="S77" s="73"/>
       <c r="T77" s="73"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="73"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="77" t="s">
         <v>412</v>
       </c>
       <c r="C78" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D78" s="73">
-        <v>0</v>
-      </c>
-      <c r="H78" s="73"/>
-      <c r="J78" s="73"/>
+      <c r="E78" s="73">
+        <v>0</v>
+      </c>
+      <c r="I78" s="73"/>
       <c r="K78" s="73"/>
-      <c r="L78" s="84">
+      <c r="L78" s="73"/>
+      <c r="M78" s="84">
         <v>5.3354364551731797</v>
       </c>
-      <c r="M78" s="77"/>
-      <c r="N78" s="73"/>
+      <c r="N78" s="77"/>
       <c r="O78" s="73"/>
-      <c r="Q78" s="73"/>
+      <c r="P78" s="73"/>
       <c r="R78" s="73"/>
       <c r="S78" s="73"/>
       <c r="T78" s="73"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="73"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="s">
         <v>413</v>
       </c>
       <c r="C79" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="73">
-        <v>0</v>
-      </c>
-      <c r="H79" s="73"/>
-      <c r="J79" s="73"/>
+      <c r="E79" s="73">
+        <v>0</v>
+      </c>
+      <c r="I79" s="73"/>
       <c r="K79" s="73"/>
-      <c r="L79" s="84">
+      <c r="L79" s="73"/>
+      <c r="M79" s="84">
         <v>70.988039049659307</v>
       </c>
-      <c r="M79" s="77"/>
-      <c r="N79" s="73"/>
+      <c r="N79" s="77"/>
       <c r="O79" s="73"/>
-      <c r="Q79" s="73"/>
+      <c r="P79" s="73"/>
       <c r="R79" s="73"/>
       <c r="S79" s="73"/>
       <c r="T79" s="73"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="73"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="s">
         <v>414</v>
       </c>
       <c r="C80" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="D80" s="73">
-        <v>0</v>
-      </c>
-      <c r="H80" s="73"/>
-      <c r="J80" s="73"/>
+      <c r="E80" s="73">
+        <v>0</v>
+      </c>
+      <c r="I80" s="73"/>
       <c r="K80" s="73"/>
-      <c r="L80" s="84">
+      <c r="L80" s="73"/>
+      <c r="M80" s="84">
         <v>-0.55691231785686302</v>
       </c>
-      <c r="M80" s="77"/>
-      <c r="N80" s="73"/>
+      <c r="N80" s="77"/>
       <c r="O80" s="73"/>
-      <c r="Q80" s="73"/>
+      <c r="P80" s="73"/>
       <c r="R80" s="73"/>
       <c r="S80" s="73"/>
       <c r="T80" s="73"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="73"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="s">
         <v>460</v>
       </c>
       <c r="C81" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="73">
-        <v>0</v>
-      </c>
-      <c r="H81" s="73"/>
-      <c r="J81" s="73"/>
+      <c r="E81" s="73">
+        <v>0</v>
+      </c>
+      <c r="I81" s="73"/>
       <c r="K81" s="73"/>
-      <c r="L81" s="84">
+      <c r="L81" s="73"/>
+      <c r="M81" s="84">
         <v>-6.4407022526654396</v>
       </c>
-      <c r="M81" s="77"/>
-      <c r="N81" s="73"/>
+      <c r="N81" s="77"/>
       <c r="O81" s="73"/>
-      <c r="Q81" s="73"/>
+      <c r="P81" s="73"/>
       <c r="R81" s="73"/>
       <c r="S81" s="73"/>
       <c r="T81" s="73"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="73"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="s">
         <v>461</v>
       </c>
       <c r="C82" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="D82" s="73">
-        <v>0</v>
-      </c>
-      <c r="H82" s="73"/>
-      <c r="J82" s="73"/>
+      <c r="E82" s="73">
+        <v>0</v>
+      </c>
+      <c r="I82" s="73"/>
       <c r="K82" s="73"/>
-      <c r="L82" s="84">
+      <c r="L82" s="73"/>
+      <c r="M82" s="84">
         <v>-10</v>
       </c>
-      <c r="M82" s="77"/>
-      <c r="N82" s="73"/>
+      <c r="N82" s="77"/>
       <c r="O82" s="73"/>
-      <c r="Q82" s="73"/>
+      <c r="P82" s="73"/>
       <c r="R82" s="73"/>
       <c r="S82" s="73"/>
       <c r="T82" s="73"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="73"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="78" t="s">
         <v>179</v>
       </c>
       <c r="C83" s="78" t="s">
         <v>793</v>
       </c>
-      <c r="D83" s="73">
-        <v>0</v>
-      </c>
-      <c r="H83" s="73"/>
-      <c r="J83" s="73"/>
+      <c r="E83" s="73">
+        <v>0</v>
+      </c>
+      <c r="I83" s="73"/>
       <c r="K83" s="73"/>
-      <c r="L83" s="84">
+      <c r="L83" s="73"/>
+      <c r="M83" s="84">
         <v>1.7508093219521601</v>
       </c>
-      <c r="M83" s="73"/>
       <c r="N83" s="73"/>
       <c r="O83" s="73"/>
-      <c r="Q83" s="73"/>
+      <c r="P83" s="73"/>
       <c r="R83" s="73"/>
       <c r="S83" s="73"/>
       <c r="T83" s="73"/>
+      <c r="U83" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="998">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3058,6 +3058,18 @@
   </si>
   <si>
     <t>h[c],pi[c]</t>
+  </si>
+  <si>
+    <t>0.6,1,1,0.1,1,4.2</t>
+  </si>
+  <si>
+    <t>2.2e-5,1</t>
+  </si>
+  <si>
+    <t>1,0.02,1,0.02</t>
+  </si>
+  <si>
+    <t>1,2.2e-5</t>
   </si>
 </sst>
 </file>
@@ -3295,7 +3307,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4783,8 +4795,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7324,7 +7336,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7336,7 +7348,7 @@
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
@@ -7473,7 +7485,7 @@
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
       <c r="M3" s="84">
-        <v>19.641084088999801</v>
+        <v>1.37855905020609</v>
       </c>
       <c r="N3" s="77" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7517,7 +7529,7 @@
       <c r="K4" s="73"/>
       <c r="L4" s="73"/>
       <c r="M4" s="84">
-        <v>18.2584699674542</v>
+        <v>11.639423575531699</v>
       </c>
       <c r="N4" s="77" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7605,7 +7617,7 @@
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="84">
-        <v>18.2584699674542</v>
+        <v>11.639423575531699</v>
       </c>
       <c r="N6" s="77" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7647,7 +7659,7 @@
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
       <c r="M7" s="85">
-        <v>-18.2584699674542</v>
+        <v>-11.639423575531699</v>
       </c>
       <c r="N7" s="77" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7692,7 +7704,7 @@
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
       <c r="M8" s="84">
-        <v>35.345823579454603</v>
+        <v>27.772223526897601</v>
       </c>
       <c r="N8" s="77" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7734,7 +7746,7 @@
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
       <c r="M9" s="84">
-        <v>-35.345823579454603</v>
+        <v>-27.772223526897601</v>
       </c>
       <c r="N9" s="77" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7775,7 +7787,7 @@
       <c r="K10" s="73"/>
       <c r="L10" s="73"/>
       <c r="M10" s="84">
-        <v>-32.726612833814102</v>
+        <v>-24.294625983764298</v>
       </c>
       <c r="N10" s="77" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7817,7 +7829,7 @@
       <c r="K11" s="73"/>
       <c r="L11" s="73"/>
       <c r="M11" s="84">
-        <v>32.726612833814102</v>
+        <v>24.294625983764298</v>
       </c>
       <c r="N11" s="77" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7861,7 +7873,7 @@
         <v>0.97</v>
       </c>
       <c r="M12" s="84">
-        <v>-15.8997796489202</v>
+        <v>-8.5077261088811902</v>
       </c>
       <c r="N12" s="77" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -7951,7 +7963,7 @@
       <c r="K14" s="73"/>
       <c r="L14" s="73"/>
       <c r="M14" s="84">
-        <v>8.4636074707051101</v>
+        <v>0</v>
       </c>
       <c r="N14" s="77" t="s">
         <v>820</v>
@@ -7991,7 +8003,7 @@
       <c r="K15" s="73"/>
       <c r="L15" s="73"/>
       <c r="M15" s="84">
-        <v>7.2101829496634</v>
+        <v>6.0051760006096302</v>
       </c>
       <c r="N15" s="77" t="s">
         <v>811</v>
@@ -8032,7 +8044,7 @@
       <c r="K16" s="73"/>
       <c r="L16" s="73"/>
       <c r="M16" s="84">
-        <v>-7.2101829496634</v>
+        <v>-6.0051760006096302</v>
       </c>
       <c r="N16" s="77" t="str">
         <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8077,7 +8089,7 @@
       <c r="K17" s="73"/>
       <c r="L17" s="73"/>
       <c r="M17" s="84">
-        <v>-7.2101829496634</v>
+        <v>-6.0051760006096302</v>
       </c>
       <c r="N17" s="77" t="str">
         <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8207,7 +8219,7 @@
       <c r="K20" s="73"/>
       <c r="L20" s="73"/>
       <c r="M20" s="84">
-        <v>0</v>
+        <v>3.5679805516174299</v>
       </c>
       <c r="N20" s="77" t="s">
         <v>808</v>
@@ -8251,7 +8263,7 @@
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
       <c r="M21" s="84">
-        <v>0</v>
+        <v>-3.5679805516174299</v>
       </c>
       <c r="N21" s="77" t="str">
         <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8292,7 +8304,7 @@
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
       <c r="M22" s="84">
-        <v>100</v>
+        <v>3.5679805516174299</v>
       </c>
       <c r="N22" s="77" t="str">
         <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8333,7 +8345,7 @@
       <c r="K23" s="73"/>
       <c r="L23" s="73"/>
       <c r="M23" s="84">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="77" t="str">
         <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8374,7 +8386,7 @@
       <c r="K24" s="73"/>
       <c r="L24" s="73"/>
       <c r="M24" s="84">
-        <v>0</v>
+        <v>-3.5679805516174299</v>
       </c>
       <c r="N24" s="77" t="str">
         <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8420,7 +8432,7 @@
         <v>50</v>
       </c>
       <c r="M25" s="84">
-        <v>0</v>
+        <v>3.5679805516174299</v>
       </c>
       <c r="N25" s="77" t="str">
         <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8457,7 +8469,7 @@
         <v>0.125</v>
       </c>
       <c r="M26" s="84">
-        <v>-22.476479530989</v>
+        <v>-21.922606910894501</v>
       </c>
       <c r="N26" s="77" t="s">
         <v>809</v>
@@ -8537,7 +8549,7 @@
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
       <c r="M28" s="85">
-        <v>31.588586774545199</v>
+        <v>19.215657194822899</v>
       </c>
       <c r="N28" s="77" t="str">
         <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8573,7 +8585,7 @@
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
       <c r="M29" s="84">
-        <v>-31.588586774545199</v>
+        <v>-19.215657194822899</v>
       </c>
       <c r="N29" s="77" t="str">
         <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8692,7 +8704,7 @@
         <v>0.63</v>
       </c>
       <c r="M32" s="84">
-        <v>0</v>
+        <v>18.144898505714799</v>
       </c>
       <c r="N32" s="77" t="str">
         <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8733,7 +8745,7 @@
       <c r="K33" s="73"/>
       <c r="L33" s="73"/>
       <c r="M33" s="84">
-        <v>0</v>
+        <v>18.144898505714799</v>
       </c>
       <c r="N33" s="77" t="str">
         <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8772,7 +8784,7 @@
       <c r="K34" s="73"/>
       <c r="L34" s="73"/>
       <c r="M34" s="84">
-        <v>0</v>
+        <v>18.144898505714799</v>
       </c>
       <c r="N34" s="77" t="str">
         <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8808,7 +8820,7 @@
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
       <c r="M35" s="85">
-        <v>-1.2584817406192199</v>
+        <v>10.425678473058399</v>
       </c>
       <c r="N35" s="77" t="str">
         <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8843,7 +8855,7 @@
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
       <c r="M36" s="85">
-        <v>-1.2584817406192199</v>
+        <v>-7.7192200326564304</v>
       </c>
       <c r="N36" s="77" t="str">
         <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8879,7 +8891,7 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="84">
-        <v>0.31321978769724201</v>
+        <v>-5.6324290470476202</v>
       </c>
       <c r="N37" s="77" t="str">
         <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8914,7 +8926,7 @@
       <c r="K38" s="73"/>
       <c r="L38" s="73"/>
       <c r="M38" s="84">
-        <v>-0.31321978769724201</v>
+        <v>5.6324290470476202</v>
       </c>
       <c r="N38" s="77" t="str">
         <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8952,7 +8964,7 @@
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
       <c r="M39" s="84">
-        <v>0.94526195292197401</v>
+        <v>-4.7932494260107603</v>
       </c>
       <c r="N39" s="77" t="str">
         <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -8993,7 +9005,7 @@
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
       <c r="M40" s="84">
-        <v>-20</v>
+        <v>-43.153531211344998</v>
       </c>
       <c r="N40" s="77" t="str">
         <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -9033,7 +9045,7 @@
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
       <c r="M41" s="84">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="77" t="str">
         <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -9076,7 +9088,7 @@
       <c r="K42" s="73"/>
       <c r="L42" s="73"/>
       <c r="M42" s="84">
-        <v>69.980448284876005</v>
+        <v>0</v>
       </c>
       <c r="N42" s="77" t="str">
         <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -9186,13 +9198,15 @@
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
       <c r="M45" s="84">
-        <v>-48.530185510493098</v>
+        <v>-100</v>
       </c>
       <c r="N45" s="77" t="str">
         <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>3.6.3.14</v>
       </c>
-      <c r="O45" s="73"/>
+      <c r="O45" s="73" t="s">
+        <v>994</v>
+      </c>
       <c r="P45" s="73"/>
       <c r="R45" s="73"/>
       <c r="S45" s="73"/>
@@ -9220,7 +9234,7 @@
       <c r="K46" s="73"/>
       <c r="L46" s="73"/>
       <c r="M46" s="84">
-        <v>20</v>
+        <v>46.7215117629625</v>
       </c>
       <c r="N46" s="77" t="s">
         <v>810</v>
@@ -9239,6 +9253,9 @@
       <c r="C47" s="77" t="s">
         <v>832</v>
       </c>
+      <c r="D47" t="s">
+        <v>988</v>
+      </c>
       <c r="E47" s="73">
         <v>6.8</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>18.2</v>
       </c>
       <c r="M47" s="84">
-        <v>4.0820119341314696</v>
+        <v>5.4197985774166799</v>
       </c>
       <c r="N47" s="77" t="str">
         <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -9406,7 +9423,7 @@
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="84">
-        <v>0.55691231785686302</v>
+        <v>-13.3040694607334</v>
       </c>
       <c r="N51" s="77"/>
       <c r="O51" s="73"/>
@@ -9436,10 +9453,12 @@
       <c r="K52" s="73"/>
       <c r="L52" s="73"/>
       <c r="M52" s="84">
-        <v>10</v>
+        <v>23.3607558814812</v>
       </c>
       <c r="N52" s="77"/>
-      <c r="O52" s="73"/>
+      <c r="O52" s="73" t="s">
+        <v>995</v>
+      </c>
       <c r="P52" s="73"/>
       <c r="R52" s="73"/>
       <c r="S52" s="73"/>
@@ -9457,19 +9476,21 @@
         <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="86">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
+      <c r="I53" s="11">
+        <v>6.4800000000000004E-10</v>
+      </c>
+      <c r="J53" s="11">
+        <v>6.4800000000000004E-10</v>
       </c>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="84">
-        <v>6.4407022526654396</v>
+        <v>8.5514960440672301</v>
       </c>
       <c r="N53" s="77"/>
-      <c r="O53" s="73"/>
+      <c r="O53" s="11" t="s">
+        <v>996</v>
+      </c>
       <c r="P53" s="73"/>
       <c r="R53" s="73"/>
       <c r="S53" s="73"/>
@@ -9496,10 +9517,12 @@
       <c r="K54" s="73"/>
       <c r="L54" s="73"/>
       <c r="M54" s="84">
-        <v>-5.3354364551731797</v>
+        <v>-21.1275016341393</v>
       </c>
       <c r="N54" s="77"/>
-      <c r="O54" s="73"/>
+      <c r="O54" s="73" t="s">
+        <v>997</v>
+      </c>
       <c r="P54" s="73"/>
       <c r="R54" s="73"/>
       <c r="S54" s="73"/>
@@ -9787,7 +9810,7 @@
       <c r="K63" s="73"/>
       <c r="L63" s="73"/>
       <c r="M63" s="84">
-        <v>22.476479530989</v>
+        <v>21.922606910894501</v>
       </c>
       <c r="N63" s="77"/>
       <c r="O63" s="73"/>
@@ -9850,7 +9873,7 @@
       <c r="K65" s="73"/>
       <c r="L65" s="73"/>
       <c r="M65" s="84">
-        <v>-31.588586774545199</v>
+        <v>-19.215657194822899</v>
       </c>
       <c r="N65" s="77"/>
       <c r="O65" s="73"/>
@@ -10048,7 +10071,7 @@
       <c r="K73" s="73"/>
       <c r="L73" s="73"/>
       <c r="M73" s="84">
-        <v>22.476479530989</v>
+        <v>21.922606910894501</v>
       </c>
       <c r="N73" s="77"/>
       <c r="O73" s="73"/>
@@ -10096,7 +10119,7 @@
       <c r="K75" s="73"/>
       <c r="L75" s="73"/>
       <c r="M75" s="84">
-        <v>31.588586774545199</v>
+        <v>19.215657194822899</v>
       </c>
       <c r="N75" s="77"/>
       <c r="O75" s="73"/>
@@ -10168,7 +10191,7 @@
       <c r="K78" s="73"/>
       <c r="L78" s="73"/>
       <c r="M78" s="84">
-        <v>5.3354364551731797</v>
+        <v>21.1275016341393</v>
       </c>
       <c r="N78" s="77"/>
       <c r="O78" s="73"/>
@@ -10192,7 +10215,7 @@
       <c r="K79" s="73"/>
       <c r="L79" s="73"/>
       <c r="M79" s="84">
-        <v>70.988039049659307</v>
+        <v>63.607356573910501</v>
       </c>
       <c r="N79" s="77"/>
       <c r="O79" s="73"/>
@@ -10216,7 +10239,7 @@
       <c r="K80" s="73"/>
       <c r="L80" s="73"/>
       <c r="M80" s="84">
-        <v>-0.55691231785686302</v>
+        <v>13.304069460733899</v>
       </c>
       <c r="N80" s="77"/>
       <c r="O80" s="73"/>
@@ -10240,7 +10263,7 @@
       <c r="K81" s="73"/>
       <c r="L81" s="73"/>
       <c r="M81" s="84">
-        <v>-6.4407022526654396</v>
+        <v>-8.5514960440672301</v>
       </c>
       <c r="N81" s="77"/>
       <c r="O81" s="73"/>
@@ -10264,7 +10287,7 @@
       <c r="K82" s="73"/>
       <c r="L82" s="73"/>
       <c r="M82" s="84">
-        <v>-10</v>
+        <v>-23.3607558814812</v>
       </c>
       <c r="N82" s="77"/>
       <c r="O82" s="73"/>
@@ -10288,7 +10311,7 @@
       <c r="K83" s="73"/>
       <c r="L83" s="73"/>
       <c r="M83" s="84">
-        <v>1.7508093219521601</v>
+        <v>2.3245972881907302</v>
       </c>
       <c r="N83" s="73"/>
       <c r="O83" s="73"/>
@@ -14957,7 +14980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:H29"/>
     </sheetView>
   </sheetViews>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1004">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3063,13 +3063,31 @@
     <t>0.6,1,1,0.1,1,4.2</t>
   </si>
   <si>
-    <t>2.2e-5,1</t>
-  </si>
-  <si>
     <t>1,0.02,1,0.02</t>
   </si>
   <si>
-    <t>1,2.2e-5</t>
+    <t>2.2e-5,1e1</t>
+  </si>
+  <si>
+    <t>1e1,2.2e-5</t>
+  </si>
+  <si>
+    <t>1e1,1e-5</t>
+  </si>
+  <si>
+    <t>1,1e1,1,1e-5</t>
+  </si>
+  <si>
+    <t>1,1e-5,1,1e1</t>
+  </si>
+  <si>
+    <t>1e1,1,1e-5,1</t>
+  </si>
+  <si>
+    <t>1e-5,1e1</t>
+  </si>
+  <si>
+    <t>1e-3,1e-3</t>
   </si>
 </sst>
 </file>
@@ -7334,9 +7352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7348,8 +7366,7 @@
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="9" max="10" width="8" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
@@ -9418,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
@@ -9426,7 +9443,9 @@
         <v>-13.3040694607334</v>
       </c>
       <c r="N51" s="77"/>
-      <c r="O51" s="73"/>
+      <c r="O51" s="73" t="s">
+        <v>1003</v>
+      </c>
       <c r="P51" s="73"/>
       <c r="R51" s="73"/>
       <c r="S51" s="73"/>
@@ -9448,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="73"/>
       <c r="L52" s="73"/>
@@ -9457,7 +9476,7 @@
       </c>
       <c r="N52" s="77"/>
       <c r="O52" s="73" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P52" s="73"/>
       <c r="R52" s="73"/>
@@ -9477,10 +9496,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>6.4800000000000004E-10</v>
+        <v>6.4799999999999998E-7</v>
       </c>
       <c r="J53" s="11">
-        <v>6.4800000000000004E-10</v>
+        <v>6.4799999999999998E-7</v>
       </c>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
@@ -9489,7 +9508,7 @@
       </c>
       <c r="N53" s="77"/>
       <c r="O53" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="P53" s="73"/>
       <c r="R53" s="73"/>
@@ -9509,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -9554,7 +9573,9 @@
         <v>0</v>
       </c>
       <c r="N55" s="77"/>
-      <c r="O55" s="73"/>
+      <c r="O55" s="73" t="s">
+        <v>999</v>
+      </c>
       <c r="P55" s="73"/>
       <c r="R55" s="73"/>
       <c r="S55" s="73"/>
@@ -9586,7 +9607,9 @@
         <v>0</v>
       </c>
       <c r="N56" s="77"/>
-      <c r="O56" s="73"/>
+      <c r="O56" s="73" t="s">
+        <v>999</v>
+      </c>
       <c r="P56" s="73"/>
       <c r="R56" s="73"/>
       <c r="S56" s="73"/>
@@ -9618,7 +9641,9 @@
         <v>0</v>
       </c>
       <c r="N57" s="77"/>
-      <c r="O57" s="73"/>
+      <c r="O57" s="73" t="s">
+        <v>1000</v>
+      </c>
       <c r="P57" s="73"/>
       <c r="R57" s="73"/>
       <c r="S57" s="73"/>
@@ -9651,7 +9676,9 @@
         <v>0</v>
       </c>
       <c r="N58" s="77"/>
-      <c r="O58" s="73"/>
+      <c r="O58" s="73" t="s">
+        <v>1001</v>
+      </c>
       <c r="P58" s="73"/>
       <c r="R58" s="73"/>
       <c r="S58" s="73"/>
@@ -9684,7 +9711,9 @@
         <v>0</v>
       </c>
       <c r="N59" s="77"/>
-      <c r="O59" s="73"/>
+      <c r="O59" s="73" t="s">
+        <v>1001</v>
+      </c>
       <c r="P59" s="73"/>
       <c r="R59" s="73"/>
       <c r="S59" s="73"/>
@@ -9717,7 +9746,9 @@
         <v>0</v>
       </c>
       <c r="N60" s="77"/>
-      <c r="O60" s="73"/>
+      <c r="O60" s="73" t="s">
+        <v>999</v>
+      </c>
       <c r="P60" s="73"/>
       <c r="R60" s="73"/>
       <c r="S60" s="73"/>
@@ -9750,7 +9781,9 @@
         <v>0</v>
       </c>
       <c r="N61" s="77"/>
-      <c r="O61" s="73"/>
+      <c r="O61" s="73" t="s">
+        <v>999</v>
+      </c>
       <c r="P61" s="73"/>
       <c r="R61" s="73"/>
       <c r="S61" s="73"/>
@@ -9783,7 +9816,9 @@
         <v>0</v>
       </c>
       <c r="N62" s="77"/>
-      <c r="O62" s="73"/>
+      <c r="O62" s="73" t="s">
+        <v>1001</v>
+      </c>
       <c r="P62" s="73"/>
       <c r="R62" s="73"/>
       <c r="S62" s="73"/>
@@ -9813,7 +9848,9 @@
         <v>21.922606910894501</v>
       </c>
       <c r="N63" s="77"/>
-      <c r="O63" s="73"/>
+      <c r="O63" s="73" t="s">
+        <v>1002</v>
+      </c>
       <c r="P63" s="73"/>
       <c r="R63" s="73"/>
       <c r="S63" s="73"/>
@@ -9843,7 +9880,9 @@
         <v>0</v>
       </c>
       <c r="N64" s="77"/>
-      <c r="O64" s="73"/>
+      <c r="O64" s="73" t="s">
+        <v>1001</v>
+      </c>
       <c r="P64" s="73"/>
       <c r="R64" s="73"/>
       <c r="S64" s="73"/>
@@ -9876,7 +9915,9 @@
         <v>-19.215657194822899</v>
       </c>
       <c r="N65" s="77"/>
-      <c r="O65" s="73"/>
+      <c r="O65" s="73" t="s">
+        <v>1001</v>
+      </c>
       <c r="P65" s="73"/>
       <c r="R65" s="73"/>
       <c r="S65" s="73"/>
@@ -9906,7 +9947,9 @@
         <v>0</v>
       </c>
       <c r="N66" s="77"/>
-      <c r="O66" s="73"/>
+      <c r="O66" s="73" t="s">
+        <v>998</v>
+      </c>
       <c r="P66" s="73"/>
       <c r="R66" s="73"/>
       <c r="S66" s="73"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1080" windowWidth="18195" windowHeight="6525" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1004">
   <si>
     <t>Enzymes</t>
   </si>
@@ -7352,9 +7353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,7 +7498,7 @@
         <v>20.6</v>
       </c>
       <c r="I3" s="73">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
@@ -7541,7 +7542,7 @@
         <v>21.4</v>
       </c>
       <c r="I4" s="73">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K4" s="73"/>
       <c r="L4" s="73"/>
@@ -7671,7 +7672,7 @@
       </c>
       <c r="I7" s="73"/>
       <c r="J7">
-        <v>9000</v>
+        <v>460.5</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
@@ -7758,7 +7759,7 @@
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="73">
-        <v>654</v>
+        <v>2631.5</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
@@ -7799,7 +7800,7 @@
         <v>14.6</v>
       </c>
       <c r="J10" s="73">
-        <v>530</v>
+        <v>255.2</v>
       </c>
       <c r="K10" s="73"/>
       <c r="L10" s="73"/>
@@ -8275,7 +8276,7 @@
         <v>2.12</v>
       </c>
       <c r="I21" s="73">
-        <v>44.73</v>
+        <v>25.6</v>
       </c>
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
@@ -8316,7 +8317,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I22" s="73">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
@@ -8558,10 +8559,7 @@
         <v>28.7</v>
       </c>
       <c r="I28" s="73">
-        <v>120</v>
-      </c>
-      <c r="J28">
-        <v>0.02</v>
+        <v>1341</v>
       </c>
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
@@ -8597,7 +8595,7 @@
         <v>52.1</v>
       </c>
       <c r="I29" s="73">
-        <v>280</v>
+        <v>632.6</v>
       </c>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
@@ -8832,7 +8830,7 @@
         <v>3.91</v>
       </c>
       <c r="I35" s="73">
-        <v>21.05</v>
+        <v>1180.01</v>
       </c>
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
@@ -8903,7 +8901,7 @@
         <v>0.216</v>
       </c>
       <c r="J37" s="73">
-        <v>55.57</v>
+        <v>21.9</v>
       </c>
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
@@ -8976,7 +8974,7 @@
         <v>1.77E-2</v>
       </c>
       <c r="J39" s="73">
-        <v>15.45</v>
+        <v>20.437999999999999</v>
       </c>
       <c r="K39" s="73"/>
       <c r="L39" s="73"/>
@@ -15023,7 +15021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:H29"/>
     </sheetView>
   </sheetViews>
@@ -21416,6 +21414,3416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>814</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>815</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>817</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73">
+        <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="73">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="86">
+        <v>250</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="84">
+        <v>20</v>
+      </c>
+      <c r="N2" s="77">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="73">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="73">
+        <v>20.6</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73">
+        <v>120</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="84">
+        <v>1.37855905020609</v>
+      </c>
+      <c r="N3" s="77" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>833</v>
+      </c>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="73">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="73">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73">
+        <f>VLOOKUP(A4,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="73">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="73">
+        <v>21.4</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73">
+        <v>49</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="84">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N4" s="77" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>984</v>
+      </c>
+      <c r="E5" s="73">
+        <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="F5" s="73">
+        <v>-48.8</v>
+      </c>
+      <c r="G5" s="73">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73">
+        <v>22</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.3.11</v>
+      </c>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="U5" s="73">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73">
+        <f>VLOOKUP(A6,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F6" s="73">
+        <v>-29.4</v>
+      </c>
+      <c r="G6" s="73">
+        <v>27.1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="84">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N6" s="77" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="T6" s="73">
+        <v>0.218</v>
+      </c>
+      <c r="U6" s="73">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="77" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="86">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F7" s="73">
+        <v>-24.3</v>
+      </c>
+      <c r="G7" s="73">
+        <v>13.4</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
+        <v>9000</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="85">
+        <v>-11.639423575531699</v>
+      </c>
+      <c r="N7" s="77" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U7" s="73">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>983</v>
+      </c>
+      <c r="E8" s="73">
+        <f>VLOOKUP(A8,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F8" s="73">
+        <v>-12.8</v>
+      </c>
+      <c r="G8" s="73">
+        <v>62.6</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73">
+        <v>268</v>
+      </c>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="84">
+        <v>27.772223526897601</v>
+      </c>
+      <c r="N8" s="77" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" s="73">
+        <v>2.13</v>
+      </c>
+      <c r="U8" s="73">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73">
+        <v>-10.51</v>
+      </c>
+      <c r="F9" s="73">
+        <v>-19.2</v>
+      </c>
+      <c r="G9" s="73">
+        <v>56.1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73">
+        <v>654</v>
+      </c>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="84">
+        <v>-27.772223526897601</v>
+      </c>
+      <c r="N9" s="77" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="T9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U9" s="73">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F10" s="73">
+        <v>-23.1</v>
+      </c>
+      <c r="G10" s="73">
+        <v>14.6</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73">
+        <v>530</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="84">
+        <v>-24.294625983764298</v>
+      </c>
+      <c r="N10" s="77" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73">
+        <f>VLOOKUP(A11,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F11" s="73">
+        <v>-22.9</v>
+      </c>
+      <c r="G11" s="73">
+        <v>14.7</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73">
+        <v>355.79</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="84">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N11" s="77" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="U11" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="77" t="s">
+        <v>819</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73">
+        <v>-31.12</v>
+      </c>
+      <c r="F12" s="73">
+        <v>-10.8</v>
+      </c>
+      <c r="G12" s="73">
+        <v>65.3</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73">
+        <v>10.17</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73">
+        <v>0.97</v>
+      </c>
+      <c r="M12" s="84">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N12" s="77" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="T12" s="73">
+        <v>0.111</v>
+      </c>
+      <c r="U12" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>985</v>
+      </c>
+      <c r="E13" s="73">
+        <f>VLOOKUP(A13,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="F13" s="73">
+        <v>-50.9</v>
+      </c>
+      <c r="G13" s="73">
+        <v>24.4</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73">
+        <v>1</v>
+      </c>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="84">
+        <v>0</v>
+      </c>
+      <c r="N13" s="77" t="str">
+        <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.9.2</v>
+      </c>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="T13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="U13" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E14" s="73">
+        <f>VLOOKUP(A14,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F14" s="73">
+        <v>-73</v>
+      </c>
+      <c r="G14" s="73">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73">
+        <v>6.32</v>
+      </c>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="84">
+        <v>0</v>
+      </c>
+      <c r="N14" s="77" t="s">
+        <v>820</v>
+      </c>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73" t="s">
+        <v>799</v>
+      </c>
+      <c r="T14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="U14" s="73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="77" t="s">
+        <v>821</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73">
+        <v>8.6</v>
+      </c>
+      <c r="F15" s="73">
+        <v>-4</v>
+      </c>
+      <c r="G15" s="73">
+        <v>60.9</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73">
+        <v>81</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="84">
+        <v>6.0051760006096302</v>
+      </c>
+      <c r="N15" s="77" t="s">
+        <v>811</v>
+      </c>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73" t="s">
+        <v>800</v>
+      </c>
+      <c r="T15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="U15" s="73">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73">
+        <f>VLOOKUP(A16,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="73">
+        <v>-11.2</v>
+      </c>
+      <c r="G16" s="73">
+        <v>26.5</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="84">
+        <v>-6.0051760006096302</v>
+      </c>
+      <c r="N16" s="77" t="str">
+        <f>VLOOKUP(A16,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.3</v>
+      </c>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="T16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="U16" s="73">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" s="73">
+        <f>VLOOKUP(A17,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.4</v>
+      </c>
+      <c r="F17" s="73">
+        <v>-48.4</v>
+      </c>
+      <c r="G17" s="73">
+        <v>26.9</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73">
+        <v>106.4</v>
+      </c>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="84">
+        <v>-6.0051760006096302</v>
+      </c>
+      <c r="N17" s="77" t="str">
+        <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.42</v>
+      </c>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="U17" s="73">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73">
+        <f>VLOOKUP(A18,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F18" s="73">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="G18" s="73">
+        <v>17.8</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="84">
+        <v>0</v>
+      </c>
+      <c r="N18" s="77" t="str">
+        <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.3.1</v>
+      </c>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="U18" s="73">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>987</v>
+      </c>
+      <c r="E19" s="73">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F19" s="73">
+        <v>-9.1</v>
+      </c>
+      <c r="G19" s="73">
+        <v>63.1</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73">
+        <v>48.1</v>
+      </c>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="84">
+        <v>0</v>
+      </c>
+      <c r="N19" s="77" t="s">
+        <v>812</v>
+      </c>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="U19" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E20" s="73">
+        <f>VLOOKUP(A20,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F20" s="73">
+        <v>-72.3</v>
+      </c>
+      <c r="G20" s="73">
+        <v>20.3</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73">
+        <v>49</v>
+      </c>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="84">
+        <v>3.5679805516174299</v>
+      </c>
+      <c r="N20" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73" t="s">
+        <v>802</v>
+      </c>
+      <c r="T20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="U20" s="73">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>988</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73">
+        <v>-39.5</v>
+      </c>
+      <c r="G21" s="73">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H21" s="73">
+        <v>2.12</v>
+      </c>
+      <c r="I21" s="73">
+        <v>44.73</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="84">
+        <v>-3.5679805516174299</v>
+      </c>
+      <c r="N21" s="77" t="str">
+        <f>VLOOKUP(A21,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>6.2.1.5</v>
+      </c>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73" t="s">
+        <v>803</v>
+      </c>
+      <c r="T21" s="73">
+        <v>6.2E-2</v>
+      </c>
+      <c r="U21" s="73">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="F22" s="73">
+        <v>-40.4</v>
+      </c>
+      <c r="G22" s="73">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73">
+        <v>24</v>
+      </c>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="84">
+        <v>3.5679805516174299</v>
+      </c>
+      <c r="N22" s="77" t="str">
+        <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="73">
+        <v>1.47</v>
+      </c>
+      <c r="U22" s="73">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="78" t="s">
+        <v>823</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73">
+        <v>-5.9</v>
+      </c>
+      <c r="F23" s="73">
+        <v>-40.4</v>
+      </c>
+      <c r="G23" s="73">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73">
+        <v>250</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="84">
+        <v>0</v>
+      </c>
+      <c r="N23" s="77" t="str">
+        <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.3.99.1</v>
+      </c>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="U23" s="73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="73">
+        <v>-15.4</v>
+      </c>
+      <c r="G24" s="73">
+        <v>22.3</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73">
+        <v>51.7</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="84">
+        <v>-3.5679805516174299</v>
+      </c>
+      <c r="N24" s="77" t="str">
+        <f>VLOOKUP(A24,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.2</v>
+      </c>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="T24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="U24" s="73">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>989</v>
+      </c>
+      <c r="E25" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="F25" s="73">
+        <v>-7.3</v>
+      </c>
+      <c r="G25" s="73">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73">
+        <v>931</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73">
+        <v>50</v>
+      </c>
+      <c r="M25" s="84">
+        <v>3.5679805516174299</v>
+      </c>
+      <c r="N25" s="77" t="str">
+        <f>VLOOKUP(A25,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.37</v>
+      </c>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77" t="s">
+        <v>825</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F26" s="73">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="G26" s="73">
+        <v>51.5</v>
+      </c>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73">
+        <v>12.8</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73">
+        <v>0.125</v>
+      </c>
+      <c r="M26" s="84">
+        <v>-21.922606910894501</v>
+      </c>
+      <c r="N26" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>989</v>
+      </c>
+      <c r="E27" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="F27" s="73">
+        <v>-13.2</v>
+      </c>
+      <c r="G27" s="73">
+        <v>62.1</v>
+      </c>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73">
+        <v>320</v>
+      </c>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="84">
+        <v>0</v>
+      </c>
+      <c r="N27" s="77" t="str">
+        <f>VLOOKUP(A27,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.28</v>
+      </c>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>988</v>
+      </c>
+      <c r="E28" s="73">
+        <f>VLOOKUP(A28,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="F28" s="73">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="G28" s="73">
+        <v>28.7</v>
+      </c>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73">
+        <v>120</v>
+      </c>
+      <c r="J28" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="85">
+        <v>19.215657194822899</v>
+      </c>
+      <c r="N28" s="77" t="str">
+        <f>VLOOKUP(A28,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.3.1.8</v>
+      </c>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73">
+        <f>VLOOKUP(A29,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>4.3</v>
+      </c>
+      <c r="F29" s="73">
+        <v>-24.3</v>
+      </c>
+      <c r="G29" s="73">
+        <v>52.1</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73">
+        <v>280</v>
+      </c>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="84">
+        <v>-19.215657194822899</v>
+      </c>
+      <c r="N29" s="77" t="str">
+        <f>VLOOKUP(A29,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.1</v>
+      </c>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>989</v>
+      </c>
+      <c r="E30" s="73">
+        <f>VLOOKUP(A30,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F30" s="73">
+        <v>-47.4</v>
+      </c>
+      <c r="G30" s="73">
+        <v>49.2</v>
+      </c>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73">
+        <v>15.7</v>
+      </c>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="84">
+        <v>0</v>
+      </c>
+      <c r="N30" s="77" t="str">
+        <f>VLOOKUP(A30,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.10</v>
+      </c>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>989</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="G31" s="73">
+        <v>59.3</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="I31" s="73">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="84">
+        <v>0</v>
+      </c>
+      <c r="N31" s="77" t="str">
+        <f>VLOOKUP(A31,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="77" t="s">
+        <v>981</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>989</v>
+      </c>
+      <c r="E32" s="73">
+        <f>VLOOKUP(A32,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="F32" s="73">
+        <v>-42.6</v>
+      </c>
+      <c r="G32" s="73">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73">
+        <v>174</v>
+      </c>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73">
+        <v>0.63</v>
+      </c>
+      <c r="M32" s="84">
+        <v>18.144898505714799</v>
+      </c>
+      <c r="N32" s="77" t="str">
+        <f>VLOOKUP(A32,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.49</v>
+      </c>
+      <c r="O32" s="73" t="s">
+        <v>980</v>
+      </c>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" s="73">
+        <f>VLOOKUP(A33,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F33" s="73">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="G33" s="73">
+        <v>-2.1</v>
+      </c>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73">
+        <v>25</v>
+      </c>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="84">
+        <v>18.144898505714799</v>
+      </c>
+      <c r="N33" s="77" t="str">
+        <f>VLOOKUP(A33,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.1.1.31</v>
+      </c>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E34" s="73">
+        <f>VLOOKUP(A34,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="73">
+        <v>-43.6</v>
+      </c>
+      <c r="G34" s="73">
+        <v>31.7</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="84">
+        <v>18.144898505714799</v>
+      </c>
+      <c r="N34" s="77" t="str">
+        <f>VLOOKUP(A34,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.44</v>
+      </c>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73">
+        <v>-22.2</v>
+      </c>
+      <c r="G35" s="73">
+        <v>15.5</v>
+      </c>
+      <c r="H35" s="73">
+        <v>3.91</v>
+      </c>
+      <c r="I35" s="73">
+        <v>21.05</v>
+      </c>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="85">
+        <v>10.425678473058399</v>
+      </c>
+      <c r="N35" s="77" t="str">
+        <f>VLOOKUP(A35,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.1.3.1</v>
+      </c>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="73">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="G36" s="73">
+        <v>20.8</v>
+      </c>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73">
+        <v>2100</v>
+      </c>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="85">
+        <v>-7.7192200326564304</v>
+      </c>
+      <c r="N36" s="77" t="str">
+        <f>VLOOKUP(A36,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.6</v>
+      </c>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="77" t="s">
+        <v>827</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73">
+        <v>-33.9</v>
+      </c>
+      <c r="G37" s="73">
+        <v>41.5</v>
+      </c>
+      <c r="H37" s="73">
+        <v>0.216</v>
+      </c>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73">
+        <v>55.57</v>
+      </c>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="84">
+        <v>-5.6324290470476202</v>
+      </c>
+      <c r="N37" s="77" t="str">
+        <f>VLOOKUP(A37,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73">
+        <v>-1.7</v>
+      </c>
+      <c r="F38" s="73">
+        <v>-38.4</v>
+      </c>
+      <c r="G38" s="73">
+        <v>36.9</v>
+      </c>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73">
+        <v>16.57</v>
+      </c>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="84">
+        <v>5.6324290470476202</v>
+      </c>
+      <c r="N38" s="77" t="str">
+        <f>VLOOKUP(A38,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.2</v>
+      </c>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73">
+        <v>1.7</v>
+      </c>
+      <c r="F39" s="73">
+        <v>-27.7</v>
+      </c>
+      <c r="G39" s="73">
+        <v>47.7</v>
+      </c>
+      <c r="H39" s="73">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73">
+        <v>15.45</v>
+      </c>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="84">
+        <v>-4.7932494260107603</v>
+      </c>
+      <c r="N39" s="77" t="str">
+        <f>VLOOKUP(A39,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.2.1.1</v>
+      </c>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="93"/>
+      <c r="C40" s="92" t="s">
+        <v>978</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73">
+        <v>24.2</v>
+      </c>
+      <c r="G40" s="73">
+        <v>122.4</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73">
+        <v>26</v>
+      </c>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="84">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N40" s="77" t="str">
+        <f>VLOOKUP(A40,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O40" s="73" t="s">
+        <v>979</v>
+      </c>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94" t="s">
+        <v>830</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73">
+        <v>-38.6</v>
+      </c>
+      <c r="G41" s="73">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H41" s="73">
+        <v>1.48</v>
+      </c>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="84">
+        <v>0</v>
+      </c>
+      <c r="N41" s="77" t="str">
+        <f>VLOOKUP(A41,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.2</v>
+      </c>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94" t="s">
+        <v>831</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73">
+        <v>-38.6</v>
+      </c>
+      <c r="G42" s="73">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H42" s="73">
+        <v>1.48</v>
+      </c>
+      <c r="I42" s="73">
+        <v>167.9</v>
+      </c>
+      <c r="J42" s="73">
+        <v>100</v>
+      </c>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="84">
+        <v>0</v>
+      </c>
+      <c r="N42" s="77" t="str">
+        <f>VLOOKUP(A42,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.1.1</v>
+      </c>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="G43" s="73">
+        <v>35.1</v>
+      </c>
+      <c r="H43" s="73">
+        <v>2.82</v>
+      </c>
+      <c r="I43" s="73">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="84">
+        <v>0</v>
+      </c>
+      <c r="N43" s="77" t="str">
+        <f>VLOOKUP(A43,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.4.3</v>
+      </c>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>992</v>
+      </c>
+      <c r="E44" s="73">
+        <f>VLOOKUP(A44,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73">
+        <v>1</v>
+      </c>
+      <c r="J44" s="73">
+        <v>0</v>
+      </c>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="84">
+        <v>8.39</v>
+      </c>
+      <c r="N44" s="77"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>993</v>
+      </c>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73">
+        <v>-62.3</v>
+      </c>
+      <c r="G45" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="11">
+        <v>42000</v>
+      </c>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73">
+        <v>2200</v>
+      </c>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="84">
+        <v>-100</v>
+      </c>
+      <c r="N45" s="77" t="str">
+        <f>VLOOKUP(A45,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O45" s="73" t="s">
+        <v>994</v>
+      </c>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94" t="s">
+        <v>977</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73">
+        <f>VLOOKUP(A46,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73">
+        <v>341</v>
+      </c>
+      <c r="J46" s="73">
+        <v>100</v>
+      </c>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="84">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N46" s="77" t="s">
+        <v>810</v>
+      </c>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="73"/>
+      <c r="C47" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="D47" s="73" t="s">
+        <v>988</v>
+      </c>
+      <c r="E47" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="F47" s="73">
+        <v>-7.1</v>
+      </c>
+      <c r="G47" s="73">
+        <v>55.6</v>
+      </c>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73">
+        <v>540</v>
+      </c>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73">
+        <v>18.2</v>
+      </c>
+      <c r="M47" s="84">
+        <v>5.4197985774166799</v>
+      </c>
+      <c r="N47" s="77" t="str">
+        <f>VLOOKUP(A47,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.31</v>
+      </c>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E48" s="73">
+        <f>VLOOKUP(A48,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="73">
+        <v>-44.4</v>
+      </c>
+      <c r="G48" s="73">
+        <v>30.9</v>
+      </c>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73">
+        <v>1</v>
+      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="84">
+        <v>0</v>
+      </c>
+      <c r="N48" s="77" t="str">
+        <f>VLOOKUP(A48,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.49</v>
+      </c>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="73"/>
+      <c r="C49" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E49" s="73">
+        <f>VLOOKUP(A49,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F49" s="73">
+        <v>-41.8</v>
+      </c>
+      <c r="G49" s="73">
+        <v>33.6</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73">
+        <v>1</v>
+      </c>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="84">
+        <v>0</v>
+      </c>
+      <c r="N49" s="77" t="str">
+        <f>VLOOKUP(A49,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.38</v>
+      </c>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E50" s="73">
+        <f>VLOOKUP(A50,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>1.6</v>
+      </c>
+      <c r="F50" s="73">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="G50" s="73">
+        <v>34.5</v>
+      </c>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73">
+        <v>1</v>
+      </c>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="84">
+        <v>0</v>
+      </c>
+      <c r="N50" s="77" t="str">
+        <f>VLOOKUP(A50,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.40</v>
+      </c>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" s="73"/>
+      <c r="C51" s="89" t="s">
+        <v>665</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73">
+        <f>VLOOKUP(A51,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
+      <c r="J51" s="73">
+        <v>2</v>
+      </c>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="84">
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N51" s="77"/>
+      <c r="O51" s="73" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="73"/>
+      <c r="C52" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73">
+        <f>VLOOKUP(A52,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="86">
+        <v>1</v>
+      </c>
+      <c r="J52" s="73">
+        <v>0</v>
+      </c>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="84">
+        <v>23.3607558814812</v>
+      </c>
+      <c r="N52" s="77"/>
+      <c r="O52" s="73" t="s">
+        <v>996</v>
+      </c>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="73"/>
+      <c r="C53" s="89" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73">
+        <f>VLOOKUP(A53,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="11">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="J53" s="11">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="84">
+        <v>8.5514960440672301</v>
+      </c>
+      <c r="N53" s="77"/>
+      <c r="O53" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="73"/>
+      <c r="C54" s="89" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73">
+        <f>VLOOKUP(A54,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="86">
+        <v>0</v>
+      </c>
+      <c r="J54" s="73">
+        <v>1</v>
+      </c>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="84">
+        <v>-21.1275016341393</v>
+      </c>
+      <c r="N54" s="77"/>
+      <c r="O54" s="73" t="s">
+        <v>997</v>
+      </c>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E55" s="73">
+        <v>0</v>
+      </c>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="86">
+        <v>1</v>
+      </c>
+      <c r="J55" s="73">
+        <v>1</v>
+      </c>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="84">
+        <v>0</v>
+      </c>
+      <c r="N55" s="77"/>
+      <c r="O55" s="73" t="s">
+        <v>999</v>
+      </c>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="73"/>
+      <c r="C56" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E56" s="73">
+        <v>0</v>
+      </c>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="86">
+        <v>1</v>
+      </c>
+      <c r="J56" s="73">
+        <v>1</v>
+      </c>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="84">
+        <v>0</v>
+      </c>
+      <c r="N56" s="77"/>
+      <c r="O56" s="73" t="s">
+        <v>999</v>
+      </c>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E57" s="73">
+        <v>0</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="86">
+        <v>1</v>
+      </c>
+      <c r="J57" s="73">
+        <v>1</v>
+      </c>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="84">
+        <v>0</v>
+      </c>
+      <c r="N57" s="77"/>
+      <c r="O57" s="73" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" s="73"/>
+      <c r="C58" s="89" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E58" s="73">
+        <f>VLOOKUP(A58,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="86">
+        <v>1</v>
+      </c>
+      <c r="J58" s="73">
+        <v>1</v>
+      </c>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="84">
+        <v>0</v>
+      </c>
+      <c r="N58" s="77"/>
+      <c r="O58" s="73" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="73"/>
+      <c r="C59" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E59" s="73">
+        <f>VLOOKUP(A59,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="86">
+        <v>1</v>
+      </c>
+      <c r="J59" s="73">
+        <v>0</v>
+      </c>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="84">
+        <v>0</v>
+      </c>
+      <c r="N59" s="77"/>
+      <c r="O59" s="73" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E60" s="73">
+        <f>VLOOKUP(A60,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="86">
+        <v>1</v>
+      </c>
+      <c r="J60" s="73">
+        <v>0</v>
+      </c>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="84">
+        <v>0</v>
+      </c>
+      <c r="N60" s="77"/>
+      <c r="O60" s="73" t="s">
+        <v>999</v>
+      </c>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="73"/>
+      <c r="C61" s="89" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E61" s="73">
+        <f>VLOOKUP(A61,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="86">
+        <v>1</v>
+      </c>
+      <c r="J61" s="73">
+        <v>1</v>
+      </c>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="84">
+        <v>0</v>
+      </c>
+      <c r="N61" s="77"/>
+      <c r="O61" s="73" t="s">
+        <v>999</v>
+      </c>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="90" t="s">
+        <v>380</v>
+      </c>
+      <c r="D62" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E62" s="73">
+        <f>VLOOKUP(A62,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="86">
+        <v>1</v>
+      </c>
+      <c r="J62" s="73">
+        <v>0</v>
+      </c>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="84">
+        <v>0</v>
+      </c>
+      <c r="N62" s="77"/>
+      <c r="O62" s="73" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" s="73"/>
+      <c r="C63" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73">
+        <f>VLOOKUP(A63,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="86">
+        <v>1</v>
+      </c>
+      <c r="J63" s="73">
+        <v>0</v>
+      </c>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="84">
+        <v>21.922606910894501</v>
+      </c>
+      <c r="N63" s="77"/>
+      <c r="O63" s="73" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73">
+        <f>VLOOKUP(A64,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="86">
+        <v>1</v>
+      </c>
+      <c r="J64" s="73">
+        <v>1</v>
+      </c>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="84">
+        <v>0</v>
+      </c>
+      <c r="N64" s="77"/>
+      <c r="O64" s="73" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="73"/>
+      <c r="C65" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="E65" s="73">
+        <f>VLOOKUP(A65,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="86">
+        <v>1</v>
+      </c>
+      <c r="J65" s="73">
+        <v>1</v>
+      </c>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="84">
+        <v>-19.215657194822899</v>
+      </c>
+      <c r="N65" s="77"/>
+      <c r="O65" s="73" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="90" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73">
+        <f>VLOOKUP(A66,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="86">
+        <v>1</v>
+      </c>
+      <c r="J66" s="73">
+        <v>1</v>
+      </c>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="84">
+        <v>0</v>
+      </c>
+      <c r="N66" s="77"/>
+      <c r="O66" s="73" t="s">
+        <v>998</v>
+      </c>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" s="73"/>
+      <c r="C67" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73">
+        <v>0</v>
+      </c>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="84">
+        <v>0</v>
+      </c>
+      <c r="N67" s="77"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="73"/>
+      <c r="C68" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73">
+        <v>0</v>
+      </c>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="84">
+        <v>0</v>
+      </c>
+      <c r="N68" s="77"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="73"/>
+      <c r="U68" s="73"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="73"/>
+      <c r="C69" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73">
+        <v>0</v>
+      </c>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="84">
+        <v>0</v>
+      </c>
+      <c r="N69" s="77"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="73"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="73"/>
+      <c r="C70" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73">
+        <v>0</v>
+      </c>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="84">
+        <v>0</v>
+      </c>
+      <c r="N70" s="77"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="73"/>
+      <c r="C71" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73">
+        <v>0</v>
+      </c>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="84">
+        <v>0</v>
+      </c>
+      <c r="N71" s="77"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="73"/>
+      <c r="C72" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73">
+        <v>0</v>
+      </c>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="84">
+        <v>0</v>
+      </c>
+      <c r="N72" s="77"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="73"/>
+      <c r="C73" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="84">
+        <v>21.922606910894501</v>
+      </c>
+      <c r="N73" s="77"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="73"/>
+      <c r="C74" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73">
+        <v>0</v>
+      </c>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="84">
+        <v>0</v>
+      </c>
+      <c r="N74" s="77"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="73"/>
+      <c r="C75" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73">
+        <v>0</v>
+      </c>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="84">
+        <v>19.215657194822899</v>
+      </c>
+      <c r="N75" s="77"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="73"/>
+      <c r="C76" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73">
+        <v>0</v>
+      </c>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="84">
+        <v>0</v>
+      </c>
+      <c r="N76" s="77"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" s="73"/>
+      <c r="C77" s="91" t="s">
+        <v>794</v>
+      </c>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73">
+        <v>0</v>
+      </c>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="84">
+        <v>-20</v>
+      </c>
+      <c r="N77" s="77"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="73"/>
+      <c r="C78" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73">
+        <v>0</v>
+      </c>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="84">
+        <v>21.1275016341393</v>
+      </c>
+      <c r="N78" s="77"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="73"/>
+      <c r="C79" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73">
+        <v>0</v>
+      </c>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="84">
+        <v>63.607356573910501</v>
+      </c>
+      <c r="N79" s="77"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="U79" s="73"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="73"/>
+      <c r="C80" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73">
+        <v>0</v>
+      </c>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="84">
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N80" s="77"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="73"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="73"/>
+      <c r="C81" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73">
+        <v>0</v>
+      </c>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="84">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N81" s="77"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="73"/>
+      <c r="U81" s="73"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="73"/>
+      <c r="C82" s="91" t="s">
+        <v>462</v>
+      </c>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73">
+        <v>0</v>
+      </c>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="84">
+        <v>-23.3607558814812</v>
+      </c>
+      <c r="N82" s="77"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="73"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="73"/>
+      <c r="C83" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73">
+        <v>0</v>
+      </c>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="84">
+        <v>2.3245972881907302</v>
+      </c>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="73"/>
+      <c r="T83" s="73"/>
+      <c r="U83" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="17" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="1004">
   <si>
     <t>Enzymes</t>
   </si>
@@ -7353,9 +7354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24824,6 +24825,923 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>-100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>-100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>-100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>-100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>-100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>-100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>-100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>-100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14">
+        <v>-100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15">
+        <v>-100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16">
+        <v>-100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>-100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <v>-100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22">
+        <v>-100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23">
+        <v>-100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24">
+        <v>-100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>-100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26">
+        <v>-100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27">
+        <v>-100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28">
+        <v>-100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29">
+        <v>-100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>-100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34">
+        <v>-100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35">
+        <v>-100</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B36">
+        <v>-100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B37">
+        <v>-100</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38">
+        <v>-100</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39">
+        <v>-100</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>-100</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43">
+        <v>8.39</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44">
+        <v>-100</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46">
+        <v>-100</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="B50">
+        <v>-100</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51">
+        <v>-100</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52">
+        <v>-100</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53">
+        <v>-100</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54">
+        <v>-100</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57">
+        <v>-100</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60">
+        <v>-100</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B63">
+        <v>-100</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64">
+        <v>-100</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65">
+        <v>-100</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77">
+        <v>-100</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78">
+        <v>-100</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79">
+        <v>-100</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="B80">
+        <v>-100</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="B81">
+        <v>1000</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,25 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
     <sheet name="ecoliN1" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
-    <sheet name="ecoliN2" sheetId="10" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet7" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet8" sheetId="18" r:id="rId12"/>
+    <sheet name="ecoliN2" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId16"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId17"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1004">
   <si>
     <t>Enzymes</t>
   </si>
@@ -3327,7 +3327,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4815,8 +4815,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7355,8 +7355,8 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A83"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10371,6 +10371,321 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="73" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>814</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>815</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>817</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="73">
+        <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="73">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="86">
+        <v>250</v>
+      </c>
+      <c r="M2" s="84">
+        <v>20</v>
+      </c>
+      <c r="N2" s="77">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="73">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="73">
+        <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F3" s="73">
+        <v>-22.9</v>
+      </c>
+      <c r="G3" s="73">
+        <v>14.7</v>
+      </c>
+      <c r="I3" s="73">
+        <v>355.79</v>
+      </c>
+      <c r="M3" s="84">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N3" s="77" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="73">
+        <v>2.67</v>
+      </c>
+      <c r="U3" s="73">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" s="73">
+        <v>-31.12</v>
+      </c>
+      <c r="F4" s="73">
+        <v>-10.8</v>
+      </c>
+      <c r="G4" s="73">
+        <v>65.3</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="73">
+        <v>10.17</v>
+      </c>
+      <c r="L4" s="73">
+        <v>0.97</v>
+      </c>
+      <c r="M4" s="84">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N4" s="77" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="T4" s="73">
+        <v>0.111</v>
+      </c>
+      <c r="U4" s="73">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>985</v>
+      </c>
+      <c r="E5" s="73">
+        <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="F5" s="73">
+        <v>-50.9</v>
+      </c>
+      <c r="G5" s="73">
+        <v>24.4</v>
+      </c>
+      <c r="I5" s="73">
+        <v>1</v>
+      </c>
+      <c r="M5" s="84">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.9.2</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>798</v>
+      </c>
+      <c r="T5" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="U5" s="73">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>988</v>
+      </c>
+      <c r="E6" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="F6" s="73">
+        <v>-7.1</v>
+      </c>
+      <c r="G6" s="73">
+        <v>55.6</v>
+      </c>
+      <c r="J6" s="73">
+        <v>540</v>
+      </c>
+      <c r="L6" s="73">
+        <v>18.2</v>
+      </c>
+      <c r="M6" s="84">
+        <v>5.4197985774166799</v>
+      </c>
+      <c r="N6" s="77" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>986</v>
+      </c>
+      <c r="E7" s="73">
+        <f>VLOOKUP(A7,Sheet3!$A$2:$I$84,6,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="73">
+        <v>-44.4</v>
+      </c>
+      <c r="G7" s="73">
+        <v>30.9</v>
+      </c>
+      <c r="I7" s="73">
+        <v>1</v>
+      </c>
+      <c r="M7" s="84">
+        <v>0</v>
+      </c>
+      <c r="N7" s="77" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.1.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="E8" s="73">
+        <v>0</v>
+      </c>
+      <c r="M8" s="84">
+        <v>2.3245972881907302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11685,7 +12000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
@@ -15018,7 +15333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
@@ -18276,7 +18591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K143"/>
   <sheetViews>
@@ -21415,7 +21730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
@@ -24819,923 +25134,6 @@
       <c r="S83" s="73"/>
       <c r="T83" s="73"/>
       <c r="U83" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>-100</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>-100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6">
-        <v>-100</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7">
-        <v>-100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8">
-        <v>-100</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9">
-        <v>-100</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10">
-        <v>-100</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>-100</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14">
-        <v>-100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15">
-        <v>-100</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16">
-        <v>-100</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18">
-        <v>-100</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20">
-        <v>-100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22">
-        <v>-100</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23">
-        <v>-100</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24">
-        <v>-100</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25">
-        <v>-100</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="B26">
-        <v>-100</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27">
-        <v>-100</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28">
-        <v>-100</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29">
-        <v>-100</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30">
-        <v>-100</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
-        <v>415</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
-        <v>422</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="B34">
-        <v>-100</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
-        <v>428</v>
-      </c>
-      <c r="B35">
-        <v>-100</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36">
-        <v>-100</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
-        <v>436</v>
-      </c>
-      <c r="B37">
-        <v>-100</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38">
-        <v>-100</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39">
-        <v>-100</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
-        <v>441</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
-        <v>444</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42">
-        <v>-100</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43">
-        <v>8.39</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44">
-        <v>-100</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46">
-        <v>-100</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
-        <v>663</v>
-      </c>
-      <c r="B50">
-        <v>-100</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
-        <v>463</v>
-      </c>
-      <c r="B51">
-        <v>-100</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="B52">
-        <v>-100</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="B53">
-        <v>-100</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="B54">
-        <v>-100</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="77" t="s">
-        <v>349</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B57">
-        <v>-100</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="77" t="s">
-        <v>356</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60">
-        <v>-100</v>
-      </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="B63">
-        <v>-100</v>
-      </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="B64">
-        <v>-100</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="B65">
-        <v>-100</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="77" t="s">
-        <v>401</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="77" t="s">
-        <v>408</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="77" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="77" t="s">
-        <v>410</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="77" t="s">
-        <v>411</v>
-      </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="77" t="s">
-        <v>412</v>
-      </c>
-      <c r="B77">
-        <v>-100</v>
-      </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="77" t="s">
-        <v>413</v>
-      </c>
-      <c r="B78">
-        <v>-100</v>
-      </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="77" t="s">
-        <v>414</v>
-      </c>
-      <c r="B79">
-        <v>-100</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="B80">
-        <v>-100</v>
-      </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="B81">
-        <v>1000</v>
-      </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,24 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId9"/>
     <sheet name="ecoliN1" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="18" r:id="rId12"/>
-    <sheet name="ecoliN2" sheetId="10" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId14"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId15"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId16"/>
-    <sheet name="Sheet6" sheetId="16" r:id="rId17"/>
+    <sheet name="ecoliN2" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet5!$A$1:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1004">
   <si>
     <t>Enzymes</t>
   </si>
@@ -7354,9 +7353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10371,321 +10370,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="73" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>813</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>982</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>814</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>815</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>816</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>817</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>807</v>
-      </c>
-      <c r="O1" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="73">
-        <f>VLOOKUP(A2,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-9.1</v>
-      </c>
-      <c r="F2" s="73">
-        <v>-50.4</v>
-      </c>
-      <c r="G2" s="73">
-        <v>0.9</v>
-      </c>
-      <c r="I2" s="86">
-        <v>250</v>
-      </c>
-      <c r="M2" s="84">
-        <v>20</v>
-      </c>
-      <c r="N2" s="77">
-        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="73">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="U2" s="73">
-        <v>5.5599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="73">
-        <f>VLOOKUP(A3,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-0.9</v>
-      </c>
-      <c r="F3" s="73">
-        <v>-22.9</v>
-      </c>
-      <c r="G3" s="73">
-        <v>14.7</v>
-      </c>
-      <c r="I3" s="73">
-        <v>355.79</v>
-      </c>
-      <c r="M3" s="84">
-        <v>24.294625983764298</v>
-      </c>
-      <c r="N3" s="77" t="str">
-        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>4.2.1.11</v>
-      </c>
-      <c r="S3" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="73">
-        <v>2.67</v>
-      </c>
-      <c r="U3" s="73">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>819</v>
-      </c>
-      <c r="E4" s="73">
-        <v>-31.12</v>
-      </c>
-      <c r="F4" s="73">
-        <v>-10.8</v>
-      </c>
-      <c r="G4" s="73">
-        <v>65.3</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="73">
-        <v>10.17</v>
-      </c>
-      <c r="L4" s="73">
-        <v>0.97</v>
-      </c>
-      <c r="M4" s="84">
-        <v>-8.5077261088811902</v>
-      </c>
-      <c r="N4" s="77" t="str">
-        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>2.7.1.40</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>797</v>
-      </c>
-      <c r="T4" s="73">
-        <v>0.111</v>
-      </c>
-      <c r="U4" s="73">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>985</v>
-      </c>
-      <c r="E5" s="73">
-        <f>VLOOKUP(A5,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>-1.2</v>
-      </c>
-      <c r="F5" s="73">
-        <v>-50.9</v>
-      </c>
-      <c r="G5" s="73">
-        <v>24.4</v>
-      </c>
-      <c r="I5" s="73">
-        <v>1</v>
-      </c>
-      <c r="M5" s="84">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77" t="str">
-        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>2.7.9.2</v>
-      </c>
-      <c r="S5" s="73" t="s">
-        <v>798</v>
-      </c>
-      <c r="T5" s="73">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="U5" s="73">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>832</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>988</v>
-      </c>
-      <c r="E6" s="73">
-        <v>6.8</v>
-      </c>
-      <c r="F6" s="73">
-        <v>-7.1</v>
-      </c>
-      <c r="G6" s="73">
-        <v>55.6</v>
-      </c>
-      <c r="J6" s="73">
-        <v>540</v>
-      </c>
-      <c r="L6" s="73">
-        <v>18.2</v>
-      </c>
-      <c r="M6" s="84">
-        <v>5.4197985774166799</v>
-      </c>
-      <c r="N6" s="77" t="str">
-        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>4.1.1.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>986</v>
-      </c>
-      <c r="E7" s="73">
-        <f>VLOOKUP(A7,Sheet3!$A$2:$I$84,6,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="73">
-        <v>-44.4</v>
-      </c>
-      <c r="G7" s="73">
-        <v>30.9</v>
-      </c>
-      <c r="I7" s="73">
-        <v>1</v>
-      </c>
-      <c r="M7" s="84">
-        <v>0</v>
-      </c>
-      <c r="N7" s="77" t="str">
-        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>4.1.1.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>793</v>
-      </c>
-      <c r="E8" s="73">
-        <v>0</v>
-      </c>
-      <c r="M8" s="84">
-        <v>2.3245972881907302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12000,7 +11684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
@@ -15333,7 +15017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T83"/>
   <sheetViews>
@@ -18591,7 +18275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K143"/>
   <sheetViews>
@@ -21730,7 +21414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="10"/>
   </bookViews>
@@ -30,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4864,7 +4869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4899,7 +4904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7354,8 +7359,8 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Sheet4" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId13"/>
     <sheet name="o2_test" sheetId="17" r:id="rId14"/>
+    <sheet name="o2_testC" sheetId="18" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="907">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2779,6 +2780,24 @@
   <si>
     <t>1,3.4e-6,42e-3,1,1,1</t>
   </si>
+  <si>
+    <t>Mc (mM)</t>
+  </si>
+  <si>
+    <t>o2[c]</t>
+  </si>
+  <si>
+    <t>o2[e]</t>
+  </si>
+  <si>
+    <t>q8h2[c]</t>
+  </si>
+  <si>
+    <t>q8[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
 </sst>
 </file>
 
@@ -2788,7 +2807,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2839,6 +2858,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2891,7 +2918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2924,6 +2951,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -5119,12 +5147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
@@ -17949,8 +17978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18112,6 +18141,86 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>905</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B8">
+        <v>55000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -2778,9 +2778,6 @@
     <t>h[c], h[e]</t>
   </si>
   <si>
-    <t>1,3.4e-6,42e-3,1,1,1</t>
-  </si>
-  <si>
     <t>Mc (mM)</t>
   </si>
   <si>
@@ -2797,6 +2794,9 @@
   </si>
   <si>
     <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>1,3.4e-6,42e-3,1,1,42e-3</t>
   </si>
 </sst>
 </file>
@@ -5147,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17978,14 +17978,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -18081,7 +18081,7 @@
         <v>703</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -18159,12 +18159,12 @@
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -18172,7 +18172,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -18204,7 +18204,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B8">
         <v>55000</v>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4518,7 +4523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4553,7 +4558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17978,7 +17983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -18148,8 +18153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18167,7 +18172,7 @@
         <v>901</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18175,7 +18180,7 @@
         <v>902</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="6465" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -34,12 +29,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="918">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2774,9 +2769,6 @@
     <t>1e-3,1e-3</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>1.01,1.01</t>
   </si>
   <si>
@@ -2802,6 +2794,42 @@
   </si>
   <si>
     <t>1,3.4e-6,42e-3,1,1,42e-3</t>
+  </si>
+  <si>
+    <t>3.4e-6,3.4e-6</t>
+  </si>
+  <si>
+    <t>exq8h2</t>
+  </si>
+  <si>
+    <t>q8h2[e] &lt;==&gt; q8h2[c]</t>
+  </si>
+  <si>
+    <t>exq8</t>
+  </si>
+  <si>
+    <t>q8[e] &lt;==&gt; q8[c]</t>
+  </si>
+  <si>
+    <t>42e-3,42e-3</t>
+  </si>
+  <si>
+    <t>q8h2[e]</t>
+  </si>
+  <si>
+    <t>q8[e]</t>
+  </si>
+  <si>
+    <t>q8h2t</t>
+  </si>
+  <si>
+    <t>q8t</t>
+  </si>
+  <si>
+    <t>q8h2[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>q8[e] &lt;==&gt;</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +3013,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4473,8 +4501,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4523,7 +4551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4558,7 +4586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5152,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10656,7 +10684,7 @@
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="P51" s="10"/>
       <c r="R51" s="10"/>
@@ -17981,10 +18009,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18067,7 +18095,7 @@
         <v>870</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E2" s="10">
         <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
@@ -18086,7 +18114,7 @@
         <v>703</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -18101,17 +18129,17 @@
         <v>0</v>
       </c>
       <c r="I3" s="23">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="J3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="21">
         <v>23.3607558814812</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="10" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -18143,6 +18171,80 @@
         <v>63.607356573910501</v>
       </c>
       <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="C6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>469</v>
+      </c>
+      <c r="J6">
+        <v>469</v>
+      </c>
+      <c r="M6" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="O6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="C7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>469</v>
+      </c>
+      <c r="J7">
+        <v>469</v>
+      </c>
+      <c r="M7" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="O7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="C8" t="s">
+        <v>916</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>-46.7215117629625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-46.7215117629625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18151,10 +18253,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18164,23 +18266,23 @@
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B2">
-        <v>0.17299999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B3">
-        <v>0.27300000000000002</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -18201,7 +18303,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -18209,7 +18311,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -18217,10 +18319,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B8">
         <v>55000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>913</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId13"/>
-    <sheet name="o2_test" sheetId="17" r:id="rId14"/>
-    <sheet name="o2_testC" sheetId="18" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId14"/>
+    <sheet name="glc_test" sheetId="20" r:id="rId15"/>
+    <sheet name="glc_testC" sheetId="21" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="904">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2772,64 +2773,22 @@
     <t>1.01,1.01</t>
   </si>
   <si>
-    <t>h[c], h[e]</t>
-  </si>
-  <si>
-    <t>Mc (mM)</t>
-  </si>
-  <si>
-    <t>o2[c]</t>
-  </si>
-  <si>
-    <t>o2[e]</t>
-  </si>
-  <si>
-    <t>q8h2[c]</t>
-  </si>
-  <si>
-    <t>q8[c]</t>
-  </si>
-  <si>
-    <t>h2o[c]</t>
-  </si>
-  <si>
-    <t>1,3.4e-6,42e-3,1,1,42e-3</t>
-  </si>
-  <si>
-    <t>3.4e-6,3.4e-6</t>
-  </si>
-  <si>
-    <t>exq8h2</t>
-  </si>
-  <si>
-    <t>q8h2[e] &lt;==&gt; q8h2[c]</t>
-  </si>
-  <si>
-    <t>exq8</t>
-  </si>
-  <si>
-    <t>q8[e] &lt;==&gt; q8[c]</t>
-  </si>
-  <si>
     <t>42e-3,42e-3</t>
   </si>
   <si>
-    <t>q8h2[e]</t>
-  </si>
-  <si>
-    <t>q8[e]</t>
-  </si>
-  <si>
-    <t>q8h2t</t>
-  </si>
-  <si>
-    <t>q8t</t>
-  </si>
-  <si>
-    <t>q8h2[e] &lt;==&gt;</t>
-  </si>
-  <si>
-    <t>q8[e] &lt;==&gt;</t>
+    <t>1,5,1,5</t>
+  </si>
+  <si>
+    <t>1,4e-3,5.5e-3,1,4e-3,5.5e-3</t>
+  </si>
+  <si>
+    <t>0.33,5,0.07,1,0.03</t>
+  </si>
+  <si>
+    <t>1,0.18,1,1</t>
+  </si>
+  <si>
+    <t>[c] : q8h2 --&gt; q8</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2799,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2891,14 +2850,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2951,7 +2902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2984,7 +2935,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3013,7 +2963,7 @@
       <sheetName val="metabolites"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -4501,8 +4451,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5180,8 +5130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18009,341 +17959,614 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="E2" s="10">
-        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="I2" s="10">
-        <v>469</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21">
-        <v>46.7215117629625</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="10">
-        <f>VLOOKUP(A3,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
-        <v>469</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
-        <v>23.3607558814812</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="10" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <v>-23.3607558814812</v>
-      </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>63.607356573910501</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="C6" t="s">
-        <v>908</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>469</v>
-      </c>
-      <c r="J6">
-        <v>469</v>
-      </c>
-      <c r="M6" s="21">
-        <v>46.7215117629625</v>
-      </c>
-      <c r="O6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="C7" t="s">
-        <v>910</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>469</v>
-      </c>
-      <c r="J7">
-        <v>469</v>
-      </c>
-      <c r="M7" s="21">
-        <v>46.7215117629625</v>
-      </c>
-      <c r="O7" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="C8" t="s">
-        <v>916</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <v>-46.7215117629625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="C9" t="s">
-        <v>917</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <v>-46.7215117629625</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="T1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="23">
+        <v>250</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>20</v>
+      </c>
+      <c r="N2" s="14">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20.6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>120</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1.37855905020609</v>
+      </c>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="M5" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>9000</v>
+      </c>
+      <c r="M6" s="22">
+        <v>-11.639423575531699</v>
+      </c>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>268</v>
+      </c>
+      <c r="M7" s="21">
+        <v>27.772223526897601</v>
+      </c>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-10.51</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-19.2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="10">
+        <v>654</v>
+      </c>
+      <c r="M8" s="21">
+        <v>-27.772223526897601</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-23.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="J9" s="10">
+        <v>530</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-24.294625983764298</v>
+      </c>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="I10" s="10">
+        <v>355.79</v>
+      </c>
+      <c r="M10" s="21">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-31.12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="J11" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M11" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M12" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="10" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="13" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>8.5077261088811902</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>-20</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F15" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="J15" s="10">
+        <v>200</v>
+      </c>
+      <c r="M15" s="21">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N15" s="14" t="str">
+        <f>VLOOKUP(A15,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>901</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>903</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>912</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>913</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
+      <c r="E16" s="10">
+        <f>VLOOKUP(A16,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I16" s="10">
+        <v>469</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -31,11 +31,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="909">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2790,6 +2791,21 @@
   <si>
     <t>[c] : q8h2 --&gt; q8</t>
   </si>
+  <si>
+    <t>6e-2,1.25e-2,2e-1,1.25e-2,1</t>
+  </si>
+  <si>
+    <t>Mc (mM)</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>[c] : 1.496 3pg + 59.8100 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 0.5191 pep + 2.8328 pyr --&gt; 59.8100 adp + 59.8100 h + 3.5470 nadh + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
 </sst>
 </file>
 
@@ -2799,7 +2815,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2850,6 +2866,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2902,7 +2926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2935,6 +2959,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2945,9 +2970,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5130,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17971,16 +17993,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -18111,7 +18133,7 @@
         <v>120</v>
       </c>
       <c r="M3" s="21">
-        <v>1.37855905020609</v>
+        <v>11.639423575531699</v>
       </c>
       <c r="N3" s="14" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -18160,6 +18182,9 @@
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.11</v>
       </c>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
       <c r="S4" s="10" t="s">
         <v>29</v>
       </c>
@@ -18252,7 +18277,7 @@
         <v>196</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E7" s="10">
         <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
@@ -18551,6 +18576,115 @@
       </c>
       <c r="O16" s="10" t="s">
         <v>898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="10">
+        <f>VLOOKUP(A17,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="M17" s="21">
+        <v>8.5514960440672301</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>63.607356573910501</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E20" s="10">
+        <f>VLOOKUP(A20,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+      <c r="M20" s="21">
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>2.3245972881907302</v>
       </c>
     </row>
   </sheetData>
@@ -18560,12 +18694,123 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="9">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="B5" s="9">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="908">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2799,9 +2799,6 @@
   </si>
   <si>
     <t>h2o[c]</t>
-  </si>
-  <si>
-    <t>[c] : 1.496 3pg + 59.8100 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 0.5191 pep + 2.8328 pyr --&gt; 59.8100 adp + 59.8100 h + 3.5470 nadh + 59.8100 pi</t>
   </si>
   <si>
     <t>h2o[e]</t>
@@ -5152,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C51:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17995,8 +17992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18674,18 +18671,9 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>2.3245972881907302</v>
-      </c>
+      <c r="A22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="M22" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18736,7 +18724,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B5" s="9">
         <v>55000</v>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="Sheet3" sheetId="19" r:id="rId14"/>
     <sheet name="glc_test" sheetId="20" r:id="rId15"/>
     <sheet name="glc_testC" sheetId="21" r:id="rId16"/>
+    <sheet name="g6p_test" sheetId="22" r:id="rId17"/>
+    <sheet name="g6p_testC" sheetId="23" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="910">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2802,6 +2804,12 @@
   </si>
   <si>
     <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; pep</t>
+  </si>
+  <si>
+    <t>[c] : g3p &lt;==&gt; 13dpg + h</t>
   </si>
 </sst>
 </file>
@@ -17992,8 +18000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18685,7 +18693,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18797,6 +18805,620 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="23">
+        <v>250</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>20</v>
+      </c>
+      <c r="N2" s="14">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20.6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>120</v>
+      </c>
+      <c r="M3" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="M5" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>9000</v>
+      </c>
+      <c r="M6" s="22">
+        <v>-11.639423575531699</v>
+      </c>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>268</v>
+      </c>
+      <c r="M7" s="21">
+        <v>27.772223526897601</v>
+      </c>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-10.51</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-19.2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="10">
+        <v>654</v>
+      </c>
+      <c r="M8" s="21">
+        <v>-27.772223526897601</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-23.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="J9" s="10">
+        <v>530</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-24.294625983764298</v>
+      </c>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="I10" s="10">
+        <v>355.79</v>
+      </c>
+      <c r="M10" s="21">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-31.12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="J11" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M11" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M12" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>8.5077261088811902</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>-20</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>63.607356573910501</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="914">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2810,6 +2810,18 @@
   </si>
   <si>
     <t>[c] : g3p &lt;==&gt; 13dpg + h</t>
+  </si>
+  <si>
+    <t>ATPt</t>
+  </si>
+  <si>
+    <t>atp[c] &lt;==&gt; atp[e]</t>
+  </si>
+  <si>
+    <t>exATP</t>
+  </si>
+  <si>
+    <t>atp[e] &lt;==&gt;</t>
   </si>
 </sst>
 </file>
@@ -5157,8 +5169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C51:C66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18813,16 +18825,16 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19257,7 +19269,7 @@
         <v>65.3</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="J11" s="10">
+      <c r="I11" s="10">
         <v>2540</v>
       </c>
       <c r="M11" s="21">
@@ -19351,6 +19363,37 @@
         <v>63.607356573910501</v>
       </c>
       <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>27.772223526897601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19361,7 +19404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -23,8 +28,8 @@
     <sheet name="Sheet3" sheetId="19" r:id="rId14"/>
     <sheet name="glc_test" sheetId="20" r:id="rId15"/>
     <sheet name="glc_testC" sheetId="21" r:id="rId16"/>
-    <sheet name="g6p_test" sheetId="22" r:id="rId17"/>
-    <sheet name="g6p_testC" sheetId="23" r:id="rId18"/>
+    <sheet name="gly_test" sheetId="22" r:id="rId17"/>
+    <sheet name="gly_testC" sheetId="23" r:id="rId18"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId19"/>
@@ -32,13 +37,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="920">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2809,19 +2813,37 @@
     <t>[c] : 2pg &lt;==&gt; pep</t>
   </si>
   <si>
-    <t>[c] : g3p &lt;==&gt; 13dpg + h</t>
-  </si>
-  <si>
-    <t>ATPt</t>
-  </si>
-  <si>
-    <t>atp[c] &lt;==&gt; atp[e]</t>
-  </si>
-  <si>
-    <t>exATP</t>
-  </si>
-  <si>
-    <t>atp[e] &lt;==&gt;</t>
+    <t>pyr[e] &lt;==&gt; pyr[c]</t>
+  </si>
+  <si>
+    <t>ATPs</t>
+  </si>
+  <si>
+    <t>[c] : atp --&gt; adp</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6e-2,2e-1</t>
+  </si>
+  <si>
+    <t>[c] : atp + pyr &lt;==&gt; adp + pep + h</t>
+  </si>
+  <si>
+    <t>0.33,5,0.07,0.03,1</t>
+  </si>
+  <si>
+    <t>Htr</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad &lt;==&gt; 13dpg + h + nadh</t>
+  </si>
+  <si>
+    <t>4 h[e] + nad[c] &lt;==&gt; 5 h[c] + nadh[c]</t>
+  </si>
+  <si>
+    <t>1,4e-3,1,4e-3</t>
   </si>
 </sst>
 </file>
@@ -2988,6 +3010,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4540,7 +4565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4575,7 +4600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5169,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,7 +5554,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>121</v>
       </c>
@@ -18013,7 +18038,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18825,15 +18850,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
@@ -18992,6 +19017,9 @@
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E4" s="10">
         <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
@@ -19107,7 +19135,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>47</v>
@@ -19257,7 +19285,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>712</v>
+        <v>914</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="10">
         <v>-31.12</v>
@@ -19280,7 +19311,7 @@
         <v>2.7.1.40</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>692</v>
@@ -19297,10 +19328,7 @@
         <v>241</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -19316,7 +19344,7 @@
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="10" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -19349,50 +19377,130 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>152</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10">
-        <v>0</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="21">
-        <v>63.607356573910501</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>8.39</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1000</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="21">
-        <v>27.772223526897601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.903920993548109</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>913</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="21">
+        <v>30.903920993548109</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="F18" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="J18" s="10">
+        <v>200</v>
+      </c>
+      <c r="M18" s="21">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N18" s="14" t="str">
+        <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -19443,7 +19551,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="9">

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -30,19 +25,20 @@
     <sheet name="glc_testC" sheetId="21" r:id="rId16"/>
     <sheet name="gly_test" sheetId="22" r:id="rId17"/>
     <sheet name="gly_testC" sheetId="23" r:id="rId18"/>
+    <sheet name="red_test" sheetId="24" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="916">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2810,40 +2806,28 @@
     <t>h2o[e]</t>
   </si>
   <si>
-    <t>[c] : 2pg &lt;==&gt; pep</t>
-  </si>
-  <si>
-    <t>pyr[e] &lt;==&gt; pyr[c]</t>
-  </si>
-  <si>
     <t>ATPs</t>
   </si>
   <si>
-    <t>[c] : atp --&gt; adp</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>6e-2,2e-1</t>
-  </si>
-  <si>
     <t>[c] : atp + pyr &lt;==&gt; adp + pep + h</t>
   </si>
   <si>
     <t>0.33,5,0.07,0.03,1</t>
   </si>
   <si>
-    <t>Htr</t>
-  </si>
-  <si>
-    <t>[c] : g3p + nad &lt;==&gt; 13dpg + h + nadh</t>
-  </si>
-  <si>
-    <t>4 h[e] + nad[c] &lt;==&gt; 5 h[c] + nadh[c]</t>
-  </si>
-  <si>
-    <t>1,4e-3,1,4e-3</t>
+    <t>[c] : 2pg &lt;==&gt; pep + h2o</t>
+  </si>
+  <si>
+    <t>6e-2,1,2e-1,1,0.02</t>
+  </si>
+  <si>
+    <t>NADHt</t>
+  </si>
+  <si>
+    <t>[c] : nad &lt;==&gt; nadh</t>
+  </si>
+  <si>
+    <t>4e-3,4e-3</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +2949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2999,6 +2983,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4565,7 +4551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4600,7 +4586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5194,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D59" workbookViewId="0">
+      <selection sqref="A1:U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,6 +5189,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -5270,15 +5257,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
       <c r="C2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="10"/>
       <c r="E2" s="10">
         <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-9.1</v>
@@ -5289,13 +5274,12 @@
       <c r="G2" s="10">
         <v>0.9</v>
       </c>
-      <c r="H2" s="10"/>
       <c r="I2" s="23">
         <v>250</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
       <c r="M2" s="21">
         <v>20</v>
       </c>
@@ -5303,10 +5287,9 @@
         <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
       <c r="S2" s="10" t="s">
         <v>18</v>
       </c>
@@ -5317,15 +5300,13 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10"/>
       <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10"/>
       <c r="E3" s="10">
         <v>3.1320000000000001</v>
       </c>
@@ -5335,15 +5316,11 @@
       <c r="G3" s="10">
         <v>20.6</v>
       </c>
-      <c r="H3" s="10"/>
       <c r="I3" s="10">
         <v>120</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
       <c r="M3" s="21">
-        <v>1.37855905020609</v>
+        <v>11.639423575531699</v>
       </c>
       <c r="N3" s="14" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -5352,9 +5329,6 @@
       <c r="O3" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
       <c r="S3" s="10" t="s">
         <v>20</v>
       </c>
@@ -5365,15 +5339,16 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10"/>
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E4" s="10">
         <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
@@ -5384,13 +5359,12 @@
       <c r="G4" s="10">
         <v>21.4</v>
       </c>
-      <c r="H4" s="10"/>
       <c r="I4" s="10">
         <v>49</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
       <c r="M4" s="21">
         <v>11.639423575531699</v>
       </c>
@@ -5398,10 +5372,9 @@
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.11</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
       <c r="S4" s="10" t="s">
         <v>29</v>
       </c>
@@ -5742,15 +5715,16 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="10"/>
       <c r="C12" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>909</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="10">
         <v>-31.12</v>
       </c>
@@ -5761,13 +5735,8 @@
         <v>65.3</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>10.17</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10">
-        <v>0.97</v>
+      <c r="I12" s="10">
+        <v>2540</v>
       </c>
       <c r="M12" s="21">
         <v>-8.5077261088811902</v>
@@ -5776,10 +5745,9 @@
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>2.7.1.40</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>910</v>
+      </c>
       <c r="S12" s="10" t="s">
         <v>692</v>
       </c>
@@ -7024,7 +6992,7 @@
         <v>1.6.5.3</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -7526,30 +7494,24 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D53" s="10"/>
       <c r="E53" s="10">
         <f>VLOOKUP(A53,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
       <c r="I53" s="9">
-        <v>6.4799999999999998E-7</v>
+        <v>100</v>
       </c>
       <c r="J53" s="9">
-        <v>6.4799999999999998E-7</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+        <v>100</v>
+      </c>
       <c r="M53" s="21">
         <v>8.5514960440672301</v>
       </c>
@@ -7557,12 +7519,6 @@
       <c r="O53" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -7602,11 +7558,11 @@
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="26" t="s">
         <v>243</v>
       </c>
@@ -7616,30 +7572,19 @@
       <c r="E55" s="10">
         <v>0</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
       <c r="I55" s="23">
-        <v>1</v>
+        <v>2540</v>
       </c>
       <c r="J55" s="10">
-        <v>1</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+        <v>2540</v>
+      </c>
       <c r="M55" s="21">
-        <v>0</v>
+        <v>-8.5077261088811902</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
+        <v>899</v>
+      </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
@@ -18038,7 +17983,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18850,10 +18795,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19135,7 +19080,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>917</v>
+        <v>196</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>47</v>
@@ -19248,7 +19193,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E10" s="10">
         <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
@@ -19285,7 +19230,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>47</v>
@@ -19311,7 +19256,7 @@
         <v>2.7.1.40</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>692</v>
@@ -19324,11 +19269,12 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="26" t="s">
         <v>241</v>
       </c>
+      <c r="B12" s="33"/>
       <c r="C12" s="26" t="s">
-        <v>909</v>
+        <v>243</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -19344,13 +19290,14 @@
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="10" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="28" t="s">
         <v>299</v>
       </c>
+      <c r="B13" s="34"/>
       <c r="C13" s="28" t="s">
         <v>135</v>
       </c>
@@ -19363,9 +19310,10 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="28" t="s">
         <v>309</v>
       </c>
+      <c r="B14" s="34"/>
       <c r="C14" s="28" t="s">
         <v>690</v>
       </c>
@@ -19379,11 +19327,11 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="14" t="s">
-        <v>911</v>
+        <v>144</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10">
@@ -19405,7 +19353,7 @@
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -19415,12 +19363,12 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
+      <c r="A16" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -19443,65 +19391,255 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="F17" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="J17" s="10">
+        <v>200</v>
+      </c>
       <c r="M17" s="21">
-        <v>30.903920993548109</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="10">
+        <f>VLOOKUP(A18,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
+      <c r="J18" s="9">
+        <v>100</v>
+      </c>
+      <c r="M18" s="21">
+        <v>8.5514960440672301</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E20" s="10">
+        <f>VLOOKUP(A20,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
+      <c r="M20" s="21">
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29" t="s">
-        <v>918</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="B22" s="30"/>
+      <c r="C22" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F22" s="10">
         <v>24.2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G22" s="10">
         <v>122.4</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H22" s="9">
         <v>1.4000000000000001E-15</v>
       </c>
-      <c r="J18" s="10">
-        <v>200</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="J22" s="10">
+        <v>26</v>
+      </c>
+      <c r="M22" s="21">
         <v>-43.153531211344998</v>
       </c>
-      <c r="N18" s="14" t="str">
-        <f>VLOOKUP(A18,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+      <c r="N22" s="14" t="str">
+        <f>VLOOKUP(A22,[1]reactions!$A$1:$E$96,5,FALSE)</f>
         <v>1.6.5.3</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>919</v>
-      </c>
+      <c r="O22" s="10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-62.3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>42000</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2200</v>
+      </c>
+      <c r="M23" s="21">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="14" t="str">
+        <f>VLOOKUP(A23,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E24" s="10">
+        <f>VLOOKUP(A24,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I24" s="10">
+        <v>341</v>
+      </c>
+      <c r="J24" s="10">
+        <v>100</v>
+      </c>
+      <c r="M24" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="10">
+        <f>VLOOKUP(A25,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>23.3607558814812</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>-23.3607558814812</v>
+      </c>
+      <c r="N26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19513,7 +19651,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19559,7 +19697,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -19572,6 +19715,1495 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="23">
+        <v>250</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="21">
+        <v>20</v>
+      </c>
+      <c r="N2" s="14">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20.6</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>120</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="23">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>9000</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="22">
+        <v>-11.639423575531699</v>
+      </c>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>268</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="21">
+        <v>27.772223526897601</v>
+      </c>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>-10.51</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-19.2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
+        <v>654</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="21">
+        <v>-27.772223526897601</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-23.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
+        <v>530</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="21">
+        <v>-24.294625983764298</v>
+      </c>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>355.79</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="21">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-31.12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <v>2540</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="G12" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="M12" s="21">
+        <v>-21.922606910894501</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E13" s="10">
+        <f>VLOOKUP(A13,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-47.4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>15.7</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="str">
+        <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.10</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="G14" s="10">
+        <v>59.3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="I14" s="10">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="str">
+        <f>VLOOKUP(A14,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
+        <v>26</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="21">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N15" s="14" t="str">
+        <f>VLOOKUP(A15,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E16" s="10">
+        <f>VLOOKUP(A16,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="21">
+        <v>8.39</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>-62.3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>42000</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="21">
+        <v>-100</v>
+      </c>
+      <c r="N17" s="14" t="str">
+        <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <f>VLOOKUP(A18,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
+        <v>341</v>
+      </c>
+      <c r="J18" s="10">
+        <v>100</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <f>VLOOKUP(A19,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="21">
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <f>VLOOKUP(A20,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21">
+        <v>23.3607558814812</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <f>VLOOKUP(A21,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9">
+        <v>100</v>
+      </c>
+      <c r="J21" s="9">
+        <v>100</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21">
+        <v>8.5514960440672301</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2540</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E23" s="10">
+        <f>VLOOKUP(A23,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <f>VLOOKUP(A24,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="23">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="21">
+        <v>21.922606910894501</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <f>VLOOKUP(A25,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="21">
+        <v>21.922606910894501</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="21">
+        <v>-20</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="21">
+        <v>63.607356573910501</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="21">
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="21">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="21">
+        <v>-23.3607558814812</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="919">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2828,6 +2828,15 @@
   </si>
   <si>
     <t>4e-3,4e-3</t>
+  </si>
+  <si>
+    <t>Q8t</t>
+  </si>
+  <si>
+    <t>q8h2[c] --&gt; q8[c]</t>
+  </si>
+  <si>
+    <t>1,3.4e-6,42e-3,1,1,42e-3</t>
   </si>
 </sst>
 </file>
@@ -5180,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="D59" workbookViewId="0">
-      <selection sqref="A1:U83"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19725,13 +19734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20284,39 +20293,42 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="A12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="10">
-        <v>-16.399999999999999</v>
+        <v>24.2</v>
       </c>
       <c r="G12" s="10">
-        <v>51.5</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>122.4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>26</v>
+      </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="10">
-        <v>0.125</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="21">
-        <v>-21.922606910894501</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="O12" s="10"/>
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N12" s="14" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>900</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -20325,40 +20337,35 @@
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>133</v>
+      <c r="A13" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="15" t="s">
-        <v>132</v>
+      <c r="C13" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E13" s="10">
         <f>VLOOKUP(A13,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-47.4</v>
-      </c>
-      <c r="G13" s="10">
-        <v>49.2</v>
-      </c>
+        <v>-6.6</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10">
-        <v>15.7</v>
-      </c>
-      <c r="J13" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="21">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14" t="str">
-        <f>VLOOKUP(A13,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>1.2.1.10</v>
-      </c>
+        <v>8.39</v>
+      </c>
+      <c r="N13" s="14"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -20368,40 +20375,42 @@
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="15" t="s">
-        <v>275</v>
+      <c r="A14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
-        <v>-16.600000000000001</v>
+        <v>-62.3</v>
       </c>
       <c r="G14" s="10">
-        <v>59.3</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="9">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="I14" s="10">
-        <v>150.19999999999999</v>
-      </c>
-      <c r="J14" s="10"/>
+        <v>42000</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
+        <v>2200</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N14" s="14" t="str">
         <f>VLOOKUP(A14,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="O14" s="10"/>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>887</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -20410,41 +20419,35 @@
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="G15" s="10">
-        <v>122.4</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1.4000000000000001E-15</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="A15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <f>VLOOKUP(A15,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
       <c r="J15" s="10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="21">
-        <v>-43.153531211344998</v>
-      </c>
-      <c r="N15" s="14" t="str">
-        <f>VLOOKUP(A15,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>1.6.5.3</v>
-      </c>
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N15" s="14"/>
       <c r="O15" s="10" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -20455,23 +20458,21 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>885</v>
-      </c>
+      <c r="C16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10">
         <f>VLOOKUP(A16,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10">
+      <c r="I16" s="23">
         <v>1</v>
       </c>
       <c r="J16" s="10">
@@ -20480,10 +20481,12 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="21">
-        <v>8.39</v>
+        <v>23.3607558814812</v>
       </c>
       <c r="N16" s="14"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>889</v>
+      </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -20492,41 +20495,36 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>154</v>
+      <c r="A17" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>886</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
-        <v>-62.3</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="H17" s="9">
-        <v>42000</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>884</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="23">
+        <v>2540</v>
+      </c>
       <c r="J17" s="10">
-        <v>2200</v>
+        <v>2540</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="21">
-        <v>-100</v>
-      </c>
-      <c r="N17" s="14" t="str">
-        <f>VLOOKUP(A17,[1]reactions!$A$1:$E$96,5,FALSE)</f>
-        <v>3.6.3.14</v>
-      </c>
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N17" s="14"/>
       <c r="O17" s="10" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -20536,35 +20534,28 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>870</v>
+      <c r="A18" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <f>VLOOKUP(A18,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>-37.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10">
-        <v>341</v>
-      </c>
-      <c r="J18" s="10">
-        <v>100</v>
-      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="21">
-        <v>46.7215117629625</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -20575,35 +20566,28 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>559</v>
+        <v>309</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="26" t="s">
-        <v>561</v>
+      <c r="C19" s="28" t="s">
+        <v>690</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10">
-        <f>VLOOKUP(A19,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2</v>
-      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="21">
-        <v>-13.3040694607334</v>
+        <v>-20</v>
       </c>
       <c r="N19" s="14"/>
-      <c r="O19" s="10" t="s">
-        <v>896</v>
-      </c>
+      <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -20613,35 +20597,28 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="26" t="s">
-        <v>139</v>
+      <c r="C20" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10">
-        <f>VLOOKUP(A20,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="23">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="21">
-        <v>23.3607558814812</v>
+        <v>63.607356573910501</v>
       </c>
       <c r="N20" s="14"/>
-      <c r="O20" s="10" t="s">
-        <v>889</v>
-      </c>
+      <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -20650,36 +20627,29 @@
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="26" t="s">
-        <v>354</v>
+      <c r="A21" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10">
-        <f>VLOOKUP(A21,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="9">
-        <v>100</v>
-      </c>
-      <c r="J21" s="9">
-        <v>100</v>
-      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="21">
-        <v>8.5514960440672301</v>
+        <v>13.304069460733899</v>
       </c>
       <c r="N21" s="14"/>
-      <c r="O21" s="9" t="s">
-        <v>888</v>
-      </c>
+      <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -20688,37 +20658,29 @@
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>884</v>
-      </c>
+      <c r="A22" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10">
         <v>0</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="23">
-        <v>2540</v>
-      </c>
-      <c r="J22" s="10">
-        <v>2540</v>
-      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="21">
-        <v>-8.5077261088811902</v>
+        <v>-23.3607558814812</v>
       </c>
       <c r="N22" s="14"/>
-      <c r="O22" s="10" t="s">
-        <v>899</v>
-      </c>
+      <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -20726,369 +20688,32 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>884</v>
+    <row r="23" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>917</v>
       </c>
       <c r="E23" s="10">
-        <f>VLOOKUP(A23,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="23">
-        <v>1</v>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I23" s="10">
+        <v>469</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
       <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14"/>
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>703</v>
+      </c>
       <c r="O23" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10">
-        <f>VLOOKUP(A24,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="23">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="21">
-        <v>21.922606910894501</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
-        <f>VLOOKUP(A25,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="23">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="21">
-        <v>21.922606910894501</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="21">
-        <v>-20</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="21">
-        <v>63.607356573910501</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="21">
-        <v>13.304069460733899</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="21">
-        <v>-8.5514960440672301</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="21">
-        <v>-23.3607558814812</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
+        <v>918</v>
+      </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="6405" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,21 @@
     <sheet name="gly_test" sheetId="22" r:id="rId17"/>
     <sheet name="gly_testC" sheetId="23" r:id="rId18"/>
     <sheet name="red_test" sheetId="24" r:id="rId19"/>
+    <sheet name="red_testC" sheetId="25" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="921">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2830,10 +2832,16 @@
     <t>4e-3,4e-3</t>
   </si>
   <si>
-    <t>Q8t</t>
-  </si>
-  <si>
-    <t>q8h2[c] --&gt; q8[c]</t>
+    <t>0.05,1,1,0.05,1,0.45</t>
+  </si>
+  <si>
+    <t>atp[c] + 3 h[c] &lt;==&gt; adp[c] + 4 h[e] + pi[c]</t>
+  </si>
+  <si>
+    <t>0.05,1e-6,0.05,1e-6,0.45</t>
+  </si>
+  <si>
+    <t>h[c], h[e]</t>
   </si>
   <si>
     <t>1,3.4e-6,42e-3,1,1,42e-3</t>
@@ -3004,9 +3012,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5189,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6966,7 +6971,7 @@
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>142</v>
       </c>
@@ -6977,7 +6982,6 @@
       <c r="D40" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="E40" s="10"/>
       <c r="F40" s="10">
         <v>24.2</v>
       </c>
@@ -6987,12 +6991,9 @@
       <c r="H40" s="9">
         <v>1.4000000000000001E-15</v>
       </c>
-      <c r="I40" s="10"/>
       <c r="J40" s="10">
         <v>26</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
       <c r="M40" s="21">
         <v>-43.153531211344998</v>
       </c>
@@ -7003,12 +7004,6 @@
       <c r="O40" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
@@ -7172,18 +7167,17 @@
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
-        <v>154</v>
+        <v>917</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="E45" s="10"/>
       <c r="F45" s="10">
         <v>-62.3</v>
       </c>
@@ -7193,12 +7187,9 @@
       <c r="H45" s="9">
         <v>42000</v>
       </c>
-      <c r="I45" s="10"/>
       <c r="J45" s="10">
         <v>2200</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
       <c r="M45" s="21">
         <v>-100</v>
       </c>
@@ -7207,16 +7198,10 @@
         <v>3.6.3.14</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>140</v>
       </c>
@@ -7224,35 +7209,28 @@
       <c r="C46" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>919</v>
+      </c>
       <c r="E46" s="10">
         <f>VLOOKUP(A46,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
       <c r="I46" s="10">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="J46" s="10">
-        <v>100</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+        <v>0</v>
+      </c>
       <c r="M46" s="21">
         <v>46.7215117629625</v>
       </c>
       <c r="N46" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
+      <c r="O46" s="10" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -17992,7 +17970,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18806,8 +18784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19735,7 +19713,7 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:U23"/>
+      <selection sqref="A1:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20315,7 +20293,7 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -20380,11 +20358,9 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>886</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
         <v>-62.3</v>
@@ -20409,7 +20385,7 @@
         <v>3.6.3.14</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -20418,51 +20394,44 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="D15" s="10"/>
+    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>884</v>
+      </c>
       <c r="E15" s="10">
         <f>VLOOKUP(A15,ecoli_core!$A$2:$I$84,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>-37.200000000000003</v>
+      </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="J15" s="10">
-        <v>2</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="21">
-        <v>-13.3040694607334</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>703</v>
+      </c>
       <c r="O15" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
+        <v>920</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>359</v>
+        <v>559</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="26" t="s">
-        <v>139</v>
+        <v>561</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10">
@@ -20472,20 +20441,20 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="23">
+      <c r="I16" s="10">
         <v>1</v>
       </c>
       <c r="J16" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="21">
-        <v>23.3607558814812</v>
+        <v>-13.3040694607334</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="10" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -20495,36 +20464,35 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="33"/>
+      <c r="A17" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>884</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="10">
+        <f>VLOOKUP(A17,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="23">
-        <v>2540</v>
+        <v>1</v>
       </c>
       <c r="J17" s="10">
-        <v>2540</v>
+        <v>0</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="21">
-        <v>-8.5077261088811902</v>
+        <v>23.3607558814812</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="10" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -20534,29 +20502,36 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="28" t="s">
-        <v>135</v>
+      <c r="A18" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="26" t="s">
+        <v>354</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
+        <f>VLOOKUP(A18,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
+      <c r="J18" s="9">
+        <v>100</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="21">
-        <v>0</v>
+        <v>8.5514960440672301</v>
       </c>
       <c r="N18" s="14"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="9" t="s">
+        <v>888</v>
+      </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -20565,29 +20540,37 @@
       <c r="U18" s="10"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="A19" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>884</v>
+      </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2540</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="21">
-        <v>-20</v>
+        <v>-8.5077261088811902</v>
       </c>
       <c r="N19" s="14"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>899</v>
+      </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -20597,11 +20580,11 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="28" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10">
@@ -20615,7 +20598,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="21">
-        <v>63.607356573910501</v>
+        <v>0</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="10"/>
@@ -20628,11 +20611,11 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="28" t="s">
-        <v>153</v>
+        <v>690</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10">
@@ -20646,7 +20629,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="21">
-        <v>13.304069460733899</v>
+        <v>-20</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="10"/>
@@ -20659,11 +20642,11 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="28" t="s">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10">
@@ -20677,7 +20660,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="21">
-        <v>-23.3607558814812</v>
+        <v>63.607356573910501</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="10"/>
@@ -20688,124 +20671,98 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>916</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31" t="s">
-        <v>917</v>
-      </c>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="10">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="I23" s="10">
-        <v>469</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="21">
-        <v>46.7215117629625</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="21">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="21">
+        <v>-23.3607558814812</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
@@ -21147,6 +21104,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="921">
   <si>
     <t>Enzymes</t>
   </si>
@@ -5194,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19894,9 +19894,7 @@
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10">
         <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-3.8</v>
@@ -20040,9 +20038,7 @@
       <c r="C7" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>876</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10">
         <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
         <v>-0.1</v>
@@ -20228,9 +20224,7 @@
       <c r="C11" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10">
         <v>-31.12</v>
       </c>
@@ -20278,9 +20272,7 @@
       <c r="C12" s="29" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>884</v>
-      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10">
         <v>24.2</v>
@@ -20360,7 +20352,9 @@
       <c r="C14" s="31" t="s">
         <v>917</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>884</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
         <v>-62.3</v>
@@ -20401,9 +20395,6 @@
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="s">
         <v>870</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>884</v>
       </c>
       <c r="E15" s="10">
         <f>VLOOKUP(A15,ecoli_core!$A$2:$I$84,6,FALSE)</f>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -20,22 +25,20 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId14"/>
-    <sheet name="glc_test" sheetId="20" r:id="rId15"/>
-    <sheet name="glc_testC" sheetId="21" r:id="rId16"/>
-    <sheet name="gly_test" sheetId="22" r:id="rId17"/>
-    <sheet name="gly_testC" sheetId="23" r:id="rId18"/>
-    <sheet name="red_test" sheetId="24" r:id="rId19"/>
-    <sheet name="red_testC" sheetId="25" r:id="rId20"/>
+    <sheet name="glc_test" sheetId="20" r:id="rId14"/>
+    <sheet name="glc_testC" sheetId="21" r:id="rId15"/>
+    <sheet name="gly_test" sheetId="22" r:id="rId16"/>
+    <sheet name="gly_testC" sheetId="23" r:id="rId17"/>
+    <sheet name="red_test" sheetId="24" r:id="rId18"/>
+    <sheet name="red_testC" sheetId="25" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3013,6 +3016,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4565,7 +4571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4600,7 +4606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5194,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8543,7 +8549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11561,7 +11567,7 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H29"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17955,18 +17961,6 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18657,7 +18651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -18780,7 +18774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
@@ -19633,7 +19627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -19708,12 +19702,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:U25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20365,9 +20359,11 @@
       <c r="H14" s="9">
         <v>42000</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10">
-        <v>2200</v>
+      <c r="I14" s="9">
+        <v>2160</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5130</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -20783,6 +20779,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
@@ -21095,53 +21138,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -31,19 +26,20 @@
     <sheet name="gly_testC" sheetId="23" r:id="rId17"/>
     <sheet name="red_test" sheetId="24" r:id="rId18"/>
     <sheet name="red_testC" sheetId="25" r:id="rId19"/>
+    <sheet name="red_test2" sheetId="26" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="926">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2848,6 +2844,21 @@
   </si>
   <si>
     <t>1,3.4e-6,42e-3,1,1,42e-3</t>
+  </si>
+  <si>
+    <t>0.05,1,0.05,1,0.45</t>
+  </si>
+  <si>
+    <t>Mc (M)</t>
+  </si>
+  <si>
+    <t>o2[e]</t>
+  </si>
+  <si>
+    <t>6 h[c] + q8h2[c] --&gt; 6 h[e] + q8[c]</t>
+  </si>
+  <si>
+    <t>1,42e-3,1,42e-3</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +4582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4606,7 +4617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19706,8 +19717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C12:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19810,7 +19821,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="21">
-        <v>20</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="N2" s="14">
         <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -19858,7 +19869,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="21">
-        <v>11.639423575531699</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="N3" s="14" t="str">
         <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -19909,7 +19920,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="21">
-        <v>11.639423575531699</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="N4" s="14" t="str">
         <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -19958,7 +19969,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="21">
-        <v>11.639423575531699</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="N5" s="14" t="str">
         <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20004,7 +20015,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="22">
-        <v>-11.639423575531699</v>
+        <v>-14.285714285714301</v>
       </c>
       <c r="N6" s="14" t="str">
         <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20051,7 +20062,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="21">
-        <v>27.772223526897601</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="N7" s="14" t="str">
         <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20097,7 +20108,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="21">
-        <v>-27.772223526897601</v>
+        <v>-28.571428571428601</v>
       </c>
       <c r="N8" s="14" t="str">
         <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20143,7 +20154,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="21">
-        <v>-24.294625983764298</v>
+        <v>-28.571428571428601</v>
       </c>
       <c r="N9" s="14" t="str">
         <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20190,7 +20201,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="21">
-        <v>24.294625983764298</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="N10" s="14" t="str">
         <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20236,7 +20247,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="21">
-        <v>-8.5077261088811902</v>
+        <v>-14.285714285714301</v>
       </c>
       <c r="N11" s="14" t="str">
         <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20284,7 +20295,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="21">
-        <v>-43.153531211344998</v>
+        <v>-28.571428571428601</v>
       </c>
       <c r="N12" s="14" t="str">
         <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20318,8 +20329,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10">
-        <v>1</v>
+      <c r="I13" s="9">
+        <v>2160</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -20327,10 +20338,12 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="21">
-        <v>8.39</v>
+        <v>100</v>
       </c>
       <c r="N13" s="14"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>921</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -20368,7 +20381,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="21">
-        <v>-100</v>
+        <v>-71.428571428571402</v>
       </c>
       <c r="N14" s="14" t="str">
         <f>VLOOKUP(A14,[1]reactions!$A$1:$E$96,5,FALSE)</f>
@@ -20403,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="21">
-        <v>46.7215117629625</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>703</v>
@@ -20432,12 +20445,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="21">
-        <v>-13.3040694607334</v>
+        <v>42.857142857142897</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="10" t="s">
@@ -20475,7 +20488,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="21">
-        <v>23.3607558814812</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="10" t="s">
@@ -20513,7 +20526,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="21">
-        <v>8.5514960440672301</v>
+        <v>0</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="9" t="s">
@@ -20552,7 +20565,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="21">
-        <v>-8.5077261088811902</v>
+        <v>-28.571428571428601</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="10" t="s">
@@ -20585,7 +20598,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="21">
-        <v>0</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="10"/>
@@ -20616,7 +20629,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="21">
-        <v>-20</v>
+        <v>-14.285714285714301</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="10"/>
@@ -20647,7 +20660,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="21">
-        <v>63.607356573910501</v>
+        <v>28.571428571428601</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="10"/>
@@ -20678,7 +20691,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="21">
-        <v>13.304069460733899</v>
+        <v>-42.857142857142897</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="10"/>
@@ -20709,7 +20722,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="21">
-        <v>-8.5514960440672301</v>
+        <v>0</v>
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="10"/>
@@ -20740,7 +20753,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="21">
-        <v>-23.3607558814812</v>
+        <v>-14.285714285714301</v>
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="10"/>
@@ -20776,15 +20789,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20794,7 +20808,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -20821,8 +20835,33 @@
         <v>1E-4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21138,6 +21177,825 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="23">
+        <v>250</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="N2" s="14">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20.6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>120</v>
+      </c>
+      <c r="M3" s="21">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="M5" s="21">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>9000</v>
+      </c>
+      <c r="M6" s="22">
+        <v>-14.285714285714301</v>
+      </c>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>268</v>
+      </c>
+      <c r="M7" s="21">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-10.51</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-19.2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="J8" s="10">
+        <v>654</v>
+      </c>
+      <c r="M8" s="21">
+        <v>-28.571428571428601</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-23.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="J9" s="10">
+        <v>530</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-28.571428571428601</v>
+      </c>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="I10" s="10">
+        <v>355.79</v>
+      </c>
+      <c r="M10" s="21">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-31.12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M11" s="21">
+        <v>-14.285714285714301</v>
+      </c>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="F12" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="J12" s="10">
+        <v>200</v>
+      </c>
+      <c r="M12" s="21">
+        <v>-28.571428571428601</v>
+      </c>
+      <c r="N12" s="14" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E13" s="10">
+        <f>VLOOKUP(A13,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2160</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>100</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
+        <v>917</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-62.3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>42000</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2160</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5130</v>
+      </c>
+      <c r="M14" s="21">
+        <v>-71.428571428571402</v>
+      </c>
+      <c r="N14" s="14" t="str">
+        <f>VLOOKUP(A14,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E15" s="10">
+        <f>VLOOKUP(A15,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21">
+        <v>42.857142857142897</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="10">
+        <f>VLOOKUP(A16,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>100</v>
+      </c>
+      <c r="J16" s="9">
+        <v>100</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2540</v>
+      </c>
+      <c r="M17" s="21">
+        <v>-28.571428571428601</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>-14.285714285714301</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21">
+        <v>-42.857142857142897</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="E23" s="10">
+        <f>VLOOKUP(A23,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I23" s="10">
+        <v>469</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -34,12 +39,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="926">
   <si>
     <t>Enzymes</t>
   </si>
@@ -4582,7 +4587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4617,7 +4622,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5211,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20795,10 +20800,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20857,6 +20862,22 @@
       </c>
       <c r="B7" s="9">
         <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7.9999999999999996E-7</v>
       </c>
     </row>
   </sheetData>
@@ -21184,13 +21205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="15" max="15" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="9" activeTab="19"/>
   </bookViews>
@@ -39,12 +34,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="928">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2864,6 +2859,12 @@
   </si>
   <si>
     <t>1,42e-3,1,42e-3</t>
+  </si>
+  <si>
+    <t>5 h[c] + nadh[c] + q8[c] &lt;==&gt; 4 h[e] + nad[c] + q8h2[c]</t>
+  </si>
+  <si>
+    <t>adp[c] + 4 h[e] + pi[c] &lt;==&gt; atp[c] + 3 h[c]</t>
   </si>
 </sst>
 </file>
@@ -4587,7 +4588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4622,7 +4623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5216,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6999,7 +7000,7 @@
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="29" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>884</v>
@@ -7011,7 +7012,7 @@
         <v>122.4</v>
       </c>
       <c r="H40" s="9">
-        <v>1.4000000000000001E-15</v>
+        <v>714300000000000</v>
       </c>
       <c r="J40" s="10">
         <v>26</v>
@@ -7195,7 +7196,7 @@
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>886</v>
@@ -7207,7 +7208,7 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="9">
-        <v>42000</v>
+        <v>2.3810000000000001E-5</v>
       </c>
       <c r="J45" s="10">
         <v>2200</v>
@@ -21205,8 +21206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21672,7 +21673,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="29" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="F12" s="10">
         <v>24.2</v>
@@ -21681,7 +21682,7 @@
         <v>122.4</v>
       </c>
       <c r="H12" s="9">
-        <v>1.4000000000000001E-15</v>
+        <v>714300000000000</v>
       </c>
       <c r="J12" s="10">
         <v>200</v>
@@ -21731,10 +21732,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>884</v>
+        <v>927</v>
       </c>
       <c r="F14" s="10">
         <v>-62.3</v>
@@ -21743,7 +21741,7 @@
         <v>1.5</v>
       </c>
       <c r="H14" s="9">
-        <v>42000</v>
+        <v>2.3810000000000001E-5</v>
       </c>
       <c r="I14" s="9">
         <v>2160</v>

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -31,19 +26,20 @@
     <sheet name="gly_testC" sheetId="23" r:id="rId17"/>
     <sheet name="red_test" sheetId="24" r:id="rId18"/>
     <sheet name="red_testC" sheetId="25" r:id="rId19"/>
+    <sheet name="red_test2" sheetId="26" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$J$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="923">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2848,6 +2844,12 @@
   </si>
   <si>
     <t>1,3.4e-6,42e-3,1,1,42e-3</t>
+  </si>
+  <si>
+    <t>adp[c] + 4 h[e] + pi[c] &lt;==&gt; atp[c] + 3 h[c]</t>
+  </si>
+  <si>
+    <t>5 h[c] + nadh[c] + q8[c] &lt;==&gt; 4 h[e] + nad[c] + q8h2[c]</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +4573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4606,7 +4608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19706,8 +19708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C12:C15"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection sqref="A1:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21138,6 +21140,1071 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <f>VLOOKUP(A2,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-9.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="23">
+        <v>250</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="21">
+        <v>20</v>
+      </c>
+      <c r="N2" s="14">
+        <f>VLOOKUP(A2,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>20.6</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>120</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N3" s="14" t="str">
+        <f>VLOOKUP(A3,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.9</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3.48</v>
+      </c>
+      <c r="U3" s="10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <f>VLOOKUP(A4,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-3.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-53.9</v>
+      </c>
+      <c r="G4" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N4" s="14" t="str">
+        <f>VLOOKUP(A4,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <f>VLOOKUP(A5,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>27.1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="21">
+        <v>11.639423575531699</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f>VLOOKUP(A5,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.1.2.13</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="23">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>9000</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="22">
+        <v>-11.639423575531699</v>
+      </c>
+      <c r="N6" s="14" t="str">
+        <f>VLOOKUP(A6,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.3.1.1</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <f>VLOOKUP(A7,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>268</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="21">
+        <v>27.772223526897601</v>
+      </c>
+      <c r="N7" s="14" t="str">
+        <f>VLOOKUP(A7,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.2.1.12</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="U7" s="10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>-10.51</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-19.2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
+        <v>654</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="21">
+        <v>-27.772223526897601</v>
+      </c>
+      <c r="N8" s="14" t="str">
+        <f>VLOOKUP(A8,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.2.3</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-23.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
+        <v>530</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="21">
+        <v>-24.294625983764298</v>
+      </c>
+      <c r="N9" s="14" t="str">
+        <f>VLOOKUP(A9,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>5.4.2.1</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <f>VLOOKUP(A10,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="G10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>355.79</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="21">
+        <v>24.294625983764298</v>
+      </c>
+      <c r="N10" s="14" t="str">
+        <f>VLOOKUP(A10,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>4.2.1.11</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>-31.12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-10.8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <v>2540</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N11" s="14" t="str">
+        <f>VLOOKUP(A11,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>2.7.1.40</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>24.2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>714300000000000</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>200</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="21">
+        <v>-43.153531211344998</v>
+      </c>
+      <c r="N12" s="14" t="str">
+        <f>VLOOKUP(A12,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>1.6.5.3</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E13" s="10">
+        <f>VLOOKUP(A13,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-6.6</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="21">
+        <v>8.39</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
+        <v>921</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>-62.3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2.3810000000000001E-5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2160</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5130</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="21">
+        <v>-100</v>
+      </c>
+      <c r="N14" s="14" t="str">
+        <f>VLOOKUP(A14,[1]reactions!$A$1:$E$96,5,FALSE)</f>
+        <v>3.6.3.14</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <f>VLOOKUP(A15,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>469</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="21">
+        <v>46.7215117629625</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <f>VLOOKUP(A16,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="21">
+        <v>-13.3040694607334</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <f>VLOOKUP(A17,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="21">
+        <v>23.3607558814812</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <f>VLOOKUP(A18,ecoli_core!$A$2:$I$84,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
+      <c r="J18" s="9">
+        <v>100</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="21">
+        <v>8.5514960440672301</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="23">
+        <v>2540</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2540</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="21">
+        <v>-8.5077261088811902</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21">
+        <v>-20</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="21">
+        <v>63.607356573910501</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="21">
+        <v>13.304069460733899</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="21">
+        <v>-8.5514960440672301</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="21">
+        <v>-23.3607558814812</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KineticModel/ecoli_test.xlsx
+++ b/KineticModel/ecoli_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="6345" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="1320" windowWidth="18195" windowHeight="6285" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ecoliT1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="926">
   <si>
     <t>Enzymes</t>
   </si>
@@ -2850,6 +2850,15 @@
   </si>
   <si>
     <t>5 h[c] + nadh[c] + q8[c] &lt;==&gt; 4 h[e] + nad[c] + q8h2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[e] </t>
+  </si>
+  <si>
+    <t>o2[e]</t>
+  </si>
+  <si>
+    <t>o2[c]</t>
   </si>
 </sst>
 </file>
@@ -20783,11 +20792,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -20822,6 +20829,41 @@
       <c r="B4" s="9">
         <v>1E-4</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21147,7 +21189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
